--- a/BackTest/2020-01-19 BackTest ELF.xlsx
+++ b/BackTest/2020-01-19 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M131"/>
+  <dimension ref="A1:M132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="C2" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="D2" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="E2" t="n">
-        <v>69.3</v>
+        <v>69.2</v>
       </c>
       <c r="F2" t="n">
-        <v>295.0495</v>
+        <v>1023.8023</v>
       </c>
       <c r="G2" t="n">
-        <v>70.60499999999993</v>
+        <v>70.64949999999993</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>69.09999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="C3" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="D3" t="n">
-        <v>69.09999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="E3" t="n">
-        <v>69</v>
+        <v>69.3</v>
       </c>
       <c r="F3" t="n">
-        <v>2465</v>
+        <v>295.0495</v>
       </c>
       <c r="G3" t="n">
-        <v>70.55516666666659</v>
+        <v>70.60499999999993</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>68.61</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>68.52</v>
+        <v>69</v>
       </c>
       <c r="D4" t="n">
-        <v>68.61</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>68.52</v>
+        <v>69</v>
       </c>
       <c r="F4" t="n">
-        <v>12450.8832</v>
+        <v>2465</v>
       </c>
       <c r="G4" t="n">
-        <v>70.49549999999994</v>
+        <v>70.55516666666659</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>68.61</v>
+      </c>
+      <c r="C5" t="n">
         <v>68.52</v>
       </c>
-      <c r="C5" t="n">
-        <v>68.18000000000001</v>
-      </c>
       <c r="D5" t="n">
+        <v>68.61</v>
+      </c>
+      <c r="E5" t="n">
         <v>68.52</v>
       </c>
-      <c r="E5" t="n">
-        <v>68.18000000000001</v>
-      </c>
       <c r="F5" t="n">
-        <v>6590</v>
+        <v>12450.8832</v>
       </c>
       <c r="G5" t="n">
-        <v>70.42933333333328</v>
+        <v>70.49549999999994</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>68.52</v>
+      </c>
+      <c r="C6" t="n">
         <v>68.18000000000001</v>
       </c>
-      <c r="C6" t="n">
-        <v>68</v>
-      </c>
       <c r="D6" t="n">
+        <v>68.52</v>
+      </c>
+      <c r="E6" t="n">
         <v>68.18000000000001</v>
       </c>
-      <c r="E6" t="n">
-        <v>68</v>
-      </c>
       <c r="F6" t="n">
-        <v>268.8519</v>
+        <v>6590</v>
       </c>
       <c r="G6" t="n">
-        <v>70.36283333333328</v>
+        <v>70.42933333333328</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>68</v>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="E7" t="n">
         <v>68</v>
       </c>
       <c r="F7" t="n">
-        <v>487</v>
+        <v>268.8519</v>
       </c>
       <c r="G7" t="n">
-        <v>70.29633333333328</v>
+        <v>70.36283333333328</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>68</v>
       </c>
       <c r="F8" t="n">
-        <v>118019.9141</v>
+        <v>487</v>
       </c>
       <c r="G8" t="n">
-        <v>70.24516666666662</v>
+        <v>70.29633333333328</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>68</v>
       </c>
       <c r="F9" t="n">
-        <v>29038.6956</v>
+        <v>118019.9141</v>
       </c>
       <c r="G9" t="n">
-        <v>70.18199999999996</v>
+        <v>70.24516666666662</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="D10" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="E10" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="F10" t="n">
-        <v>1801.8312</v>
+        <v>29038.6956</v>
       </c>
       <c r="G10" t="n">
-        <v>70.1358333333333</v>
+        <v>70.18199999999996</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.98</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>67.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>67.98</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>67.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>19757.2138</v>
+        <v>1801.8312</v>
       </c>
       <c r="G11" t="n">
-        <v>70.0693333333333</v>
+        <v>70.1358333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67.90000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="C12" t="n">
-        <v>67.90000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>67.90000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="E12" t="n">
-        <v>67.90000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>3060.4219</v>
+        <v>19757.2138</v>
       </c>
       <c r="G12" t="n">
-        <v>70.02599999999997</v>
+        <v>70.0693333333333</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.91</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>67.91</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>67.91</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>67.91</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>1214.236</v>
+        <v>3060.4219</v>
       </c>
       <c r="G13" t="n">
-        <v>69.9813333333333</v>
+        <v>70.02599999999997</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.37</v>
+        <v>67.91</v>
       </c>
       <c r="C14" t="n">
-        <v>67.37</v>
+        <v>67.91</v>
       </c>
       <c r="D14" t="n">
-        <v>67.37</v>
+        <v>67.91</v>
       </c>
       <c r="E14" t="n">
-        <v>67.37</v>
+        <v>67.91</v>
       </c>
       <c r="F14" t="n">
-        <v>23000</v>
+        <v>1214.236</v>
       </c>
       <c r="G14" t="n">
-        <v>69.92283333333329</v>
+        <v>69.9813333333333</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.40000000000001</v>
+        <v>67.37</v>
       </c>
       <c r="C15" t="n">
-        <v>67.40000000000001</v>
+        <v>67.37</v>
       </c>
       <c r="D15" t="n">
-        <v>67.40000000000001</v>
+        <v>67.37</v>
       </c>
       <c r="E15" t="n">
-        <v>67.40000000000001</v>
+        <v>67.37</v>
       </c>
       <c r="F15" t="n">
-        <v>2571</v>
+        <v>23000</v>
       </c>
       <c r="G15" t="n">
-        <v>69.87433333333327</v>
+        <v>69.92283333333329</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>67.40000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>7200.8561</v>
+        <v>2571</v>
       </c>
       <c r="G16" t="n">
-        <v>69.81949999999993</v>
+        <v>69.87433333333327</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67.45</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>67.45999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>67.45999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>67.45</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>23000</v>
+        <v>7200.8561</v>
       </c>
       <c r="G17" t="n">
-        <v>69.76566666666662</v>
+        <v>69.81949999999993</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,35 +993,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67.89</v>
+        <v>67.45</v>
       </c>
       <c r="C18" t="n">
-        <v>67.89</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>67.89</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>67.89</v>
+        <v>67.45</v>
       </c>
       <c r="F18" t="n">
-        <v>1191.6675</v>
+        <v>23000</v>
       </c>
       <c r="G18" t="n">
-        <v>69.71566666666662</v>
+        <v>69.76566666666662</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="K18" t="n">
-        <v>67.45999999999999</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1035,37 +1031,29 @@
         <v>67.89</v>
       </c>
       <c r="C19" t="n">
-        <v>67.09999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="D19" t="n">
         <v>67.89</v>
       </c>
       <c r="E19" t="n">
-        <v>67.09999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="F19" t="n">
-        <v>3431.2739</v>
+        <v>1191.6675</v>
       </c>
       <c r="G19" t="n">
-        <v>69.65116666666661</v>
+        <v>69.71566666666662</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>67.89</v>
-      </c>
-      <c r="K19" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1075,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67.43000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="C20" t="n">
-        <v>67.43000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>67.43000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="E20" t="n">
-        <v>67.43000000000001</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>42441.1862</v>
+        <v>3431.2739</v>
       </c>
       <c r="G20" t="n">
-        <v>69.59216666666661</v>
+        <v>69.65116666666661</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1099,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1116,40 +1098,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>67.89</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>68.01000000000001</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>68.01000000000001</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>67.89</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>14706.43548263491</v>
+        <v>42441.1862</v>
       </c>
       <c r="G21" t="n">
-        <v>69.54283333333328</v>
+        <v>69.59216666666661</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>67.43000000000001</v>
-      </c>
-      <c r="K21" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1159,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>67.98</v>
+        <v>67.89</v>
       </c>
       <c r="C22" t="n">
-        <v>67.98</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>67.98</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>67.98</v>
+        <v>67.89</v>
       </c>
       <c r="F22" t="n">
-        <v>2425.2513</v>
+        <v>14706.43548263491</v>
       </c>
       <c r="G22" t="n">
-        <v>69.49249999999994</v>
+        <v>69.54283333333328</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1183,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1200,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67.5</v>
+        <v>67.98</v>
       </c>
       <c r="C23" t="n">
-        <v>67.5</v>
+        <v>67.98</v>
       </c>
       <c r="D23" t="n">
-        <v>67.5</v>
+        <v>67.98</v>
       </c>
       <c r="E23" t="n">
-        <v>67.5</v>
+        <v>67.98</v>
       </c>
       <c r="F23" t="n">
-        <v>6317.2949</v>
+        <v>2425.2513</v>
       </c>
       <c r="G23" t="n">
-        <v>69.43416666666661</v>
+        <v>69.49249999999994</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1224,14 +1192,8 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1244,19 +1206,19 @@
         <v>67.5</v>
       </c>
       <c r="C24" t="n">
-        <v>67.36</v>
+        <v>67.5</v>
       </c>
       <c r="D24" t="n">
         <v>67.5</v>
       </c>
       <c r="E24" t="n">
-        <v>67.36</v>
+        <v>67.5</v>
       </c>
       <c r="F24" t="n">
-        <v>5586.1539</v>
+        <v>6317.2949</v>
       </c>
       <c r="G24" t="n">
-        <v>69.37349999999994</v>
+        <v>69.43416666666661</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1265,14 +1227,8 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1282,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.97</v>
+        <v>67.5</v>
       </c>
       <c r="C25" t="n">
-        <v>68</v>
+        <v>67.36</v>
       </c>
       <c r="D25" t="n">
-        <v>68</v>
+        <v>67.5</v>
       </c>
       <c r="E25" t="n">
-        <v>67.97</v>
+        <v>67.36</v>
       </c>
       <c r="F25" t="n">
-        <v>3800</v>
+        <v>5586.1539</v>
       </c>
       <c r="G25" t="n">
-        <v>69.32349999999994</v>
+        <v>69.37349999999994</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1306,14 +1262,8 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1323,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>68.09999999999999</v>
+        <v>67.97</v>
       </c>
       <c r="C26" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="D26" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="E26" t="n">
-        <v>68.09999999999999</v>
+        <v>67.97</v>
       </c>
       <c r="F26" t="n">
-        <v>1315.7759</v>
+        <v>3800</v>
       </c>
       <c r="G26" t="n">
-        <v>69.27516666666661</v>
+        <v>69.32349999999994</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1347,14 +1297,8 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1364,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>68.02</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C27" t="n">
-        <v>68.02</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>68.02</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>68.02</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>2413.4214</v>
+        <v>1315.7759</v>
       </c>
       <c r="G27" t="n">
-        <v>69.22549999999995</v>
+        <v>69.27516666666661</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1388,14 +1332,8 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1417,10 +1355,10 @@
         <v>68.02</v>
       </c>
       <c r="F28" t="n">
-        <v>991.3283</v>
+        <v>2413.4214</v>
       </c>
       <c r="G28" t="n">
-        <v>69.17583333333329</v>
+        <v>69.22549999999995</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1429,14 +1367,8 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1458,10 +1390,10 @@
         <v>68.02</v>
       </c>
       <c r="F29" t="n">
-        <v>462.476</v>
+        <v>991.3283</v>
       </c>
       <c r="G29" t="n">
-        <v>69.12616666666663</v>
+        <v>69.17583333333329</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1470,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1499,10 +1425,10 @@
         <v>68.02</v>
       </c>
       <c r="F30" t="n">
-        <v>517.0488</v>
+        <v>462.476</v>
       </c>
       <c r="G30" t="n">
-        <v>69.07699999999997</v>
+        <v>69.12616666666663</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1511,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1540,10 +1460,10 @@
         <v>68.02</v>
       </c>
       <c r="F31" t="n">
-        <v>897.7068</v>
+        <v>517.0488</v>
       </c>
       <c r="G31" t="n">
-        <v>69.0273333333333</v>
+        <v>69.07699999999997</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1552,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1572,19 +1486,19 @@
         <v>68.02</v>
       </c>
       <c r="C32" t="n">
-        <v>68.01000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="D32" t="n">
         <v>68.02</v>
       </c>
       <c r="E32" t="n">
-        <v>68.01000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="F32" t="n">
-        <v>11501.8641</v>
+        <v>897.7068</v>
       </c>
       <c r="G32" t="n">
-        <v>68.96566666666665</v>
+        <v>69.0273333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1593,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1610,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>68.01000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="C33" t="n">
         <v>68.01000000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>68.01000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="E33" t="n">
         <v>68.01000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>833.9897999999999</v>
+        <v>11501.8641</v>
       </c>
       <c r="G33" t="n">
-        <v>68.89933333333332</v>
+        <v>68.96566666666665</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1634,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1663,10 +1565,10 @@
         <v>68.01000000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>621</v>
+        <v>833.9897999999999</v>
       </c>
       <c r="G34" t="n">
-        <v>68.83083333333333</v>
+        <v>68.89933333333332</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1675,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1704,10 +1600,10 @@
         <v>68.01000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>873.3149</v>
+        <v>621</v>
       </c>
       <c r="G35" t="n">
-        <v>68.76233333333333</v>
+        <v>68.83083333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1716,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1745,26 +1635,24 @@
         <v>68.01000000000001</v>
       </c>
       <c r="F36" t="n">
-        <v>1905.277</v>
+        <v>873.3149</v>
       </c>
       <c r="G36" t="n">
-        <v>68.69383333333333</v>
+        <v>68.76233333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>68.01000000000001</v>
+      </c>
       <c r="K36" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>68.01000000000001</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1774,22 +1662,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68.38</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>68.38</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>68.38</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>68.38</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>88.46680000000001</v>
+        <v>1905.277</v>
       </c>
       <c r="G37" t="n">
-        <v>68.63366666666667</v>
+        <v>68.69383333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1799,11 +1687,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>67.45999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M37" t="n">
@@ -1827,24 +1715,26 @@
         <v>68.38</v>
       </c>
       <c r="F38" t="n">
-        <v>996.1002</v>
+        <v>88.46680000000001</v>
       </c>
       <c r="G38" t="n">
-        <v>68.57350000000001</v>
+        <v>68.63366666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>68.01000000000001</v>
+      </c>
       <c r="K38" t="n">
-        <v>67.45999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M38" t="n">
@@ -1856,22 +1746,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68.39</v>
+        <v>68.38</v>
       </c>
       <c r="C39" t="n">
-        <v>68.62</v>
+        <v>68.38</v>
       </c>
       <c r="D39" t="n">
-        <v>68.62</v>
+        <v>68.38</v>
       </c>
       <c r="E39" t="n">
-        <v>68.39</v>
+        <v>68.38</v>
       </c>
       <c r="F39" t="n">
-        <v>9700</v>
+        <v>996.1002</v>
       </c>
       <c r="G39" t="n">
-        <v>68.52966666666667</v>
+        <v>68.57350000000001</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1880,14 +1770,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1897,22 +1781,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>68.03</v>
+        <v>68.39</v>
       </c>
       <c r="C40" t="n">
-        <v>68.64</v>
+        <v>68.62</v>
       </c>
       <c r="D40" t="n">
-        <v>68.64</v>
+        <v>68.62</v>
       </c>
       <c r="E40" t="n">
-        <v>68.03</v>
+        <v>68.39</v>
       </c>
       <c r="F40" t="n">
-        <v>1129.9558</v>
+        <v>9700</v>
       </c>
       <c r="G40" t="n">
-        <v>68.49033333333335</v>
+        <v>68.52966666666667</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1921,14 +1805,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +1816,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
+        <v>68.03</v>
+      </c>
+      <c r="C41" t="n">
         <v>68.64</v>
       </c>
-      <c r="C41" t="n">
-        <v>69.18000000000001</v>
-      </c>
       <c r="D41" t="n">
-        <v>69.19</v>
+        <v>68.64</v>
       </c>
       <c r="E41" t="n">
-        <v>68.64</v>
+        <v>68.03</v>
       </c>
       <c r="F41" t="n">
-        <v>14987.4338</v>
+        <v>1129.9558</v>
       </c>
       <c r="G41" t="n">
-        <v>68.46300000000002</v>
+        <v>68.49033333333335</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1962,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1979,22 +1851,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>69.31999999999999</v>
+        <v>68.64</v>
       </c>
       <c r="C42" t="n">
-        <v>69.31999999999999</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>69.31999999999999</v>
+        <v>69.19</v>
       </c>
       <c r="E42" t="n">
-        <v>69.31999999999999</v>
+        <v>68.64</v>
       </c>
       <c r="F42" t="n">
-        <v>4823.7835</v>
+        <v>14987.4338</v>
       </c>
       <c r="G42" t="n">
-        <v>68.43800000000003</v>
+        <v>68.46300000000002</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2003,14 +1875,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2023,19 +1889,19 @@
         <v>69.31999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>69.3</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="D43" t="n">
         <v>69.31999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>69.3</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>7796.1956</v>
+        <v>4823.7835</v>
       </c>
       <c r="G43" t="n">
-        <v>68.43300000000002</v>
+        <v>68.43800000000003</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2044,14 +1910,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2061,22 +1921,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>69.3</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C44" t="n">
         <v>69.3</v>
       </c>
       <c r="D44" t="n">
-        <v>69.3</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>69.3</v>
       </c>
       <c r="F44" t="n">
-        <v>808</v>
+        <v>7796.1956</v>
       </c>
       <c r="G44" t="n">
-        <v>68.4111666666667</v>
+        <v>68.43300000000002</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2085,14 +1945,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2102,22 +1956,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>69.31999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="C45" t="n">
-        <v>69.31999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="D45" t="n">
-        <v>69.31999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="E45" t="n">
-        <v>69.31999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="F45" t="n">
-        <v>6456.7706</v>
+        <v>808</v>
       </c>
       <c r="G45" t="n">
-        <v>68.39633333333336</v>
+        <v>68.4111666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2126,14 +1980,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2143,22 +1991,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>69.34</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>69.34</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>69.34</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>69.34</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>6610.7466</v>
+        <v>6456.7706</v>
       </c>
       <c r="G46" t="n">
-        <v>68.38183333333336</v>
+        <v>68.39633333333336</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2167,14 +2015,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2184,19 +2026,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>69.59999999999999</v>
+        <v>69.34</v>
       </c>
       <c r="C47" t="n">
-        <v>69.59999999999999</v>
+        <v>69.34</v>
       </c>
       <c r="D47" t="n">
-        <v>69.59999999999999</v>
+        <v>69.34</v>
       </c>
       <c r="E47" t="n">
-        <v>69.59999999999999</v>
+        <v>69.34</v>
       </c>
       <c r="F47" t="n">
-        <v>298.288</v>
+        <v>6610.7466</v>
       </c>
       <c r="G47" t="n">
         <v>68.38183333333336</v>
@@ -2208,14 +2050,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2225,19 +2061,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>70.76000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>69.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>70.76000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>69.5</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>6232.4873</v>
+        <v>298.288</v>
       </c>
       <c r="G48" t="n">
         <v>68.38183333333336</v>
@@ -2249,14 +2085,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2266,22 +2096,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>69.06</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>69.06</v>
+        <v>69.5</v>
       </c>
       <c r="D49" t="n">
-        <v>69.06</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>69.06</v>
+        <v>69.5</v>
       </c>
       <c r="F49" t="n">
-        <v>500.9508</v>
+        <v>6232.4873</v>
       </c>
       <c r="G49" t="n">
-        <v>68.37933333333336</v>
+        <v>68.38183333333336</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2290,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2307,22 +2131,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>69.16</v>
+        <v>69.06</v>
       </c>
       <c r="C50" t="n">
         <v>69.06</v>
       </c>
       <c r="D50" t="n">
-        <v>69.16</v>
+        <v>69.06</v>
       </c>
       <c r="E50" t="n">
         <v>69.06</v>
       </c>
       <c r="F50" t="n">
-        <v>2696.5577</v>
+        <v>500.9508</v>
       </c>
       <c r="G50" t="n">
-        <v>68.38216666666671</v>
+        <v>68.37933333333336</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2331,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2348,22 +2166,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>69.5</v>
+        <v>69.16</v>
       </c>
       <c r="C51" t="n">
         <v>69.06</v>
       </c>
       <c r="D51" t="n">
-        <v>69.5</v>
+        <v>69.16</v>
       </c>
       <c r="E51" t="n">
         <v>69.06</v>
       </c>
       <c r="F51" t="n">
-        <v>715.9964</v>
+        <v>2696.5577</v>
       </c>
       <c r="G51" t="n">
-        <v>68.38500000000003</v>
+        <v>68.38216666666671</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2372,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2389,22 +2201,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>69.20999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="C52" t="n">
         <v>69.06</v>
       </c>
       <c r="D52" t="n">
-        <v>69.20999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="E52" t="n">
         <v>69.06</v>
       </c>
       <c r="F52" t="n">
-        <v>5286.0622</v>
+        <v>715.9964</v>
       </c>
       <c r="G52" t="n">
-        <v>68.39116666666672</v>
+        <v>68.38500000000003</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2413,14 +2225,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2430,22 +2236,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>69.09999999999999</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="C53" t="n">
-        <v>69</v>
+        <v>69.06</v>
       </c>
       <c r="D53" t="n">
-        <v>69.83</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>69</v>
+        <v>69.06</v>
       </c>
       <c r="F53" t="n">
-        <v>1645.1359</v>
+        <v>5286.0622</v>
       </c>
       <c r="G53" t="n">
-        <v>68.39616666666672</v>
+        <v>68.39116666666672</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2454,14 +2260,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2471,22 +2271,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="C54" t="n">
         <v>69</v>
       </c>
-      <c r="C54" t="n">
-        <v>68.90000000000001</v>
-      </c>
       <c r="D54" t="n">
+        <v>69.83</v>
+      </c>
+      <c r="E54" t="n">
         <v>69</v>
       </c>
-      <c r="E54" t="n">
-        <v>68.90000000000001</v>
-      </c>
       <c r="F54" t="n">
-        <v>292.0622</v>
+        <v>1645.1359</v>
       </c>
       <c r="G54" t="n">
-        <v>68.39950000000005</v>
+        <v>68.39616666666672</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2495,14 +2295,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2512,22 +2306,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="C55" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>68.8</v>
+        <v>69</v>
       </c>
       <c r="E55" t="n">
-        <v>68.8</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F55" t="n">
-        <v>825.639</v>
+        <v>292.0622</v>
       </c>
       <c r="G55" t="n">
-        <v>68.40600000000005</v>
+        <v>68.39950000000005</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2536,14 +2330,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2553,22 +2341,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>69.56999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="C56" t="n">
-        <v>69.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="D56" t="n">
-        <v>69.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E56" t="n">
-        <v>69.56999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="F56" t="n">
-        <v>6137.8</v>
+        <v>825.639</v>
       </c>
       <c r="G56" t="n">
-        <v>68.41600000000007</v>
+        <v>68.40600000000005</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2577,14 +2365,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2594,22 +2376,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>70.2</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="C57" t="n">
-        <v>70.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>70.2</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>70.2</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>298.288</v>
+        <v>6137.8</v>
       </c>
       <c r="G57" t="n">
-        <v>68.44166666666673</v>
+        <v>68.41600000000007</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2618,14 +2400,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2635,22 +2411,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="C58" t="n">
-        <v>70.8</v>
+        <v>70.2</v>
       </c>
       <c r="D58" t="n">
-        <v>70.8</v>
+        <v>70.2</v>
       </c>
       <c r="E58" t="n">
-        <v>70.3</v>
+        <v>70.2</v>
       </c>
       <c r="F58" t="n">
-        <v>36290.7368</v>
+        <v>298.288</v>
       </c>
       <c r="G58" t="n">
-        <v>68.46850000000008</v>
+        <v>68.44166666666673</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2659,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2676,7 +2446,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>70.69</v>
+        <v>70.3</v>
       </c>
       <c r="C59" t="n">
         <v>70.8</v>
@@ -2685,13 +2455,13 @@
         <v>70.8</v>
       </c>
       <c r="E59" t="n">
-        <v>70.69</v>
+        <v>70.3</v>
       </c>
       <c r="F59" t="n">
-        <v>27417.3531</v>
+        <v>36290.7368</v>
       </c>
       <c r="G59" t="n">
-        <v>68.49083333333341</v>
+        <v>68.46850000000008</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2700,14 +2470,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2717,22 +2481,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
+        <v>70.69</v>
+      </c>
+      <c r="C60" t="n">
         <v>70.8</v>
       </c>
-      <c r="C60" t="n">
-        <v>71</v>
-      </c>
       <c r="D60" t="n">
-        <v>71.09999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="E60" t="n">
-        <v>70.8</v>
+        <v>70.69</v>
       </c>
       <c r="F60" t="n">
-        <v>37109.7192</v>
+        <v>27417.3531</v>
       </c>
       <c r="G60" t="n">
-        <v>68.50666666666673</v>
+        <v>68.49083333333341</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2741,14 +2505,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2758,22 +2516,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>71.19</v>
+        <v>70.8</v>
       </c>
       <c r="C61" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" t="n">
-        <v>72.3</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>71.19</v>
+        <v>70.8</v>
       </c>
       <c r="F61" t="n">
-        <v>220286.6907</v>
+        <v>37109.7192</v>
       </c>
       <c r="G61" t="n">
-        <v>68.55333333333341</v>
+        <v>68.50666666666673</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2782,14 +2540,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2799,22 +2551,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
+        <v>71.19</v>
+      </c>
+      <c r="C62" t="n">
+        <v>72</v>
+      </c>
+      <c r="D62" t="n">
         <v>72.3</v>
       </c>
-      <c r="C62" t="n">
-        <v>73.08</v>
-      </c>
-      <c r="D62" t="n">
-        <v>73.08</v>
-      </c>
       <c r="E62" t="n">
-        <v>72.3</v>
+        <v>71.19</v>
       </c>
       <c r="F62" t="n">
-        <v>138507.8384</v>
+        <v>220286.6907</v>
       </c>
       <c r="G62" t="n">
-        <v>68.6163333333334</v>
+        <v>68.55333333333341</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2823,14 +2575,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2840,22 +2586,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>73.3</v>
+        <v>72.3</v>
       </c>
       <c r="C63" t="n">
-        <v>73.38</v>
+        <v>73.08</v>
       </c>
       <c r="D63" t="n">
-        <v>73.38</v>
+        <v>73.08</v>
       </c>
       <c r="E63" t="n">
-        <v>73.3</v>
+        <v>72.3</v>
       </c>
       <c r="F63" t="n">
-        <v>37156.0528</v>
+        <v>138507.8384</v>
       </c>
       <c r="G63" t="n">
-        <v>68.68933333333341</v>
+        <v>68.6163333333334</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2864,14 +2610,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2881,22 +2621,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
+        <v>73.3</v>
+      </c>
+      <c r="C64" t="n">
         <v>73.38</v>
       </c>
-      <c r="C64" t="n">
-        <v>74</v>
-      </c>
       <c r="D64" t="n">
-        <v>74</v>
+        <v>73.38</v>
       </c>
       <c r="E64" t="n">
-        <v>73.38</v>
+        <v>73.3</v>
       </c>
       <c r="F64" t="n">
-        <v>55159.7276</v>
+        <v>37156.0528</v>
       </c>
       <c r="G64" t="n">
-        <v>68.78066666666673</v>
+        <v>68.68933333333341</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2905,14 +2645,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2922,22 +2656,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>73.38</v>
+      </c>
+      <c r="C65" t="n">
         <v>74</v>
       </c>
-      <c r="C65" t="n">
-        <v>73.59999999999999</v>
-      </c>
       <c r="D65" t="n">
-        <v>74.59999999999999</v>
+        <v>74</v>
       </c>
       <c r="E65" t="n">
-        <v>73.5</v>
+        <v>73.38</v>
       </c>
       <c r="F65" t="n">
-        <v>71140.08387348526</v>
+        <v>55159.7276</v>
       </c>
       <c r="G65" t="n">
-        <v>68.87100000000007</v>
+        <v>68.78066666666673</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2946,14 +2680,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2963,10 +2691,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>74.59999999999999</v>
+        <v>74</v>
       </c>
       <c r="C66" t="n">
-        <v>73.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D66" t="n">
         <v>74.59999999999999</v>
@@ -2975,10 +2703,10 @@
         <v>73.5</v>
       </c>
       <c r="F66" t="n">
-        <v>57008.38162651475</v>
+        <v>71140.08387348526</v>
       </c>
       <c r="G66" t="n">
-        <v>68.96266666666673</v>
+        <v>68.87100000000007</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2987,14 +2715,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3004,22 +2726,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>74.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>74.7</v>
+        <v>73.5</v>
       </c>
       <c r="D67" t="n">
-        <v>74.7</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>74.7</v>
+        <v>73.5</v>
       </c>
       <c r="F67" t="n">
-        <v>9</v>
+        <v>57008.38162651475</v>
       </c>
       <c r="G67" t="n">
-        <v>69.0743333333334</v>
+        <v>68.96266666666673</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3028,14 +2750,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3045,22 +2761,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>73.61</v>
+        <v>74.7</v>
       </c>
       <c r="C68" t="n">
-        <v>73.63</v>
+        <v>74.7</v>
       </c>
       <c r="D68" t="n">
-        <v>73.63</v>
+        <v>74.7</v>
       </c>
       <c r="E68" t="n">
-        <v>73.61</v>
+        <v>74.7</v>
       </c>
       <c r="F68" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="G68" t="n">
-        <v>69.16816666666674</v>
+        <v>69.0743333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3069,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3086,22 +2796,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>74.7</v>
+        <v>73.61</v>
       </c>
       <c r="C69" t="n">
-        <v>73.8</v>
+        <v>73.63</v>
       </c>
       <c r="D69" t="n">
-        <v>74.84999999999999</v>
+        <v>73.63</v>
       </c>
       <c r="E69" t="n">
-        <v>73.8</v>
+        <v>73.61</v>
       </c>
       <c r="F69" t="n">
-        <v>5526.7604</v>
+        <v>27</v>
       </c>
       <c r="G69" t="n">
-        <v>69.2648333333334</v>
+        <v>69.16816666666674</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3110,14 +2820,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3127,22 +2831,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>74.87</v>
+        <v>74.7</v>
       </c>
       <c r="C70" t="n">
-        <v>74.87</v>
+        <v>73.8</v>
       </c>
       <c r="D70" t="n">
-        <v>74.87</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>74.87</v>
+        <v>73.8</v>
       </c>
       <c r="F70" t="n">
-        <v>15200.9364</v>
+        <v>5526.7604</v>
       </c>
       <c r="G70" t="n">
-        <v>69.37916666666673</v>
+        <v>69.2648333333334</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3151,14 +2855,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3171,19 +2869,19 @@
         <v>74.87</v>
       </c>
       <c r="C71" t="n">
-        <v>74.40000000000001</v>
+        <v>74.87</v>
       </c>
       <c r="D71" t="n">
-        <v>75.09999999999999</v>
+        <v>74.87</v>
       </c>
       <c r="E71" t="n">
-        <v>74.20999999999999</v>
+        <v>74.87</v>
       </c>
       <c r="F71" t="n">
-        <v>107630.9851</v>
+        <v>15200.9364</v>
       </c>
       <c r="G71" t="n">
-        <v>69.50233333333338</v>
+        <v>69.37916666666673</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3192,14 +2890,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3212,19 +2904,19 @@
         <v>74.87</v>
       </c>
       <c r="C72" t="n">
-        <v>75.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D72" t="n">
         <v>75.09999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>74.3</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>13428.2033587217</v>
+        <v>107630.9851</v>
       </c>
       <c r="G72" t="n">
-        <v>69.6223333333334</v>
+        <v>69.50233333333338</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3233,14 +2925,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3250,22 +2936,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>74.31</v>
+        <v>74.87</v>
       </c>
       <c r="C73" t="n">
-        <v>74.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>74.8</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>74.22</v>
+        <v>74.3</v>
       </c>
       <c r="F73" t="n">
-        <v>32883.5179</v>
+        <v>13428.2033587217</v>
       </c>
       <c r="G73" t="n">
-        <v>69.73716666666674</v>
+        <v>69.6223333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3274,14 +2960,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3291,22 +2971,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>74.3</v>
+        <v>74.31</v>
       </c>
       <c r="C74" t="n">
-        <v>73.84999999999999</v>
+        <v>74.8</v>
       </c>
       <c r="D74" t="n">
-        <v>74.3</v>
+        <v>74.8</v>
       </c>
       <c r="E74" t="n">
-        <v>73.84999999999999</v>
+        <v>74.22</v>
       </c>
       <c r="F74" t="n">
-        <v>17520.4783</v>
+        <v>32883.5179</v>
       </c>
       <c r="G74" t="n">
-        <v>69.84516666666674</v>
+        <v>69.73716666666674</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3315,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3332,22 +3006,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>74.26000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="C75" t="n">
-        <v>73.79000000000001</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>74.26000000000001</v>
+        <v>74.3</v>
       </c>
       <c r="E75" t="n">
-        <v>73.5</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>10577.0029</v>
+        <v>17520.4783</v>
       </c>
       <c r="G75" t="n">
-        <v>69.95166666666675</v>
+        <v>69.84516666666674</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3356,14 +3030,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3373,22 +3041,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>74.26000000000001</v>
+      </c>
+      <c r="C76" t="n">
         <v>73.79000000000001</v>
       </c>
-      <c r="C76" t="n">
-        <v>73.39</v>
-      </c>
       <c r="D76" t="n">
-        <v>73.79000000000001</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>72.55</v>
+        <v>73.5</v>
       </c>
       <c r="F76" t="n">
-        <v>92985.12537348525</v>
+        <v>10577.0029</v>
       </c>
       <c r="G76" t="n">
-        <v>70.05150000000009</v>
+        <v>69.95166666666675</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3397,14 +3065,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3414,22 +3076,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>72.56</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>72.54000000000001</v>
+        <v>73.39</v>
       </c>
       <c r="D77" t="n">
-        <v>72.56</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="E77" t="n">
-        <v>72.54000000000001</v>
+        <v>72.55</v>
       </c>
       <c r="F77" t="n">
-        <v>9724.938599999999</v>
+        <v>92985.12537348525</v>
       </c>
       <c r="G77" t="n">
-        <v>70.13616666666675</v>
+        <v>70.05150000000009</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3438,14 +3100,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3455,22 +3111,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>72.58</v>
+        <v>72.56</v>
       </c>
       <c r="C78" t="n">
-        <v>72.58</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>72.58</v>
+        <v>72.56</v>
       </c>
       <c r="E78" t="n">
-        <v>72.58</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>50</v>
+        <v>9724.938599999999</v>
       </c>
       <c r="G78" t="n">
-        <v>70.21433333333341</v>
+        <v>70.13616666666675</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3479,14 +3135,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3496,22 +3146,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>72.59999999999999</v>
+        <v>72.58</v>
       </c>
       <c r="C79" t="n">
-        <v>73.27</v>
+        <v>72.58</v>
       </c>
       <c r="D79" t="n">
-        <v>73.27</v>
+        <v>72.58</v>
       </c>
       <c r="E79" t="n">
-        <v>71.54000000000001</v>
+        <v>72.58</v>
       </c>
       <c r="F79" t="n">
-        <v>23958.9147</v>
+        <v>50</v>
       </c>
       <c r="G79" t="n">
-        <v>70.31716666666675</v>
+        <v>70.21433333333341</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3520,14 +3170,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3537,22 +3181,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>72.69</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>72.69</v>
+        <v>73.27</v>
       </c>
       <c r="D80" t="n">
-        <v>72.69</v>
+        <v>73.27</v>
       </c>
       <c r="E80" t="n">
-        <v>72.69</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>5117.5777</v>
+        <v>23958.9147</v>
       </c>
       <c r="G80" t="n">
-        <v>70.40483333333341</v>
+        <v>70.31716666666675</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3561,14 +3205,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3578,22 +3216,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>72.48999999999999</v>
+        <v>72.69</v>
       </c>
       <c r="C81" t="n">
-        <v>72.40000000000001</v>
+        <v>72.69</v>
       </c>
       <c r="D81" t="n">
-        <v>72.48999999999999</v>
+        <v>72.69</v>
       </c>
       <c r="E81" t="n">
-        <v>72.40000000000001</v>
+        <v>72.69</v>
       </c>
       <c r="F81" t="n">
-        <v>1208.1143</v>
+        <v>5117.5777</v>
       </c>
       <c r="G81" t="n">
-        <v>70.47800000000007</v>
+        <v>70.40483333333341</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3602,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3619,22 +3251,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>72.41</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="C82" t="n">
         <v>72.40000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>72.5</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="E82" t="n">
         <v>72.40000000000001</v>
       </c>
       <c r="F82" t="n">
-        <v>29739.8359</v>
+        <v>1208.1143</v>
       </c>
       <c r="G82" t="n">
-        <v>70.55166666666673</v>
+        <v>70.47800000000007</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3643,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3660,22 +3286,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>72.40000000000001</v>
+        <v>72.41</v>
       </c>
       <c r="C83" t="n">
         <v>72.40000000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>72.40000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="E83" t="n">
         <v>72.40000000000001</v>
       </c>
       <c r="F83" t="n">
-        <v>18578.6575</v>
+        <v>29739.8359</v>
       </c>
       <c r="G83" t="n">
-        <v>70.6333333333334</v>
+        <v>70.55166666666673</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3684,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3701,22 +3321,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>72.59</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>72.59</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>72.59</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>72.59</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>11.1691</v>
+        <v>18578.6575</v>
       </c>
       <c r="G84" t="n">
-        <v>70.72050000000007</v>
+        <v>70.6333333333334</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3725,14 +3345,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3742,7 +3356,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>72.40000000000001</v>
+        <v>72.59</v>
       </c>
       <c r="C85" t="n">
         <v>72.59</v>
@@ -3751,13 +3365,13 @@
         <v>72.59</v>
       </c>
       <c r="E85" t="n">
-        <v>71.8</v>
+        <v>72.59</v>
       </c>
       <c r="F85" t="n">
-        <v>27</v>
+        <v>11.1691</v>
       </c>
       <c r="G85" t="n">
-        <v>70.79700000000007</v>
+        <v>70.72050000000007</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3766,14 +3380,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3783,22 +3391,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>71.91</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C86" t="n">
-        <v>71.91</v>
+        <v>72.59</v>
       </c>
       <c r="D86" t="n">
-        <v>71.91</v>
+        <v>72.59</v>
       </c>
       <c r="E86" t="n">
-        <v>71.90000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="F86" t="n">
-        <v>27965.7303</v>
+        <v>27</v>
       </c>
       <c r="G86" t="n">
-        <v>70.86050000000006</v>
+        <v>70.79700000000007</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3807,14 +3415,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3833,13 +3435,13 @@
         <v>71.91</v>
       </c>
       <c r="E87" t="n">
-        <v>71.91</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F87" t="n">
-        <v>17935.7354</v>
+        <v>27965.7303</v>
       </c>
       <c r="G87" t="n">
-        <v>70.92533333333338</v>
+        <v>70.86050000000006</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3848,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3877,10 +3473,10 @@
         <v>71.91</v>
       </c>
       <c r="F88" t="n">
-        <v>6120.3193</v>
+        <v>17935.7354</v>
       </c>
       <c r="G88" t="n">
-        <v>70.99016666666671</v>
+        <v>70.92533333333338</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3889,14 +3485,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3909,19 +3499,19 @@
         <v>71.91</v>
       </c>
       <c r="C89" t="n">
-        <v>71.40000000000001</v>
+        <v>71.91</v>
       </c>
       <c r="D89" t="n">
         <v>71.91</v>
       </c>
       <c r="E89" t="n">
-        <v>71.40000000000001</v>
+        <v>71.91</v>
       </c>
       <c r="F89" t="n">
-        <v>7983.3778</v>
+        <v>6120.3193</v>
       </c>
       <c r="G89" t="n">
-        <v>71.04650000000002</v>
+        <v>70.99016666666671</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3930,14 +3520,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3947,22 +3531,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>72.40000000000001</v>
+        <v>71.91</v>
       </c>
       <c r="C90" t="n">
-        <v>72.39</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>72.40000000000001</v>
+        <v>71.91</v>
       </c>
       <c r="E90" t="n">
-        <v>72.39</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F90" t="n">
-        <v>22.7856</v>
+        <v>7983.3778</v>
       </c>
       <c r="G90" t="n">
-        <v>71.11933333333336</v>
+        <v>71.04650000000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3971,14 +3555,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3988,22 +3566,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>71.81</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>72.37</v>
+        <v>72.39</v>
       </c>
       <c r="D91" t="n">
-        <v>72.37</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>71.81</v>
+        <v>72.39</v>
       </c>
       <c r="F91" t="n">
-        <v>3403.4927</v>
+        <v>22.7856</v>
       </c>
       <c r="G91" t="n">
-        <v>71.19183333333335</v>
+        <v>71.11933333333336</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4012,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4029,22 +3601,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>73</v>
+        <v>71.81</v>
       </c>
       <c r="C92" t="n">
-        <v>73</v>
+        <v>72.37</v>
       </c>
       <c r="D92" t="n">
-        <v>73</v>
+        <v>72.37</v>
       </c>
       <c r="E92" t="n">
-        <v>73</v>
+        <v>71.81</v>
       </c>
       <c r="F92" t="n">
-        <v>22.5224</v>
+        <v>3403.4927</v>
       </c>
       <c r="G92" t="n">
-        <v>71.27500000000002</v>
+        <v>71.19183333333335</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4053,14 +3625,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4070,22 +3636,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="C93" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="D93" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="E93" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="F93" t="n">
-        <v>1080</v>
+        <v>22.5224</v>
       </c>
       <c r="G93" t="n">
-        <v>71.35650000000001</v>
+        <v>71.27500000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4094,14 +3660,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4111,22 +3671,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>72.41</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>72.41</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>72.41</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>72.3</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>16287.7687</v>
+        <v>1080</v>
       </c>
       <c r="G94" t="n">
-        <v>71.42983333333333</v>
+        <v>71.35650000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4135,14 +3695,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4155,19 +3709,19 @@
         <v>72.41</v>
       </c>
       <c r="C95" t="n">
-        <v>72.5</v>
+        <v>72.41</v>
       </c>
       <c r="D95" t="n">
-        <v>72.5</v>
+        <v>72.41</v>
       </c>
       <c r="E95" t="n">
-        <v>72.41</v>
+        <v>72.3</v>
       </c>
       <c r="F95" t="n">
-        <v>37012.9439</v>
+        <v>16287.7687</v>
       </c>
       <c r="G95" t="n">
-        <v>71.50466666666667</v>
+        <v>71.42983333333333</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4176,14 +3730,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4193,22 +3741,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>72.12</v>
+        <v>72.41</v>
       </c>
       <c r="C96" t="n">
-        <v>72.79000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="D96" t="n">
-        <v>72.79000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="E96" t="n">
-        <v>71.90000000000001</v>
+        <v>72.41</v>
       </c>
       <c r="F96" t="n">
-        <v>24439.2019</v>
+        <v>37012.9439</v>
       </c>
       <c r="G96" t="n">
-        <v>71.58433333333332</v>
+        <v>71.50466666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4217,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4234,22 +3776,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>72.90000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="C97" t="n">
-        <v>73</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>73</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>72.90000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>13502.226</v>
+        <v>24439.2019</v>
       </c>
       <c r="G97" t="n">
-        <v>71.66133333333332</v>
+        <v>71.58433333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4258,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4275,7 +3811,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C98" t="n">
         <v>73</v>
@@ -4284,13 +3820,13 @@
         <v>73</v>
       </c>
       <c r="E98" t="n">
-        <v>73</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>19.4483</v>
+        <v>13502.226</v>
       </c>
       <c r="G98" t="n">
-        <v>71.73833333333332</v>
+        <v>71.66133333333332</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4299,14 +3835,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4328,10 +3858,10 @@
         <v>73</v>
       </c>
       <c r="F99" t="n">
-        <v>1593.0566</v>
+        <v>19.4483</v>
       </c>
       <c r="G99" t="n">
-        <v>71.81133333333332</v>
+        <v>71.73833333333332</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4340,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4357,22 +3881,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>72.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="C100" t="n">
-        <v>72.12</v>
+        <v>73</v>
       </c>
       <c r="D100" t="n">
-        <v>72.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="E100" t="n">
-        <v>72.12</v>
+        <v>73</v>
       </c>
       <c r="F100" t="n">
-        <v>271.3079</v>
+        <v>1593.0566</v>
       </c>
       <c r="G100" t="n">
-        <v>71.86933333333332</v>
+        <v>71.81133333333332</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4381,14 +3905,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4398,22 +3916,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>71.84999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>71.84999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="D101" t="n">
-        <v>71.84999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>71.84999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="F101" t="n">
-        <v>3000</v>
+        <v>271.3079</v>
       </c>
       <c r="G101" t="n">
-        <v>71.91383333333332</v>
+        <v>71.86933333333332</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4422,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4439,22 +3951,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>72.12</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>72.12</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>72.12</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>72.12</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2027</v>
+        <v>3000</v>
       </c>
       <c r="G102" t="n">
-        <v>71.96049999999998</v>
+        <v>71.91383333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4463,14 +3975,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4480,22 +3986,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>72.3</v>
+        <v>72.12</v>
       </c>
       <c r="C103" t="n">
-        <v>72.2</v>
+        <v>72.12</v>
       </c>
       <c r="D103" t="n">
-        <v>72.3</v>
+        <v>72.12</v>
       </c>
       <c r="E103" t="n">
-        <v>72.2</v>
+        <v>72.12</v>
       </c>
       <c r="F103" t="n">
-        <v>6659.108</v>
+        <v>0.2027</v>
       </c>
       <c r="G103" t="n">
-        <v>72.00883333333331</v>
+        <v>71.96049999999998</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4504,14 +4010,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4521,22 +4021,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>72.01000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C104" t="n">
-        <v>72.01000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="D104" t="n">
-        <v>72.01000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="E104" t="n">
-        <v>71.89</v>
+        <v>72.2</v>
       </c>
       <c r="F104" t="n">
-        <v>31657.2551</v>
+        <v>6659.108</v>
       </c>
       <c r="G104" t="n">
-        <v>72.05399999999999</v>
+        <v>72.00883333333331</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4545,14 +4045,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4562,22 +4056,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>71.75</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>71.73999999999999</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>71.75</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>71.73999999999999</v>
+        <v>71.89</v>
       </c>
       <c r="F105" t="n">
-        <v>13521.6743</v>
+        <v>31657.2551</v>
       </c>
       <c r="G105" t="n">
-        <v>72.09433333333331</v>
+        <v>72.05399999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4586,14 +4080,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4603,22 +4091,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>72.01000000000001</v>
+        <v>71.75</v>
       </c>
       <c r="C106" t="n">
-        <v>72.01000000000001</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>72.01000000000001</v>
+        <v>71.75</v>
       </c>
       <c r="E106" t="n">
-        <v>72.01000000000001</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0001</v>
+        <v>13521.6743</v>
       </c>
       <c r="G106" t="n">
-        <v>72.13883333333332</v>
+        <v>72.09433333333331</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4627,14 +4115,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4644,22 +4126,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>71.90000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>71.90000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>71.90000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>71.90000000000001</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>151.9035</v>
+        <v>0.0001</v>
       </c>
       <c r="G107" t="n">
-        <v>72.17716666666664</v>
+        <v>72.13883333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4668,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4685,22 +4161,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>72.76000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C108" t="n">
-        <v>72.76000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>72.76000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>72.76000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>16.9599</v>
+        <v>151.9035</v>
       </c>
       <c r="G108" t="n">
-        <v>72.23149999999997</v>
+        <v>72.17716666666664</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4709,14 +4185,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4726,22 +4196,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>72.8</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>73</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>73</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>72.8</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>8129.9229</v>
+        <v>16.9599</v>
       </c>
       <c r="G109" t="n">
-        <v>72.29716666666664</v>
+        <v>72.23149999999997</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4750,14 +4220,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4767,22 +4231,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>73.45999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="C110" t="n">
-        <v>73.45999999999999</v>
+        <v>73</v>
       </c>
       <c r="D110" t="n">
-        <v>73.45999999999999</v>
+        <v>73</v>
       </c>
       <c r="E110" t="n">
-        <v>73.45999999999999</v>
+        <v>72.8</v>
       </c>
       <c r="F110" t="n">
-        <v>12.608</v>
+        <v>8129.9229</v>
       </c>
       <c r="G110" t="n">
-        <v>72.37049999999996</v>
+        <v>72.29716666666664</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4791,14 +4255,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4811,19 +4269,19 @@
         <v>73.45999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>74.54000000000001</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>74.65000000000001</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="E111" t="n">
         <v>73.45999999999999</v>
       </c>
       <c r="F111" t="n">
-        <v>11045.3147</v>
+        <v>12.608</v>
       </c>
       <c r="G111" t="n">
-        <v>72.46183333333329</v>
+        <v>72.37049999999996</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4832,14 +4290,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4849,22 +4301,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>74.79000000000001</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>75.59999999999999</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>75.59999999999999</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="E112" t="n">
-        <v>74.79000000000001</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="F112" t="n">
-        <v>41864.3479</v>
+        <v>11045.3147</v>
       </c>
       <c r="G112" t="n">
-        <v>72.57083333333328</v>
+        <v>72.46183333333329</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4873,14 +4325,8 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4890,7 +4336,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>75.59999999999999</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="C113" t="n">
         <v>75.59999999999999</v>
@@ -4899,13 +4345,13 @@
         <v>75.59999999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>75.59999999999999</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>2095.4435</v>
+        <v>41864.3479</v>
       </c>
       <c r="G113" t="n">
-        <v>72.6808333333333</v>
+        <v>72.57083333333328</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4914,14 +4360,8 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4931,22 +4371,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>75.59</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>75.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>75.8</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>75.59</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F114" t="n">
-        <v>32118.6742</v>
+        <v>2095.4435</v>
       </c>
       <c r="G114" t="n">
-        <v>72.79583333333331</v>
+        <v>72.6808333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4955,14 +4395,8 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4972,22 +4406,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>75.88</v>
+        <v>75.59</v>
       </c>
       <c r="C115" t="n">
-        <v>76.29000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="D115" t="n">
-        <v>76.29000000000001</v>
+        <v>75.8</v>
       </c>
       <c r="E115" t="n">
-        <v>75.88</v>
+        <v>75.59</v>
       </c>
       <c r="F115" t="n">
-        <v>153837.8859526316</v>
+        <v>32118.6742</v>
       </c>
       <c r="G115" t="n">
-        <v>72.92066666666663</v>
+        <v>72.79583333333331</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4996,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5013,22 +4441,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
+        <v>75.88</v>
+      </c>
+      <c r="C116" t="n">
         <v>76.29000000000001</v>
       </c>
-      <c r="C116" t="n">
-        <v>76.64</v>
-      </c>
       <c r="D116" t="n">
-        <v>76.64</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>75.20999999999999</v>
+        <v>75.88</v>
       </c>
       <c r="F116" t="n">
-        <v>15562.4693</v>
+        <v>153837.8859526316</v>
       </c>
       <c r="G116" t="n">
-        <v>73.03799999999997</v>
+        <v>72.92066666666663</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5037,14 +4465,8 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5054,40 +4476,34 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>76.65000000000001</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="C117" t="n">
-        <v>78.97</v>
+        <v>76.64</v>
       </c>
       <c r="D117" t="n">
-        <v>79</v>
+        <v>76.64</v>
       </c>
       <c r="E117" t="n">
-        <v>76.64</v>
+        <v>75.20999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>168816.158</v>
+        <v>15562.4693</v>
       </c>
       <c r="G117" t="n">
-        <v>73.18416666666664</v>
+        <v>73.03799999999997</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>1.165619626445301</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -5095,22 +4511,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>77.63</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C118" t="n">
-        <v>77.73</v>
+        <v>78.97</v>
       </c>
       <c r="D118" t="n">
-        <v>77.73999999999999</v>
+        <v>79</v>
       </c>
       <c r="E118" t="n">
-        <v>76.67</v>
+        <v>76.64</v>
       </c>
       <c r="F118" t="n">
-        <v>84366.03230000001</v>
+        <v>168816.158</v>
       </c>
       <c r="G118" t="n">
-        <v>73.29966666666662</v>
+        <v>73.18416666666664</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5130,22 +4546,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
+        <v>77.63</v>
+      </c>
+      <c r="C119" t="n">
         <v>77.73</v>
       </c>
-      <c r="C119" t="n">
-        <v>78.89</v>
-      </c>
       <c r="D119" t="n">
-        <v>78.90000000000001</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>76.86</v>
+        <v>76.67</v>
       </c>
       <c r="F119" t="n">
-        <v>145545.7771748314</v>
+        <v>84366.03230000001</v>
       </c>
       <c r="G119" t="n">
-        <v>73.43449999999997</v>
+        <v>73.29966666666662</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5165,22 +4581,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>77.81</v>
+        <v>77.73</v>
       </c>
       <c r="C120" t="n">
-        <v>75.94</v>
+        <v>78.89</v>
       </c>
       <c r="D120" t="n">
-        <v>77.81</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>75.94</v>
+        <v>76.86</v>
       </c>
       <c r="F120" t="n">
-        <v>16261.1821</v>
+        <v>145545.7771748314</v>
       </c>
       <c r="G120" t="n">
-        <v>73.5168333333333</v>
+        <v>73.43449999999997</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5200,28 +4616,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>77.33</v>
+        <v>77.81</v>
       </c>
       <c r="C121" t="n">
-        <v>78.89</v>
+        <v>75.94</v>
       </c>
       <c r="D121" t="n">
-        <v>79.40000000000001</v>
+        <v>77.81</v>
       </c>
       <c r="E121" t="n">
-        <v>76.01000000000001</v>
+        <v>75.94</v>
       </c>
       <c r="F121" t="n">
-        <v>82064.0852</v>
+        <v>16261.1821</v>
       </c>
       <c r="G121" t="n">
-        <v>73.63166666666663</v>
+        <v>73.5168333333333</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5235,22 +4651,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>78.11</v>
+        <v>77.33</v>
       </c>
       <c r="C122" t="n">
-        <v>77.45</v>
+        <v>78.89</v>
       </c>
       <c r="D122" t="n">
-        <v>78.39</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>77.34</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="F122" t="n">
-        <v>37986.9516</v>
+        <v>82064.0852</v>
       </c>
       <c r="G122" t="n">
-        <v>73.70449999999997</v>
+        <v>73.63166666666663</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5270,22 +4686,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>78.09999999999999</v>
+        <v>78.11</v>
       </c>
       <c r="C123" t="n">
-        <v>78.98999999999999</v>
+        <v>77.45</v>
       </c>
       <c r="D123" t="n">
-        <v>79.31</v>
+        <v>78.39</v>
       </c>
       <c r="E123" t="n">
-        <v>78</v>
+        <v>77.34</v>
       </c>
       <c r="F123" t="n">
-        <v>136018.2922753911</v>
+        <v>37986.9516</v>
       </c>
       <c r="G123" t="n">
-        <v>73.79799999999996</v>
+        <v>73.70449999999997</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5305,22 +4721,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C124" t="n">
         <v>78.98999999999999</v>
       </c>
-      <c r="C124" t="n">
-        <v>78.90000000000001</v>
-      </c>
       <c r="D124" t="n">
-        <v>79.19</v>
+        <v>79.31</v>
       </c>
       <c r="E124" t="n">
-        <v>78.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="F124" t="n">
-        <v>36986.1415</v>
+        <v>136018.2922753911</v>
       </c>
       <c r="G124" t="n">
-        <v>73.87966666666662</v>
+        <v>73.79799999999996</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5340,22 +4756,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="C125" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="C125" t="n">
-        <v>79.2</v>
-      </c>
       <c r="D125" t="n">
-        <v>79.3</v>
+        <v>79.19</v>
       </c>
       <c r="E125" t="n">
-        <v>78.12</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>65505.55802749054</v>
+        <v>36986.1415</v>
       </c>
       <c r="G125" t="n">
-        <v>73.97299999999994</v>
+        <v>73.87966666666662</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5375,22 +4791,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C126" t="n">
         <v>79.2</v>
       </c>
-      <c r="C126" t="n">
-        <v>79.40000000000001</v>
-      </c>
       <c r="D126" t="n">
-        <v>79.59999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="E126" t="n">
-        <v>79</v>
+        <v>78.12</v>
       </c>
       <c r="F126" t="n">
-        <v>45741.33402321298</v>
+        <v>65505.55802749054</v>
       </c>
       <c r="G126" t="n">
-        <v>74.07133333333327</v>
+        <v>73.97299999999994</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5410,22 +4826,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>79.38</v>
+        <v>79.2</v>
       </c>
       <c r="C127" t="n">
-        <v>78.52</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D127" t="n">
-        <v>79.38</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>77.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="F127" t="n">
-        <v>44918.1907</v>
+        <v>45741.33402321298</v>
       </c>
       <c r="G127" t="n">
-        <v>74.13499999999995</v>
+        <v>74.07133333333327</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5445,22 +4861,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>78.37</v>
+        <v>79.38</v>
       </c>
       <c r="C128" t="n">
-        <v>78.09999999999999</v>
+        <v>78.52</v>
       </c>
       <c r="D128" t="n">
-        <v>79.06999999999999</v>
+        <v>79.38</v>
       </c>
       <c r="E128" t="n">
-        <v>77.34999999999999</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>79908.42329999999</v>
+        <v>44918.1907</v>
       </c>
       <c r="G128" t="n">
-        <v>74.20949999999995</v>
+        <v>74.13499999999995</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5480,22 +4896,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>78.37</v>
+      </c>
+      <c r="C129" t="n">
         <v>78.09999999999999</v>
       </c>
-      <c r="C129" t="n">
-        <v>78.28</v>
-      </c>
       <c r="D129" t="n">
-        <v>78.28</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="E129" t="n">
         <v>77.34999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>77091.11780000001</v>
+        <v>79908.42329999999</v>
       </c>
       <c r="G129" t="n">
-        <v>74.28416666666661</v>
+        <v>74.20949999999995</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5515,22 +4931,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>78.05</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>79.16</v>
+        <v>78.28</v>
       </c>
       <c r="D130" t="n">
-        <v>79.26000000000001</v>
+        <v>78.28</v>
       </c>
       <c r="E130" t="n">
-        <v>76.63</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>67209.80839999999</v>
+        <v>77091.11780000001</v>
       </c>
       <c r="G130" t="n">
-        <v>74.35566666666661</v>
+        <v>74.28416666666661</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5550,22 +4966,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>77.53</v>
+        <v>78.05</v>
       </c>
       <c r="C131" t="n">
-        <v>77.53</v>
+        <v>79.16</v>
       </c>
       <c r="D131" t="n">
-        <v>77.53</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>77.53</v>
+        <v>76.63</v>
       </c>
       <c r="F131" t="n">
-        <v>2407.4164839417</v>
+        <v>67209.80839999999</v>
       </c>
       <c r="G131" t="n">
-        <v>74.40783333333327</v>
+        <v>74.35566666666661</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5580,6 +4996,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="C132" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="D132" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="E132" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2407.4164839417</v>
+      </c>
+      <c r="G132" t="n">
+        <v>74.40783333333327</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-19 BackTest ELF.xlsx
+++ b/BackTest/2020-01-19 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M132"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>1023.8023</v>
       </c>
       <c r="G2" t="n">
+        <v>69.07666666666668</v>
+      </c>
+      <c r="H2" t="n">
         <v>70.64949999999993</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>295.0495</v>
       </c>
       <c r="G3" t="n">
+        <v>69.05666666666669</v>
+      </c>
+      <c r="H3" t="n">
         <v>70.60499999999993</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>2465</v>
       </c>
       <c r="G4" t="n">
+        <v>69.02333333333335</v>
+      </c>
+      <c r="H4" t="n">
         <v>70.55516666666659</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>12450.8832</v>
       </c>
       <c r="G5" t="n">
+        <v>68.97733333333335</v>
+      </c>
+      <c r="H5" t="n">
         <v>70.49549999999994</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>6590</v>
       </c>
       <c r="G6" t="n">
+        <v>68.93000000000002</v>
+      </c>
+      <c r="H6" t="n">
         <v>70.42933333333328</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>268.8519</v>
       </c>
       <c r="G7" t="n">
+        <v>68.87066666666668</v>
+      </c>
+      <c r="H7" t="n">
         <v>70.36283333333328</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>487</v>
       </c>
       <c r="G8" t="n">
+        <v>68.82466666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>70.29633333333328</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>118019.9141</v>
       </c>
       <c r="G9" t="n">
+        <v>68.77800000000001</v>
+      </c>
+      <c r="H9" t="n">
         <v>70.24516666666662</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>29038.6956</v>
       </c>
       <c r="G10" t="n">
+        <v>68.73133333333334</v>
+      </c>
+      <c r="H10" t="n">
         <v>70.18199999999996</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>1801.8312</v>
       </c>
       <c r="G11" t="n">
+        <v>68.70466666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>70.1358333333333</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>19757.2138</v>
       </c>
       <c r="G12" t="n">
+        <v>68.57199999999999</v>
+      </c>
+      <c r="H12" t="n">
         <v>70.0693333333333</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>3060.4219</v>
       </c>
       <c r="G13" t="n">
+        <v>68.52133333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>70.02599999999997</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>1214.236</v>
       </c>
       <c r="G14" t="n">
+        <v>68.43599999999999</v>
+      </c>
+      <c r="H14" t="n">
         <v>69.9813333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>23000</v>
       </c>
       <c r="G15" t="n">
+        <v>68.29666666666665</v>
+      </c>
+      <c r="H15" t="n">
         <v>69.92283333333329</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>2571</v>
       </c>
       <c r="G16" t="n">
+        <v>68.11999999999999</v>
+      </c>
+      <c r="H16" t="n">
         <v>69.87433333333327</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>7200.8561</v>
       </c>
       <c r="G17" t="n">
+        <v>68</v>
+      </c>
+      <c r="H17" t="n">
         <v>69.81949999999993</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,25 @@
         <v>23000</v>
       </c>
       <c r="G18" t="n">
+        <v>67.87733333333334</v>
+      </c>
+      <c r="H18" t="n">
         <v>69.76566666666662</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="L18" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1103,29 @@
         <v>1191.6675</v>
       </c>
       <c r="G19" t="n">
+        <v>67.80333333333334</v>
+      </c>
+      <c r="H19" t="n">
         <v>69.71566666666662</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L19" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1149,29 @@
         <v>3431.2739</v>
       </c>
       <c r="G20" t="n">
+        <v>67.70866666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>69.65116666666661</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="L20" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1195,29 @@
         <v>42441.1862</v>
       </c>
       <c r="G21" t="n">
+        <v>67.65866666666668</v>
+      </c>
+      <c r="H21" t="n">
         <v>69.59216666666661</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="L21" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1241,27 @@
         <v>14706.43548263491</v>
       </c>
       <c r="G22" t="n">
+        <v>67.65933333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>69.54283333333328</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1285,29 @@
         <v>2425.2513</v>
       </c>
       <c r="G23" t="n">
+        <v>67.658</v>
+      </c>
+      <c r="H23" t="n">
         <v>69.49249999999994</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="L23" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1331,29 @@
         <v>6317.2949</v>
       </c>
       <c r="G24" t="n">
+        <v>67.62466666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>69.43416666666661</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>67.98</v>
+      </c>
+      <c r="L24" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1377,29 @@
         <v>5586.1539</v>
       </c>
       <c r="G25" t="n">
+        <v>67.58200000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>69.37349999999994</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="L25" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1423,27 @@
         <v>3800</v>
       </c>
       <c r="G26" t="n">
+        <v>67.58133333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>69.32349999999994</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1467,27 @@
         <v>1315.7759</v>
       </c>
       <c r="G27" t="n">
+        <v>67.654</v>
+      </c>
+      <c r="H27" t="n">
         <v>69.27516666666661</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1511,27 @@
         <v>2413.4214</v>
       </c>
       <c r="G28" t="n">
+        <v>67.66199999999999</v>
+      </c>
+      <c r="H28" t="n">
         <v>69.22549999999995</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1555,29 @@
         <v>991.3283</v>
       </c>
       <c r="G29" t="n">
+        <v>67.66933333333334</v>
+      </c>
+      <c r="H29" t="n">
         <v>69.17583333333329</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="L29" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1601,29 @@
         <v>462.476</v>
       </c>
       <c r="G30" t="n">
+        <v>67.71266666666668</v>
+      </c>
+      <c r="H30" t="n">
         <v>69.12616666666663</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="L30" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1647,29 @@
         <v>517.0488</v>
       </c>
       <c r="G31" t="n">
+        <v>67.75400000000002</v>
+      </c>
+      <c r="H31" t="n">
         <v>69.07699999999997</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="L31" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1693,29 @@
         <v>897.7068</v>
       </c>
       <c r="G32" t="n">
+        <v>67.79533333333336</v>
+      </c>
+      <c r="H32" t="n">
         <v>69.0273333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="L32" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1739,29 @@
         <v>11501.8641</v>
       </c>
       <c r="G33" t="n">
+        <v>67.83200000000004</v>
+      </c>
+      <c r="H33" t="n">
         <v>68.96566666666665</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="L33" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1785,29 @@
         <v>833.9897999999999</v>
       </c>
       <c r="G34" t="n">
+        <v>67.84000000000003</v>
+      </c>
+      <c r="H34" t="n">
         <v>68.89933333333332</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="L34" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1831,29 @@
         <v>621</v>
       </c>
       <c r="G35" t="n">
+        <v>67.90066666666671</v>
+      </c>
+      <c r="H35" t="n">
         <v>68.83083333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="L35" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,22 +1877,29 @@
         <v>873.3149</v>
       </c>
       <c r="G36" t="n">
+        <v>67.93933333333338</v>
+      </c>
+      <c r="H36" t="n">
         <v>68.76233333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>68.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1677,24 +1923,29 @@
         <v>1905.277</v>
       </c>
       <c r="G37" t="n">
+        <v>67.93933333333338</v>
+      </c>
+      <c r="H37" t="n">
         <v>68.69383333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1718,26 +1969,29 @@
         <v>88.46680000000001</v>
       </c>
       <c r="G38" t="n">
+        <v>67.96600000000005</v>
+      </c>
+      <c r="H38" t="n">
         <v>68.63366666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>68.01000000000001</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1761,18 +2015,29 @@
         <v>996.1002</v>
       </c>
       <c r="G39" t="n">
+        <v>68.02466666666672</v>
+      </c>
+      <c r="H39" t="n">
         <v>68.57350000000001</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>68.38</v>
+      </c>
+      <c r="L39" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1796,18 +2061,29 @@
         <v>9700</v>
       </c>
       <c r="G40" t="n">
+        <v>68.10866666666671</v>
+      </c>
+      <c r="H40" t="n">
         <v>68.52966666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>68.38</v>
+      </c>
+      <c r="L40" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,18 +2107,29 @@
         <v>1129.9558</v>
       </c>
       <c r="G41" t="n">
+        <v>68.15133333333338</v>
+      </c>
+      <c r="H41" t="n">
         <v>68.49033333333335</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>68.62</v>
+      </c>
+      <c r="L41" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1866,18 +2153,29 @@
         <v>14987.4338</v>
       </c>
       <c r="G42" t="n">
+        <v>68.22333333333339</v>
+      </c>
+      <c r="H42" t="n">
         <v>68.46300000000002</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>68.64</v>
+      </c>
+      <c r="L42" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1901,18 +2199,29 @@
         <v>4823.7835</v>
       </c>
       <c r="G43" t="n">
+        <v>68.31000000000004</v>
+      </c>
+      <c r="H43" t="n">
         <v>68.43800000000003</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>69.18000000000001</v>
+      </c>
+      <c r="L43" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,18 +2245,29 @@
         <v>7796.1956</v>
       </c>
       <c r="G44" t="n">
+        <v>68.39533333333338</v>
+      </c>
+      <c r="H44" t="n">
         <v>68.43300000000002</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>69.31999999999999</v>
+      </c>
+      <c r="L44" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1971,18 +2291,29 @@
         <v>808</v>
       </c>
       <c r="G45" t="n">
+        <v>68.48066666666672</v>
+      </c>
+      <c r="H45" t="n">
         <v>68.4111666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L45" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2337,29 @@
         <v>6456.7706</v>
       </c>
       <c r="G46" t="n">
+        <v>68.56733333333338</v>
+      </c>
+      <c r="H46" t="n">
         <v>68.39633333333336</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="L46" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2383,29 @@
         <v>6610.7466</v>
       </c>
       <c r="G47" t="n">
+        <v>68.65533333333337</v>
+      </c>
+      <c r="H47" t="n">
         <v>68.38183333333336</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>69.31999999999999</v>
+      </c>
+      <c r="L47" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2429,29 @@
         <v>298.288</v>
       </c>
       <c r="G48" t="n">
+        <v>68.76133333333337</v>
+      </c>
+      <c r="H48" t="n">
         <v>68.38183333333336</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>69.34</v>
+      </c>
+      <c r="L48" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2475,29 @@
         <v>6232.4873</v>
       </c>
       <c r="G49" t="n">
+        <v>68.8606666666667</v>
+      </c>
+      <c r="H49" t="n">
         <v>68.38183333333336</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="L49" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2521,27 @@
         <v>500.9508</v>
       </c>
       <c r="G50" t="n">
+        <v>68.9306666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>68.37933333333336</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2565,29 @@
         <v>2696.5577</v>
       </c>
       <c r="G51" t="n">
+        <v>69.0006666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>68.38216666666671</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="L51" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2611,29 @@
         <v>715.9964</v>
       </c>
       <c r="G52" t="n">
+        <v>69.0706666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>68.38500000000003</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="L52" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2657,29 @@
         <v>5286.0622</v>
       </c>
       <c r="G53" t="n">
+        <v>69.11600000000001</v>
+      </c>
+      <c r="H53" t="n">
         <v>68.39116666666672</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+        <v>1</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="L53" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2703,29 @@
         <v>1645.1359</v>
       </c>
       <c r="G54" t="n">
+        <v>69.15733333333334</v>
+      </c>
+      <c r="H54" t="n">
         <v>68.39616666666672</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="L54" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2749,29 @@
         <v>292.0622</v>
       </c>
       <c r="G55" t="n">
+        <v>69.17600000000002</v>
+      </c>
+      <c r="H55" t="n">
         <v>68.39950000000005</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>69</v>
+      </c>
+      <c r="L55" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2795,29 @@
         <v>825.639</v>
       </c>
       <c r="G56" t="n">
+        <v>69.18666666666668</v>
+      </c>
+      <c r="H56" t="n">
         <v>68.40600000000005</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="L56" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,18 +2841,29 @@
         <v>6137.8</v>
       </c>
       <c r="G57" t="n">
+        <v>69.21466666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>68.41600000000007</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2426,18 +2887,29 @@
         <v>298.288</v>
       </c>
       <c r="G58" t="n">
+        <v>69.27333333333334</v>
+      </c>
+      <c r="H58" t="n">
         <v>68.44166666666673</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="L58" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2933,29 @@
         <v>36290.7368</v>
       </c>
       <c r="G59" t="n">
+        <v>69.37333333333335</v>
+      </c>
+      <c r="H59" t="n">
         <v>68.46850000000008</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="L59" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2979,29 @@
         <v>27417.3531</v>
       </c>
       <c r="G60" t="n">
+        <v>69.47333333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>68.49083333333341</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="L60" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +3025,27 @@
         <v>37109.7192</v>
       </c>
       <c r="G61" t="n">
+        <v>69.58533333333335</v>
+      </c>
+      <c r="H61" t="n">
         <v>68.50666666666673</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +3069,27 @@
         <v>220286.6907</v>
       </c>
       <c r="G62" t="n">
+        <v>69.76266666666669</v>
+      </c>
+      <c r="H62" t="n">
         <v>68.55333333333341</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +3113,27 @@
         <v>138507.8384</v>
       </c>
       <c r="G63" t="n">
+        <v>69.99466666666669</v>
+      </c>
+      <c r="H63" t="n">
         <v>68.6163333333334</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +3157,27 @@
         <v>37156.0528</v>
       </c>
       <c r="G64" t="n">
+        <v>70.25333333333334</v>
+      </c>
+      <c r="H64" t="n">
         <v>68.68933333333341</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +3201,27 @@
         <v>55159.7276</v>
       </c>
       <c r="G65" t="n">
+        <v>70.58266666666668</v>
+      </c>
+      <c r="H65" t="n">
         <v>68.78066666666673</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +3245,27 @@
         <v>71140.08387348526</v>
       </c>
       <c r="G66" t="n">
+        <v>70.88533333333335</v>
+      </c>
+      <c r="H66" t="n">
         <v>68.87100000000007</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +3289,27 @@
         <v>57008.38162651475</v>
       </c>
       <c r="G67" t="n">
+        <v>71.18133333333336</v>
+      </c>
+      <c r="H67" t="n">
         <v>68.96266666666673</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +3333,27 @@
         <v>9</v>
       </c>
       <c r="G68" t="n">
+        <v>71.55733333333336</v>
+      </c>
+      <c r="H68" t="n">
         <v>69.0743333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +3377,27 @@
         <v>27</v>
       </c>
       <c r="G69" t="n">
+        <v>71.86600000000001</v>
+      </c>
+      <c r="H69" t="n">
         <v>69.16816666666674</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3421,27 @@
         <v>5526.7604</v>
       </c>
       <c r="G70" t="n">
+        <v>72.19266666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>69.2648333333334</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3465,27 @@
         <v>15200.9364</v>
       </c>
       <c r="G71" t="n">
+        <v>72.59733333333335</v>
+      </c>
+      <c r="H71" t="n">
         <v>69.37916666666673</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3509,27 @@
         <v>107630.9851</v>
       </c>
       <c r="G72" t="n">
+        <v>72.91733333333336</v>
+      </c>
+      <c r="H72" t="n">
         <v>69.50233333333338</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3553,27 @@
         <v>13428.2033587217</v>
       </c>
       <c r="G73" t="n">
+        <v>73.24400000000001</v>
+      </c>
+      <c r="H73" t="n">
         <v>69.6223333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3597,27 @@
         <v>32883.5179</v>
       </c>
       <c r="G74" t="n">
+        <v>73.51066666666669</v>
+      </c>
+      <c r="H74" t="n">
         <v>69.73716666666674</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3641,27 @@
         <v>17520.4783</v>
       </c>
       <c r="G75" t="n">
+        <v>73.71400000000001</v>
+      </c>
+      <c r="H75" t="n">
         <v>69.84516666666674</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3685,27 @@
         <v>10577.0029</v>
       </c>
       <c r="G76" t="n">
+        <v>73.90000000000002</v>
+      </c>
+      <c r="H76" t="n">
         <v>69.95166666666675</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3729,27 @@
         <v>92985.12537348525</v>
       </c>
       <c r="G77" t="n">
+        <v>73.99266666666669</v>
+      </c>
+      <c r="H77" t="n">
         <v>70.05150000000009</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3773,27 @@
         <v>9724.938599999999</v>
       </c>
       <c r="G78" t="n">
+        <v>73.95666666666669</v>
+      </c>
+      <c r="H78" t="n">
         <v>70.13616666666675</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3817,27 @@
         <v>50</v>
       </c>
       <c r="G79" t="n">
+        <v>73.90333333333335</v>
+      </c>
+      <c r="H79" t="n">
         <v>70.21433333333341</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3861,27 @@
         <v>23958.9147</v>
       </c>
       <c r="G80" t="n">
+        <v>73.85466666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>70.31716666666675</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3905,27 @@
         <v>5117.5777</v>
       </c>
       <c r="G81" t="n">
+        <v>73.79400000000003</v>
+      </c>
+      <c r="H81" t="n">
         <v>70.40483333333341</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3949,27 @@
         <v>1208.1143</v>
       </c>
       <c r="G82" t="n">
+        <v>73.72066666666669</v>
+      </c>
+      <c r="H82" t="n">
         <v>70.47800000000007</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3993,27 @@
         <v>29739.8359</v>
       </c>
       <c r="G83" t="n">
+        <v>73.56733333333337</v>
+      </c>
+      <c r="H83" t="n">
         <v>70.55166666666673</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +4037,27 @@
         <v>18578.6575</v>
       </c>
       <c r="G84" t="n">
+        <v>73.48533333333337</v>
+      </c>
+      <c r="H84" t="n">
         <v>70.6333333333334</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +4081,27 @@
         <v>11.1691</v>
       </c>
       <c r="G85" t="n">
+        <v>73.40466666666671</v>
+      </c>
+      <c r="H85" t="n">
         <v>70.72050000000007</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +4125,27 @@
         <v>27</v>
       </c>
       <c r="G86" t="n">
+        <v>73.2526666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>70.79700000000007</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +4169,27 @@
         <v>27965.7303</v>
       </c>
       <c r="G87" t="n">
+        <v>73.08666666666669</v>
+      </c>
+      <c r="H87" t="n">
         <v>70.86050000000006</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +4213,27 @@
         <v>17935.7354</v>
       </c>
       <c r="G88" t="n">
+        <v>72.87400000000004</v>
+      </c>
+      <c r="H88" t="n">
         <v>70.92533333333338</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +4257,27 @@
         <v>6120.3193</v>
       </c>
       <c r="G89" t="n">
+        <v>72.68133333333338</v>
+      </c>
+      <c r="H89" t="n">
         <v>70.99016666666671</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +4301,27 @@
         <v>7983.3778</v>
       </c>
       <c r="G90" t="n">
+        <v>72.51800000000006</v>
+      </c>
+      <c r="H90" t="n">
         <v>71.04650000000002</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +4345,27 @@
         <v>22.7856</v>
       </c>
       <c r="G91" t="n">
+        <v>72.42466666666674</v>
+      </c>
+      <c r="H91" t="n">
         <v>71.11933333333336</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +4389,27 @@
         <v>3403.4927</v>
       </c>
       <c r="G92" t="n">
+        <v>72.35666666666674</v>
+      </c>
+      <c r="H92" t="n">
         <v>71.19183333333335</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +4433,27 @@
         <v>22.5224</v>
       </c>
       <c r="G93" t="n">
+        <v>72.3873333333334</v>
+      </c>
+      <c r="H93" t="n">
         <v>71.27500000000002</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +4477,27 @@
         <v>1080</v>
       </c>
       <c r="G94" t="n">
+        <v>72.40866666666675</v>
+      </c>
+      <c r="H94" t="n">
         <v>71.35650000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4521,27 @@
         <v>16287.7687</v>
       </c>
       <c r="G95" t="n">
+        <v>72.35133333333343</v>
+      </c>
+      <c r="H95" t="n">
         <v>71.42983333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4565,27 @@
         <v>37012.9439</v>
       </c>
       <c r="G96" t="n">
+        <v>72.33866666666675</v>
+      </c>
+      <c r="H96" t="n">
         <v>71.50466666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4609,27 @@
         <v>24439.2019</v>
       </c>
       <c r="G97" t="n">
+        <v>72.36466666666675</v>
+      </c>
+      <c r="H97" t="n">
         <v>71.58433333333332</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4653,27 @@
         <v>13502.226</v>
       </c>
       <c r="G98" t="n">
+        <v>72.40466666666674</v>
+      </c>
+      <c r="H98" t="n">
         <v>71.66133333333332</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4697,27 @@
         <v>19.4483</v>
       </c>
       <c r="G99" t="n">
+        <v>72.44466666666673</v>
+      </c>
+      <c r="H99" t="n">
         <v>71.73833333333332</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4741,27 @@
         <v>1593.0566</v>
       </c>
       <c r="G100" t="n">
+        <v>72.47200000000007</v>
+      </c>
+      <c r="H100" t="n">
         <v>71.81133333333332</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4785,27 @@
         <v>271.3079</v>
       </c>
       <c r="G101" t="n">
+        <v>72.44066666666676</v>
+      </c>
+      <c r="H101" t="n">
         <v>71.86933333333332</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4829,27 @@
         <v>3000</v>
       </c>
       <c r="G102" t="n">
+        <v>72.43666666666674</v>
+      </c>
+      <c r="H102" t="n">
         <v>71.91383333333332</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4873,27 @@
         <v>0.2027</v>
       </c>
       <c r="G103" t="n">
+        <v>72.45066666666672</v>
+      </c>
+      <c r="H103" t="n">
         <v>71.96049999999998</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4917,27 @@
         <v>6659.108</v>
       </c>
       <c r="G104" t="n">
+        <v>72.47000000000006</v>
+      </c>
+      <c r="H104" t="n">
         <v>72.00883333333331</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4961,27 @@
         <v>31657.2551</v>
       </c>
       <c r="G105" t="n">
+        <v>72.51066666666672</v>
+      </c>
+      <c r="H105" t="n">
         <v>72.05399999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +5005,27 @@
         <v>13521.6743</v>
       </c>
       <c r="G106" t="n">
+        <v>72.46733333333337</v>
+      </c>
+      <c r="H106" t="n">
         <v>72.09433333333331</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +5049,27 @@
         <v>0.0001</v>
       </c>
       <c r="G107" t="n">
+        <v>72.44333333333337</v>
+      </c>
+      <c r="H107" t="n">
         <v>72.13883333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +5093,27 @@
         <v>151.9035</v>
       </c>
       <c r="G108" t="n">
+        <v>72.37000000000005</v>
+      </c>
+      <c r="H108" t="n">
         <v>72.17716666666664</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +5137,27 @@
         <v>16.9599</v>
       </c>
       <c r="G109" t="n">
+        <v>72.3606666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>72.23149999999997</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +5181,27 @@
         <v>8129.9229</v>
       </c>
       <c r="G110" t="n">
+        <v>72.40000000000003</v>
+      </c>
+      <c r="H110" t="n">
         <v>72.29716666666664</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +5225,27 @@
         <v>12.608</v>
       </c>
       <c r="G111" t="n">
+        <v>72.46400000000003</v>
+      </c>
+      <c r="H111" t="n">
         <v>72.37049999999996</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +5269,27 @@
         <v>11045.3147</v>
       </c>
       <c r="G112" t="n">
+        <v>72.5806666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>72.46183333333329</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +5313,27 @@
         <v>41864.3479</v>
       </c>
       <c r="G113" t="n">
+        <v>72.75400000000003</v>
+      </c>
+      <c r="H113" t="n">
         <v>72.57083333333328</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +5357,27 @@
         <v>2095.4435</v>
       </c>
       <c r="G114" t="n">
+        <v>72.92733333333335</v>
+      </c>
+      <c r="H114" t="n">
         <v>72.6808333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +5401,27 @@
         <v>32118.6742</v>
       </c>
       <c r="G115" t="n">
+        <v>73.11400000000002</v>
+      </c>
+      <c r="H115" t="n">
         <v>72.79583333333331</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +5445,27 @@
         <v>153837.8859526316</v>
       </c>
       <c r="G116" t="n">
+        <v>73.39200000000001</v>
+      </c>
+      <c r="H116" t="n">
         <v>72.92066666666663</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,18 +5489,27 @@
         <v>15562.4693</v>
       </c>
       <c r="G117" t="n">
+        <v>73.71133333333336</v>
+      </c>
+      <c r="H117" t="n">
         <v>73.03799999999997</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,18 +5533,27 @@
         <v>168816.158</v>
       </c>
       <c r="G118" t="n">
+        <v>74.16800000000003</v>
+      </c>
+      <c r="H118" t="n">
         <v>73.18416666666664</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5577,27 @@
         <v>84366.03230000001</v>
       </c>
       <c r="G119" t="n">
+        <v>74.53666666666669</v>
+      </c>
+      <c r="H119" t="n">
         <v>73.29966666666662</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5621,27 @@
         <v>145545.7771748314</v>
       </c>
       <c r="G120" t="n">
+        <v>74.99533333333336</v>
+      </c>
+      <c r="H120" t="n">
         <v>73.43449999999997</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>1</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5665,27 @@
         <v>16261.1821</v>
       </c>
       <c r="G121" t="n">
+        <v>75.27533333333336</v>
+      </c>
+      <c r="H121" t="n">
         <v>73.5168333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>1</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5709,27 @@
         <v>82064.0852</v>
       </c>
       <c r="G122" t="n">
+        <v>75.73400000000005</v>
+      </c>
+      <c r="H122" t="n">
         <v>73.63166666666663</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5753,27 @@
         <v>37986.9516</v>
       </c>
       <c r="G123" t="n">
+        <v>76.10400000000004</v>
+      </c>
+      <c r="H123" t="n">
         <v>73.70449999999997</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5797,27 @@
         <v>136018.2922753911</v>
       </c>
       <c r="G124" t="n">
+        <v>76.51933333333338</v>
+      </c>
+      <c r="H124" t="n">
         <v>73.79799999999996</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5841,27 @@
         <v>36986.1415</v>
       </c>
       <c r="G125" t="n">
+        <v>76.91266666666671</v>
+      </c>
+      <c r="H125" t="n">
         <v>73.87966666666662</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5885,27 @@
         <v>65505.55802749054</v>
       </c>
       <c r="G126" t="n">
+        <v>77.29533333333339</v>
+      </c>
+      <c r="H126" t="n">
         <v>73.97299999999994</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,19 +5929,28 @@
         <v>45741.33402321298</v>
       </c>
       <c r="G127" t="n">
+        <v>77.61933333333339</v>
+      </c>
+      <c r="H127" t="n">
         <v>74.07133333333327</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>1</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
+      <c r="L127" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>1.173041543026706</v>
       </c>
     </row>
     <row r="128">
@@ -4876,18 +5973,21 @@
         <v>44918.1907</v>
       </c>
       <c r="G128" t="n">
+        <v>77.81400000000006</v>
+      </c>
+      <c r="H128" t="n">
         <v>74.13499999999995</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>1</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +6011,21 @@
         <v>79908.42329999999</v>
       </c>
       <c r="G129" t="n">
+        <v>77.98066666666674</v>
+      </c>
+      <c r="H129" t="n">
         <v>74.20949999999995</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>1</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +6049,21 @@
         <v>77091.11780000001</v>
       </c>
       <c r="G130" t="n">
+        <v>78.14600000000006</v>
+      </c>
+      <c r="H130" t="n">
         <v>74.28416666666661</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>1</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +6087,21 @@
         <v>67209.80839999999</v>
       </c>
       <c r="G131" t="n">
+        <v>78.3373333333334</v>
+      </c>
+      <c r="H131" t="n">
         <v>74.35566666666661</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +6125,401 @@
         <v>2407.4164839417</v>
       </c>
       <c r="G132" t="n">
+        <v>78.39666666666673</v>
+      </c>
+      <c r="H132" t="n">
         <v>74.40783333333327</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>77.41</v>
+      </c>
+      <c r="C133" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D133" t="n">
+        <v>77.41</v>
+      </c>
+      <c r="E133" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="F133" t="n">
+        <v>803.73368990312</v>
+      </c>
+      <c r="G133" t="n">
+        <v>78.29200000000007</v>
+      </c>
+      <c r="H133" t="n">
+        <v>74.4461666666666</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>76.87</v>
+      </c>
+      <c r="C134" t="n">
+        <v>76.31</v>
+      </c>
+      <c r="D134" t="n">
+        <v>76.87</v>
+      </c>
+      <c r="E134" t="n">
+        <v>76.31</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1735.3487</v>
+      </c>
+      <c r="G134" t="n">
+        <v>78.19733333333339</v>
+      </c>
+      <c r="H134" t="n">
+        <v>74.47133333333326</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1</v>
+      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>76.05</v>
+      </c>
+      <c r="C135" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="D135" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="E135" t="n">
+        <v>74.33</v>
+      </c>
+      <c r="F135" t="n">
+        <v>185691.8218</v>
+      </c>
+      <c r="G135" t="n">
+        <v>78.00866666666671</v>
+      </c>
+      <c r="H135" t="n">
+        <v>74.5081666666666</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1</v>
+      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="C136" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D136" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="E136" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="F136" t="n">
+        <v>38926.6884</v>
+      </c>
+      <c r="G136" t="n">
+        <v>77.96600000000005</v>
+      </c>
+      <c r="H136" t="n">
+        <v>74.53333333333327</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>75.29000000000001</v>
+      </c>
+      <c r="C137" t="n">
+        <v>75.39</v>
+      </c>
+      <c r="D137" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E137" t="n">
+        <v>74.72</v>
+      </c>
+      <c r="F137" t="n">
+        <v>95585.317</v>
+      </c>
+      <c r="G137" t="n">
+        <v>77.73266666666672</v>
+      </c>
+      <c r="H137" t="n">
+        <v>74.56666666666661</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>75.64</v>
+      </c>
+      <c r="C138" t="n">
+        <v>76.08</v>
+      </c>
+      <c r="D138" t="n">
+        <v>76.08</v>
+      </c>
+      <c r="E138" t="n">
+        <v>75.64</v>
+      </c>
+      <c r="F138" t="n">
+        <v>7424.4357</v>
+      </c>
+      <c r="G138" t="n">
+        <v>77.64133333333338</v>
+      </c>
+      <c r="H138" t="n">
+        <v>74.6256666666666</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="C139" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="D139" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="E139" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="F139" t="n">
+        <v>10809.6887</v>
+      </c>
+      <c r="G139" t="n">
+        <v>77.37400000000004</v>
+      </c>
+      <c r="H139" t="n">
+        <v>74.6656666666666</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="C140" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="D140" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="E140" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="F140" t="n">
+        <v>573.874</v>
+      </c>
+      <c r="G140" t="n">
+        <v>77.13800000000002</v>
+      </c>
+      <c r="H140" t="n">
+        <v>74.70049999999992</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="C141" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="D141" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="E141" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="F141" t="n">
+        <v>6631.4575</v>
+      </c>
+      <c r="G141" t="n">
+        <v>76.88200000000002</v>
+      </c>
+      <c r="H141" t="n">
+        <v>74.74499999999992</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>75.73</v>
+      </c>
+      <c r="C142" t="n">
+        <v>76.33</v>
+      </c>
+      <c r="D142" t="n">
+        <v>76.33</v>
+      </c>
+      <c r="E142" t="n">
+        <v>75.70999999999999</v>
+      </c>
+      <c r="F142" t="n">
+        <v>48046.1351</v>
+      </c>
+      <c r="G142" t="n">
+        <v>76.67733333333334</v>
+      </c>
+      <c r="H142" t="n">
+        <v>74.81049999999992</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest ELF.xlsx
+++ b/BackTest/2020-01-19 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N142"/>
+  <dimension ref="A1:M171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>MA60</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Condition</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>69.2</v>
+        <v>71</v>
       </c>
       <c r="C2" t="n">
-        <v>69.2</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>69.2</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>69.2</v>
+        <v>71</v>
       </c>
       <c r="F2" t="n">
-        <v>1023.8023</v>
+        <v>20010.6647095942</v>
       </c>
       <c r="G2" t="n">
-        <v>69.07666666666668</v>
+        <v>483444.5909532532</v>
       </c>
       <c r="H2" t="n">
-        <v>70.64949999999993</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,36 +468,33 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>69.3</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>69.3</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>69.3</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>69.3</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>295.0495</v>
+        <v>23678.936</v>
       </c>
       <c r="G3" t="n">
-        <v>69.05666666666669</v>
+        <v>507123.5269532532</v>
       </c>
       <c r="H3" t="n">
-        <v>70.60499999999993</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -514,36 +503,33 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>69.09999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="C4" t="n">
-        <v>69</v>
+        <v>72.12</v>
       </c>
       <c r="D4" t="n">
-        <v>69.09999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="E4" t="n">
-        <v>69</v>
+        <v>72.12</v>
       </c>
       <c r="F4" t="n">
-        <v>2465</v>
+        <v>5665.9932</v>
       </c>
       <c r="G4" t="n">
-        <v>69.02333333333335</v>
+        <v>512789.5201532532</v>
       </c>
       <c r="H4" t="n">
-        <v>70.55516666666659</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -552,36 +538,33 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>68.61</v>
+        <v>72.12</v>
       </c>
       <c r="C5" t="n">
-        <v>68.52</v>
+        <v>72.12</v>
       </c>
       <c r="D5" t="n">
-        <v>68.61</v>
+        <v>72.12</v>
       </c>
       <c r="E5" t="n">
-        <v>68.52</v>
+        <v>72.12</v>
       </c>
       <c r="F5" t="n">
-        <v>12450.8832</v>
+        <v>151.0193</v>
       </c>
       <c r="G5" t="n">
-        <v>68.97733333333335</v>
+        <v>512789.5201532532</v>
       </c>
       <c r="H5" t="n">
-        <v>70.49549999999994</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -590,36 +573,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68.52</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>68.18000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="D6" t="n">
-        <v>68.52</v>
+        <v>72.12</v>
       </c>
       <c r="E6" t="n">
-        <v>68.18000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>6590</v>
+        <v>5691.5246</v>
       </c>
       <c r="G6" t="n">
-        <v>68.93000000000002</v>
+        <v>512789.5201532532</v>
       </c>
       <c r="H6" t="n">
-        <v>70.42933333333328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -628,36 +608,33 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68.18000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>68</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>68.18000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>68</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>268.8519</v>
+        <v>450.8161</v>
       </c>
       <c r="G7" t="n">
-        <v>68.87066666666668</v>
+        <v>512338.7040532532</v>
       </c>
       <c r="H7" t="n">
-        <v>70.36283333333328</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -666,36 +643,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>68</v>
+        <v>72.11</v>
       </c>
       <c r="E8" t="n">
-        <v>68</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>487</v>
+        <v>9658.2382</v>
       </c>
       <c r="G8" t="n">
-        <v>68.82466666666667</v>
+        <v>512338.7040532532</v>
       </c>
       <c r="H8" t="n">
-        <v>70.29633333333328</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -704,36 +678,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>68</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>68</v>
+        <v>71.25</v>
       </c>
       <c r="D9" t="n">
-        <v>68</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>68</v>
+        <v>71.25</v>
       </c>
       <c r="F9" t="n">
-        <v>118019.9141</v>
+        <v>13099.5007</v>
       </c>
       <c r="G9" t="n">
-        <v>68.77800000000001</v>
+        <v>499239.2033532533</v>
       </c>
       <c r="H9" t="n">
-        <v>70.24516666666662</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -742,36 +713,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D10" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E10" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F10" t="n">
-        <v>29038.6956</v>
+        <v>3485.424</v>
       </c>
       <c r="G10" t="n">
-        <v>68.73133333333334</v>
+        <v>495753.7793532533</v>
       </c>
       <c r="H10" t="n">
-        <v>70.18199999999996</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,36 +748,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>68.01000000000001</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>68.01000000000001</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>68.01000000000001</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>68.01000000000001</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>1801.8312</v>
+        <v>971.1618999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>68.70466666666667</v>
+        <v>494782.6174532532</v>
       </c>
       <c r="H11" t="n">
-        <v>70.1358333333333</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="n">
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -818,36 +783,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67.98</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>67.01000000000001</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>67.98</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>67.01000000000001</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>19757.2138</v>
+        <v>4.8453</v>
       </c>
       <c r="G12" t="n">
-        <v>68.57199999999999</v>
+        <v>494782.6174532532</v>
       </c>
       <c r="H12" t="n">
-        <v>70.0693333333333</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="n">
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -856,36 +818,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>67.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>67.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>67.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>3060.4219</v>
+        <v>525.88</v>
       </c>
       <c r="G13" t="n">
-        <v>68.52133333333333</v>
+        <v>494256.7374532532</v>
       </c>
       <c r="H13" t="n">
-        <v>70.02599999999997</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -894,36 +853,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>67.91</v>
+        <v>70.61</v>
       </c>
       <c r="C14" t="n">
-        <v>67.91</v>
+        <v>70.61</v>
       </c>
       <c r="D14" t="n">
-        <v>67.91</v>
+        <v>70.61</v>
       </c>
       <c r="E14" t="n">
-        <v>67.91</v>
+        <v>70.61</v>
       </c>
       <c r="F14" t="n">
-        <v>1214.236</v>
+        <v>37.0043</v>
       </c>
       <c r="G14" t="n">
-        <v>68.43599999999999</v>
+        <v>494293.7417532532</v>
       </c>
       <c r="H14" t="n">
-        <v>69.9813333333333</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -932,36 +888,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>67.37</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>67.37</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>67.37</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>67.37</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>23000</v>
+        <v>49250</v>
       </c>
       <c r="G15" t="n">
-        <v>68.29666666666665</v>
+        <v>445043.7417532532</v>
       </c>
       <c r="H15" t="n">
-        <v>69.92283333333329</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -970,36 +923,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>67.40000000000001</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>67.40000000000001</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>67.40000000000001</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>67.40000000000001</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>2571</v>
+        <v>29361.3145</v>
       </c>
       <c r="G16" t="n">
-        <v>68.11999999999999</v>
+        <v>445043.7417532532</v>
       </c>
       <c r="H16" t="n">
-        <v>69.87433333333327</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,36 +958,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>67.40000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>67.40000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>67.40000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>67.40000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>7200.8561</v>
+        <v>197.9794</v>
       </c>
       <c r="G17" t="n">
-        <v>68</v>
+        <v>444845.7623532532</v>
       </c>
       <c r="H17" t="n">
-        <v>69.81949999999993</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1046,40 +993,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>67.45</v>
+        <v>69.59</v>
       </c>
       <c r="C18" t="n">
-        <v>67.45999999999999</v>
+        <v>69.5</v>
       </c>
       <c r="D18" t="n">
-        <v>67.45999999999999</v>
+        <v>69.59</v>
       </c>
       <c r="E18" t="n">
-        <v>67.45</v>
+        <v>69.5</v>
       </c>
       <c r="F18" t="n">
-        <v>23000</v>
+        <v>94.25</v>
       </c>
       <c r="G18" t="n">
-        <v>67.87733333333334</v>
+        <v>444751.5123532532</v>
       </c>
       <c r="H18" t="n">
-        <v>69.76566666666662</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="L18" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1088,44 +1028,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>67.89</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>67.89</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>67.89</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>67.89</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>1191.6675</v>
+        <v>13132.143</v>
       </c>
       <c r="G19" t="n">
-        <v>67.80333333333334</v>
+        <v>431619.3693532532</v>
       </c>
       <c r="H19" t="n">
-        <v>69.71566666666662</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L19" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1134,44 +1063,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>67.89</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>67.09999999999999</v>
+        <v>68.89</v>
       </c>
       <c r="D20" t="n">
-        <v>67.89</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>67.09999999999999</v>
+        <v>68.89</v>
       </c>
       <c r="F20" t="n">
-        <v>3431.2739</v>
+        <v>2111.5494</v>
       </c>
       <c r="G20" t="n">
-        <v>67.70866666666667</v>
+        <v>429507.8199532532</v>
       </c>
       <c r="H20" t="n">
-        <v>69.65116666666661</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>67.89</v>
-      </c>
-      <c r="L20" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1180,44 +1098,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>67.43000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="C21" t="n">
-        <v>67.43000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="D21" t="n">
-        <v>67.43000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="E21" t="n">
-        <v>67.43000000000001</v>
+        <v>68.89</v>
       </c>
       <c r="F21" t="n">
-        <v>42441.1862</v>
+        <v>595.1785</v>
       </c>
       <c r="G21" t="n">
-        <v>67.65866666666668</v>
+        <v>429507.8199532532</v>
       </c>
       <c r="H21" t="n">
-        <v>69.59216666666661</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="L21" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1226,42 +1133,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>67.89</v>
+        <v>68.75</v>
       </c>
       <c r="C22" t="n">
-        <v>68.01000000000001</v>
+        <v>68.69</v>
       </c>
       <c r="D22" t="n">
-        <v>68.01000000000001</v>
+        <v>68.75</v>
       </c>
       <c r="E22" t="n">
-        <v>67.89</v>
+        <v>68.69</v>
       </c>
       <c r="F22" t="n">
-        <v>14706.43548263491</v>
+        <v>2384.0086</v>
       </c>
       <c r="G22" t="n">
-        <v>67.65933333333334</v>
+        <v>427123.8113532532</v>
       </c>
       <c r="H22" t="n">
-        <v>69.54283333333328</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1270,44 +1168,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>67.98</v>
+        <v>68.69</v>
       </c>
       <c r="C23" t="n">
-        <v>67.98</v>
+        <v>68.7</v>
       </c>
       <c r="D23" t="n">
-        <v>67.98</v>
+        <v>68.7</v>
       </c>
       <c r="E23" t="n">
-        <v>67.98</v>
+        <v>68.69</v>
       </c>
       <c r="F23" t="n">
-        <v>2425.2513</v>
+        <v>737.9478</v>
       </c>
       <c r="G23" t="n">
-        <v>67.658</v>
+        <v>427861.7591532532</v>
       </c>
       <c r="H23" t="n">
-        <v>69.49249999999994</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="L23" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1316,44 +1203,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>67.5</v>
+        <v>68.7</v>
       </c>
       <c r="C24" t="n">
-        <v>67.5</v>
+        <v>68.7</v>
       </c>
       <c r="D24" t="n">
-        <v>67.5</v>
+        <v>68.7</v>
       </c>
       <c r="E24" t="n">
-        <v>67.5</v>
+        <v>68.7</v>
       </c>
       <c r="F24" t="n">
-        <v>6317.2949</v>
+        <v>124.676</v>
       </c>
       <c r="G24" t="n">
-        <v>67.62466666666667</v>
+        <v>427861.7591532532</v>
       </c>
       <c r="H24" t="n">
-        <v>69.43416666666661</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>67.98</v>
-      </c>
-      <c r="L24" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1362,44 +1238,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>67.5</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>67.36</v>
+        <v>68.41</v>
       </c>
       <c r="D25" t="n">
-        <v>67.5</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>67.36</v>
+        <v>68.41</v>
       </c>
       <c r="F25" t="n">
-        <v>5586.1539</v>
+        <v>150342.2387</v>
       </c>
       <c r="G25" t="n">
-        <v>67.58200000000001</v>
+        <v>277519.5204532532</v>
       </c>
       <c r="H25" t="n">
-        <v>69.37349999999994</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="L25" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1408,42 +1273,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>67.97</v>
+        <v>69</v>
       </c>
       <c r="C26" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E26" t="n">
-        <v>67.97</v>
+        <v>69</v>
       </c>
       <c r="F26" t="n">
-        <v>3800</v>
+        <v>751.9029</v>
       </c>
       <c r="G26" t="n">
-        <v>67.58133333333333</v>
+        <v>278271.4233532532</v>
       </c>
       <c r="H26" t="n">
-        <v>69.32349999999994</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1452,42 +1308,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>68.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="C27" t="n">
-        <v>68.09999999999999</v>
+        <v>68.66</v>
       </c>
       <c r="D27" t="n">
-        <v>68.09999999999999</v>
+        <v>69</v>
       </c>
       <c r="E27" t="n">
-        <v>68.09999999999999</v>
+        <v>68.66</v>
       </c>
       <c r="F27" t="n">
-        <v>1315.7759</v>
+        <v>15638.5986</v>
       </c>
       <c r="G27" t="n">
-        <v>67.654</v>
+        <v>262632.8247532532</v>
       </c>
       <c r="H27" t="n">
-        <v>69.27516666666661</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1496,42 +1343,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>68.02</v>
+        <v>69.19</v>
       </c>
       <c r="C28" t="n">
-        <v>68.02</v>
+        <v>69.19</v>
       </c>
       <c r="D28" t="n">
-        <v>68.02</v>
+        <v>69.19</v>
       </c>
       <c r="E28" t="n">
-        <v>68.02</v>
+        <v>69.19</v>
       </c>
       <c r="F28" t="n">
-        <v>2413.4214</v>
+        <v>701.2103</v>
       </c>
       <c r="G28" t="n">
-        <v>67.66199999999999</v>
+        <v>263334.0350532532</v>
       </c>
       <c r="H28" t="n">
-        <v>69.22549999999995</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1540,44 +1378,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>68.02</v>
+        <v>69.5</v>
       </c>
       <c r="C29" t="n">
-        <v>68.02</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>68.02</v>
+        <v>69.5</v>
       </c>
       <c r="E29" t="n">
-        <v>68.02</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>991.3283</v>
+        <v>4727.19</v>
       </c>
       <c r="G29" t="n">
-        <v>67.66933333333334</v>
+        <v>268061.2250532532</v>
       </c>
       <c r="H29" t="n">
-        <v>69.17583333333329</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="L29" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1586,44 +1413,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>68.02</v>
+        <v>70.05</v>
       </c>
       <c r="C30" t="n">
-        <v>68.02</v>
+        <v>70.05</v>
       </c>
       <c r="D30" t="n">
-        <v>68.02</v>
+        <v>70.05</v>
       </c>
       <c r="E30" t="n">
-        <v>68.02</v>
+        <v>70.05</v>
       </c>
       <c r="F30" t="n">
-        <v>462.476</v>
+        <v>47.7081</v>
       </c>
       <c r="G30" t="n">
-        <v>67.71266666666668</v>
+        <v>268108.9331532532</v>
       </c>
       <c r="H30" t="n">
-        <v>69.12616666666663</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="L30" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1632,44 +1452,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>68.02</v>
+        <v>69.2</v>
       </c>
       <c r="C31" t="n">
-        <v>68.02</v>
+        <v>69.2</v>
       </c>
       <c r="D31" t="n">
-        <v>68.02</v>
+        <v>69.2</v>
       </c>
       <c r="E31" t="n">
-        <v>68.02</v>
+        <v>69.2</v>
       </c>
       <c r="F31" t="n">
-        <v>517.0488</v>
+        <v>1023.8023</v>
       </c>
       <c r="G31" t="n">
-        <v>67.75400000000002</v>
+        <v>267085.1308532532</v>
       </c>
       <c r="H31" t="n">
-        <v>69.07699999999997</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="L31" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,44 +1493,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>68.02</v>
+        <v>69.3</v>
       </c>
       <c r="C32" t="n">
-        <v>68.02</v>
+        <v>69.3</v>
       </c>
       <c r="D32" t="n">
-        <v>68.02</v>
+        <v>69.3</v>
       </c>
       <c r="E32" t="n">
-        <v>68.02</v>
+        <v>69.3</v>
       </c>
       <c r="F32" t="n">
-        <v>897.7068</v>
+        <v>295.0495</v>
       </c>
       <c r="G32" t="n">
-        <v>67.79533333333336</v>
+        <v>267380.1803532532</v>
       </c>
       <c r="H32" t="n">
-        <v>69.0273333333333</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="K32" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="L32" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1724,44 +1536,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>68.02</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>68.01000000000001</v>
+        <v>69</v>
       </c>
       <c r="D33" t="n">
-        <v>68.02</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>68.01000000000001</v>
+        <v>69</v>
       </c>
       <c r="F33" t="n">
-        <v>11501.8641</v>
+        <v>2465</v>
       </c>
       <c r="G33" t="n">
-        <v>67.83200000000004</v>
+        <v>264915.1803532532</v>
       </c>
       <c r="H33" t="n">
-        <v>68.96566666666665</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>69.3</v>
       </c>
       <c r="K33" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="L33" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1770,44 +1579,41 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>68.01000000000001</v>
+        <v>68.61</v>
       </c>
       <c r="C34" t="n">
-        <v>68.01000000000001</v>
+        <v>68.52</v>
       </c>
       <c r="D34" t="n">
-        <v>68.01000000000001</v>
+        <v>68.61</v>
       </c>
       <c r="E34" t="n">
-        <v>68.01000000000001</v>
+        <v>68.52</v>
       </c>
       <c r="F34" t="n">
-        <v>833.9897999999999</v>
+        <v>12450.8832</v>
       </c>
       <c r="G34" t="n">
-        <v>67.84000000000003</v>
+        <v>252464.2971532532</v>
       </c>
       <c r="H34" t="n">
-        <v>68.89933333333332</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K34" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="L34" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1816,44 +1622,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68.01000000000001</v>
+        <v>68.52</v>
       </c>
       <c r="C35" t="n">
-        <v>68.01000000000001</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>68.01000000000001</v>
+        <v>68.52</v>
       </c>
       <c r="E35" t="n">
-        <v>68.01000000000001</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>621</v>
+        <v>6590</v>
       </c>
       <c r="G35" t="n">
-        <v>67.90066666666671</v>
+        <v>245874.2971532532</v>
       </c>
       <c r="H35" t="n">
-        <v>68.83083333333333</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="L35" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1862,44 +1663,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68.01000000000001</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="D36" t="n">
-        <v>68.01000000000001</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="F36" t="n">
-        <v>873.3149</v>
+        <v>268.8519</v>
       </c>
       <c r="G36" t="n">
-        <v>67.93933333333338</v>
+        <v>245605.4452532532</v>
       </c>
       <c r="H36" t="n">
-        <v>68.76233333333333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="L36" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1908,44 +1704,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="C37" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="D37" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="E37" t="n">
-        <v>68.01000000000001</v>
+        <v>68</v>
       </c>
       <c r="F37" t="n">
-        <v>1905.277</v>
+        <v>487</v>
       </c>
       <c r="G37" t="n">
-        <v>67.93933333333338</v>
+        <v>245605.4452532532</v>
       </c>
       <c r="H37" t="n">
-        <v>68.69383333333333</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="L37" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1954,44 +1745,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68.38</v>
+        <v>68</v>
       </c>
       <c r="C38" t="n">
-        <v>68.38</v>
+        <v>68</v>
       </c>
       <c r="D38" t="n">
-        <v>68.38</v>
+        <v>68</v>
       </c>
       <c r="E38" t="n">
-        <v>68.38</v>
+        <v>68</v>
       </c>
       <c r="F38" t="n">
-        <v>88.46680000000001</v>
+        <v>118019.9141</v>
       </c>
       <c r="G38" t="n">
-        <v>67.96600000000005</v>
+        <v>245605.4452532532</v>
       </c>
       <c r="H38" t="n">
-        <v>68.63366666666667</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="L38" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2000,44 +1786,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68.38</v>
+        <v>68</v>
       </c>
       <c r="C39" t="n">
-        <v>68.38</v>
+        <v>68</v>
       </c>
       <c r="D39" t="n">
-        <v>68.38</v>
+        <v>68</v>
       </c>
       <c r="E39" t="n">
-        <v>68.38</v>
+        <v>68</v>
       </c>
       <c r="F39" t="n">
-        <v>996.1002</v>
+        <v>29038.6956</v>
       </c>
       <c r="G39" t="n">
-        <v>68.02466666666672</v>
+        <v>245605.4452532532</v>
       </c>
       <c r="H39" t="n">
-        <v>68.57350000000001</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>68.38</v>
-      </c>
-      <c r="L39" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2046,44 +1827,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>68.39</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>68.62</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>68.62</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>68.39</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>9700</v>
+        <v>1801.8312</v>
       </c>
       <c r="G40" t="n">
-        <v>68.10866666666671</v>
+        <v>247407.2764532532</v>
       </c>
       <c r="H40" t="n">
-        <v>68.52966666666667</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>68.38</v>
-      </c>
-      <c r="L40" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2092,44 +1868,41 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>68.03</v>
+        <v>67.98</v>
       </c>
       <c r="C41" t="n">
-        <v>68.64</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>68.64</v>
+        <v>67.98</v>
       </c>
       <c r="E41" t="n">
-        <v>68.03</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>1129.9558</v>
+        <v>19757.2138</v>
       </c>
       <c r="G41" t="n">
-        <v>68.15133333333338</v>
+        <v>227650.0626532532</v>
       </c>
       <c r="H41" t="n">
-        <v>68.49033333333335</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>68.62</v>
-      </c>
-      <c r="L41" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2138,44 +1911,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>68.64</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>69.18000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>69.19</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E42" t="n">
-        <v>68.64</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>14987.4338</v>
+        <v>3060.4219</v>
       </c>
       <c r="G42" t="n">
-        <v>68.22333333333339</v>
+        <v>230710.4845532532</v>
       </c>
       <c r="H42" t="n">
-        <v>68.46300000000002</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>68.64</v>
-      </c>
-      <c r="L42" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2184,44 +1952,41 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>69.31999999999999</v>
+        <v>67.91</v>
       </c>
       <c r="C43" t="n">
-        <v>69.31999999999999</v>
+        <v>67.91</v>
       </c>
       <c r="D43" t="n">
-        <v>69.31999999999999</v>
+        <v>67.91</v>
       </c>
       <c r="E43" t="n">
-        <v>69.31999999999999</v>
+        <v>67.91</v>
       </c>
       <c r="F43" t="n">
-        <v>4823.7835</v>
+        <v>1214.236</v>
       </c>
       <c r="G43" t="n">
-        <v>68.31000000000004</v>
+        <v>231924.7205532532</v>
       </c>
       <c r="H43" t="n">
-        <v>68.43800000000003</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>69.18000000000001</v>
-      </c>
-      <c r="L43" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,44 +1995,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>69.31999999999999</v>
+        <v>67.37</v>
       </c>
       <c r="C44" t="n">
-        <v>69.3</v>
+        <v>67.37</v>
       </c>
       <c r="D44" t="n">
-        <v>69.31999999999999</v>
+        <v>67.37</v>
       </c>
       <c r="E44" t="n">
-        <v>69.3</v>
+        <v>67.37</v>
       </c>
       <c r="F44" t="n">
-        <v>7796.1956</v>
+        <v>23000</v>
       </c>
       <c r="G44" t="n">
-        <v>68.39533333333338</v>
+        <v>208924.7205532532</v>
       </c>
       <c r="H44" t="n">
-        <v>68.43300000000002</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>69.31999999999999</v>
-      </c>
-      <c r="L44" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2276,44 +2036,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>69.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C45" t="n">
-        <v>69.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>69.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E45" t="n">
-        <v>69.3</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>808</v>
+        <v>2571</v>
       </c>
       <c r="G45" t="n">
-        <v>68.48066666666672</v>
+        <v>211495.7205532532</v>
       </c>
       <c r="H45" t="n">
-        <v>68.4111666666667</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="L45" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2322,44 +2077,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>69.31999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>69.31999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>69.31999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E46" t="n">
-        <v>69.31999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F46" t="n">
-        <v>6456.7706</v>
+        <v>7200.8561</v>
       </c>
       <c r="G46" t="n">
-        <v>68.56733333333338</v>
+        <v>211495.7205532532</v>
       </c>
       <c r="H46" t="n">
-        <v>68.39633333333336</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>1</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="L46" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2368,44 +2118,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>69.34</v>
+        <v>67.45</v>
       </c>
       <c r="C47" t="n">
-        <v>69.34</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>69.34</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>69.34</v>
+        <v>67.45</v>
       </c>
       <c r="F47" t="n">
-        <v>6610.7466</v>
+        <v>23000</v>
       </c>
       <c r="G47" t="n">
-        <v>68.65533333333337</v>
+        <v>234495.7205532532</v>
       </c>
       <c r="H47" t="n">
-        <v>68.38183333333336</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>69.31999999999999</v>
-      </c>
-      <c r="L47" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2414,44 +2159,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>69.59999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="C48" t="n">
-        <v>69.59999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="D48" t="n">
-        <v>69.59999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="E48" t="n">
-        <v>69.59999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="F48" t="n">
-        <v>298.288</v>
+        <v>1191.6675</v>
       </c>
       <c r="G48" t="n">
-        <v>68.76133333333337</v>
+        <v>235687.3880532532</v>
       </c>
       <c r="H48" t="n">
-        <v>68.38183333333336</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>1</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>69.34</v>
-      </c>
-      <c r="L48" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2460,44 +2200,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>70.76000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="C49" t="n">
-        <v>69.5</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>70.76000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="E49" t="n">
-        <v>69.5</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>6232.4873</v>
+        <v>3431.2739</v>
       </c>
       <c r="G49" t="n">
-        <v>68.8606666666667</v>
+        <v>232256.1141532532</v>
       </c>
       <c r="H49" t="n">
-        <v>68.38183333333336</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="L49" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,42 +2241,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>69.06</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>69.06</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>69.06</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>69.06</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>500.9508</v>
+        <v>42441.1862</v>
       </c>
       <c r="G50" t="n">
-        <v>68.9306666666667</v>
+        <v>274697.3003532531</v>
       </c>
       <c r="H50" t="n">
-        <v>68.37933333333336</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2550,44 +2282,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>69.16</v>
+        <v>67.89</v>
       </c>
       <c r="C51" t="n">
-        <v>69.06</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>69.16</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>69.06</v>
+        <v>67.89</v>
       </c>
       <c r="F51" t="n">
-        <v>2696.5577</v>
+        <v>14706.43548263491</v>
       </c>
       <c r="G51" t="n">
-        <v>69.0006666666667</v>
+        <v>289403.7358358881</v>
       </c>
       <c r="H51" t="n">
-        <v>68.38216666666671</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="L51" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2596,44 +2323,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>69.5</v>
+        <v>67.98</v>
       </c>
       <c r="C52" t="n">
-        <v>69.06</v>
+        <v>67.98</v>
       </c>
       <c r="D52" t="n">
-        <v>69.5</v>
+        <v>67.98</v>
       </c>
       <c r="E52" t="n">
-        <v>69.06</v>
+        <v>67.98</v>
       </c>
       <c r="F52" t="n">
-        <v>715.9964</v>
+        <v>2425.2513</v>
       </c>
       <c r="G52" t="n">
-        <v>69.0706666666667</v>
+        <v>286978.4845358881</v>
       </c>
       <c r="H52" t="n">
-        <v>68.38500000000003</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="L52" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2642,44 +2364,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>69.20999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C53" t="n">
-        <v>69.06</v>
+        <v>67.5</v>
       </c>
       <c r="D53" t="n">
-        <v>69.20999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E53" t="n">
-        <v>69.06</v>
+        <v>67.5</v>
       </c>
       <c r="F53" t="n">
-        <v>5286.0622</v>
+        <v>6317.2949</v>
       </c>
       <c r="G53" t="n">
-        <v>69.11600000000001</v>
+        <v>280661.1896358881</v>
       </c>
       <c r="H53" t="n">
-        <v>68.39116666666672</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="L53" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,44 +2405,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>69.09999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C54" t="n">
-        <v>69</v>
+        <v>67.36</v>
       </c>
       <c r="D54" t="n">
-        <v>69.83</v>
+        <v>67.5</v>
       </c>
       <c r="E54" t="n">
-        <v>69</v>
+        <v>67.36</v>
       </c>
       <c r="F54" t="n">
-        <v>1645.1359</v>
+        <v>5586.1539</v>
       </c>
       <c r="G54" t="n">
-        <v>69.15733333333334</v>
+        <v>275075.0357358881</v>
       </c>
       <c r="H54" t="n">
-        <v>68.39616666666672</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="L54" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,44 +2446,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>69</v>
+        <v>67.97</v>
       </c>
       <c r="C55" t="n">
-        <v>68.90000000000001</v>
+        <v>68</v>
       </c>
       <c r="D55" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" t="n">
-        <v>68.90000000000001</v>
+        <v>67.97</v>
       </c>
       <c r="F55" t="n">
-        <v>292.0622</v>
+        <v>3800</v>
       </c>
       <c r="G55" t="n">
-        <v>69.17600000000002</v>
+        <v>278875.0357358881</v>
       </c>
       <c r="H55" t="n">
-        <v>68.39950000000005</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>69</v>
-      </c>
-      <c r="L55" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2780,44 +2487,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>68.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>68.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>68.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>68.8</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F56" t="n">
-        <v>825.639</v>
+        <v>1315.7759</v>
       </c>
       <c r="G56" t="n">
-        <v>69.18666666666668</v>
+        <v>280190.8116358881</v>
       </c>
       <c r="H56" t="n">
-        <v>68.40600000000005</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="L56" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2826,44 +2528,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>69.56999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="C57" t="n">
-        <v>69.59999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="D57" t="n">
-        <v>69.59999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="E57" t="n">
-        <v>69.56999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="F57" t="n">
-        <v>6137.8</v>
+        <v>2413.4214</v>
       </c>
       <c r="G57" t="n">
-        <v>69.21466666666667</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H57" t="n">
-        <v>68.41600000000007</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="L57" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2872,44 +2569,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>70.2</v>
+        <v>68.02</v>
       </c>
       <c r="C58" t="n">
-        <v>70.2</v>
+        <v>68.02</v>
       </c>
       <c r="D58" t="n">
-        <v>70.2</v>
+        <v>68.02</v>
       </c>
       <c r="E58" t="n">
-        <v>70.2</v>
+        <v>68.02</v>
       </c>
       <c r="F58" t="n">
-        <v>298.288</v>
+        <v>991.3283</v>
       </c>
       <c r="G58" t="n">
-        <v>69.27333333333334</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H58" t="n">
-        <v>68.44166666666673</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="L58" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2918,44 +2610,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>70.3</v>
+        <v>68.02</v>
       </c>
       <c r="C59" t="n">
-        <v>70.8</v>
+        <v>68.02</v>
       </c>
       <c r="D59" t="n">
-        <v>70.8</v>
+        <v>68.02</v>
       </c>
       <c r="E59" t="n">
-        <v>70.3</v>
+        <v>68.02</v>
       </c>
       <c r="F59" t="n">
-        <v>36290.7368</v>
+        <v>462.476</v>
       </c>
       <c r="G59" t="n">
-        <v>69.37333333333335</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H59" t="n">
-        <v>68.46850000000008</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>1</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="L59" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2964,44 +2651,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>70.69</v>
+        <v>68.02</v>
       </c>
       <c r="C60" t="n">
-        <v>70.8</v>
+        <v>68.02</v>
       </c>
       <c r="D60" t="n">
-        <v>70.8</v>
+        <v>68.02</v>
       </c>
       <c r="E60" t="n">
-        <v>70.69</v>
+        <v>68.02</v>
       </c>
       <c r="F60" t="n">
-        <v>27417.3531</v>
+        <v>517.0488</v>
       </c>
       <c r="G60" t="n">
-        <v>69.47333333333334</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H60" t="n">
-        <v>68.49083333333341</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>1</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>70.8</v>
-      </c>
-      <c r="L60" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3010,42 +2692,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>70.8</v>
+        <v>68.02</v>
       </c>
       <c r="C61" t="n">
-        <v>71</v>
+        <v>68.02</v>
       </c>
       <c r="D61" t="n">
-        <v>71.09999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="E61" t="n">
-        <v>70.8</v>
+        <v>68.02</v>
       </c>
       <c r="F61" t="n">
-        <v>37109.7192</v>
+        <v>897.7068</v>
       </c>
       <c r="G61" t="n">
-        <v>69.58533333333335</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H61" t="n">
-        <v>68.50666666666673</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3054,42 +2733,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>71.19</v>
+        <v>68.02</v>
       </c>
       <c r="C62" t="n">
-        <v>72</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>72.3</v>
+        <v>68.02</v>
       </c>
       <c r="E62" t="n">
-        <v>71.19</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>220286.6907</v>
+        <v>11501.8641</v>
       </c>
       <c r="G62" t="n">
-        <v>69.76266666666669</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H62" t="n">
-        <v>68.55333333333341</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,42 +2774,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>72.3</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>73.08</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>73.08</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>72.3</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F63" t="n">
-        <v>138507.8384</v>
+        <v>833.9897999999999</v>
       </c>
       <c r="G63" t="n">
-        <v>69.99466666666669</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H63" t="n">
-        <v>68.6163333333334</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,42 +2815,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>73.3</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>73.38</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>73.38</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>73.3</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>37156.0528</v>
+        <v>621</v>
       </c>
       <c r="G64" t="n">
-        <v>70.25333333333334</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H64" t="n">
-        <v>68.68933333333341</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3186,42 +2856,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>73.38</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>74</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>74</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>73.38</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>55159.7276</v>
+        <v>873.3149</v>
       </c>
       <c r="G65" t="n">
-        <v>70.58266666666668</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H65" t="n">
-        <v>68.78066666666673</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3230,42 +2897,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>74</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>73.59999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>74.59999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>73.5</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>71140.08387348526</v>
+        <v>1905.277</v>
       </c>
       <c r="G66" t="n">
-        <v>70.88533333333335</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H66" t="n">
-        <v>68.87100000000007</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3274,42 +2938,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>74.59999999999999</v>
+        <v>68.38</v>
       </c>
       <c r="C67" t="n">
-        <v>73.5</v>
+        <v>68.38</v>
       </c>
       <c r="D67" t="n">
-        <v>74.59999999999999</v>
+        <v>68.38</v>
       </c>
       <c r="E67" t="n">
-        <v>73.5</v>
+        <v>68.38</v>
       </c>
       <c r="F67" t="n">
-        <v>57008.38162651475</v>
+        <v>88.46680000000001</v>
       </c>
       <c r="G67" t="n">
-        <v>71.18133333333336</v>
+        <v>266363.9929358881</v>
       </c>
       <c r="H67" t="n">
-        <v>68.96266666666673</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,42 +2979,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>74.7</v>
+        <v>68.38</v>
       </c>
       <c r="C68" t="n">
-        <v>74.7</v>
+        <v>68.38</v>
       </c>
       <c r="D68" t="n">
-        <v>74.7</v>
+        <v>68.38</v>
       </c>
       <c r="E68" t="n">
-        <v>74.7</v>
+        <v>68.38</v>
       </c>
       <c r="F68" t="n">
-        <v>9</v>
+        <v>996.1002</v>
       </c>
       <c r="G68" t="n">
-        <v>71.55733333333336</v>
+        <v>266363.9929358881</v>
       </c>
       <c r="H68" t="n">
-        <v>69.0743333333334</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3362,42 +3020,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>73.61</v>
+        <v>68.39</v>
       </c>
       <c r="C69" t="n">
-        <v>73.63</v>
+        <v>68.62</v>
       </c>
       <c r="D69" t="n">
-        <v>73.63</v>
+        <v>68.62</v>
       </c>
       <c r="E69" t="n">
-        <v>73.61</v>
+        <v>68.39</v>
       </c>
       <c r="F69" t="n">
-        <v>27</v>
+        <v>9700</v>
       </c>
       <c r="G69" t="n">
-        <v>71.86600000000001</v>
+        <v>276063.9929358881</v>
       </c>
       <c r="H69" t="n">
-        <v>69.16816666666674</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,42 +3061,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>74.7</v>
+        <v>68.03</v>
       </c>
       <c r="C70" t="n">
-        <v>73.8</v>
+        <v>68.64</v>
       </c>
       <c r="D70" t="n">
-        <v>74.84999999999999</v>
+        <v>68.64</v>
       </c>
       <c r="E70" t="n">
-        <v>73.8</v>
+        <v>68.03</v>
       </c>
       <c r="F70" t="n">
-        <v>5526.7604</v>
+        <v>1129.9558</v>
       </c>
       <c r="G70" t="n">
-        <v>72.19266666666667</v>
+        <v>277193.9487358881</v>
       </c>
       <c r="H70" t="n">
-        <v>69.2648333333334</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3450,42 +3102,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>74.87</v>
+        <v>68.64</v>
       </c>
       <c r="C71" t="n">
-        <v>74.87</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>74.87</v>
+        <v>69.19</v>
       </c>
       <c r="E71" t="n">
-        <v>74.87</v>
+        <v>68.64</v>
       </c>
       <c r="F71" t="n">
-        <v>15200.9364</v>
+        <v>14987.4338</v>
       </c>
       <c r="G71" t="n">
-        <v>72.59733333333335</v>
+        <v>292181.3825358881</v>
       </c>
       <c r="H71" t="n">
-        <v>69.37916666666673</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,42 +3143,41 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>74.87</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C72" t="n">
-        <v>74.40000000000001</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>75.09999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E72" t="n">
-        <v>74.20999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="F72" t="n">
-        <v>107630.9851</v>
+        <v>4823.7835</v>
       </c>
       <c r="G72" t="n">
-        <v>72.91733333333336</v>
+        <v>297005.1660358881</v>
       </c>
       <c r="H72" t="n">
-        <v>69.50233333333338</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
+        <v>69.18000000000001</v>
+      </c>
+      <c r="K72" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3538,42 +3186,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>74.87</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>75.09999999999999</v>
+        <v>69.3</v>
       </c>
       <c r="D73" t="n">
-        <v>75.09999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>74.3</v>
+        <v>69.3</v>
       </c>
       <c r="F73" t="n">
-        <v>13428.2033587217</v>
+        <v>7796.1956</v>
       </c>
       <c r="G73" t="n">
-        <v>73.24400000000001</v>
+        <v>289208.9704358882</v>
       </c>
       <c r="H73" t="n">
-        <v>69.6223333333334</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,42 +3227,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>74.31</v>
+        <v>69.3</v>
       </c>
       <c r="C74" t="n">
-        <v>74.8</v>
+        <v>69.3</v>
       </c>
       <c r="D74" t="n">
-        <v>74.8</v>
+        <v>69.3</v>
       </c>
       <c r="E74" t="n">
-        <v>74.22</v>
+        <v>69.3</v>
       </c>
       <c r="F74" t="n">
-        <v>32883.5179</v>
+        <v>808</v>
       </c>
       <c r="G74" t="n">
-        <v>73.51066666666669</v>
+        <v>289208.9704358882</v>
       </c>
       <c r="H74" t="n">
-        <v>69.73716666666674</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3626,42 +3268,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>74.3</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>73.84999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>74.3</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>73.84999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>17520.4783</v>
+        <v>6456.7706</v>
       </c>
       <c r="G75" t="n">
-        <v>73.71400000000001</v>
+        <v>295665.7410358881</v>
       </c>
       <c r="H75" t="n">
-        <v>69.84516666666674</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3670,42 +3309,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>74.26000000000001</v>
+        <v>69.34</v>
       </c>
       <c r="C76" t="n">
-        <v>73.79000000000001</v>
+        <v>69.34</v>
       </c>
       <c r="D76" t="n">
-        <v>74.26000000000001</v>
+        <v>69.34</v>
       </c>
       <c r="E76" t="n">
-        <v>73.5</v>
+        <v>69.34</v>
       </c>
       <c r="F76" t="n">
-        <v>10577.0029</v>
+        <v>6610.7466</v>
       </c>
       <c r="G76" t="n">
-        <v>73.90000000000002</v>
+        <v>302276.4876358882</v>
       </c>
       <c r="H76" t="n">
-        <v>69.95166666666675</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,42 +3350,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>73.79000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C77" t="n">
-        <v>73.39</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>73.79000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E77" t="n">
-        <v>72.55</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>92985.12537348525</v>
+        <v>298.288</v>
       </c>
       <c r="G77" t="n">
-        <v>73.99266666666669</v>
+        <v>302574.7756358882</v>
       </c>
       <c r="H77" t="n">
-        <v>70.05150000000009</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3758,42 +3391,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>72.56</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>72.54000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="D78" t="n">
-        <v>72.56</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>72.54000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="F78" t="n">
-        <v>9724.938599999999</v>
+        <v>6232.4873</v>
       </c>
       <c r="G78" t="n">
-        <v>73.95666666666669</v>
+        <v>296342.2883358882</v>
       </c>
       <c r="H78" t="n">
-        <v>70.13616666666675</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3802,42 +3432,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>72.58</v>
+        <v>69.06</v>
       </c>
       <c r="C79" t="n">
-        <v>72.58</v>
+        <v>69.06</v>
       </c>
       <c r="D79" t="n">
-        <v>72.58</v>
+        <v>69.06</v>
       </c>
       <c r="E79" t="n">
-        <v>72.58</v>
+        <v>69.06</v>
       </c>
       <c r="F79" t="n">
-        <v>50</v>
+        <v>500.9508</v>
       </c>
       <c r="G79" t="n">
-        <v>73.90333333333335</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H79" t="n">
-        <v>70.21433333333341</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3846,42 +3473,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>72.59999999999999</v>
+        <v>69.16</v>
       </c>
       <c r="C80" t="n">
-        <v>73.27</v>
+        <v>69.06</v>
       </c>
       <c r="D80" t="n">
-        <v>73.27</v>
+        <v>69.16</v>
       </c>
       <c r="E80" t="n">
-        <v>71.54000000000001</v>
+        <v>69.06</v>
       </c>
       <c r="F80" t="n">
-        <v>23958.9147</v>
+        <v>2696.5577</v>
       </c>
       <c r="G80" t="n">
-        <v>73.85466666666667</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H80" t="n">
-        <v>70.31716666666675</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3890,42 +3514,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>72.69</v>
+        <v>69.5</v>
       </c>
       <c r="C81" t="n">
-        <v>72.69</v>
+        <v>69.06</v>
       </c>
       <c r="D81" t="n">
-        <v>72.69</v>
+        <v>69.5</v>
       </c>
       <c r="E81" t="n">
-        <v>72.69</v>
+        <v>69.06</v>
       </c>
       <c r="F81" t="n">
-        <v>5117.5777</v>
+        <v>715.9964</v>
       </c>
       <c r="G81" t="n">
-        <v>73.79400000000003</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H81" t="n">
-        <v>70.40483333333341</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3934,42 +3555,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>72.48999999999999</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>72.40000000000001</v>
+        <v>69.06</v>
       </c>
       <c r="D82" t="n">
-        <v>72.48999999999999</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>72.40000000000001</v>
+        <v>69.06</v>
       </c>
       <c r="F82" t="n">
-        <v>1208.1143</v>
+        <v>5286.0622</v>
       </c>
       <c r="G82" t="n">
-        <v>73.72066666666669</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H82" t="n">
-        <v>70.47800000000007</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3978,42 +3596,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>72.41</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>72.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="D83" t="n">
-        <v>72.5</v>
+        <v>69.83</v>
       </c>
       <c r="E83" t="n">
-        <v>72.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="F83" t="n">
-        <v>29739.8359</v>
+        <v>1645.1359</v>
       </c>
       <c r="G83" t="n">
-        <v>73.56733333333337</v>
+        <v>294196.2016358882</v>
       </c>
       <c r="H83" t="n">
-        <v>70.55166666666673</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N83" t="n">
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4022,42 +3637,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>72.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="C84" t="n">
-        <v>72.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>72.40000000000001</v>
+        <v>69</v>
       </c>
       <c r="E84" t="n">
-        <v>72.40000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>18578.6575</v>
+        <v>292.0622</v>
       </c>
       <c r="G84" t="n">
-        <v>73.48533333333337</v>
+        <v>293904.1394358882</v>
       </c>
       <c r="H84" t="n">
-        <v>70.6333333333334</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N84" t="n">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4066,42 +3678,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>72.59</v>
+        <v>68.8</v>
       </c>
       <c r="C85" t="n">
-        <v>72.59</v>
+        <v>68.8</v>
       </c>
       <c r="D85" t="n">
-        <v>72.59</v>
+        <v>68.8</v>
       </c>
       <c r="E85" t="n">
-        <v>72.59</v>
+        <v>68.8</v>
       </c>
       <c r="F85" t="n">
-        <v>11.1691</v>
+        <v>825.639</v>
       </c>
       <c r="G85" t="n">
-        <v>73.40466666666671</v>
+        <v>293078.5004358882</v>
       </c>
       <c r="H85" t="n">
-        <v>70.72050000000007</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N85" t="n">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4110,42 +3719,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>72.40000000000001</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="C86" t="n">
-        <v>72.59</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>72.59</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>71.8</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="F86" t="n">
-        <v>27</v>
+        <v>6137.8</v>
       </c>
       <c r="G86" t="n">
-        <v>73.2526666666667</v>
+        <v>299216.3004358882</v>
       </c>
       <c r="H86" t="n">
-        <v>70.79700000000007</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4154,42 +3760,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>71.91</v>
+        <v>70.2</v>
       </c>
       <c r="C87" t="n">
-        <v>71.91</v>
+        <v>70.2</v>
       </c>
       <c r="D87" t="n">
-        <v>71.91</v>
+        <v>70.2</v>
       </c>
       <c r="E87" t="n">
-        <v>71.90000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="F87" t="n">
-        <v>27965.7303</v>
+        <v>298.288</v>
       </c>
       <c r="G87" t="n">
-        <v>73.08666666666669</v>
+        <v>299514.5884358882</v>
       </c>
       <c r="H87" t="n">
-        <v>70.86050000000006</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N87" t="n">
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4198,42 +3801,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>71.91</v>
+        <v>70.3</v>
       </c>
       <c r="C88" t="n">
-        <v>71.91</v>
+        <v>70.8</v>
       </c>
       <c r="D88" t="n">
-        <v>71.91</v>
+        <v>70.8</v>
       </c>
       <c r="E88" t="n">
-        <v>71.91</v>
+        <v>70.3</v>
       </c>
       <c r="F88" t="n">
-        <v>17935.7354</v>
+        <v>36290.7368</v>
       </c>
       <c r="G88" t="n">
-        <v>72.87400000000004</v>
+        <v>335805.3252358882</v>
       </c>
       <c r="H88" t="n">
-        <v>70.92533333333338</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N88" t="n">
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4242,42 +3842,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>71.91</v>
+        <v>70.69</v>
       </c>
       <c r="C89" t="n">
-        <v>71.91</v>
+        <v>70.8</v>
       </c>
       <c r="D89" t="n">
-        <v>71.91</v>
+        <v>70.8</v>
       </c>
       <c r="E89" t="n">
-        <v>71.91</v>
+        <v>70.69</v>
       </c>
       <c r="F89" t="n">
-        <v>6120.3193</v>
+        <v>27417.3531</v>
       </c>
       <c r="G89" t="n">
-        <v>72.68133333333338</v>
+        <v>335805.3252358882</v>
       </c>
       <c r="H89" t="n">
-        <v>70.99016666666671</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N89" t="n">
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4286,42 +3883,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>71.91</v>
+        <v>70.8</v>
       </c>
       <c r="C90" t="n">
-        <v>71.40000000000001</v>
+        <v>71</v>
       </c>
       <c r="D90" t="n">
-        <v>71.91</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>71.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="F90" t="n">
-        <v>7983.3778</v>
+        <v>37109.7192</v>
       </c>
       <c r="G90" t="n">
-        <v>72.51800000000006</v>
+        <v>372915.0444358882</v>
       </c>
       <c r="H90" t="n">
-        <v>71.04650000000002</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N90" t="n">
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4330,42 +3924,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>72.40000000000001</v>
+        <v>71.19</v>
       </c>
       <c r="C91" t="n">
-        <v>72.39</v>
+        <v>72</v>
       </c>
       <c r="D91" t="n">
-        <v>72.40000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="E91" t="n">
-        <v>72.39</v>
+        <v>71.19</v>
       </c>
       <c r="F91" t="n">
-        <v>22.7856</v>
+        <v>220286.6907</v>
       </c>
       <c r="G91" t="n">
-        <v>72.42466666666674</v>
+        <v>593201.7351358882</v>
       </c>
       <c r="H91" t="n">
-        <v>71.11933333333336</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N91" t="n">
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4374,42 +3965,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>71.81</v>
+        <v>72.3</v>
       </c>
       <c r="C92" t="n">
-        <v>72.37</v>
+        <v>73.08</v>
       </c>
       <c r="D92" t="n">
-        <v>72.37</v>
+        <v>73.08</v>
       </c>
       <c r="E92" t="n">
-        <v>71.81</v>
+        <v>72.3</v>
       </c>
       <c r="F92" t="n">
-        <v>3403.4927</v>
+        <v>138507.8384</v>
       </c>
       <c r="G92" t="n">
-        <v>72.35666666666674</v>
+        <v>731709.5735358882</v>
       </c>
       <c r="H92" t="n">
-        <v>71.19183333333335</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N92" t="n">
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,42 +4006,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>73</v>
+        <v>73.3</v>
       </c>
       <c r="C93" t="n">
-        <v>73</v>
+        <v>73.38</v>
       </c>
       <c r="D93" t="n">
-        <v>73</v>
+        <v>73.38</v>
       </c>
       <c r="E93" t="n">
-        <v>73</v>
+        <v>73.3</v>
       </c>
       <c r="F93" t="n">
-        <v>22.5224</v>
+        <v>37156.0528</v>
       </c>
       <c r="G93" t="n">
-        <v>72.3873333333334</v>
+        <v>768865.6263358882</v>
       </c>
       <c r="H93" t="n">
-        <v>71.27500000000002</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N93" t="n">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4462,42 +4047,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>72.90000000000001</v>
+        <v>73.38</v>
       </c>
       <c r="C94" t="n">
-        <v>72.90000000000001</v>
+        <v>74</v>
       </c>
       <c r="D94" t="n">
-        <v>72.90000000000001</v>
+        <v>74</v>
       </c>
       <c r="E94" t="n">
-        <v>72.90000000000001</v>
+        <v>73.38</v>
       </c>
       <c r="F94" t="n">
-        <v>1080</v>
+        <v>55159.7276</v>
       </c>
       <c r="G94" t="n">
-        <v>72.40866666666675</v>
+        <v>824025.3539358882</v>
       </c>
       <c r="H94" t="n">
-        <v>71.35650000000001</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N94" t="n">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4506,42 +4088,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>72.41</v>
+        <v>74</v>
       </c>
       <c r="C95" t="n">
-        <v>72.41</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>72.41</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>72.3</v>
+        <v>73.5</v>
       </c>
       <c r="F95" t="n">
-        <v>16287.7687</v>
+        <v>71140.08387348526</v>
       </c>
       <c r="G95" t="n">
-        <v>72.35133333333343</v>
+        <v>752885.2700624029</v>
       </c>
       <c r="H95" t="n">
-        <v>71.42983333333333</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4550,42 +4129,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>72.41</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>72.5</v>
+        <v>73.5</v>
       </c>
       <c r="D96" t="n">
-        <v>72.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>72.41</v>
+        <v>73.5</v>
       </c>
       <c r="F96" t="n">
-        <v>37012.9439</v>
+        <v>57008.38162651475</v>
       </c>
       <c r="G96" t="n">
-        <v>72.33866666666675</v>
+        <v>695876.8884358882</v>
       </c>
       <c r="H96" t="n">
-        <v>71.50466666666667</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N96" t="n">
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,42 +4170,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>72.12</v>
+        <v>74.7</v>
       </c>
       <c r="C97" t="n">
-        <v>72.79000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="D97" t="n">
-        <v>72.79000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="E97" t="n">
-        <v>71.90000000000001</v>
+        <v>74.7</v>
       </c>
       <c r="F97" t="n">
-        <v>24439.2019</v>
+        <v>9</v>
       </c>
       <c r="G97" t="n">
-        <v>72.36466666666675</v>
+        <v>695885.8884358882</v>
       </c>
       <c r="H97" t="n">
-        <v>71.58433333333332</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N97" t="n">
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4638,42 +4211,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>72.90000000000001</v>
+        <v>73.61</v>
       </c>
       <c r="C98" t="n">
-        <v>73</v>
+        <v>73.63</v>
       </c>
       <c r="D98" t="n">
-        <v>73</v>
+        <v>73.63</v>
       </c>
       <c r="E98" t="n">
-        <v>72.90000000000001</v>
+        <v>73.61</v>
       </c>
       <c r="F98" t="n">
-        <v>13502.226</v>
+        <v>27</v>
       </c>
       <c r="G98" t="n">
-        <v>72.40466666666674</v>
+        <v>695858.8884358882</v>
       </c>
       <c r="H98" t="n">
-        <v>71.66133333333332</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N98" t="n">
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4682,42 +4252,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>73</v>
+        <v>74.7</v>
       </c>
       <c r="C99" t="n">
-        <v>73</v>
+        <v>73.8</v>
       </c>
       <c r="D99" t="n">
-        <v>73</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>73</v>
+        <v>73.8</v>
       </c>
       <c r="F99" t="n">
-        <v>19.4483</v>
+        <v>5526.7604</v>
       </c>
       <c r="G99" t="n">
-        <v>72.44466666666673</v>
+        <v>701385.6488358882</v>
       </c>
       <c r="H99" t="n">
-        <v>71.73833333333332</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N99" t="n">
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4726,42 +4293,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>73</v>
+        <v>74.87</v>
       </c>
       <c r="C100" t="n">
-        <v>73</v>
+        <v>74.87</v>
       </c>
       <c r="D100" t="n">
-        <v>73</v>
+        <v>74.87</v>
       </c>
       <c r="E100" t="n">
-        <v>73</v>
+        <v>74.87</v>
       </c>
       <c r="F100" t="n">
-        <v>1593.0566</v>
+        <v>15200.9364</v>
       </c>
       <c r="G100" t="n">
-        <v>72.47200000000007</v>
+        <v>716586.5852358883</v>
       </c>
       <c r="H100" t="n">
-        <v>71.81133333333332</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4770,42 +4334,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>72.59999999999999</v>
+        <v>74.87</v>
       </c>
       <c r="C101" t="n">
-        <v>72.12</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>72.59999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>72.12</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>271.3079</v>
+        <v>107630.9851</v>
       </c>
       <c r="G101" t="n">
-        <v>72.44066666666676</v>
+        <v>608955.6001358882</v>
       </c>
       <c r="H101" t="n">
-        <v>71.86933333333332</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4814,42 +4375,39 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>71.84999999999999</v>
+        <v>74.87</v>
       </c>
       <c r="C102" t="n">
-        <v>71.84999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>71.84999999999999</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>71.84999999999999</v>
+        <v>74.3</v>
       </c>
       <c r="F102" t="n">
-        <v>3000</v>
+        <v>13428.2033587217</v>
       </c>
       <c r="G102" t="n">
-        <v>72.43666666666674</v>
+        <v>622383.8034946099</v>
       </c>
       <c r="H102" t="n">
-        <v>71.91383333333332</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N102" t="n">
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,42 +4416,39 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>72.12</v>
+        <v>74.31</v>
       </c>
       <c r="C103" t="n">
-        <v>72.12</v>
+        <v>74.8</v>
       </c>
       <c r="D103" t="n">
-        <v>72.12</v>
+        <v>74.8</v>
       </c>
       <c r="E103" t="n">
-        <v>72.12</v>
+        <v>74.22</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2027</v>
+        <v>32883.5179</v>
       </c>
       <c r="G103" t="n">
-        <v>72.45066666666672</v>
+        <v>589500.2855946099</v>
       </c>
       <c r="H103" t="n">
-        <v>71.96049999999998</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N103" t="n">
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4902,42 +4457,39 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>72.3</v>
+        <v>74.3</v>
       </c>
       <c r="C104" t="n">
-        <v>72.2</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>72.3</v>
+        <v>74.3</v>
       </c>
       <c r="E104" t="n">
-        <v>72.2</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>6659.108</v>
+        <v>17520.4783</v>
       </c>
       <c r="G104" t="n">
-        <v>72.47000000000006</v>
+        <v>571979.80729461</v>
       </c>
       <c r="H104" t="n">
-        <v>72.00883333333331</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,42 +4498,39 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>72.01000000000001</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>72.01000000000001</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>72.01000000000001</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>71.89</v>
+        <v>73.5</v>
       </c>
       <c r="F105" t="n">
-        <v>31657.2551</v>
+        <v>10577.0029</v>
       </c>
       <c r="G105" t="n">
-        <v>72.51066666666672</v>
+        <v>561402.80439461</v>
       </c>
       <c r="H105" t="n">
-        <v>72.05399999999999</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N105" t="n">
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4990,42 +4539,39 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>71.75</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>71.73999999999999</v>
+        <v>73.39</v>
       </c>
       <c r="D106" t="n">
-        <v>71.75</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>71.73999999999999</v>
+        <v>72.55</v>
       </c>
       <c r="F106" t="n">
-        <v>13521.6743</v>
+        <v>92985.12537348525</v>
       </c>
       <c r="G106" t="n">
-        <v>72.46733333333337</v>
+        <v>468417.6790211247</v>
       </c>
       <c r="H106" t="n">
-        <v>72.09433333333331</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N106" t="n">
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5034,42 +4580,39 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>72.01000000000001</v>
+        <v>72.56</v>
       </c>
       <c r="C107" t="n">
-        <v>72.01000000000001</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>72.01000000000001</v>
+        <v>72.56</v>
       </c>
       <c r="E107" t="n">
-        <v>72.01000000000001</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0001</v>
+        <v>9724.938599999999</v>
       </c>
       <c r="G107" t="n">
-        <v>72.44333333333337</v>
+        <v>458692.7404211247</v>
       </c>
       <c r="H107" t="n">
-        <v>72.13883333333332</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5078,42 +4621,39 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>71.90000000000001</v>
+        <v>72.58</v>
       </c>
       <c r="C108" t="n">
-        <v>71.90000000000001</v>
+        <v>72.58</v>
       </c>
       <c r="D108" t="n">
-        <v>71.90000000000001</v>
+        <v>72.58</v>
       </c>
       <c r="E108" t="n">
-        <v>71.90000000000001</v>
+        <v>72.58</v>
       </c>
       <c r="F108" t="n">
-        <v>151.9035</v>
+        <v>50</v>
       </c>
       <c r="G108" t="n">
-        <v>72.37000000000005</v>
+        <v>458742.7404211247</v>
       </c>
       <c r="H108" t="n">
-        <v>72.17716666666664</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N108" t="n">
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5122,42 +4662,39 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>72.76000000000001</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>72.76000000000001</v>
+        <v>73.27</v>
       </c>
       <c r="D109" t="n">
-        <v>72.76000000000001</v>
+        <v>73.27</v>
       </c>
       <c r="E109" t="n">
-        <v>72.76000000000001</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>16.9599</v>
+        <v>23958.9147</v>
       </c>
       <c r="G109" t="n">
-        <v>72.3606666666667</v>
+        <v>482701.6551211248</v>
       </c>
       <c r="H109" t="n">
-        <v>72.23149999999997</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N109" t="n">
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5166,42 +4703,39 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>72.8</v>
+        <v>72.69</v>
       </c>
       <c r="C110" t="n">
-        <v>73</v>
+        <v>72.69</v>
       </c>
       <c r="D110" t="n">
-        <v>73</v>
+        <v>72.69</v>
       </c>
       <c r="E110" t="n">
-        <v>72.8</v>
+        <v>72.69</v>
       </c>
       <c r="F110" t="n">
-        <v>8129.9229</v>
+        <v>5117.5777</v>
       </c>
       <c r="G110" t="n">
-        <v>72.40000000000003</v>
+        <v>477584.0774211247</v>
       </c>
       <c r="H110" t="n">
-        <v>72.29716666666664</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N110" t="n">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5210,42 +4744,39 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>73.45999999999999</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>73.45999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>73.45999999999999</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>73.45999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>12.608</v>
+        <v>1208.1143</v>
       </c>
       <c r="G111" t="n">
-        <v>72.46400000000003</v>
+        <v>476375.9631211247</v>
       </c>
       <c r="H111" t="n">
-        <v>72.37049999999996</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N111" t="n">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5254,42 +4785,39 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>73.45999999999999</v>
+        <v>72.41</v>
       </c>
       <c r="C112" t="n">
-        <v>74.54000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>74.65000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="E112" t="n">
-        <v>73.45999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>11045.3147</v>
+        <v>29739.8359</v>
       </c>
       <c r="G112" t="n">
-        <v>72.5806666666667</v>
+        <v>476375.9631211247</v>
       </c>
       <c r="H112" t="n">
-        <v>72.46183333333329</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N112" t="n">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5298,42 +4826,39 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>74.79000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>75.59999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>75.59999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>74.79000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>41864.3479</v>
+        <v>18578.6575</v>
       </c>
       <c r="G113" t="n">
-        <v>72.75400000000003</v>
+        <v>476375.9631211247</v>
       </c>
       <c r="H113" t="n">
-        <v>72.57083333333328</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N113" t="n">
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,42 +4867,39 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>75.59999999999999</v>
+        <v>72.59</v>
       </c>
       <c r="C114" t="n">
-        <v>75.59999999999999</v>
+        <v>72.59</v>
       </c>
       <c r="D114" t="n">
-        <v>75.59999999999999</v>
+        <v>72.59</v>
       </c>
       <c r="E114" t="n">
-        <v>75.59999999999999</v>
+        <v>72.59</v>
       </c>
       <c r="F114" t="n">
-        <v>2095.4435</v>
+        <v>11.1691</v>
       </c>
       <c r="G114" t="n">
-        <v>72.92733333333335</v>
+        <v>476387.1322211247</v>
       </c>
       <c r="H114" t="n">
-        <v>72.6808333333333</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N114" t="n">
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5386,42 +4908,39 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>75.59</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>75.8</v>
+        <v>72.59</v>
       </c>
       <c r="D115" t="n">
-        <v>75.8</v>
+        <v>72.59</v>
       </c>
       <c r="E115" t="n">
-        <v>75.59</v>
+        <v>71.8</v>
       </c>
       <c r="F115" t="n">
-        <v>32118.6742</v>
+        <v>27</v>
       </c>
       <c r="G115" t="n">
-        <v>73.11400000000002</v>
+        <v>476387.1322211247</v>
       </c>
       <c r="H115" t="n">
-        <v>72.79583333333331</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N115" t="n">
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5430,42 +4949,39 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>75.88</v>
+        <v>71.91</v>
       </c>
       <c r="C116" t="n">
-        <v>76.29000000000001</v>
+        <v>71.91</v>
       </c>
       <c r="D116" t="n">
-        <v>76.29000000000001</v>
+        <v>71.91</v>
       </c>
       <c r="E116" t="n">
-        <v>75.88</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>153837.8859526316</v>
+        <v>27965.7303</v>
       </c>
       <c r="G116" t="n">
-        <v>73.39200000000001</v>
+        <v>448421.4019211247</v>
       </c>
       <c r="H116" t="n">
-        <v>72.92066666666663</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N116" t="n">
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5474,42 +4990,41 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>76.29000000000001</v>
+        <v>71.91</v>
       </c>
       <c r="C117" t="n">
-        <v>76.64</v>
+        <v>71.91</v>
       </c>
       <c r="D117" t="n">
-        <v>76.64</v>
+        <v>71.91</v>
       </c>
       <c r="E117" t="n">
-        <v>75.20999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="F117" t="n">
-        <v>15562.4693</v>
+        <v>17935.7354</v>
       </c>
       <c r="G117" t="n">
-        <v>73.71133333333336</v>
+        <v>448421.4019211247</v>
       </c>
       <c r="H117" t="n">
-        <v>73.03799999999997</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N117" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="K117" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5518,42 +5033,39 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>76.65000000000001</v>
+        <v>71.91</v>
       </c>
       <c r="C118" t="n">
-        <v>78.97</v>
+        <v>71.91</v>
       </c>
       <c r="D118" t="n">
-        <v>79</v>
+        <v>71.91</v>
       </c>
       <c r="E118" t="n">
-        <v>76.64</v>
+        <v>71.91</v>
       </c>
       <c r="F118" t="n">
-        <v>168816.158</v>
+        <v>6120.3193</v>
       </c>
       <c r="G118" t="n">
-        <v>74.16800000000003</v>
+        <v>448421.4019211247</v>
       </c>
       <c r="H118" t="n">
-        <v>73.18416666666664</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N118" t="n">
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5562,42 +5074,41 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>77.63</v>
+        <v>71.91</v>
       </c>
       <c r="C119" t="n">
-        <v>77.73</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>77.73999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="E119" t="n">
-        <v>76.67</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>84366.03230000001</v>
+        <v>7983.3778</v>
       </c>
       <c r="G119" t="n">
-        <v>74.53666666666669</v>
+        <v>440438.0241211247</v>
       </c>
       <c r="H119" t="n">
-        <v>73.29966666666662</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N119" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="K119" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5606,42 +5117,41 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>77.73</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>78.89</v>
+        <v>72.39</v>
       </c>
       <c r="D120" t="n">
-        <v>78.90000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>76.86</v>
+        <v>72.39</v>
       </c>
       <c r="F120" t="n">
-        <v>145545.7771748314</v>
+        <v>22.7856</v>
       </c>
       <c r="G120" t="n">
-        <v>74.99533333333336</v>
+        <v>440460.8097211247</v>
       </c>
       <c r="H120" t="n">
-        <v>73.43449999999997</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N120" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="K120" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,42 +5160,41 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>77.81</v>
+        <v>71.81</v>
       </c>
       <c r="C121" t="n">
-        <v>75.94</v>
+        <v>72.37</v>
       </c>
       <c r="D121" t="n">
-        <v>77.81</v>
+        <v>72.37</v>
       </c>
       <c r="E121" t="n">
-        <v>75.94</v>
+        <v>71.81</v>
       </c>
       <c r="F121" t="n">
-        <v>16261.1821</v>
+        <v>3403.4927</v>
       </c>
       <c r="G121" t="n">
-        <v>75.27533333333336</v>
+        <v>437057.3170211247</v>
       </c>
       <c r="H121" t="n">
-        <v>73.5168333333333</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
-      </c>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N121" t="n">
+        <v>72.39</v>
+      </c>
+      <c r="K121" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5694,42 +5203,41 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>77.33</v>
+        <v>73</v>
       </c>
       <c r="C122" t="n">
-        <v>78.89</v>
+        <v>73</v>
       </c>
       <c r="D122" t="n">
-        <v>79.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="E122" t="n">
-        <v>76.01000000000001</v>
+        <v>73</v>
       </c>
       <c r="F122" t="n">
-        <v>82064.0852</v>
+        <v>22.5224</v>
       </c>
       <c r="G122" t="n">
-        <v>75.73400000000005</v>
+        <v>437079.8394211247</v>
       </c>
       <c r="H122" t="n">
-        <v>73.63166666666663</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
+        <v>72.37</v>
+      </c>
+      <c r="K122" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5738,42 +5246,39 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>78.11</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>77.45</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>78.39</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E123" t="n">
-        <v>77.34</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>37986.9516</v>
+        <v>1080</v>
       </c>
       <c r="G123" t="n">
-        <v>76.10400000000004</v>
+        <v>435999.8394211247</v>
       </c>
       <c r="H123" t="n">
-        <v>73.70449999999997</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N123" t="n">
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5782,42 +5287,39 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>78.09999999999999</v>
+        <v>72.41</v>
       </c>
       <c r="C124" t="n">
-        <v>78.98999999999999</v>
+        <v>72.41</v>
       </c>
       <c r="D124" t="n">
-        <v>79.31</v>
+        <v>72.41</v>
       </c>
       <c r="E124" t="n">
-        <v>78</v>
+        <v>72.3</v>
       </c>
       <c r="F124" t="n">
-        <v>136018.2922753911</v>
+        <v>16287.7687</v>
       </c>
       <c r="G124" t="n">
-        <v>76.51933333333338</v>
+        <v>419712.0707211247</v>
       </c>
       <c r="H124" t="n">
-        <v>73.79799999999996</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N124" t="n">
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5826,42 +5328,39 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>78.98999999999999</v>
+        <v>72.41</v>
       </c>
       <c r="C125" t="n">
-        <v>78.90000000000001</v>
+        <v>72.5</v>
       </c>
       <c r="D125" t="n">
-        <v>79.19</v>
+        <v>72.5</v>
       </c>
       <c r="E125" t="n">
-        <v>78.90000000000001</v>
+        <v>72.41</v>
       </c>
       <c r="F125" t="n">
-        <v>36986.1415</v>
+        <v>37012.9439</v>
       </c>
       <c r="G125" t="n">
-        <v>76.91266666666671</v>
+        <v>456725.0146211247</v>
       </c>
       <c r="H125" t="n">
-        <v>73.87966666666662</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N125" t="n">
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5870,42 +5369,39 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>78.90000000000001</v>
+        <v>72.12</v>
       </c>
       <c r="C126" t="n">
-        <v>79.2</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>79.3</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>78.12</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>65505.55802749054</v>
+        <v>24439.2019</v>
       </c>
       <c r="G126" t="n">
-        <v>77.29533333333339</v>
+        <v>481164.2165211247</v>
       </c>
       <c r="H126" t="n">
-        <v>73.97299999999994</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="N126" t="n">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5914,43 +5410,40 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>79.2</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>79.40000000000001</v>
+        <v>73</v>
       </c>
       <c r="D127" t="n">
-        <v>79.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="E127" t="n">
-        <v>79</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>45741.33402321298</v>
+        <v>13502.226</v>
       </c>
       <c r="G127" t="n">
-        <v>77.61933333333339</v>
+        <v>494666.4425211247</v>
       </c>
       <c r="H127" t="n">
-        <v>74.07133333333327</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>1</v>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="N127" t="n">
-        <v>1.173041543026706</v>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -5958,36 +5451,39 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>79.38</v>
+        <v>73</v>
       </c>
       <c r="C128" t="n">
-        <v>78.52</v>
+        <v>73</v>
       </c>
       <c r="D128" t="n">
-        <v>79.38</v>
+        <v>73</v>
       </c>
       <c r="E128" t="n">
-        <v>77.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="F128" t="n">
-        <v>44918.1907</v>
+        <v>19.4483</v>
       </c>
       <c r="G128" t="n">
-        <v>77.81400000000006</v>
+        <v>494666.4425211247</v>
       </c>
       <c r="H128" t="n">
-        <v>74.13499999999995</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>1</v>
-      </c>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="inlineStr"/>
-      <c r="N128" t="n">
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,36 +5492,39 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>78.37</v>
+        <v>73</v>
       </c>
       <c r="C129" t="n">
-        <v>78.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="D129" t="n">
-        <v>79.06999999999999</v>
+        <v>73</v>
       </c>
       <c r="E129" t="n">
-        <v>77.34999999999999</v>
+        <v>73</v>
       </c>
       <c r="F129" t="n">
-        <v>79908.42329999999</v>
+        <v>1593.0566</v>
       </c>
       <c r="G129" t="n">
-        <v>77.98066666666674</v>
+        <v>494666.4425211247</v>
       </c>
       <c r="H129" t="n">
-        <v>74.20949999999995</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>1</v>
-      </c>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="inlineStr"/>
-      <c r="N129" t="n">
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6034,36 +5533,39 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>78.09999999999999</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C130" t="n">
-        <v>78.28</v>
+        <v>72.12</v>
       </c>
       <c r="D130" t="n">
-        <v>78.28</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>77.34999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="F130" t="n">
-        <v>77091.11780000001</v>
+        <v>271.3079</v>
       </c>
       <c r="G130" t="n">
-        <v>78.14600000000006</v>
+        <v>494395.1346211247</v>
       </c>
       <c r="H130" t="n">
-        <v>74.28416666666661</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="inlineStr"/>
-      <c r="N130" t="n">
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6072,36 +5574,39 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>78.05</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>79.16</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>79.26000000000001</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>76.63</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>67209.80839999999</v>
+        <v>3000</v>
       </c>
       <c r="G131" t="n">
-        <v>78.3373333333334</v>
+        <v>491395.1346211247</v>
       </c>
       <c r="H131" t="n">
-        <v>74.35566666666661</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>1</v>
-      </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="inlineStr"/>
-      <c r="N131" t="n">
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6110,36 +5615,39 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>77.53</v>
+        <v>72.12</v>
       </c>
       <c r="C132" t="n">
-        <v>77.53</v>
+        <v>72.12</v>
       </c>
       <c r="D132" t="n">
-        <v>77.53</v>
+        <v>72.12</v>
       </c>
       <c r="E132" t="n">
-        <v>77.53</v>
+        <v>72.12</v>
       </c>
       <c r="F132" t="n">
-        <v>2407.4164839417</v>
+        <v>0.2027</v>
       </c>
       <c r="G132" t="n">
-        <v>78.39666666666673</v>
+        <v>491395.3373211247</v>
       </c>
       <c r="H132" t="n">
-        <v>74.40783333333327</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>1</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="inlineStr"/>
-      <c r="N132" t="n">
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6148,36 +5656,39 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>77.41</v>
+        <v>72.3</v>
       </c>
       <c r="C133" t="n">
-        <v>77.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="D133" t="n">
-        <v>77.41</v>
+        <v>72.3</v>
       </c>
       <c r="E133" t="n">
-        <v>77.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="F133" t="n">
-        <v>803.73368990312</v>
+        <v>6659.108</v>
       </c>
       <c r="G133" t="n">
-        <v>78.29200000000007</v>
+        <v>498054.4453211247</v>
       </c>
       <c r="H133" t="n">
-        <v>74.4461666666666</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>1</v>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="n">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6186,36 +5697,41 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>76.87</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C134" t="n">
-        <v>76.31</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>76.87</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>76.31</v>
+        <v>71.89</v>
       </c>
       <c r="F134" t="n">
-        <v>1735.3487</v>
+        <v>31657.2551</v>
       </c>
       <c r="G134" t="n">
-        <v>78.19733333333339</v>
+        <v>466397.1902211247</v>
       </c>
       <c r="H134" t="n">
-        <v>74.47133333333326</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>1</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="inlineStr"/>
-      <c r="N134" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="K134" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6224,36 +5740,39 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>76.05</v>
+        <v>71.75</v>
       </c>
       <c r="C135" t="n">
-        <v>76.06</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>76.06</v>
+        <v>71.75</v>
       </c>
       <c r="E135" t="n">
-        <v>74.33</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="F135" t="n">
-        <v>185691.8218</v>
+        <v>13521.6743</v>
       </c>
       <c r="G135" t="n">
-        <v>78.00866666666671</v>
+        <v>452875.5159211247</v>
       </c>
       <c r="H135" t="n">
-        <v>74.5081666666666</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>1</v>
-      </c>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="inlineStr"/>
-      <c r="N135" t="n">
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6262,36 +5781,41 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>76.06</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>75.3</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>76.06</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>75.3</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>38926.6884</v>
+        <v>0.0001</v>
       </c>
       <c r="G136" t="n">
-        <v>77.96600000000005</v>
+        <v>452875.5160211247</v>
       </c>
       <c r="H136" t="n">
-        <v>74.53333333333327</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>1</v>
-      </c>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="n">
+        <v>71.73999999999999</v>
+      </c>
+      <c r="K136" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6300,36 +5824,39 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>75.29000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>75.39</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>75.40000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>74.72</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>95585.317</v>
+        <v>151.9035</v>
       </c>
       <c r="G137" t="n">
-        <v>77.73266666666672</v>
+        <v>452723.6125211247</v>
       </c>
       <c r="H137" t="n">
-        <v>74.56666666666661</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>1</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="inlineStr"/>
-      <c r="N137" t="n">
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6338,36 +5865,39 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>75.64</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>76.08</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>76.08</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>75.64</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>7424.4357</v>
+        <v>16.9599</v>
       </c>
       <c r="G138" t="n">
-        <v>77.64133333333338</v>
+        <v>452740.5724211247</v>
       </c>
       <c r="H138" t="n">
-        <v>74.6256666666666</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>1</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr"/>
-      <c r="N138" t="n">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6376,36 +5906,39 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>75.36</v>
+        <v>72.8</v>
       </c>
       <c r="C139" t="n">
-        <v>74.98</v>
+        <v>73</v>
       </c>
       <c r="D139" t="n">
-        <v>75.36</v>
+        <v>73</v>
       </c>
       <c r="E139" t="n">
-        <v>74.98</v>
+        <v>72.8</v>
       </c>
       <c r="F139" t="n">
-        <v>10809.6887</v>
+        <v>8129.9229</v>
       </c>
       <c r="G139" t="n">
-        <v>77.37400000000004</v>
+        <v>460870.4953211247</v>
       </c>
       <c r="H139" t="n">
-        <v>74.6656666666666</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>1</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr"/>
-      <c r="N139" t="n">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,36 +5947,39 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>74.98</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>75.36</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>75.36</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>74.98</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="F140" t="n">
-        <v>573.874</v>
+        <v>12.608</v>
       </c>
       <c r="G140" t="n">
-        <v>77.13800000000002</v>
+        <v>460883.1033211247</v>
       </c>
       <c r="H140" t="n">
-        <v>74.70049999999992</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>1</v>
-      </c>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="n">
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6452,36 +5988,39 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>75.36</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>75.36</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>75.36</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>75.36</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>6631.4575</v>
+        <v>11045.3147</v>
       </c>
       <c r="G141" t="n">
-        <v>76.88200000000002</v>
+        <v>471928.4180211247</v>
       </c>
       <c r="H141" t="n">
-        <v>74.74499999999992</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>1</v>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="n">
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6490,36 +6029,1138 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="D142" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E142" t="n">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>41864.3479</v>
+      </c>
+      <c r="G142" t="n">
+        <v>513792.7659211247</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="C143" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="D143" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E143" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2095.4435</v>
+      </c>
+      <c r="G143" t="n">
+        <v>513792.7659211247</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="C144" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E144" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="F144" t="n">
+        <v>32118.6742</v>
+      </c>
+      <c r="G144" t="n">
+        <v>545911.4401211247</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>75.88</v>
+      </c>
+      <c r="C145" t="n">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="D145" t="n">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="E145" t="n">
+        <v>75.88</v>
+      </c>
+      <c r="F145" t="n">
+        <v>153837.8859526316</v>
+      </c>
+      <c r="G145" t="n">
+        <v>699749.3260737563</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="C146" t="n">
+        <v>76.64</v>
+      </c>
+      <c r="D146" t="n">
+        <v>76.64</v>
+      </c>
+      <c r="E146" t="n">
+        <v>75.20999999999999</v>
+      </c>
+      <c r="F146" t="n">
+        <v>15562.4693</v>
+      </c>
+      <c r="G146" t="n">
+        <v>715311.7953737563</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="C147" t="n">
+        <v>78.97</v>
+      </c>
+      <c r="D147" t="n">
+        <v>79</v>
+      </c>
+      <c r="E147" t="n">
+        <v>76.64</v>
+      </c>
+      <c r="F147" t="n">
+        <v>168816.158</v>
+      </c>
+      <c r="G147" t="n">
+        <v>884127.9533737563</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>77.63</v>
+      </c>
+      <c r="C148" t="n">
+        <v>77.73</v>
+      </c>
+      <c r="D148" t="n">
+        <v>77.73999999999999</v>
+      </c>
+      <c r="E148" t="n">
+        <v>76.67</v>
+      </c>
+      <c r="F148" t="n">
+        <v>84366.03230000001</v>
+      </c>
+      <c r="G148" t="n">
+        <v>799761.9210737563</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>77.73</v>
+      </c>
+      <c r="C149" t="n">
+        <v>78.89</v>
+      </c>
+      <c r="D149" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>76.86</v>
+      </c>
+      <c r="F149" t="n">
+        <v>145545.7771748314</v>
+      </c>
+      <c r="G149" t="n">
+        <v>945307.6982485877</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>77.81</v>
+      </c>
+      <c r="C150" t="n">
+        <v>75.94</v>
+      </c>
+      <c r="D150" t="n">
+        <v>77.81</v>
+      </c>
+      <c r="E150" t="n">
+        <v>75.94</v>
+      </c>
+      <c r="F150" t="n">
+        <v>16261.1821</v>
+      </c>
+      <c r="G150" t="n">
+        <v>929046.5161485877</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>77.33</v>
+      </c>
+      <c r="C151" t="n">
+        <v>78.89</v>
+      </c>
+      <c r="D151" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="E151" t="n">
+        <v>76.01000000000001</v>
+      </c>
+      <c r="F151" t="n">
+        <v>82064.0852</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1011110.601348588</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>78.11</v>
+      </c>
+      <c r="C152" t="n">
+        <v>77.45</v>
+      </c>
+      <c r="D152" t="n">
+        <v>78.39</v>
+      </c>
+      <c r="E152" t="n">
+        <v>77.34</v>
+      </c>
+      <c r="F152" t="n">
+        <v>37986.9516</v>
+      </c>
+      <c r="G152" t="n">
+        <v>973123.6497485876</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C153" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="D153" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="E153" t="n">
+        <v>78</v>
+      </c>
+      <c r="F153" t="n">
+        <v>136018.2922753911</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1109141.942023979</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="C154" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D154" t="n">
+        <v>79.19</v>
+      </c>
+      <c r="E154" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F154" t="n">
+        <v>36986.1415</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1072155.800523979</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C155" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="D155" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="E155" t="n">
+        <v>78.12</v>
+      </c>
+      <c r="F155" t="n">
+        <v>65505.55802749054</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1137661.358551469</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="C156" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="D156" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="E156" t="n">
+        <v>79</v>
+      </c>
+      <c r="F156" t="n">
+        <v>45741.33402321298</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1183402.692574682</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>69.45999999999999</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1.138103944716384</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>79.38</v>
+      </c>
+      <c r="C157" t="n">
+        <v>78.52</v>
+      </c>
+      <c r="D157" t="n">
+        <v>79.38</v>
+      </c>
+      <c r="E157" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F157" t="n">
+        <v>44918.1907</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1138484.501874682</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>78.37</v>
+      </c>
+      <c r="C158" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D158" t="n">
+        <v>79.06999999999999</v>
+      </c>
+      <c r="E158" t="n">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="F158" t="n">
+        <v>79908.42329999999</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1058576.078574683</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>78.28</v>
+      </c>
+      <c r="D159" t="n">
+        <v>78.28</v>
+      </c>
+      <c r="E159" t="n">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="F159" t="n">
+        <v>77091.11780000001</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1135667.196374683</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>78.05</v>
+      </c>
+      <c r="C160" t="n">
+        <v>79.16</v>
+      </c>
+      <c r="D160" t="n">
+        <v>79.26000000000001</v>
+      </c>
+      <c r="E160" t="n">
+        <v>76.63</v>
+      </c>
+      <c r="F160" t="n">
+        <v>67209.80839999999</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1202877.004774683</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="C161" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="D161" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="E161" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2407.4164839417</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1200469.588290741</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>77.41</v>
+      </c>
+      <c r="C162" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D162" t="n">
+        <v>77.41</v>
+      </c>
+      <c r="E162" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="F162" t="n">
+        <v>803.73368990312</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1199665.854600838</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>76.87</v>
+      </c>
+      <c r="C163" t="n">
+        <v>76.31</v>
+      </c>
+      <c r="D163" t="n">
+        <v>76.87</v>
+      </c>
+      <c r="E163" t="n">
+        <v>76.31</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1735.3487</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1197930.505900838</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>76.05</v>
+      </c>
+      <c r="C164" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="D164" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="E164" t="n">
+        <v>74.33</v>
+      </c>
+      <c r="F164" t="n">
+        <v>185691.8218</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1012238.684100838</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="C165" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="E165" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>38926.6884</v>
+      </c>
+      <c r="G165" t="n">
+        <v>973311.9957008379</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>75.29000000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>75.39</v>
+      </c>
+      <c r="D166" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E166" t="n">
+        <v>74.72</v>
+      </c>
+      <c r="F166" t="n">
+        <v>95585.317</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1068897.312700838</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>75.64</v>
+      </c>
+      <c r="C167" t="n">
+        <v>76.08</v>
+      </c>
+      <c r="D167" t="n">
+        <v>76.08</v>
+      </c>
+      <c r="E167" t="n">
+        <v>75.64</v>
+      </c>
+      <c r="F167" t="n">
+        <v>7424.4357</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1076321.748400838</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="C168" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="D168" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="E168" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="F168" t="n">
+        <v>10809.6887</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1065512.059700838</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="C169" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="D169" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="E169" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="F169" t="n">
+        <v>573.874</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1066085.933700838</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="C170" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="D170" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="E170" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6631.4575</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1066085.933700838</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
         <v>75.73</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C171" t="n">
         <v>76.33</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D171" t="n">
         <v>76.33</v>
       </c>
-      <c r="E142" t="n">
+      <c r="E171" t="n">
         <v>75.70999999999999</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F171" t="n">
         <v>48046.1351</v>
       </c>
-      <c r="G142" t="n">
-        <v>76.67733333333334</v>
-      </c>
-      <c r="H142" t="n">
-        <v>74.81049999999992</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="n">
-        <v>1</v>
-      </c>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="inlineStr"/>
-      <c r="N142" t="n">
+      <c r="G171" t="n">
+        <v>1114132.068800838</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-19 BackTest ELF.xlsx
+++ b/BackTest/2020-01-19 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:N129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>71</v>
+        <v>67.37</v>
       </c>
       <c r="C2" t="n">
-        <v>71.70999999999999</v>
+        <v>67.37</v>
       </c>
       <c r="D2" t="n">
-        <v>71.70999999999999</v>
+        <v>67.37</v>
       </c>
       <c r="E2" t="n">
-        <v>71</v>
+        <v>67.37</v>
       </c>
       <c r="F2" t="n">
-        <v>20010.6647095942</v>
+        <v>23000</v>
       </c>
       <c r="G2" t="n">
-        <v>483444.5909532532</v>
+        <v>208924.7205532532</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,973 +467,1209 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>71.98999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>71.98999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>71.98999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>71.98999999999999</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>23678.936</v>
+        <v>2571</v>
       </c>
       <c r="G3" t="n">
-        <v>507123.5269532532</v>
+        <v>211495.7205532532</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="K3" t="n">
+        <v>67.37</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>72.12</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>72.12</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>72.12</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>72.12</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>5665.9932</v>
+        <v>7200.8561</v>
       </c>
       <c r="G4" t="n">
-        <v>512789.5201532532</v>
+        <v>211495.7205532532</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>72.12</v>
+        <v>67.45</v>
       </c>
       <c r="C5" t="n">
-        <v>72.12</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>72.12</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>72.12</v>
+        <v>67.45</v>
       </c>
       <c r="F5" t="n">
-        <v>151.0193</v>
+        <v>23000</v>
       </c>
       <c r="G5" t="n">
-        <v>512789.5201532532</v>
+        <v>234495.7205532532</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>67.37</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>71.98999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="C6" t="n">
-        <v>72.12</v>
+        <v>67.89</v>
       </c>
       <c r="D6" t="n">
-        <v>72.12</v>
+        <v>67.89</v>
       </c>
       <c r="E6" t="n">
-        <v>71.98999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="F6" t="n">
-        <v>5691.5246</v>
+        <v>1191.6675</v>
       </c>
       <c r="G6" t="n">
-        <v>512789.5201532532</v>
+        <v>235687.3880532532</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="K6" t="n">
+        <v>67.45999999999999</v>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71.98999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="C7" t="n">
-        <v>71.98999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>71.98999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="E7" t="n">
-        <v>71.98999999999999</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>450.8161</v>
+        <v>3431.2739</v>
       </c>
       <c r="G7" t="n">
-        <v>512338.7040532532</v>
+        <v>232256.1141532532</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>67.89</v>
+      </c>
+      <c r="K7" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>71.98999999999999</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>71.98999999999999</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>72.11</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>71.98999999999999</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>9658.2382</v>
+        <v>42441.1862</v>
       </c>
       <c r="G8" t="n">
-        <v>512338.7040532532</v>
+        <v>274697.3003532531</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="K8" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>71.98999999999999</v>
+        <v>67.89</v>
       </c>
       <c r="C9" t="n">
-        <v>71.25</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>71.98999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>71.25</v>
+        <v>67.89</v>
       </c>
       <c r="F9" t="n">
-        <v>13099.5007</v>
+        <v>14706.43548263491</v>
       </c>
       <c r="G9" t="n">
-        <v>499239.2033532533</v>
+        <v>289403.7358358881</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>67.43000000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>71</v>
+        <v>67.98</v>
       </c>
       <c r="C10" t="n">
-        <v>71</v>
+        <v>67.98</v>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>67.98</v>
       </c>
       <c r="E10" t="n">
-        <v>71</v>
+        <v>67.98</v>
       </c>
       <c r="F10" t="n">
-        <v>3485.424</v>
+        <v>2425.2513</v>
       </c>
       <c r="G10" t="n">
-        <v>495753.7793532533</v>
+        <v>286978.4845358881</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="K10" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70.81999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C11" t="n">
-        <v>70.81999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="D11" t="n">
-        <v>70.81999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E11" t="n">
-        <v>70.81999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="F11" t="n">
-        <v>971.1618999999999</v>
+        <v>6317.2949</v>
       </c>
       <c r="G11" t="n">
-        <v>494782.6174532532</v>
+        <v>280661.1896358881</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>67.98</v>
+      </c>
+      <c r="K11" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>70.81999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="C12" t="n">
-        <v>70.81999999999999</v>
+        <v>67.36</v>
       </c>
       <c r="D12" t="n">
-        <v>70.81999999999999</v>
+        <v>67.5</v>
       </c>
       <c r="E12" t="n">
-        <v>70.81999999999999</v>
+        <v>67.36</v>
       </c>
       <c r="F12" t="n">
-        <v>4.8453</v>
+        <v>5586.1539</v>
       </c>
       <c r="G12" t="n">
-        <v>494782.6174532532</v>
+        <v>275075.0357358881</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>69.59999999999999</v>
+        <v>67.97</v>
       </c>
       <c r="C13" t="n">
-        <v>69.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="D13" t="n">
-        <v>69.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="E13" t="n">
-        <v>69.59999999999999</v>
+        <v>67.97</v>
       </c>
       <c r="F13" t="n">
-        <v>525.88</v>
+        <v>3800</v>
       </c>
       <c r="G13" t="n">
-        <v>494256.7374532532</v>
+        <v>278875.0357358881</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>67.36</v>
+      </c>
+      <c r="K13" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>70.61</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C14" t="n">
-        <v>70.61</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>70.61</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>70.61</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>37.0043</v>
+        <v>1315.7759</v>
       </c>
       <c r="G14" t="n">
-        <v>494293.7417532532</v>
+        <v>280190.8116358881</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>68</v>
+      </c>
+      <c r="K14" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>70.20999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="C15" t="n">
-        <v>70.20999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="D15" t="n">
-        <v>70.20999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="E15" t="n">
-        <v>70.20999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="F15" t="n">
-        <v>49250</v>
+        <v>2413.4214</v>
       </c>
       <c r="G15" t="n">
-        <v>445043.7417532532</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>68.09999999999999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>70.20999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="C16" t="n">
-        <v>70.20999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="D16" t="n">
-        <v>70.20999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="E16" t="n">
-        <v>70.20999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="F16" t="n">
-        <v>29361.3145</v>
+        <v>991.3283</v>
       </c>
       <c r="G16" t="n">
-        <v>445043.7417532532</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="K16" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>69.59999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="C17" t="n">
-        <v>69.59999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="D17" t="n">
-        <v>69.59999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="E17" t="n">
-        <v>69.59999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="F17" t="n">
-        <v>197.9794</v>
+        <v>462.476</v>
       </c>
       <c r="G17" t="n">
-        <v>444845.7623532532</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="K17" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>69.59</v>
+        <v>68.02</v>
       </c>
       <c r="C18" t="n">
-        <v>69.5</v>
+        <v>68.02</v>
       </c>
       <c r="D18" t="n">
-        <v>69.59</v>
+        <v>68.02</v>
       </c>
       <c r="E18" t="n">
-        <v>69.5</v>
+        <v>68.02</v>
       </c>
       <c r="F18" t="n">
-        <v>94.25</v>
+        <v>517.0488</v>
       </c>
       <c r="G18" t="n">
-        <v>444751.5123532532</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="K18" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>69.59999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="C19" t="n">
-        <v>69.20999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="D19" t="n">
-        <v>69.59999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="E19" t="n">
-        <v>69.20999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="F19" t="n">
-        <v>13132.143</v>
+        <v>897.7068</v>
       </c>
       <c r="G19" t="n">
-        <v>431619.3693532532</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="K19" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>68.90000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="C20" t="n">
-        <v>68.89</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>68.90000000000001</v>
+        <v>68.02</v>
       </c>
       <c r="E20" t="n">
-        <v>68.89</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>2111.5494</v>
+        <v>11501.8641</v>
       </c>
       <c r="G20" t="n">
-        <v>429507.8199532532</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>68.02</v>
+      </c>
+      <c r="K20" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>68.89</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>68.89</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>68.89</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>68.89</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>595.1785</v>
+        <v>833.9897999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>429507.8199532532</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="K21" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>68.75</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>68.69</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>68.75</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>68.69</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>2384.0086</v>
+        <v>621</v>
       </c>
       <c r="G22" t="n">
-        <v>427123.8113532532</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="K22" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>68.69</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>68.7</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>68.7</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>68.69</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>737.9478</v>
+        <v>873.3149</v>
       </c>
       <c r="G23" t="n">
-        <v>427861.7591532532</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="K23" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>68.7</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C24" t="n">
-        <v>68.7</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>68.7</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>68.7</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>124.676</v>
+        <v>1905.277</v>
       </c>
       <c r="G24" t="n">
-        <v>427861.7591532532</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="K24" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>68.51000000000001</v>
+        <v>68.38</v>
       </c>
       <c r="C25" t="n">
-        <v>68.41</v>
+        <v>68.38</v>
       </c>
       <c r="D25" t="n">
-        <v>68.51000000000001</v>
+        <v>68.38</v>
       </c>
       <c r="E25" t="n">
-        <v>68.41</v>
+        <v>68.38</v>
       </c>
       <c r="F25" t="n">
-        <v>150342.2387</v>
+        <v>88.46680000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>277519.5204532532</v>
+        <v>266363.9929358881</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="K25" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>69</v>
+        <v>68.38</v>
       </c>
       <c r="C26" t="n">
-        <v>69</v>
+        <v>68.38</v>
       </c>
       <c r="D26" t="n">
-        <v>69</v>
+        <v>68.38</v>
       </c>
       <c r="E26" t="n">
-        <v>69</v>
+        <v>68.38</v>
       </c>
       <c r="F26" t="n">
-        <v>751.9029</v>
+        <v>996.1002</v>
       </c>
       <c r="G26" t="n">
-        <v>278271.4233532532</v>
+        <v>266363.9929358881</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>68.38</v>
+      </c>
+      <c r="K26" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>69</v>
+        <v>68.39</v>
       </c>
       <c r="C27" t="n">
-        <v>68.66</v>
+        <v>68.62</v>
       </c>
       <c r="D27" t="n">
-        <v>69</v>
+        <v>68.62</v>
       </c>
       <c r="E27" t="n">
-        <v>68.66</v>
+        <v>68.39</v>
       </c>
       <c r="F27" t="n">
-        <v>15638.5986</v>
+        <v>9700</v>
       </c>
       <c r="G27" t="n">
-        <v>262632.8247532532</v>
+        <v>276063.9929358881</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>68.38</v>
+      </c>
+      <c r="K27" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>69.19</v>
+        <v>68.03</v>
       </c>
       <c r="C28" t="n">
-        <v>69.19</v>
+        <v>68.64</v>
       </c>
       <c r="D28" t="n">
-        <v>69.19</v>
+        <v>68.64</v>
       </c>
       <c r="E28" t="n">
-        <v>69.19</v>
+        <v>68.03</v>
       </c>
       <c r="F28" t="n">
-        <v>701.2103</v>
+        <v>1129.9558</v>
       </c>
       <c r="G28" t="n">
-        <v>263334.0350532532</v>
+        <v>277193.9487358881</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>68.62</v>
+      </c>
+      <c r="K28" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>69.5</v>
+        <v>68.64</v>
       </c>
       <c r="C29" t="n">
-        <v>69.45999999999999</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>69.5</v>
+        <v>69.19</v>
       </c>
       <c r="E29" t="n">
-        <v>69.45999999999999</v>
+        <v>68.64</v>
       </c>
       <c r="F29" t="n">
-        <v>4727.19</v>
+        <v>14987.4338</v>
       </c>
       <c r="G29" t="n">
-        <v>268061.2250532532</v>
+        <v>292181.3825358881</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>68.64</v>
+      </c>
+      <c r="K29" t="n">
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>70.05</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>70.05</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>70.05</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>70.05</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>47.7081</v>
+        <v>4823.7835</v>
       </c>
       <c r="G30" t="n">
-        <v>268108.9331532532</v>
+        <v>297005.1660358881</v>
       </c>
       <c r="H30" t="n">
         <v>1</v>
@@ -1437,56 +1678,64 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>69.45999999999999</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L30" t="inlineStr"/>
+        <v>67.45999999999999</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>69.2</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="D31" t="n">
-        <v>69.2</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="F31" t="n">
-        <v>1023.8023</v>
+        <v>7796.1956</v>
       </c>
       <c r="G31" t="n">
-        <v>267085.1308532532</v>
+        <v>289208.9704358882</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>69.31999999999999</v>
+      </c>
       <c r="K31" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1505,10 +1754,10 @@
         <v>69.3</v>
       </c>
       <c r="F32" t="n">
-        <v>295.0495</v>
+        <v>808</v>
       </c>
       <c r="G32" t="n">
-        <v>267380.1803532532</v>
+        <v>289208.9704358882</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -1517,41 +1766,42 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>69.2</v>
+        <v>69.3</v>
       </c>
       <c r="K32" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>69.09999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>69</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>69.09999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>69</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="F33" t="n">
-        <v>2465</v>
+        <v>6456.7706</v>
       </c>
       <c r="G33" t="n">
-        <v>264915.1803532532</v>
+        <v>295665.7410358881</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -1563,38 +1813,39 @@
         <v>69.3</v>
       </c>
       <c r="K33" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>68.61</v>
+        <v>69.34</v>
       </c>
       <c r="C34" t="n">
-        <v>68.52</v>
+        <v>69.34</v>
       </c>
       <c r="D34" t="n">
-        <v>68.61</v>
+        <v>69.34</v>
       </c>
       <c r="E34" t="n">
-        <v>68.52</v>
+        <v>69.34</v>
       </c>
       <c r="F34" t="n">
-        <v>12450.8832</v>
+        <v>6610.7466</v>
       </c>
       <c r="G34" t="n">
-        <v>252464.2971532532</v>
+        <v>302276.4876358882</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -1603,10 +1854,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1616,38 +1867,41 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>68.52</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>68.18000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D35" t="n">
-        <v>68.52</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>68.18000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>6590</v>
+        <v>298.288</v>
       </c>
       <c r="G35" t="n">
-        <v>245874.2971532532</v>
+        <v>302574.7756358882</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>69.34</v>
+      </c>
       <c r="K35" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1657,38 +1911,41 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>68.18000000000001</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>68</v>
+        <v>69.5</v>
       </c>
       <c r="D36" t="n">
-        <v>68.18000000000001</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>68</v>
+        <v>69.5</v>
       </c>
       <c r="F36" t="n">
-        <v>268.8519</v>
+        <v>6232.4873</v>
       </c>
       <c r="G36" t="n">
-        <v>245605.4452532532</v>
+        <v>296342.2883358882</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>69.59999999999999</v>
+      </c>
       <c r="K36" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1698,38 +1955,41 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="C37" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="D37" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="E37" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="F37" t="n">
-        <v>487</v>
+        <v>500.9508</v>
       </c>
       <c r="G37" t="n">
-        <v>245605.4452532532</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>69.5</v>
+      </c>
       <c r="K37" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -1739,38 +1999,41 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>68</v>
+        <v>69.16</v>
       </c>
       <c r="C38" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="D38" t="n">
-        <v>68</v>
+        <v>69.16</v>
       </c>
       <c r="E38" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="F38" t="n">
-        <v>118019.9141</v>
+        <v>2696.5577</v>
       </c>
       <c r="G38" t="n">
-        <v>245605.4452532532</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>69.06</v>
+      </c>
       <c r="K38" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -1780,38 +2043,41 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>68</v>
+        <v>69.5</v>
       </c>
       <c r="C39" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="D39" t="n">
-        <v>68</v>
+        <v>69.5</v>
       </c>
       <c r="E39" t="n">
-        <v>68</v>
+        <v>69.06</v>
       </c>
       <c r="F39" t="n">
-        <v>29038.6956</v>
+        <v>715.9964</v>
       </c>
       <c r="G39" t="n">
-        <v>245605.4452532532</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>69.06</v>
+      </c>
       <c r="K39" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -1821,38 +2087,41 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>68.01000000000001</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>68.01000000000001</v>
+        <v>69.06</v>
       </c>
       <c r="D40" t="n">
-        <v>68.01000000000001</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>68.01000000000001</v>
+        <v>69.06</v>
       </c>
       <c r="F40" t="n">
-        <v>1801.8312</v>
+        <v>5286.0622</v>
       </c>
       <c r="G40" t="n">
-        <v>247407.2764532532</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>69.06</v>
+      </c>
       <c r="K40" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -1862,28 +2131,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>67.98</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>67.01000000000001</v>
+        <v>69</v>
       </c>
       <c r="D41" t="n">
-        <v>67.98</v>
+        <v>69.83</v>
       </c>
       <c r="E41" t="n">
-        <v>67.01000000000001</v>
+        <v>69</v>
       </c>
       <c r="F41" t="n">
-        <v>19757.2138</v>
+        <v>1645.1359</v>
       </c>
       <c r="G41" t="n">
-        <v>227650.0626532532</v>
+        <v>294196.2016358882</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1892,10 +2162,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>68.01000000000001</v>
+        <v>69.06</v>
       </c>
       <c r="K41" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -1905,38 +2175,41 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>67.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="C42" t="n">
-        <v>67.90000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>67.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="E42" t="n">
-        <v>67.90000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>3060.4219</v>
+        <v>292.0622</v>
       </c>
       <c r="G42" t="n">
-        <v>230710.4845532532</v>
+        <v>293904.1394358882</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>69</v>
+      </c>
       <c r="K42" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -1946,28 +2219,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>67.91</v>
+        <v>68.8</v>
       </c>
       <c r="C43" t="n">
-        <v>67.91</v>
+        <v>68.8</v>
       </c>
       <c r="D43" t="n">
-        <v>67.91</v>
+        <v>68.8</v>
       </c>
       <c r="E43" t="n">
-        <v>67.91</v>
+        <v>68.8</v>
       </c>
       <c r="F43" t="n">
-        <v>1214.236</v>
+        <v>825.639</v>
       </c>
       <c r="G43" t="n">
-        <v>231924.7205532532</v>
+        <v>293078.5004358882</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1976,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>67.90000000000001</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -1989,38 +2263,41 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>67.37</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>67.37</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>67.37</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>67.37</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>23000</v>
+        <v>6137.8</v>
       </c>
       <c r="G44" t="n">
-        <v>208924.7205532532</v>
+        <v>299216.3004358882</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>68.8</v>
+      </c>
       <c r="K44" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2030,38 +2307,41 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>67.40000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="C45" t="n">
-        <v>67.40000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="D45" t="n">
-        <v>67.40000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="E45" t="n">
-        <v>67.40000000000001</v>
+        <v>70.2</v>
       </c>
       <c r="F45" t="n">
-        <v>2571</v>
+        <v>298.288</v>
       </c>
       <c r="G45" t="n">
-        <v>211495.7205532532</v>
+        <v>299514.5884358882</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>69.59999999999999</v>
+      </c>
       <c r="K45" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2071,38 +2351,41 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>67.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="C46" t="n">
-        <v>67.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="D46" t="n">
-        <v>67.40000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="E46" t="n">
-        <v>67.40000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="F46" t="n">
-        <v>7200.8561</v>
+        <v>36290.7368</v>
       </c>
       <c r="G46" t="n">
-        <v>211495.7205532532</v>
+        <v>335805.3252358882</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>70.2</v>
+      </c>
       <c r="K46" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2112,28 +2395,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>67.45</v>
+        <v>70.69</v>
       </c>
       <c r="C47" t="n">
-        <v>67.45999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="D47" t="n">
-        <v>67.45999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="E47" t="n">
-        <v>67.45</v>
+        <v>70.69</v>
       </c>
       <c r="F47" t="n">
-        <v>23000</v>
+        <v>27417.3531</v>
       </c>
       <c r="G47" t="n">
-        <v>234495.7205532532</v>
+        <v>335805.3252358882</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2143,7 +2427,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2153,28 +2437,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>67.89</v>
+        <v>70.8</v>
       </c>
       <c r="C48" t="n">
-        <v>67.89</v>
+        <v>71</v>
       </c>
       <c r="D48" t="n">
-        <v>67.89</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>67.89</v>
+        <v>70.8</v>
       </c>
       <c r="F48" t="n">
-        <v>1191.6675</v>
+        <v>37109.7192</v>
       </c>
       <c r="G48" t="n">
-        <v>235687.3880532532</v>
+        <v>372915.0444358882</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2184,7 +2469,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2194,28 +2479,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>67.89</v>
+        <v>71.19</v>
       </c>
       <c r="C49" t="n">
-        <v>67.09999999999999</v>
+        <v>72</v>
       </c>
       <c r="D49" t="n">
-        <v>67.89</v>
+        <v>72.3</v>
       </c>
       <c r="E49" t="n">
-        <v>67.09999999999999</v>
+        <v>71.19</v>
       </c>
       <c r="F49" t="n">
-        <v>3431.2739</v>
+        <v>220286.6907</v>
       </c>
       <c r="G49" t="n">
-        <v>232256.1141532532</v>
+        <v>593201.7351358882</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2225,7 +2511,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2235,28 +2521,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>67.43000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="C50" t="n">
-        <v>67.43000000000001</v>
+        <v>73.08</v>
       </c>
       <c r="D50" t="n">
-        <v>67.43000000000001</v>
+        <v>73.08</v>
       </c>
       <c r="E50" t="n">
-        <v>67.43000000000001</v>
+        <v>72.3</v>
       </c>
       <c r="F50" t="n">
-        <v>42441.1862</v>
+        <v>138507.8384</v>
       </c>
       <c r="G50" t="n">
-        <v>274697.3003532531</v>
+        <v>731709.5735358882</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2266,7 +2553,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2276,28 +2563,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>67.89</v>
+        <v>73.3</v>
       </c>
       <c r="C51" t="n">
-        <v>68.01000000000001</v>
+        <v>73.38</v>
       </c>
       <c r="D51" t="n">
-        <v>68.01000000000001</v>
+        <v>73.38</v>
       </c>
       <c r="E51" t="n">
-        <v>67.89</v>
+        <v>73.3</v>
       </c>
       <c r="F51" t="n">
-        <v>14706.43548263491</v>
+        <v>37156.0528</v>
       </c>
       <c r="G51" t="n">
-        <v>289403.7358358881</v>
+        <v>768865.6263358882</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2307,7 +2595,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2317,28 +2605,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>67.98</v>
+        <v>73.38</v>
       </c>
       <c r="C52" t="n">
-        <v>67.98</v>
+        <v>74</v>
       </c>
       <c r="D52" t="n">
-        <v>67.98</v>
+        <v>74</v>
       </c>
       <c r="E52" t="n">
-        <v>67.98</v>
+        <v>73.38</v>
       </c>
       <c r="F52" t="n">
-        <v>2425.2513</v>
+        <v>55159.7276</v>
       </c>
       <c r="G52" t="n">
-        <v>286978.4845358881</v>
+        <v>824025.3539358882</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2348,7 +2637,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2358,28 +2647,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>67.5</v>
+        <v>74</v>
       </c>
       <c r="C53" t="n">
-        <v>67.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>67.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>67.5</v>
+        <v>73.5</v>
       </c>
       <c r="F53" t="n">
-        <v>6317.2949</v>
+        <v>71140.08387348526</v>
       </c>
       <c r="G53" t="n">
-        <v>280661.1896358881</v>
+        <v>752885.2700624029</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2389,7 +2679,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2399,28 +2689,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>67.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>67.36</v>
+        <v>73.5</v>
       </c>
       <c r="D54" t="n">
-        <v>67.5</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>67.36</v>
+        <v>73.5</v>
       </c>
       <c r="F54" t="n">
-        <v>5586.1539</v>
+        <v>57008.38162651475</v>
       </c>
       <c r="G54" t="n">
-        <v>275075.0357358881</v>
+        <v>695876.8884358882</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2430,7 +2721,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2440,28 +2731,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>67.97</v>
+        <v>74.7</v>
       </c>
       <c r="C55" t="n">
-        <v>68</v>
+        <v>74.7</v>
       </c>
       <c r="D55" t="n">
-        <v>68</v>
+        <v>74.7</v>
       </c>
       <c r="E55" t="n">
-        <v>67.97</v>
+        <v>74.7</v>
       </c>
       <c r="F55" t="n">
-        <v>3800</v>
+        <v>9</v>
       </c>
       <c r="G55" t="n">
-        <v>278875.0357358881</v>
+        <v>695885.8884358882</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2471,7 +2763,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2481,28 +2773,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>68.09999999999999</v>
+        <v>73.61</v>
       </c>
       <c r="C56" t="n">
-        <v>68.09999999999999</v>
+        <v>73.63</v>
       </c>
       <c r="D56" t="n">
-        <v>68.09999999999999</v>
+        <v>73.63</v>
       </c>
       <c r="E56" t="n">
-        <v>68.09999999999999</v>
+        <v>73.61</v>
       </c>
       <c r="F56" t="n">
-        <v>1315.7759</v>
+        <v>27</v>
       </c>
       <c r="G56" t="n">
-        <v>280190.8116358881</v>
+        <v>695858.8884358882</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2512,7 +2805,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2522,28 +2815,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>68.02</v>
+        <v>74.7</v>
       </c>
       <c r="C57" t="n">
-        <v>68.02</v>
+        <v>73.8</v>
       </c>
       <c r="D57" t="n">
-        <v>68.02</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="E57" t="n">
-        <v>68.02</v>
+        <v>73.8</v>
       </c>
       <c r="F57" t="n">
-        <v>2413.4214</v>
+        <v>5526.7604</v>
       </c>
       <c r="G57" t="n">
-        <v>277777.3902358881</v>
+        <v>701385.6488358882</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2553,7 +2847,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2563,28 +2857,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>68.02</v>
+        <v>74.87</v>
       </c>
       <c r="C58" t="n">
-        <v>68.02</v>
+        <v>74.87</v>
       </c>
       <c r="D58" t="n">
-        <v>68.02</v>
+        <v>74.87</v>
       </c>
       <c r="E58" t="n">
-        <v>68.02</v>
+        <v>74.87</v>
       </c>
       <c r="F58" t="n">
-        <v>991.3283</v>
+        <v>15200.9364</v>
       </c>
       <c r="G58" t="n">
-        <v>277777.3902358881</v>
+        <v>716586.5852358883</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2594,7 +2889,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2604,28 +2899,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>68.02</v>
+        <v>74.87</v>
       </c>
       <c r="C59" t="n">
-        <v>68.02</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>68.02</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>68.02</v>
+        <v>74.20999999999999</v>
       </c>
       <c r="F59" t="n">
-        <v>462.476</v>
+        <v>107630.9851</v>
       </c>
       <c r="G59" t="n">
-        <v>277777.3902358881</v>
+        <v>608955.6001358882</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2635,7 +2931,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2645,28 +2941,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>68.02</v>
+        <v>74.87</v>
       </c>
       <c r="C60" t="n">
-        <v>68.02</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>68.02</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>68.02</v>
+        <v>74.3</v>
       </c>
       <c r="F60" t="n">
-        <v>517.0488</v>
+        <v>13428.2033587217</v>
       </c>
       <c r="G60" t="n">
-        <v>277777.3902358881</v>
+        <v>622383.8034946099</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2676,7 +2973,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2686,28 +2983,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>68.02</v>
+        <v>74.31</v>
       </c>
       <c r="C61" t="n">
-        <v>68.02</v>
+        <v>74.8</v>
       </c>
       <c r="D61" t="n">
-        <v>68.02</v>
+        <v>74.8</v>
       </c>
       <c r="E61" t="n">
-        <v>68.02</v>
+        <v>74.22</v>
       </c>
       <c r="F61" t="n">
-        <v>897.7068</v>
+        <v>32883.5179</v>
       </c>
       <c r="G61" t="n">
-        <v>277777.3902358881</v>
+        <v>589500.2855946099</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2717,7 +3015,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -2727,28 +3025,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>68.02</v>
+        <v>74.3</v>
       </c>
       <c r="C62" t="n">
-        <v>68.01000000000001</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>68.02</v>
+        <v>74.3</v>
       </c>
       <c r="E62" t="n">
-        <v>68.01000000000001</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>11501.8641</v>
+        <v>17520.4783</v>
       </c>
       <c r="G62" t="n">
-        <v>266275.5261358881</v>
+        <v>571979.80729461</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2758,7 +3057,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -2768,28 +3067,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>68.01000000000001</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>68.01000000000001</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>68.01000000000001</v>
+        <v>74.26000000000001</v>
       </c>
       <c r="E63" t="n">
-        <v>68.01000000000001</v>
+        <v>73.5</v>
       </c>
       <c r="F63" t="n">
-        <v>833.9897999999999</v>
+        <v>10577.0029</v>
       </c>
       <c r="G63" t="n">
-        <v>266275.5261358881</v>
+        <v>561402.80439461</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2799,7 +3099,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -2809,28 +3109,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>68.01000000000001</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>68.01000000000001</v>
+        <v>73.39</v>
       </c>
       <c r="D64" t="n">
-        <v>68.01000000000001</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="E64" t="n">
-        <v>68.01000000000001</v>
+        <v>72.55</v>
       </c>
       <c r="F64" t="n">
-        <v>621</v>
+        <v>92985.12537348525</v>
       </c>
       <c r="G64" t="n">
-        <v>266275.5261358881</v>
+        <v>468417.6790211247</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2840,7 +3141,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -2850,28 +3151,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>68.01000000000001</v>
+        <v>72.56</v>
       </c>
       <c r="C65" t="n">
-        <v>68.01000000000001</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>68.01000000000001</v>
+        <v>72.56</v>
       </c>
       <c r="E65" t="n">
-        <v>68.01000000000001</v>
+        <v>72.54000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>873.3149</v>
+        <v>9724.938599999999</v>
       </c>
       <c r="G65" t="n">
-        <v>266275.5261358881</v>
+        <v>458692.7404211247</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2881,7 +3183,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -2891,28 +3193,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>68.01000000000001</v>
+        <v>72.58</v>
       </c>
       <c r="C66" t="n">
-        <v>68.01000000000001</v>
+        <v>72.58</v>
       </c>
       <c r="D66" t="n">
-        <v>68.01000000000001</v>
+        <v>72.58</v>
       </c>
       <c r="E66" t="n">
-        <v>68.01000000000001</v>
+        <v>72.58</v>
       </c>
       <c r="F66" t="n">
-        <v>1905.277</v>
+        <v>50</v>
       </c>
       <c r="G66" t="n">
-        <v>266275.5261358881</v>
+        <v>458742.7404211247</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2922,7 +3225,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -2932,28 +3235,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>68.38</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C67" t="n">
-        <v>68.38</v>
+        <v>73.27</v>
       </c>
       <c r="D67" t="n">
-        <v>68.38</v>
+        <v>73.27</v>
       </c>
       <c r="E67" t="n">
-        <v>68.38</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>88.46680000000001</v>
+        <v>23958.9147</v>
       </c>
       <c r="G67" t="n">
-        <v>266363.9929358881</v>
+        <v>482701.6551211248</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2963,7 +3267,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -2973,28 +3277,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>68.38</v>
+        <v>72.69</v>
       </c>
       <c r="C68" t="n">
-        <v>68.38</v>
+        <v>72.69</v>
       </c>
       <c r="D68" t="n">
-        <v>68.38</v>
+        <v>72.69</v>
       </c>
       <c r="E68" t="n">
-        <v>68.38</v>
+        <v>72.69</v>
       </c>
       <c r="F68" t="n">
-        <v>996.1002</v>
+        <v>5117.5777</v>
       </c>
       <c r="G68" t="n">
-        <v>266363.9929358881</v>
+        <v>477584.0774211247</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3004,7 +3309,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3014,28 +3319,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>68.39</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>68.62</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>68.62</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>68.39</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>9700</v>
+        <v>1208.1143</v>
       </c>
       <c r="G69" t="n">
-        <v>276063.9929358881</v>
+        <v>476375.9631211247</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3045,7 +3351,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3055,28 +3361,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>68.03</v>
+        <v>72.41</v>
       </c>
       <c r="C70" t="n">
-        <v>68.64</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>68.64</v>
+        <v>72.5</v>
       </c>
       <c r="E70" t="n">
-        <v>68.03</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>1129.9558</v>
+        <v>29739.8359</v>
       </c>
       <c r="G70" t="n">
-        <v>277193.9487358881</v>
+        <v>476375.9631211247</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3086,7 +3393,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3096,28 +3403,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>68.64</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>69.18000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>69.19</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>68.64</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>14987.4338</v>
+        <v>18578.6575</v>
       </c>
       <c r="G71" t="n">
-        <v>292181.3825358881</v>
+        <v>476375.9631211247</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3127,7 +3435,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3137,40 +3445,39 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>69.31999999999999</v>
+        <v>72.59</v>
       </c>
       <c r="C72" t="n">
-        <v>69.31999999999999</v>
+        <v>72.59</v>
       </c>
       <c r="D72" t="n">
-        <v>69.31999999999999</v>
+        <v>72.59</v>
       </c>
       <c r="E72" t="n">
-        <v>69.31999999999999</v>
+        <v>72.59</v>
       </c>
       <c r="F72" t="n">
-        <v>4823.7835</v>
+        <v>11.1691</v>
       </c>
       <c r="G72" t="n">
-        <v>297005.1660358881</v>
+        <v>476387.1322211247</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>69.18000000000001</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3180,28 +3487,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>69.31999999999999</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>69.3</v>
+        <v>72.59</v>
       </c>
       <c r="D73" t="n">
-        <v>69.31999999999999</v>
+        <v>72.59</v>
       </c>
       <c r="E73" t="n">
-        <v>69.3</v>
+        <v>71.8</v>
       </c>
       <c r="F73" t="n">
-        <v>7796.1956</v>
+        <v>27</v>
       </c>
       <c r="G73" t="n">
-        <v>289208.9704358882</v>
+        <v>476387.1322211247</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3211,7 +3519,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3221,28 +3529,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>69.3</v>
+        <v>71.91</v>
       </c>
       <c r="C74" t="n">
-        <v>69.3</v>
+        <v>71.91</v>
       </c>
       <c r="D74" t="n">
-        <v>69.3</v>
+        <v>71.91</v>
       </c>
       <c r="E74" t="n">
-        <v>69.3</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>808</v>
+        <v>27965.7303</v>
       </c>
       <c r="G74" t="n">
-        <v>289208.9704358882</v>
+        <v>448421.4019211247</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3252,7 +3561,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3262,28 +3571,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>69.31999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="C75" t="n">
-        <v>69.31999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="D75" t="n">
-        <v>69.31999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="E75" t="n">
-        <v>69.31999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="F75" t="n">
-        <v>6456.7706</v>
+        <v>17935.7354</v>
       </c>
       <c r="G75" t="n">
-        <v>295665.7410358881</v>
+        <v>448421.4019211247</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3293,7 +3603,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3303,28 +3613,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>69.34</v>
+        <v>71.91</v>
       </c>
       <c r="C76" t="n">
-        <v>69.34</v>
+        <v>71.91</v>
       </c>
       <c r="D76" t="n">
-        <v>69.34</v>
+        <v>71.91</v>
       </c>
       <c r="E76" t="n">
-        <v>69.34</v>
+        <v>71.91</v>
       </c>
       <c r="F76" t="n">
-        <v>6610.7466</v>
+        <v>6120.3193</v>
       </c>
       <c r="G76" t="n">
-        <v>302276.4876358882</v>
+        <v>448421.4019211247</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3334,7 +3645,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3344,28 +3655,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>69.59999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="C77" t="n">
-        <v>69.59999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>69.59999999999999</v>
+        <v>71.91</v>
       </c>
       <c r="E77" t="n">
-        <v>69.59999999999999</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>298.288</v>
+        <v>7983.3778</v>
       </c>
       <c r="G77" t="n">
-        <v>302574.7756358882</v>
+        <v>440438.0241211247</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3375,7 +3687,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3385,28 +3697,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>70.76000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>69.5</v>
+        <v>72.39</v>
       </c>
       <c r="D78" t="n">
-        <v>70.76000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>69.5</v>
+        <v>72.39</v>
       </c>
       <c r="F78" t="n">
-        <v>6232.4873</v>
+        <v>22.7856</v>
       </c>
       <c r="G78" t="n">
-        <v>296342.2883358882</v>
+        <v>440460.8097211247</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3416,7 +3729,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3426,28 +3739,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>69.06</v>
+        <v>71.81</v>
       </c>
       <c r="C79" t="n">
-        <v>69.06</v>
+        <v>72.37</v>
       </c>
       <c r="D79" t="n">
-        <v>69.06</v>
+        <v>72.37</v>
       </c>
       <c r="E79" t="n">
-        <v>69.06</v>
+        <v>71.81</v>
       </c>
       <c r="F79" t="n">
-        <v>500.9508</v>
+        <v>3403.4927</v>
       </c>
       <c r="G79" t="n">
-        <v>295841.3375358882</v>
+        <v>437057.3170211247</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3457,7 +3771,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3467,28 +3781,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>69.16</v>
+        <v>73</v>
       </c>
       <c r="C80" t="n">
-        <v>69.06</v>
+        <v>73</v>
       </c>
       <c r="D80" t="n">
-        <v>69.16</v>
+        <v>73</v>
       </c>
       <c r="E80" t="n">
-        <v>69.06</v>
+        <v>73</v>
       </c>
       <c r="F80" t="n">
-        <v>2696.5577</v>
+        <v>22.5224</v>
       </c>
       <c r="G80" t="n">
-        <v>295841.3375358882</v>
+        <v>437079.8394211247</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3498,7 +3813,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3508,28 +3823,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>69.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C81" t="n">
-        <v>69.06</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>69.5</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="E81" t="n">
-        <v>69.06</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F81" t="n">
-        <v>715.9964</v>
+        <v>1080</v>
       </c>
       <c r="G81" t="n">
-        <v>295841.3375358882</v>
+        <v>435999.8394211247</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3539,7 +3855,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3549,28 +3865,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>69.20999999999999</v>
+        <v>72.41</v>
       </c>
       <c r="C82" t="n">
-        <v>69.06</v>
+        <v>72.41</v>
       </c>
       <c r="D82" t="n">
-        <v>69.20999999999999</v>
+        <v>72.41</v>
       </c>
       <c r="E82" t="n">
-        <v>69.06</v>
+        <v>72.3</v>
       </c>
       <c r="F82" t="n">
-        <v>5286.0622</v>
+        <v>16287.7687</v>
       </c>
       <c r="G82" t="n">
-        <v>295841.3375358882</v>
+        <v>419712.0707211247</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3580,7 +3897,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3590,28 +3907,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>69.09999999999999</v>
+        <v>72.41</v>
       </c>
       <c r="C83" t="n">
-        <v>69</v>
+        <v>72.5</v>
       </c>
       <c r="D83" t="n">
-        <v>69.83</v>
+        <v>72.5</v>
       </c>
       <c r="E83" t="n">
-        <v>69</v>
+        <v>72.41</v>
       </c>
       <c r="F83" t="n">
-        <v>1645.1359</v>
+        <v>37012.9439</v>
       </c>
       <c r="G83" t="n">
-        <v>294196.2016358882</v>
+        <v>456725.0146211247</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3621,7 +3939,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3631,28 +3949,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>69</v>
+        <v>72.12</v>
       </c>
       <c r="C84" t="n">
-        <v>68.90000000000001</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>69</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="E84" t="n">
-        <v>68.90000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F84" t="n">
-        <v>292.0622</v>
+        <v>24439.2019</v>
       </c>
       <c r="G84" t="n">
-        <v>293904.1394358882</v>
+        <v>481164.2165211247</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3662,7 +3981,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3672,28 +3991,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>68.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>68.8</v>
+        <v>73</v>
       </c>
       <c r="D85" t="n">
-        <v>68.8</v>
+        <v>73</v>
       </c>
       <c r="E85" t="n">
-        <v>68.8</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="F85" t="n">
-        <v>825.639</v>
+        <v>13502.226</v>
       </c>
       <c r="G85" t="n">
-        <v>293078.5004358882</v>
+        <v>494666.4425211247</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3703,7 +4023,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -3713,28 +4033,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>69.56999999999999</v>
+        <v>73</v>
       </c>
       <c r="C86" t="n">
-        <v>69.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="D86" t="n">
-        <v>69.59999999999999</v>
+        <v>73</v>
       </c>
       <c r="E86" t="n">
-        <v>69.56999999999999</v>
+        <v>73</v>
       </c>
       <c r="F86" t="n">
-        <v>6137.8</v>
+        <v>19.4483</v>
       </c>
       <c r="G86" t="n">
-        <v>299216.3004358882</v>
+        <v>494666.4425211247</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3744,7 +4065,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -3754,28 +4075,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>70.2</v>
+        <v>73</v>
       </c>
       <c r="C87" t="n">
-        <v>70.2</v>
+        <v>73</v>
       </c>
       <c r="D87" t="n">
-        <v>70.2</v>
+        <v>73</v>
       </c>
       <c r="E87" t="n">
-        <v>70.2</v>
+        <v>73</v>
       </c>
       <c r="F87" t="n">
-        <v>298.288</v>
+        <v>1593.0566</v>
       </c>
       <c r="G87" t="n">
-        <v>299514.5884358882</v>
+        <v>494666.4425211247</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3785,7 +4107,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -3795,28 +4117,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>70.3</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>70.8</v>
+        <v>72.12</v>
       </c>
       <c r="D88" t="n">
-        <v>70.8</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>70.3</v>
+        <v>72.12</v>
       </c>
       <c r="F88" t="n">
-        <v>36290.7368</v>
+        <v>271.3079</v>
       </c>
       <c r="G88" t="n">
-        <v>335805.3252358882</v>
+        <v>494395.1346211247</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3826,7 +4149,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -3836,28 +4159,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>70.69</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="C89" t="n">
-        <v>70.8</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>70.8</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="E89" t="n">
-        <v>70.69</v>
+        <v>71.84999999999999</v>
       </c>
       <c r="F89" t="n">
-        <v>27417.3531</v>
+        <v>3000</v>
       </c>
       <c r="G89" t="n">
-        <v>335805.3252358882</v>
+        <v>491395.1346211247</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3867,7 +4191,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -3877,28 +4201,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>70.8</v>
+        <v>72.12</v>
       </c>
       <c r="C90" t="n">
-        <v>71</v>
+        <v>72.12</v>
       </c>
       <c r="D90" t="n">
-        <v>71.09999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="E90" t="n">
-        <v>70.8</v>
+        <v>72.12</v>
       </c>
       <c r="F90" t="n">
-        <v>37109.7192</v>
+        <v>0.2027</v>
       </c>
       <c r="G90" t="n">
-        <v>372915.0444358882</v>
+        <v>491395.3373211247</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3908,7 +4233,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -3918,28 +4243,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>71.19</v>
+        <v>72.3</v>
       </c>
       <c r="C91" t="n">
-        <v>72</v>
+        <v>72.2</v>
       </c>
       <c r="D91" t="n">
         <v>72.3</v>
       </c>
       <c r="E91" t="n">
-        <v>71.19</v>
+        <v>72.2</v>
       </c>
       <c r="F91" t="n">
-        <v>220286.6907</v>
+        <v>6659.108</v>
       </c>
       <c r="G91" t="n">
-        <v>593201.7351358882</v>
+        <v>498054.4453211247</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3949,7 +4275,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -3959,28 +4285,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>72.3</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>73.08</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>73.08</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>72.3</v>
+        <v>71.89</v>
       </c>
       <c r="F92" t="n">
-        <v>138507.8384</v>
+        <v>31657.2551</v>
       </c>
       <c r="G92" t="n">
-        <v>731709.5735358882</v>
+        <v>466397.1902211247</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3990,7 +4317,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4000,28 +4327,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>73.3</v>
+        <v>71.75</v>
       </c>
       <c r="C93" t="n">
-        <v>73.38</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>73.38</v>
+        <v>71.75</v>
       </c>
       <c r="E93" t="n">
-        <v>73.3</v>
+        <v>71.73999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>37156.0528</v>
+        <v>13521.6743</v>
       </c>
       <c r="G93" t="n">
-        <v>768865.6263358882</v>
+        <v>452875.5159211247</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4031,7 +4359,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4041,28 +4369,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>73.38</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>74</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>74</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>73.38</v>
+        <v>72.01000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>55159.7276</v>
+        <v>0.0001</v>
       </c>
       <c r="G94" t="n">
-        <v>824025.3539358882</v>
+        <v>452875.5160211247</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4072,7 +4401,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4082,28 +4411,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>74</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>73.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>74.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>73.5</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>71140.08387348526</v>
+        <v>151.9035</v>
       </c>
       <c r="G95" t="n">
-        <v>752885.2700624029</v>
+        <v>452723.6125211247</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4113,7 +4443,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4123,28 +4453,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>74.59999999999999</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>73.5</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>74.59999999999999</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>73.5</v>
+        <v>72.76000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>57008.38162651475</v>
+        <v>16.9599</v>
       </c>
       <c r="G96" t="n">
-        <v>695876.8884358882</v>
+        <v>452740.5724211247</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4154,7 +4485,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4164,28 +4495,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>74.7</v>
+        <v>72.8</v>
       </c>
       <c r="C97" t="n">
-        <v>74.7</v>
+        <v>73</v>
       </c>
       <c r="D97" t="n">
-        <v>74.7</v>
+        <v>73</v>
       </c>
       <c r="E97" t="n">
-        <v>74.7</v>
+        <v>72.8</v>
       </c>
       <c r="F97" t="n">
-        <v>9</v>
+        <v>8129.9229</v>
       </c>
       <c r="G97" t="n">
-        <v>695885.8884358882</v>
+        <v>460870.4953211247</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4195,7 +4527,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4205,28 +4537,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>73.61</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="C98" t="n">
-        <v>73.63</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>73.63</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>73.61</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="F98" t="n">
-        <v>27</v>
+        <v>12.608</v>
       </c>
       <c r="G98" t="n">
-        <v>695858.8884358882</v>
+        <v>460883.1033211247</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4236,7 +4569,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4246,28 +4579,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>74.7</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>73.8</v>
+        <v>74.54000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>74.84999999999999</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>73.8</v>
+        <v>73.45999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>5526.7604</v>
+        <v>11045.3147</v>
       </c>
       <c r="G99" t="n">
-        <v>701385.6488358882</v>
+        <v>471928.4180211247</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4277,7 +4611,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4287,28 +4621,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>74.87</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>74.87</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D100" t="n">
-        <v>74.87</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>74.87</v>
+        <v>74.79000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>15200.9364</v>
+        <v>41864.3479</v>
       </c>
       <c r="G100" t="n">
-        <v>716586.5852358883</v>
+        <v>513792.7659211247</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4318,7 +4653,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4328,28 +4663,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>74.87</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>74.40000000000001</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>75.09999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>74.20999999999999</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>107630.9851</v>
+        <v>2095.4435</v>
       </c>
       <c r="G101" t="n">
-        <v>608955.6001358882</v>
+        <v>513792.7659211247</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4359,7 +4695,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4369,28 +4705,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>74.87</v>
+        <v>75.59</v>
       </c>
       <c r="C102" t="n">
-        <v>75.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="D102" t="n">
-        <v>75.09999999999999</v>
+        <v>75.8</v>
       </c>
       <c r="E102" t="n">
-        <v>74.3</v>
+        <v>75.59</v>
       </c>
       <c r="F102" t="n">
-        <v>13428.2033587217</v>
+        <v>32118.6742</v>
       </c>
       <c r="G102" t="n">
-        <v>622383.8034946099</v>
+        <v>545911.4401211247</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4400,7 +4737,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4410,28 +4747,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>74.31</v>
+        <v>75.88</v>
       </c>
       <c r="C103" t="n">
-        <v>74.8</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>74.8</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>74.22</v>
+        <v>75.88</v>
       </c>
       <c r="F103" t="n">
-        <v>32883.5179</v>
+        <v>153837.8859526316</v>
       </c>
       <c r="G103" t="n">
-        <v>589500.2855946099</v>
+        <v>699749.3260737563</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4441,7 +4779,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4451,28 +4789,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>74.3</v>
+        <v>76.29000000000001</v>
       </c>
       <c r="C104" t="n">
-        <v>73.84999999999999</v>
+        <v>76.64</v>
       </c>
       <c r="D104" t="n">
-        <v>74.3</v>
+        <v>76.64</v>
       </c>
       <c r="E104" t="n">
-        <v>73.84999999999999</v>
+        <v>75.20999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>17520.4783</v>
+        <v>15562.4693</v>
       </c>
       <c r="G104" t="n">
-        <v>571979.80729461</v>
+        <v>715311.7953737563</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4482,7 +4821,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4492,28 +4831,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>74.26000000000001</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="C105" t="n">
-        <v>73.79000000000001</v>
+        <v>78.97</v>
       </c>
       <c r="D105" t="n">
-        <v>74.26000000000001</v>
+        <v>79</v>
       </c>
       <c r="E105" t="n">
-        <v>73.5</v>
+        <v>76.64</v>
       </c>
       <c r="F105" t="n">
-        <v>10577.0029</v>
+        <v>168816.158</v>
       </c>
       <c r="G105" t="n">
-        <v>561402.80439461</v>
+        <v>884127.9533737563</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4523,7 +4863,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4533,28 +4873,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>73.79000000000001</v>
+        <v>77.63</v>
       </c>
       <c r="C106" t="n">
-        <v>73.39</v>
+        <v>77.73</v>
       </c>
       <c r="D106" t="n">
-        <v>73.79000000000001</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>72.55</v>
+        <v>76.67</v>
       </c>
       <c r="F106" t="n">
-        <v>92985.12537348525</v>
+        <v>84366.03230000001</v>
       </c>
       <c r="G106" t="n">
-        <v>468417.6790211247</v>
+        <v>799761.9210737563</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4564,7 +4905,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4574,28 +4915,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>72.56</v>
+        <v>77.73</v>
       </c>
       <c r="C107" t="n">
-        <v>72.54000000000001</v>
+        <v>78.89</v>
       </c>
       <c r="D107" t="n">
-        <v>72.56</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>72.54000000000001</v>
+        <v>76.86</v>
       </c>
       <c r="F107" t="n">
-        <v>9724.938599999999</v>
+        <v>145545.7771748314</v>
       </c>
       <c r="G107" t="n">
-        <v>458692.7404211247</v>
+        <v>945307.6982485877</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4605,7 +4947,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4615,28 +4957,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>72.58</v>
+        <v>77.81</v>
       </c>
       <c r="C108" t="n">
-        <v>72.58</v>
+        <v>75.94</v>
       </c>
       <c r="D108" t="n">
-        <v>72.58</v>
+        <v>77.81</v>
       </c>
       <c r="E108" t="n">
-        <v>72.58</v>
+        <v>75.94</v>
       </c>
       <c r="F108" t="n">
-        <v>50</v>
+        <v>16261.1821</v>
       </c>
       <c r="G108" t="n">
-        <v>458742.7404211247</v>
+        <v>929046.5161485877</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4646,7 +4989,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -4656,28 +4999,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>72.59999999999999</v>
+        <v>77.33</v>
       </c>
       <c r="C109" t="n">
-        <v>73.27</v>
+        <v>78.89</v>
       </c>
       <c r="D109" t="n">
-        <v>73.27</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>71.54000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>23958.9147</v>
+        <v>82064.0852</v>
       </c>
       <c r="G109" t="n">
-        <v>482701.6551211248</v>
+        <v>1011110.601348588</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4687,7 +5031,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -4697,28 +5041,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>72.69</v>
+        <v>78.11</v>
       </c>
       <c r="C110" t="n">
-        <v>72.69</v>
+        <v>77.45</v>
       </c>
       <c r="D110" t="n">
-        <v>72.69</v>
+        <v>78.39</v>
       </c>
       <c r="E110" t="n">
-        <v>72.69</v>
+        <v>77.34</v>
       </c>
       <c r="F110" t="n">
-        <v>5117.5777</v>
+        <v>37986.9516</v>
       </c>
       <c r="G110" t="n">
-        <v>477584.0774211247</v>
+        <v>973123.6497485876</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4728,7 +5073,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -4738,28 +5083,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>72.48999999999999</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>72.40000000000001</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>72.48999999999999</v>
+        <v>79.31</v>
       </c>
       <c r="E111" t="n">
-        <v>72.40000000000001</v>
+        <v>78</v>
       </c>
       <c r="F111" t="n">
-        <v>1208.1143</v>
+        <v>136018.2922753911</v>
       </c>
       <c r="G111" t="n">
-        <v>476375.9631211247</v>
+        <v>1109141.942023979</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4769,7 +5115,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -4779,28 +5125,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>72.41</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>72.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>72.5</v>
+        <v>79.19</v>
       </c>
       <c r="E112" t="n">
-        <v>72.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>29739.8359</v>
+        <v>36986.1415</v>
       </c>
       <c r="G112" t="n">
-        <v>476375.9631211247</v>
+        <v>1072155.800523979</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4810,7 +5157,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -4820,28 +5167,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>72.40000000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="C113" t="n">
-        <v>72.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="D113" t="n">
-        <v>72.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="E113" t="n">
-        <v>72.40000000000001</v>
+        <v>78.12</v>
       </c>
       <c r="F113" t="n">
-        <v>18578.6575</v>
+        <v>65505.55802749054</v>
       </c>
       <c r="G113" t="n">
-        <v>476375.9631211247</v>
+        <v>1137661.358551469</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4851,7 +5199,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -4861,28 +5209,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>72.59</v>
+        <v>79.2</v>
       </c>
       <c r="C114" t="n">
-        <v>72.59</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D114" t="n">
-        <v>72.59</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>72.59</v>
+        <v>79</v>
       </c>
       <c r="F114" t="n">
-        <v>11.1691</v>
+        <v>45741.33402321298</v>
       </c>
       <c r="G114" t="n">
-        <v>476387.1322211247</v>
+        <v>1183402.692574682</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4892,7 +5241,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -4902,46 +5251,50 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>72.40000000000001</v>
+        <v>79.38</v>
       </c>
       <c r="C115" t="n">
-        <v>72.59</v>
+        <v>78.52</v>
       </c>
       <c r="D115" t="n">
-        <v>72.59</v>
+        <v>79.38</v>
       </c>
       <c r="E115" t="n">
-        <v>71.8</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>27</v>
+        <v>44918.1907</v>
       </c>
       <c r="G115" t="n">
-        <v>476387.1322211247</v>
+        <v>1138484.501874682</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>69.45999999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>1</v>
+        <v>1.158949006818856</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1.007718569096037</v>
       </c>
     </row>
     <row r="116">
@@ -4949,524 +5302,454 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>71.91</v>
+        <v>78.37</v>
       </c>
       <c r="C116" t="n">
-        <v>71.91</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>71.91</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>71.90000000000001</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="F116" t="n">
-        <v>27965.7303</v>
+        <v>79908.42329999999</v>
       </c>
       <c r="G116" t="n">
-        <v>448421.4019211247</v>
+        <v>1058576.078574683</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>71.91</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>71.91</v>
+        <v>78.28</v>
       </c>
       <c r="D117" t="n">
-        <v>71.91</v>
+        <v>78.28</v>
       </c>
       <c r="E117" t="n">
-        <v>71.91</v>
+        <v>77.34999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>17935.7354</v>
+        <v>77091.11780000001</v>
       </c>
       <c r="G117" t="n">
-        <v>448421.4019211247</v>
+        <v>1135667.196374683</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="K117" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>71.91</v>
+        <v>78.05</v>
       </c>
       <c r="C118" t="n">
-        <v>71.91</v>
+        <v>79.16</v>
       </c>
       <c r="D118" t="n">
-        <v>71.91</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="E118" t="n">
-        <v>71.91</v>
+        <v>76.63</v>
       </c>
       <c r="F118" t="n">
-        <v>6120.3193</v>
+        <v>67209.80839999999</v>
       </c>
       <c r="G118" t="n">
-        <v>448421.4019211247</v>
+        <v>1202877.004774683</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>71.91</v>
+        <v>77.53</v>
       </c>
       <c r="C119" t="n">
-        <v>71.40000000000001</v>
+        <v>77.53</v>
       </c>
       <c r="D119" t="n">
-        <v>71.91</v>
+        <v>77.53</v>
       </c>
       <c r="E119" t="n">
-        <v>71.40000000000001</v>
+        <v>77.53</v>
       </c>
       <c r="F119" t="n">
-        <v>7983.3778</v>
+        <v>2407.4164839417</v>
       </c>
       <c r="G119" t="n">
-        <v>440438.0241211247</v>
+        <v>1200469.588290741</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>71.91</v>
-      </c>
-      <c r="K119" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>72.40000000000001</v>
+        <v>77.41</v>
       </c>
       <c r="C120" t="n">
-        <v>72.39</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>72.40000000000001</v>
+        <v>77.41</v>
       </c>
       <c r="E120" t="n">
-        <v>72.39</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="F120" t="n">
-        <v>22.7856</v>
+        <v>803.73368990312</v>
       </c>
       <c r="G120" t="n">
-        <v>440460.8097211247</v>
+        <v>1199665.854600838</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>71.40000000000001</v>
-      </c>
-      <c r="K120" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>71.81</v>
+        <v>76.87</v>
       </c>
       <c r="C121" t="n">
-        <v>72.37</v>
+        <v>76.31</v>
       </c>
       <c r="D121" t="n">
-        <v>72.37</v>
+        <v>76.87</v>
       </c>
       <c r="E121" t="n">
-        <v>71.81</v>
+        <v>76.31</v>
       </c>
       <c r="F121" t="n">
-        <v>3403.4927</v>
+        <v>1735.3487</v>
       </c>
       <c r="G121" t="n">
-        <v>437057.3170211247</v>
+        <v>1197930.505900838</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="n">
-        <v>72.39</v>
-      </c>
-      <c r="K121" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>73</v>
+        <v>76.05</v>
       </c>
       <c r="C122" t="n">
-        <v>73</v>
+        <v>76.06</v>
       </c>
       <c r="D122" t="n">
-        <v>73</v>
+        <v>76.06</v>
       </c>
       <c r="E122" t="n">
-        <v>73</v>
+        <v>74.33</v>
       </c>
       <c r="F122" t="n">
-        <v>22.5224</v>
+        <v>185691.8218</v>
       </c>
       <c r="G122" t="n">
-        <v>437079.8394211247</v>
+        <v>1012238.684100838</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>72.37</v>
-      </c>
-      <c r="K122" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>72.90000000000001</v>
+        <v>76.06</v>
       </c>
       <c r="C123" t="n">
-        <v>72.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="D123" t="n">
-        <v>72.90000000000001</v>
+        <v>76.06</v>
       </c>
       <c r="E123" t="n">
-        <v>72.90000000000001</v>
+        <v>75.3</v>
       </c>
       <c r="F123" t="n">
-        <v>1080</v>
+        <v>38926.6884</v>
       </c>
       <c r="G123" t="n">
-        <v>435999.8394211247</v>
+        <v>973311.9957008379</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>72.41</v>
+        <v>75.29000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>72.41</v>
+        <v>75.39</v>
       </c>
       <c r="D124" t="n">
-        <v>72.41</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>72.3</v>
+        <v>74.72</v>
       </c>
       <c r="F124" t="n">
-        <v>16287.7687</v>
+        <v>95585.317</v>
       </c>
       <c r="G124" t="n">
-        <v>419712.0707211247</v>
+        <v>1068897.312700838</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>72.41</v>
+        <v>75.64</v>
       </c>
       <c r="C125" t="n">
-        <v>72.5</v>
+        <v>76.08</v>
       </c>
       <c r="D125" t="n">
-        <v>72.5</v>
+        <v>76.08</v>
       </c>
       <c r="E125" t="n">
-        <v>72.41</v>
+        <v>75.64</v>
       </c>
       <c r="F125" t="n">
-        <v>37012.9439</v>
+        <v>7424.4357</v>
       </c>
       <c r="G125" t="n">
-        <v>456725.0146211247</v>
+        <v>1076321.748400838</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>72.12</v>
+        <v>75.36</v>
       </c>
       <c r="C126" t="n">
-        <v>72.79000000000001</v>
+        <v>74.98</v>
       </c>
       <c r="D126" t="n">
-        <v>72.79000000000001</v>
+        <v>75.36</v>
       </c>
       <c r="E126" t="n">
-        <v>71.90000000000001</v>
+        <v>74.98</v>
       </c>
       <c r="F126" t="n">
-        <v>24439.2019</v>
+        <v>10809.6887</v>
       </c>
       <c r="G126" t="n">
-        <v>481164.2165211247</v>
+        <v>1065512.059700838</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>72.90000000000001</v>
+        <v>74.98</v>
       </c>
       <c r="C127" t="n">
-        <v>73</v>
+        <v>75.36</v>
       </c>
       <c r="D127" t="n">
-        <v>73</v>
+        <v>75.36</v>
       </c>
       <c r="E127" t="n">
-        <v>72.90000000000001</v>
+        <v>74.98</v>
       </c>
       <c r="F127" t="n">
-        <v>13502.226</v>
+        <v>573.874</v>
       </c>
       <c r="G127" t="n">
-        <v>494666.4425211247</v>
+        <v>1066085.933700838</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>73</v>
+        <v>75.36</v>
       </c>
       <c r="C128" t="n">
-        <v>73</v>
+        <v>75.36</v>
       </c>
       <c r="D128" t="n">
-        <v>73</v>
+        <v>75.36</v>
       </c>
       <c r="E128" t="n">
-        <v>73</v>
+        <v>75.36</v>
       </c>
       <c r="F128" t="n">
-        <v>19.4483</v>
+        <v>6631.4575</v>
       </c>
       <c r="G128" t="n">
-        <v>494666.4425211247</v>
+        <v>1066085.933700838</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5475,39 +5758,34 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>73</v>
+        <v>75.73</v>
       </c>
       <c r="C129" t="n">
-        <v>73</v>
+        <v>76.33</v>
       </c>
       <c r="D129" t="n">
-        <v>73</v>
+        <v>76.33</v>
       </c>
       <c r="E129" t="n">
-        <v>73</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="F129" t="n">
-        <v>1593.0566</v>
+        <v>48046.1351</v>
       </c>
       <c r="G129" t="n">
-        <v>494666.4425211247</v>
+        <v>1114132.068800838</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5516,1653 +5794,12 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="C130" t="n">
-        <v>72.12</v>
-      </c>
-      <c r="D130" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="E130" t="n">
-        <v>72.12</v>
-      </c>
-      <c r="F130" t="n">
-        <v>271.3079</v>
-      </c>
-      <c r="G130" t="n">
-        <v>494395.1346211247</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="C131" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="D131" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="E131" t="n">
-        <v>71.84999999999999</v>
-      </c>
-      <c r="F131" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G131" t="n">
-        <v>491395.1346211247</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>72.12</v>
-      </c>
-      <c r="C132" t="n">
-        <v>72.12</v>
-      </c>
-      <c r="D132" t="n">
-        <v>72.12</v>
-      </c>
-      <c r="E132" t="n">
-        <v>72.12</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.2027</v>
-      </c>
-      <c r="G132" t="n">
-        <v>491395.3373211247</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="C133" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="D133" t="n">
-        <v>72.3</v>
-      </c>
-      <c r="E133" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="F133" t="n">
-        <v>6659.108</v>
-      </c>
-      <c r="G133" t="n">
-        <v>498054.4453211247</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="C134" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="D134" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="E134" t="n">
-        <v>71.89</v>
-      </c>
-      <c r="F134" t="n">
-        <v>31657.2551</v>
-      </c>
-      <c r="G134" t="n">
-        <v>466397.1902211247</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="n">
-        <v>72.2</v>
-      </c>
-      <c r="K134" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="C135" t="n">
-        <v>71.73999999999999</v>
-      </c>
-      <c r="D135" t="n">
-        <v>71.75</v>
-      </c>
-      <c r="E135" t="n">
-        <v>71.73999999999999</v>
-      </c>
-      <c r="F135" t="n">
-        <v>13521.6743</v>
-      </c>
-      <c r="G135" t="n">
-        <v>452875.5159211247</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="C136" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="D136" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="E136" t="n">
-        <v>72.01000000000001</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G136" t="n">
-        <v>452875.5160211247</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>71.73999999999999</v>
-      </c>
-      <c r="K136" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="C137" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="D137" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="E137" t="n">
-        <v>71.90000000000001</v>
-      </c>
-      <c r="F137" t="n">
-        <v>151.9035</v>
-      </c>
-      <c r="G137" t="n">
-        <v>452723.6125211247</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>72.76000000000001</v>
-      </c>
-      <c r="C138" t="n">
-        <v>72.76000000000001</v>
-      </c>
-      <c r="D138" t="n">
-        <v>72.76000000000001</v>
-      </c>
-      <c r="E138" t="n">
-        <v>72.76000000000001</v>
-      </c>
-      <c r="F138" t="n">
-        <v>16.9599</v>
-      </c>
-      <c r="G138" t="n">
-        <v>452740.5724211247</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="C139" t="n">
-        <v>73</v>
-      </c>
-      <c r="D139" t="n">
-        <v>73</v>
-      </c>
-      <c r="E139" t="n">
-        <v>72.8</v>
-      </c>
-      <c r="F139" t="n">
-        <v>8129.9229</v>
-      </c>
-      <c r="G139" t="n">
-        <v>460870.4953211247</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>73.45999999999999</v>
-      </c>
-      <c r="C140" t="n">
-        <v>73.45999999999999</v>
-      </c>
-      <c r="D140" t="n">
-        <v>73.45999999999999</v>
-      </c>
-      <c r="E140" t="n">
-        <v>73.45999999999999</v>
-      </c>
-      <c r="F140" t="n">
-        <v>12.608</v>
-      </c>
-      <c r="G140" t="n">
-        <v>460883.1033211247</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>73.45999999999999</v>
-      </c>
-      <c r="C141" t="n">
-        <v>74.54000000000001</v>
-      </c>
-      <c r="D141" t="n">
-        <v>74.65000000000001</v>
-      </c>
-      <c r="E141" t="n">
-        <v>73.45999999999999</v>
-      </c>
-      <c r="F141" t="n">
-        <v>11045.3147</v>
-      </c>
-      <c r="G141" t="n">
-        <v>471928.4180211247</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>74.79000000000001</v>
-      </c>
-      <c r="C142" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="D142" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="E142" t="n">
-        <v>74.79000000000001</v>
-      </c>
-      <c r="F142" t="n">
-        <v>41864.3479</v>
-      </c>
-      <c r="G142" t="n">
-        <v>513792.7659211247</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="C143" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="D143" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="E143" t="n">
-        <v>75.59999999999999</v>
-      </c>
-      <c r="F143" t="n">
-        <v>2095.4435</v>
-      </c>
-      <c r="G143" t="n">
-        <v>513792.7659211247</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>75.59</v>
-      </c>
-      <c r="C144" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="D144" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="E144" t="n">
-        <v>75.59</v>
-      </c>
-      <c r="F144" t="n">
-        <v>32118.6742</v>
-      </c>
-      <c r="G144" t="n">
-        <v>545911.4401211247</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>75.88</v>
-      </c>
-      <c r="C145" t="n">
-        <v>76.29000000000001</v>
-      </c>
-      <c r="D145" t="n">
-        <v>76.29000000000001</v>
-      </c>
-      <c r="E145" t="n">
-        <v>75.88</v>
-      </c>
-      <c r="F145" t="n">
-        <v>153837.8859526316</v>
-      </c>
-      <c r="G145" t="n">
-        <v>699749.3260737563</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>76.29000000000001</v>
-      </c>
-      <c r="C146" t="n">
-        <v>76.64</v>
-      </c>
-      <c r="D146" t="n">
-        <v>76.64</v>
-      </c>
-      <c r="E146" t="n">
-        <v>75.20999999999999</v>
-      </c>
-      <c r="F146" t="n">
-        <v>15562.4693</v>
-      </c>
-      <c r="G146" t="n">
-        <v>715311.7953737563</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>76.65000000000001</v>
-      </c>
-      <c r="C147" t="n">
-        <v>78.97</v>
-      </c>
-      <c r="D147" t="n">
-        <v>79</v>
-      </c>
-      <c r="E147" t="n">
-        <v>76.64</v>
-      </c>
-      <c r="F147" t="n">
-        <v>168816.158</v>
-      </c>
-      <c r="G147" t="n">
-        <v>884127.9533737563</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>77.63</v>
-      </c>
-      <c r="C148" t="n">
-        <v>77.73</v>
-      </c>
-      <c r="D148" t="n">
-        <v>77.73999999999999</v>
-      </c>
-      <c r="E148" t="n">
-        <v>76.67</v>
-      </c>
-      <c r="F148" t="n">
-        <v>84366.03230000001</v>
-      </c>
-      <c r="G148" t="n">
-        <v>799761.9210737563</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>77.73</v>
-      </c>
-      <c r="C149" t="n">
-        <v>78.89</v>
-      </c>
-      <c r="D149" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="E149" t="n">
-        <v>76.86</v>
-      </c>
-      <c r="F149" t="n">
-        <v>145545.7771748314</v>
-      </c>
-      <c r="G149" t="n">
-        <v>945307.6982485877</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>77.81</v>
-      </c>
-      <c r="C150" t="n">
-        <v>75.94</v>
-      </c>
-      <c r="D150" t="n">
-        <v>77.81</v>
-      </c>
-      <c r="E150" t="n">
-        <v>75.94</v>
-      </c>
-      <c r="F150" t="n">
-        <v>16261.1821</v>
-      </c>
-      <c r="G150" t="n">
-        <v>929046.5161485877</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>77.33</v>
-      </c>
-      <c r="C151" t="n">
-        <v>78.89</v>
-      </c>
-      <c r="D151" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="E151" t="n">
-        <v>76.01000000000001</v>
-      </c>
-      <c r="F151" t="n">
-        <v>82064.0852</v>
-      </c>
-      <c r="G151" t="n">
-        <v>1011110.601348588</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>78.11</v>
-      </c>
-      <c r="C152" t="n">
-        <v>77.45</v>
-      </c>
-      <c r="D152" t="n">
-        <v>78.39</v>
-      </c>
-      <c r="E152" t="n">
-        <v>77.34</v>
-      </c>
-      <c r="F152" t="n">
-        <v>37986.9516</v>
-      </c>
-      <c r="G152" t="n">
-        <v>973123.6497485876</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C153" t="n">
-        <v>78.98999999999999</v>
-      </c>
-      <c r="D153" t="n">
-        <v>79.31</v>
-      </c>
-      <c r="E153" t="n">
-        <v>78</v>
-      </c>
-      <c r="F153" t="n">
-        <v>136018.2922753911</v>
-      </c>
-      <c r="G153" t="n">
-        <v>1109141.942023979</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>78.98999999999999</v>
-      </c>
-      <c r="C154" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D154" t="n">
-        <v>79.19</v>
-      </c>
-      <c r="E154" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="F154" t="n">
-        <v>36986.1415</v>
-      </c>
-      <c r="G154" t="n">
-        <v>1072155.800523979</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C155" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="D155" t="n">
-        <v>79.3</v>
-      </c>
-      <c r="E155" t="n">
-        <v>78.12</v>
-      </c>
-      <c r="F155" t="n">
-        <v>65505.55802749054</v>
-      </c>
-      <c r="G155" t="n">
-        <v>1137661.358551469</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="C156" t="n">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="D156" t="n">
-        <v>79.59999999999999</v>
-      </c>
-      <c r="E156" t="n">
-        <v>79</v>
-      </c>
-      <c r="F156" t="n">
-        <v>45741.33402321298</v>
-      </c>
-      <c r="G156" t="n">
-        <v>1183402.692574682</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>69.45999999999999</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1.138103944716384</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>79.38</v>
-      </c>
-      <c r="C157" t="n">
-        <v>78.52</v>
-      </c>
-      <c r="D157" t="n">
-        <v>79.38</v>
-      </c>
-      <c r="E157" t="n">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="F157" t="n">
-        <v>44918.1907</v>
-      </c>
-      <c r="G157" t="n">
-        <v>1138484.501874682</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>78.37</v>
-      </c>
-      <c r="C158" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="D158" t="n">
-        <v>79.06999999999999</v>
-      </c>
-      <c r="E158" t="n">
-        <v>77.34999999999999</v>
-      </c>
-      <c r="F158" t="n">
-        <v>79908.42329999999</v>
-      </c>
-      <c r="G158" t="n">
-        <v>1058576.078574683</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>78.09999999999999</v>
-      </c>
-      <c r="C159" t="n">
-        <v>78.28</v>
-      </c>
-      <c r="D159" t="n">
-        <v>78.28</v>
-      </c>
-      <c r="E159" t="n">
-        <v>77.34999999999999</v>
-      </c>
-      <c r="F159" t="n">
-        <v>77091.11780000001</v>
-      </c>
-      <c r="G159" t="n">
-        <v>1135667.196374683</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>78.05</v>
-      </c>
-      <c r="C160" t="n">
-        <v>79.16</v>
-      </c>
-      <c r="D160" t="n">
-        <v>79.26000000000001</v>
-      </c>
-      <c r="E160" t="n">
-        <v>76.63</v>
-      </c>
-      <c r="F160" t="n">
-        <v>67209.80839999999</v>
-      </c>
-      <c r="G160" t="n">
-        <v>1202877.004774683</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>77.53</v>
-      </c>
-      <c r="C161" t="n">
-        <v>77.53</v>
-      </c>
-      <c r="D161" t="n">
-        <v>77.53</v>
-      </c>
-      <c r="E161" t="n">
-        <v>77.53</v>
-      </c>
-      <c r="F161" t="n">
-        <v>2407.4164839417</v>
-      </c>
-      <c r="G161" t="n">
-        <v>1200469.588290741</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>77.41</v>
-      </c>
-      <c r="C162" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="D162" t="n">
-        <v>77.41</v>
-      </c>
-      <c r="E162" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="F162" t="n">
-        <v>803.73368990312</v>
-      </c>
-      <c r="G162" t="n">
-        <v>1199665.854600838</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>76.87</v>
-      </c>
-      <c r="C163" t="n">
-        <v>76.31</v>
-      </c>
-      <c r="D163" t="n">
-        <v>76.87</v>
-      </c>
-      <c r="E163" t="n">
-        <v>76.31</v>
-      </c>
-      <c r="F163" t="n">
-        <v>1735.3487</v>
-      </c>
-      <c r="G163" t="n">
-        <v>1197930.505900838</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>76.05</v>
-      </c>
-      <c r="C164" t="n">
-        <v>76.06</v>
-      </c>
-      <c r="D164" t="n">
-        <v>76.06</v>
-      </c>
-      <c r="E164" t="n">
-        <v>74.33</v>
-      </c>
-      <c r="F164" t="n">
-        <v>185691.8218</v>
-      </c>
-      <c r="G164" t="n">
-        <v>1012238.684100838</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>76.06</v>
-      </c>
-      <c r="C165" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="D165" t="n">
-        <v>76.06</v>
-      </c>
-      <c r="E165" t="n">
-        <v>75.3</v>
-      </c>
-      <c r="F165" t="n">
-        <v>38926.6884</v>
-      </c>
-      <c r="G165" t="n">
-        <v>973311.9957008379</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>75.29000000000001</v>
-      </c>
-      <c r="C166" t="n">
-        <v>75.39</v>
-      </c>
-      <c r="D166" t="n">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="E166" t="n">
-        <v>74.72</v>
-      </c>
-      <c r="F166" t="n">
-        <v>95585.317</v>
-      </c>
-      <c r="G166" t="n">
-        <v>1068897.312700838</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>75.64</v>
-      </c>
-      <c r="C167" t="n">
-        <v>76.08</v>
-      </c>
-      <c r="D167" t="n">
-        <v>76.08</v>
-      </c>
-      <c r="E167" t="n">
-        <v>75.64</v>
-      </c>
-      <c r="F167" t="n">
-        <v>7424.4357</v>
-      </c>
-      <c r="G167" t="n">
-        <v>1076321.748400838</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>75.36</v>
-      </c>
-      <c r="C168" t="n">
-        <v>74.98</v>
-      </c>
-      <c r="D168" t="n">
-        <v>75.36</v>
-      </c>
-      <c r="E168" t="n">
-        <v>74.98</v>
-      </c>
-      <c r="F168" t="n">
-        <v>10809.6887</v>
-      </c>
-      <c r="G168" t="n">
-        <v>1065512.059700838</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>74.98</v>
-      </c>
-      <c r="C169" t="n">
-        <v>75.36</v>
-      </c>
-      <c r="D169" t="n">
-        <v>75.36</v>
-      </c>
-      <c r="E169" t="n">
-        <v>74.98</v>
-      </c>
-      <c r="F169" t="n">
-        <v>573.874</v>
-      </c>
-      <c r="G169" t="n">
-        <v>1066085.933700838</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>75.36</v>
-      </c>
-      <c r="C170" t="n">
-        <v>75.36</v>
-      </c>
-      <c r="D170" t="n">
-        <v>75.36</v>
-      </c>
-      <c r="E170" t="n">
-        <v>75.36</v>
-      </c>
-      <c r="F170" t="n">
-        <v>6631.4575</v>
-      </c>
-      <c r="G170" t="n">
-        <v>1066085.933700838</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>75.73</v>
-      </c>
-      <c r="C171" t="n">
-        <v>76.33</v>
-      </c>
-      <c r="D171" t="n">
-        <v>76.33</v>
-      </c>
-      <c r="E171" t="n">
-        <v>75.70999999999999</v>
-      </c>
-      <c r="F171" t="n">
-        <v>48046.1351</v>
-      </c>
-      <c r="G171" t="n">
-        <v>1114132.068800838</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
+      <c r="N129" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest ELF.xlsx
+++ b/BackTest/2020-01-19 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N129"/>
+  <dimension ref="A1:N200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.37</v>
+        <v>71.97</v>
       </c>
       <c r="C2" t="n">
-        <v>67.37</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>67.37</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>67.37</v>
+        <v>71.97</v>
       </c>
       <c r="F2" t="n">
-        <v>23000</v>
+        <v>94484.8858</v>
       </c>
       <c r="G2" t="n">
-        <v>208924.7205532532</v>
+        <v>443356.432143659</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>67.40000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>67.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>67.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>67.40000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>2571</v>
+        <v>7111.9647</v>
       </c>
       <c r="G3" t="n">
-        <v>211495.7205532532</v>
+        <v>450468.3968436591</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="K3" t="n">
-        <v>67.37</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.40000000000001</v>
+        <v>72.42</v>
       </c>
       <c r="C4" t="n">
-        <v>67.40000000000001</v>
+        <v>72.15000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>67.40000000000001</v>
+        <v>72.42</v>
       </c>
       <c r="E4" t="n">
-        <v>67.40000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>7200.8561</v>
+        <v>24842.1706</v>
       </c>
       <c r="G4" t="n">
-        <v>211495.7205532532</v>
+        <v>475310.5674436591</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,40 +546,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>67.45</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>67.45999999999999</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>67.45999999999999</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>67.45</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>23000</v>
+        <v>4218.9221</v>
       </c>
       <c r="G5" t="n">
-        <v>234495.7205532532</v>
+        <v>471091.645343659</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="K5" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -602,35 +582,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>67.89</v>
+        <v>72</v>
       </c>
       <c r="C6" t="n">
-        <v>67.89</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>67.89</v>
+        <v>72</v>
       </c>
       <c r="E6" t="n">
-        <v>67.89</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>1191.6675</v>
+        <v>154.6124</v>
       </c>
       <c r="G6" t="n">
-        <v>235687.3880532532</v>
+        <v>471091.645343659</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="K6" t="n">
-        <v>67.45999999999999</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
@@ -642,40 +618,32 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>67.89</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>67.09999999999999</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>67.89</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>67.09999999999999</v>
+        <v>71.06999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>3431.2739</v>
+        <v>3159.2301</v>
       </c>
       <c r="G7" t="n">
-        <v>232256.1141532532</v>
+        <v>467932.4152436591</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>67.89</v>
-      </c>
-      <c r="K7" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -686,40 +654,32 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67.43000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="C8" t="n">
-        <v>67.43000000000001</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>67.43000000000001</v>
+        <v>71.8</v>
       </c>
       <c r="E8" t="n">
-        <v>67.43000000000001</v>
+        <v>71.79000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>42441.1862</v>
+        <v>257.9444</v>
       </c>
       <c r="G8" t="n">
-        <v>274697.3003532531</v>
+        <v>468190.359643659</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="K8" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -730,40 +690,32 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>67.89</v>
+        <v>70.91</v>
       </c>
       <c r="C9" t="n">
-        <v>68.01000000000001</v>
+        <v>70.78</v>
       </c>
       <c r="D9" t="n">
-        <v>68.01000000000001</v>
+        <v>70.91</v>
       </c>
       <c r="E9" t="n">
-        <v>67.89</v>
+        <v>70.78</v>
       </c>
       <c r="F9" t="n">
-        <v>14706.43548263491</v>
+        <v>5210.6014</v>
       </c>
       <c r="G9" t="n">
-        <v>289403.7358358881</v>
+        <v>462979.758243659</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>67.43000000000001</v>
-      </c>
-      <c r="K9" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -774,40 +726,32 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.98</v>
+        <v>71.09</v>
       </c>
       <c r="C10" t="n">
-        <v>67.98</v>
+        <v>71</v>
       </c>
       <c r="D10" t="n">
-        <v>67.98</v>
+        <v>71.09</v>
       </c>
       <c r="E10" t="n">
-        <v>67.98</v>
+        <v>71</v>
       </c>
       <c r="F10" t="n">
-        <v>2425.2513</v>
+        <v>256.3131</v>
       </c>
       <c r="G10" t="n">
-        <v>286978.4845358881</v>
+        <v>463236.0713436591</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="K10" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -818,40 +762,32 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.5</v>
+        <v>70.54000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>67.5</v>
+        <v>70.5</v>
       </c>
       <c r="D11" t="n">
-        <v>67.5</v>
+        <v>70.54000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>67.5</v>
+        <v>70.5</v>
       </c>
       <c r="F11" t="n">
-        <v>6317.2949</v>
+        <v>1558.9138</v>
       </c>
       <c r="G11" t="n">
-        <v>280661.1896358881</v>
+        <v>461677.1575436591</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>67.98</v>
-      </c>
-      <c r="K11" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -862,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>67.5</v>
+        <v>70.59</v>
       </c>
       <c r="C12" t="n">
-        <v>67.36</v>
+        <v>70.59</v>
       </c>
       <c r="D12" t="n">
-        <v>67.5</v>
+        <v>70.59</v>
       </c>
       <c r="E12" t="n">
-        <v>67.36</v>
+        <v>70.59</v>
       </c>
       <c r="F12" t="n">
-        <v>5586.1539</v>
+        <v>447.5402</v>
       </c>
       <c r="G12" t="n">
-        <v>275075.0357358881</v>
+        <v>462124.6977436591</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -886,16 +822,12 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>67.5</v>
+        <v>70.5</v>
       </c>
       <c r="K12" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>70.5</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -906,38 +838,36 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>67.97</v>
+        <v>70.88</v>
       </c>
       <c r="C13" t="n">
-        <v>68</v>
+        <v>70.88</v>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>70.88</v>
       </c>
       <c r="E13" t="n">
-        <v>67.97</v>
+        <v>70.88</v>
       </c>
       <c r="F13" t="n">
-        <v>3800</v>
+        <v>85.9423</v>
       </c>
       <c r="G13" t="n">
-        <v>278875.0357358881</v>
+        <v>462210.6400436591</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>67.36</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>67.45999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M13" t="n">
@@ -950,38 +880,36 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>68.09999999999999</v>
+        <v>70.31</v>
       </c>
       <c r="C14" t="n">
-        <v>68.09999999999999</v>
+        <v>70.31</v>
       </c>
       <c r="D14" t="n">
-        <v>68.09999999999999</v>
+        <v>70.31</v>
       </c>
       <c r="E14" t="n">
-        <v>68.09999999999999</v>
+        <v>70.31</v>
       </c>
       <c r="F14" t="n">
-        <v>1315.7759</v>
+        <v>152.3375</v>
       </c>
       <c r="G14" t="n">
-        <v>280190.8116358881</v>
+        <v>462058.3025436591</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>68</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>67.45999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="M14" t="n">
@@ -994,40 +922,32 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>68.02</v>
+        <v>70.69</v>
       </c>
       <c r="C15" t="n">
-        <v>68.02</v>
+        <v>70.69</v>
       </c>
       <c r="D15" t="n">
-        <v>68.02</v>
+        <v>70.69</v>
       </c>
       <c r="E15" t="n">
-        <v>68.02</v>
+        <v>70.69</v>
       </c>
       <c r="F15" t="n">
-        <v>2413.4214</v>
+        <v>38.7864</v>
       </c>
       <c r="G15" t="n">
-        <v>277777.3902358881</v>
+        <v>462097.088943659</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="K15" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1038,40 +958,32 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>68.02</v>
+        <v>70.69</v>
       </c>
       <c r="C16" t="n">
-        <v>68.02</v>
+        <v>70.69</v>
       </c>
       <c r="D16" t="n">
-        <v>68.02</v>
+        <v>70.69</v>
       </c>
       <c r="E16" t="n">
-        <v>68.02</v>
+        <v>70.69</v>
       </c>
       <c r="F16" t="n">
-        <v>991.3283</v>
+        <v>2987.2016</v>
       </c>
       <c r="G16" t="n">
-        <v>277777.3902358881</v>
+        <v>462097.088943659</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="K16" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1082,40 +994,32 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>68.02</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="C17" t="n">
-        <v>68.02</v>
+        <v>70.89</v>
       </c>
       <c r="D17" t="n">
-        <v>68.02</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>68.02</v>
+        <v>70.89</v>
       </c>
       <c r="F17" t="n">
-        <v>462.476</v>
+        <v>71.65179999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>277777.3902358881</v>
+        <v>462168.740743659</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="K17" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1126,22 +1030,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>68.02</v>
+        <v>70.97</v>
       </c>
       <c r="C18" t="n">
-        <v>68.02</v>
+        <v>70.97</v>
       </c>
       <c r="D18" t="n">
-        <v>68.02</v>
+        <v>70.97</v>
       </c>
       <c r="E18" t="n">
-        <v>68.02</v>
+        <v>70.97</v>
       </c>
       <c r="F18" t="n">
-        <v>517.0488</v>
+        <v>66.2842</v>
       </c>
       <c r="G18" t="n">
-        <v>277777.3902358881</v>
+        <v>462235.024943659</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -1150,16 +1054,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>68.02</v>
+        <v>70.89</v>
       </c>
       <c r="K18" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>70.89</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1170,38 +1070,36 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>68.02</v>
+        <v>70.69</v>
       </c>
       <c r="C19" t="n">
-        <v>68.02</v>
+        <v>70.97</v>
       </c>
       <c r="D19" t="n">
-        <v>68.02</v>
+        <v>70.97</v>
       </c>
       <c r="E19" t="n">
-        <v>68.02</v>
+        <v>70.69</v>
       </c>
       <c r="F19" t="n">
-        <v>897.7068</v>
+        <v>39.8281</v>
       </c>
       <c r="G19" t="n">
-        <v>277777.3902358881</v>
+        <v>462235.024943659</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>68.02</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M19" t="n">
@@ -1214,22 +1112,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>68.02</v>
+        <v>70.69</v>
       </c>
       <c r="C20" t="n">
-        <v>68.01000000000001</v>
+        <v>70.97</v>
       </c>
       <c r="D20" t="n">
-        <v>68.02</v>
+        <v>70.97</v>
       </c>
       <c r="E20" t="n">
-        <v>68.01000000000001</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>11501.8641</v>
+        <v>4237.7172</v>
       </c>
       <c r="G20" t="n">
-        <v>266275.5261358881</v>
+        <v>462235.024943659</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -1238,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>68.02</v>
+        <v>70.97</v>
       </c>
       <c r="K20" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1258,34 +1156,32 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>68.01000000000001</v>
+        <v>70.97</v>
       </c>
       <c r="C21" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="D21" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="E21" t="n">
-        <v>68.01000000000001</v>
+        <v>70.97</v>
       </c>
       <c r="F21" t="n">
-        <v>833.9897999999999</v>
+        <v>994.0094</v>
       </c>
       <c r="G21" t="n">
-        <v>266275.5261358881</v>
+        <v>463229.034343659</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>68.01000000000001</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1302,34 +1198,32 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="C22" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="D22" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="E22" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="F22" t="n">
-        <v>621</v>
+        <v>1207.169014084507</v>
       </c>
       <c r="G22" t="n">
-        <v>266275.5261358881</v>
+        <v>463229.034343659</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>68.01000000000001</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1346,34 +1240,32 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="C23" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="D23" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="E23" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="F23" t="n">
-        <v>873.3149</v>
+        <v>1785.233</v>
       </c>
       <c r="G23" t="n">
-        <v>266275.5261358881</v>
+        <v>463229.034343659</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>68.01000000000001</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1390,34 +1282,32 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="C24" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="D24" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="E24" t="n">
-        <v>68.01000000000001</v>
+        <v>71</v>
       </c>
       <c r="F24" t="n">
-        <v>1905.277</v>
+        <v>1591.8617</v>
       </c>
       <c r="G24" t="n">
-        <v>266275.5261358881</v>
+        <v>463229.034343659</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>68.01000000000001</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1434,34 +1324,32 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>68.38</v>
+        <v>71</v>
       </c>
       <c r="C25" t="n">
-        <v>68.38</v>
+        <v>71</v>
       </c>
       <c r="D25" t="n">
-        <v>68.38</v>
+        <v>71</v>
       </c>
       <c r="E25" t="n">
-        <v>68.38</v>
+        <v>71</v>
       </c>
       <c r="F25" t="n">
-        <v>88.46680000000001</v>
+        <v>3033.6293</v>
       </c>
       <c r="G25" t="n">
-        <v>266363.9929358881</v>
+        <v>463229.034343659</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>68.01000000000001</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1478,34 +1366,32 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>68.38</v>
+        <v>71</v>
       </c>
       <c r="C26" t="n">
-        <v>68.38</v>
+        <v>71</v>
       </c>
       <c r="D26" t="n">
-        <v>68.38</v>
+        <v>71</v>
       </c>
       <c r="E26" t="n">
-        <v>68.38</v>
+        <v>71</v>
       </c>
       <c r="F26" t="n">
-        <v>996.1002</v>
+        <v>6645.8709</v>
       </c>
       <c r="G26" t="n">
-        <v>266363.9929358881</v>
+        <v>463229.034343659</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>68.38</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1522,34 +1408,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>68.39</v>
+        <v>71</v>
       </c>
       <c r="C27" t="n">
-        <v>68.62</v>
+        <v>71</v>
       </c>
       <c r="D27" t="n">
-        <v>68.62</v>
+        <v>71</v>
       </c>
       <c r="E27" t="n">
-        <v>68.39</v>
+        <v>71</v>
       </c>
       <c r="F27" t="n">
-        <v>9700</v>
+        <v>50139.6742</v>
       </c>
       <c r="G27" t="n">
-        <v>276063.9929358881</v>
+        <v>463229.034343659</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>68.38</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1566,34 +1450,32 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>68.03</v>
+        <v>71</v>
       </c>
       <c r="C28" t="n">
-        <v>68.64</v>
+        <v>71</v>
       </c>
       <c r="D28" t="n">
-        <v>68.64</v>
+        <v>71</v>
       </c>
       <c r="E28" t="n">
-        <v>68.03</v>
+        <v>71</v>
       </c>
       <c r="F28" t="n">
-        <v>1129.9558</v>
+        <v>24421.7874</v>
       </c>
       <c r="G28" t="n">
-        <v>277193.9487358881</v>
+        <v>463229.034343659</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>68.62</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1610,34 +1492,32 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>68.64</v>
+        <v>70.97</v>
       </c>
       <c r="C29" t="n">
-        <v>69.18000000000001</v>
+        <v>70.97</v>
       </c>
       <c r="D29" t="n">
-        <v>69.19</v>
+        <v>70.97</v>
       </c>
       <c r="E29" t="n">
-        <v>68.64</v>
+        <v>70.97</v>
       </c>
       <c r="F29" t="n">
-        <v>14987.4338</v>
+        <v>48.545</v>
       </c>
       <c r="G29" t="n">
-        <v>292181.3825358881</v>
+        <v>463180.489343659</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>68.64</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -1654,34 +1534,32 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>69.31999999999999</v>
+        <v>71</v>
       </c>
       <c r="C30" t="n">
-        <v>69.31999999999999</v>
+        <v>71</v>
       </c>
       <c r="D30" t="n">
-        <v>69.31999999999999</v>
+        <v>71</v>
       </c>
       <c r="E30" t="n">
-        <v>69.31999999999999</v>
+        <v>71</v>
       </c>
       <c r="F30" t="n">
-        <v>4823.7835</v>
+        <v>253.4369</v>
       </c>
       <c r="G30" t="n">
-        <v>297005.1660358881</v>
+        <v>463433.926243659</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>69.18000000000001</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1698,34 +1576,32 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>69.31999999999999</v>
+        <v>71</v>
       </c>
       <c r="C31" t="n">
-        <v>69.3</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>69.31999999999999</v>
+        <v>71.70999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>69.3</v>
+        <v>71</v>
       </c>
       <c r="F31" t="n">
-        <v>7796.1956</v>
+        <v>20010.6647095942</v>
       </c>
       <c r="G31" t="n">
-        <v>289208.9704358882</v>
+        <v>483444.5909532532</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>69.31999999999999</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1742,34 +1618,32 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>69.3</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>69.3</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>69.3</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>69.3</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>808</v>
+        <v>23678.936</v>
       </c>
       <c r="G32" t="n">
-        <v>289208.9704358882</v>
+        <v>507123.5269532532</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>69.3</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -1786,34 +1660,32 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>69.31999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="C33" t="n">
-        <v>69.31999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="D33" t="n">
-        <v>69.31999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="E33" t="n">
-        <v>69.31999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="F33" t="n">
-        <v>6456.7706</v>
+        <v>5665.9932</v>
       </c>
       <c r="G33" t="n">
-        <v>295665.7410358881</v>
+        <v>512789.5201532532</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>69.3</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -1830,34 +1702,32 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>69.34</v>
+        <v>72.12</v>
       </c>
       <c r="C34" t="n">
-        <v>69.34</v>
+        <v>72.12</v>
       </c>
       <c r="D34" t="n">
-        <v>69.34</v>
+        <v>72.12</v>
       </c>
       <c r="E34" t="n">
-        <v>69.34</v>
+        <v>72.12</v>
       </c>
       <c r="F34" t="n">
-        <v>6610.7466</v>
+        <v>151.0193</v>
       </c>
       <c r="G34" t="n">
-        <v>302276.4876358882</v>
+        <v>512789.5201532532</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>69.31999999999999</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -1874,34 +1744,32 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>69.59999999999999</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C35" t="n">
-        <v>69.59999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="D35" t="n">
-        <v>69.59999999999999</v>
+        <v>72.12</v>
       </c>
       <c r="E35" t="n">
-        <v>69.59999999999999</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F35" t="n">
-        <v>298.288</v>
+        <v>5691.5246</v>
       </c>
       <c r="G35" t="n">
-        <v>302574.7756358882</v>
+        <v>512789.5201532532</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>69.34</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -1918,34 +1786,32 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>70.76000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>69.5</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>70.76000000000001</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>69.5</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>6232.4873</v>
+        <v>450.8161</v>
       </c>
       <c r="G36" t="n">
-        <v>296342.2883358882</v>
+        <v>512338.7040532532</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>69.59999999999999</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -1962,34 +1828,32 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>69.06</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>69.06</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>69.06</v>
+        <v>72.11</v>
       </c>
       <c r="E37" t="n">
-        <v>69.06</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="F37" t="n">
-        <v>500.9508</v>
+        <v>9658.2382</v>
       </c>
       <c r="G37" t="n">
-        <v>295841.3375358882</v>
+        <v>512338.7040532532</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>69.5</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2006,34 +1870,32 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>69.16</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>69.06</v>
+        <v>71.25</v>
       </c>
       <c r="D38" t="n">
-        <v>69.16</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>69.06</v>
+        <v>71.25</v>
       </c>
       <c r="F38" t="n">
-        <v>2696.5577</v>
+        <v>13099.5007</v>
       </c>
       <c r="G38" t="n">
-        <v>295841.3375358882</v>
+        <v>499239.2033532533</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>69.06</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2050,34 +1912,32 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>69.5</v>
+        <v>71</v>
       </c>
       <c r="C39" t="n">
-        <v>69.06</v>
+        <v>71</v>
       </c>
       <c r="D39" t="n">
-        <v>69.5</v>
+        <v>71</v>
       </c>
       <c r="E39" t="n">
-        <v>69.06</v>
+        <v>71</v>
       </c>
       <c r="F39" t="n">
-        <v>715.9964</v>
+        <v>3485.424</v>
       </c>
       <c r="G39" t="n">
-        <v>295841.3375358882</v>
+        <v>495753.7793532533</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>69.06</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2094,34 +1954,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>69.20999999999999</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="C40" t="n">
-        <v>69.06</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>69.20999999999999</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>69.06</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>5286.0622</v>
+        <v>971.1618999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>295841.3375358882</v>
+        <v>494782.6174532532</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>69.06</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2138,34 +1996,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>69.09999999999999</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>69</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>69.83</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>69</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>1645.1359</v>
+        <v>4.8453</v>
       </c>
       <c r="G41" t="n">
-        <v>294196.2016358882</v>
+        <v>494782.6174532532</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>69.06</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2182,34 +2038,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>69</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>68.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>69</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>68.90000000000001</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>292.0622</v>
+        <v>525.88</v>
       </c>
       <c r="G42" t="n">
-        <v>293904.1394358882</v>
+        <v>494256.7374532532</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>69</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2226,34 +2080,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>68.8</v>
+        <v>70.61</v>
       </c>
       <c r="C43" t="n">
-        <v>68.8</v>
+        <v>70.61</v>
       </c>
       <c r="D43" t="n">
-        <v>68.8</v>
+        <v>70.61</v>
       </c>
       <c r="E43" t="n">
-        <v>68.8</v>
+        <v>70.61</v>
       </c>
       <c r="F43" t="n">
-        <v>825.639</v>
+        <v>37.0043</v>
       </c>
       <c r="G43" t="n">
-        <v>293078.5004358882</v>
+        <v>494293.7417532532</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>68.90000000000001</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2270,34 +2122,32 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>69.56999999999999</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>69.59999999999999</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>69.59999999999999</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>69.56999999999999</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>6137.8</v>
+        <v>49250</v>
       </c>
       <c r="G44" t="n">
-        <v>299216.3004358882</v>
+        <v>445043.7417532532</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>68.8</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -2314,34 +2164,32 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>70.2</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>70.2</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>70.2</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>70.2</v>
+        <v>70.20999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>298.288</v>
+        <v>29361.3145</v>
       </c>
       <c r="G45" t="n">
-        <v>299514.5884358882</v>
+        <v>445043.7417532532</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>69.59999999999999</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2358,34 +2206,32 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>70.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>70.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>70.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>70.3</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>36290.7368</v>
+        <v>197.9794</v>
       </c>
       <c r="G46" t="n">
-        <v>335805.3252358882</v>
+        <v>444845.7623532532</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>70.2</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2402,22 +2248,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>70.69</v>
+        <v>69.59</v>
       </c>
       <c r="C47" t="n">
-        <v>70.8</v>
+        <v>69.5</v>
       </c>
       <c r="D47" t="n">
-        <v>70.8</v>
+        <v>69.59</v>
       </c>
       <c r="E47" t="n">
-        <v>70.69</v>
+        <v>69.5</v>
       </c>
       <c r="F47" t="n">
-        <v>27417.3531</v>
+        <v>94.25</v>
       </c>
       <c r="G47" t="n">
-        <v>335805.3252358882</v>
+        <v>444751.5123532532</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2427,7 +2273,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -2444,22 +2290,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>70.8</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>71</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>71.09999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>70.8</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>37109.7192</v>
+        <v>13132.143</v>
       </c>
       <c r="G48" t="n">
-        <v>372915.0444358882</v>
+        <v>431619.3693532532</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2469,7 +2315,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2486,22 +2332,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>71.19</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="C49" t="n">
-        <v>72</v>
+        <v>68.89</v>
       </c>
       <c r="D49" t="n">
-        <v>72.3</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>71.19</v>
+        <v>68.89</v>
       </c>
       <c r="F49" t="n">
-        <v>220286.6907</v>
+        <v>2111.5494</v>
       </c>
       <c r="G49" t="n">
-        <v>593201.7351358882</v>
+        <v>429507.8199532532</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2511,7 +2357,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -2528,22 +2374,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>72.3</v>
+        <v>68.89</v>
       </c>
       <c r="C50" t="n">
-        <v>73.08</v>
+        <v>68.89</v>
       </c>
       <c r="D50" t="n">
-        <v>73.08</v>
+        <v>68.89</v>
       </c>
       <c r="E50" t="n">
-        <v>72.3</v>
+        <v>68.89</v>
       </c>
       <c r="F50" t="n">
-        <v>138507.8384</v>
+        <v>595.1785</v>
       </c>
       <c r="G50" t="n">
-        <v>731709.5735358882</v>
+        <v>429507.8199532532</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2553,7 +2399,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2570,22 +2416,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>73.3</v>
+        <v>68.75</v>
       </c>
       <c r="C51" t="n">
-        <v>73.38</v>
+        <v>68.69</v>
       </c>
       <c r="D51" t="n">
-        <v>73.38</v>
+        <v>68.75</v>
       </c>
       <c r="E51" t="n">
-        <v>73.3</v>
+        <v>68.69</v>
       </c>
       <c r="F51" t="n">
-        <v>37156.0528</v>
+        <v>2384.0086</v>
       </c>
       <c r="G51" t="n">
-        <v>768865.6263358882</v>
+        <v>427123.8113532532</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2595,7 +2441,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -2612,22 +2458,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>73.38</v>
+        <v>68.69</v>
       </c>
       <c r="C52" t="n">
-        <v>74</v>
+        <v>68.7</v>
       </c>
       <c r="D52" t="n">
-        <v>74</v>
+        <v>68.7</v>
       </c>
       <c r="E52" t="n">
-        <v>73.38</v>
+        <v>68.69</v>
       </c>
       <c r="F52" t="n">
-        <v>55159.7276</v>
+        <v>737.9478</v>
       </c>
       <c r="G52" t="n">
-        <v>824025.3539358882</v>
+        <v>427861.7591532532</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2637,7 +2483,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -2654,22 +2500,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>74</v>
+        <v>68.7</v>
       </c>
       <c r="C53" t="n">
-        <v>73.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="D53" t="n">
-        <v>74.59999999999999</v>
+        <v>68.7</v>
       </c>
       <c r="E53" t="n">
-        <v>73.5</v>
+        <v>68.7</v>
       </c>
       <c r="F53" t="n">
-        <v>71140.08387348526</v>
+        <v>124.676</v>
       </c>
       <c r="G53" t="n">
-        <v>752885.2700624029</v>
+        <v>427861.7591532532</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2679,7 +2525,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -2696,22 +2542,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>74.59999999999999</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="C54" t="n">
-        <v>73.5</v>
+        <v>68.41</v>
       </c>
       <c r="D54" t="n">
-        <v>74.59999999999999</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>73.5</v>
+        <v>68.41</v>
       </c>
       <c r="F54" t="n">
-        <v>57008.38162651475</v>
+        <v>150342.2387</v>
       </c>
       <c r="G54" t="n">
-        <v>695876.8884358882</v>
+        <v>277519.5204532532</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2721,7 +2567,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -2738,22 +2584,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>74.7</v>
+        <v>69</v>
       </c>
       <c r="C55" t="n">
-        <v>74.7</v>
+        <v>69</v>
       </c>
       <c r="D55" t="n">
-        <v>74.7</v>
+        <v>69</v>
       </c>
       <c r="E55" t="n">
-        <v>74.7</v>
+        <v>69</v>
       </c>
       <c r="F55" t="n">
-        <v>9</v>
+        <v>751.9029</v>
       </c>
       <c r="G55" t="n">
-        <v>695885.8884358882</v>
+        <v>278271.4233532532</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2763,7 +2609,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -2780,22 +2626,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>73.61</v>
+        <v>69</v>
       </c>
       <c r="C56" t="n">
-        <v>73.63</v>
+        <v>68.66</v>
       </c>
       <c r="D56" t="n">
-        <v>73.63</v>
+        <v>69</v>
       </c>
       <c r="E56" t="n">
-        <v>73.61</v>
+        <v>68.66</v>
       </c>
       <c r="F56" t="n">
-        <v>27</v>
+        <v>15638.5986</v>
       </c>
       <c r="G56" t="n">
-        <v>695858.8884358882</v>
+        <v>262632.8247532532</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2805,7 +2651,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -2822,22 +2668,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>74.7</v>
+        <v>69.19</v>
       </c>
       <c r="C57" t="n">
-        <v>73.8</v>
+        <v>69.19</v>
       </c>
       <c r="D57" t="n">
-        <v>74.84999999999999</v>
+        <v>69.19</v>
       </c>
       <c r="E57" t="n">
-        <v>73.8</v>
+        <v>69.19</v>
       </c>
       <c r="F57" t="n">
-        <v>5526.7604</v>
+        <v>701.2103</v>
       </c>
       <c r="G57" t="n">
-        <v>701385.6488358882</v>
+        <v>263334.0350532532</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2847,7 +2693,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -2864,22 +2710,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>74.87</v>
+        <v>69.5</v>
       </c>
       <c r="C58" t="n">
-        <v>74.87</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>74.87</v>
+        <v>69.5</v>
       </c>
       <c r="E58" t="n">
-        <v>74.87</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>15200.9364</v>
+        <v>4727.19</v>
       </c>
       <c r="G58" t="n">
-        <v>716586.5852358883</v>
+        <v>268061.2250532532</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2889,7 +2735,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -2906,22 +2752,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>74.87</v>
+        <v>70.05</v>
       </c>
       <c r="C59" t="n">
-        <v>74.40000000000001</v>
+        <v>70.05</v>
       </c>
       <c r="D59" t="n">
-        <v>75.09999999999999</v>
+        <v>70.05</v>
       </c>
       <c r="E59" t="n">
-        <v>74.20999999999999</v>
+        <v>70.05</v>
       </c>
       <c r="F59" t="n">
-        <v>107630.9851</v>
+        <v>47.7081</v>
       </c>
       <c r="G59" t="n">
-        <v>608955.6001358882</v>
+        <v>268108.9331532532</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2931,7 +2777,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -2948,22 +2794,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>74.87</v>
+        <v>69.2</v>
       </c>
       <c r="C60" t="n">
-        <v>75.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="D60" t="n">
-        <v>75.09999999999999</v>
+        <v>69.2</v>
       </c>
       <c r="E60" t="n">
-        <v>74.3</v>
+        <v>69.2</v>
       </c>
       <c r="F60" t="n">
-        <v>13428.2033587217</v>
+        <v>1023.8023</v>
       </c>
       <c r="G60" t="n">
-        <v>622383.8034946099</v>
+        <v>267085.1308532532</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2973,7 +2819,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -2990,22 +2836,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>74.31</v>
+        <v>69.3</v>
       </c>
       <c r="C61" t="n">
-        <v>74.8</v>
+        <v>69.3</v>
       </c>
       <c r="D61" t="n">
-        <v>74.8</v>
+        <v>69.3</v>
       </c>
       <c r="E61" t="n">
-        <v>74.22</v>
+        <v>69.3</v>
       </c>
       <c r="F61" t="n">
-        <v>32883.5179</v>
+        <v>295.0495</v>
       </c>
       <c r="G61" t="n">
-        <v>589500.2855946099</v>
+        <v>267380.1803532532</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3015,7 +2861,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -3032,22 +2878,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>74.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>73.84999999999999</v>
+        <v>69</v>
       </c>
       <c r="D62" t="n">
-        <v>74.3</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>73.84999999999999</v>
+        <v>69</v>
       </c>
       <c r="F62" t="n">
-        <v>17520.4783</v>
+        <v>2465</v>
       </c>
       <c r="G62" t="n">
-        <v>571979.80729461</v>
+        <v>264915.1803532532</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3057,7 +2903,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -3074,22 +2920,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>74.26000000000001</v>
+        <v>68.61</v>
       </c>
       <c r="C63" t="n">
-        <v>73.79000000000001</v>
+        <v>68.52</v>
       </c>
       <c r="D63" t="n">
-        <v>74.26000000000001</v>
+        <v>68.61</v>
       </c>
       <c r="E63" t="n">
-        <v>73.5</v>
+        <v>68.52</v>
       </c>
       <c r="F63" t="n">
-        <v>10577.0029</v>
+        <v>12450.8832</v>
       </c>
       <c r="G63" t="n">
-        <v>561402.80439461</v>
+        <v>252464.2971532532</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3099,7 +2945,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -3116,22 +2962,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>73.79000000000001</v>
+        <v>68.52</v>
       </c>
       <c r="C64" t="n">
-        <v>73.39</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="D64" t="n">
-        <v>73.79000000000001</v>
+        <v>68.52</v>
       </c>
       <c r="E64" t="n">
-        <v>72.55</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="F64" t="n">
-        <v>92985.12537348525</v>
+        <v>6590</v>
       </c>
       <c r="G64" t="n">
-        <v>468417.6790211247</v>
+        <v>245874.2971532532</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3141,7 +2987,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -3158,22 +3004,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>72.56</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>72.54000000000001</v>
+        <v>68</v>
       </c>
       <c r="D65" t="n">
-        <v>72.56</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="E65" t="n">
-        <v>72.54000000000001</v>
+        <v>68</v>
       </c>
       <c r="F65" t="n">
-        <v>9724.938599999999</v>
+        <v>268.8519</v>
       </c>
       <c r="G65" t="n">
-        <v>458692.7404211247</v>
+        <v>245605.4452532532</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3183,7 +3029,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -3200,32 +3046,34 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>72.58</v>
+        <v>68</v>
       </c>
       <c r="C66" t="n">
-        <v>72.58</v>
+        <v>68</v>
       </c>
       <c r="D66" t="n">
-        <v>72.58</v>
+        <v>68</v>
       </c>
       <c r="E66" t="n">
-        <v>72.58</v>
+        <v>68</v>
       </c>
       <c r="F66" t="n">
-        <v>50</v>
+        <v>487</v>
       </c>
       <c r="G66" t="n">
-        <v>458742.7404211247</v>
+        <v>245605.4452532532</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>68</v>
+      </c>
       <c r="K66" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -3242,32 +3090,34 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>72.59999999999999</v>
+        <v>68</v>
       </c>
       <c r="C67" t="n">
-        <v>73.27</v>
+        <v>68</v>
       </c>
       <c r="D67" t="n">
-        <v>73.27</v>
+        <v>68</v>
       </c>
       <c r="E67" t="n">
-        <v>71.54000000000001</v>
+        <v>68</v>
       </c>
       <c r="F67" t="n">
-        <v>23958.9147</v>
+        <v>118019.9141</v>
       </c>
       <c r="G67" t="n">
-        <v>482701.6551211248</v>
+        <v>245605.4452532532</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>68</v>
+      </c>
       <c r="K67" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -3284,32 +3134,34 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>72.69</v>
+        <v>68</v>
       </c>
       <c r="C68" t="n">
-        <v>72.69</v>
+        <v>68</v>
       </c>
       <c r="D68" t="n">
-        <v>72.69</v>
+        <v>68</v>
       </c>
       <c r="E68" t="n">
-        <v>72.69</v>
+        <v>68</v>
       </c>
       <c r="F68" t="n">
-        <v>5117.5777</v>
+        <v>29038.6956</v>
       </c>
       <c r="G68" t="n">
-        <v>477584.0774211247</v>
+        <v>245605.4452532532</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>68</v>
+      </c>
       <c r="K68" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -3326,22 +3178,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>72.48999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>72.40000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>72.48999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>72.40000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>1208.1143</v>
+        <v>1801.8312</v>
       </c>
       <c r="G69" t="n">
-        <v>476375.9631211247</v>
+        <v>247407.2764532532</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3351,7 +3203,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -3368,32 +3220,34 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>72.41</v>
+        <v>67.98</v>
       </c>
       <c r="C70" t="n">
-        <v>72.40000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>72.5</v>
+        <v>67.98</v>
       </c>
       <c r="E70" t="n">
-        <v>72.40000000000001</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>29739.8359</v>
+        <v>19757.2138</v>
       </c>
       <c r="G70" t="n">
-        <v>476375.9631211247</v>
+        <v>227650.0626532532</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>68.01000000000001</v>
+      </c>
       <c r="K70" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -3410,32 +3264,34 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>72.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>72.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>72.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>72.40000000000001</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>18578.6575</v>
+        <v>3060.4219</v>
       </c>
       <c r="G71" t="n">
-        <v>476375.9631211247</v>
+        <v>230710.4845532532</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>67.01000000000001</v>
+      </c>
       <c r="K71" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -3452,22 +3308,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>72.59</v>
+        <v>67.91</v>
       </c>
       <c r="C72" t="n">
-        <v>72.59</v>
+        <v>67.91</v>
       </c>
       <c r="D72" t="n">
-        <v>72.59</v>
+        <v>67.91</v>
       </c>
       <c r="E72" t="n">
-        <v>72.59</v>
+        <v>67.91</v>
       </c>
       <c r="F72" t="n">
-        <v>11.1691</v>
+        <v>1214.236</v>
       </c>
       <c r="G72" t="n">
-        <v>476387.1322211247</v>
+        <v>231924.7205532532</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3477,7 +3333,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -3494,22 +3350,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>72.40000000000001</v>
+        <v>67.37</v>
       </c>
       <c r="C73" t="n">
-        <v>72.59</v>
+        <v>67.37</v>
       </c>
       <c r="D73" t="n">
-        <v>72.59</v>
+        <v>67.37</v>
       </c>
       <c r="E73" t="n">
-        <v>71.8</v>
+        <v>67.37</v>
       </c>
       <c r="F73" t="n">
-        <v>27</v>
+        <v>23000</v>
       </c>
       <c r="G73" t="n">
-        <v>476387.1322211247</v>
+        <v>208924.7205532532</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3519,7 +3375,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -3536,32 +3392,34 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>71.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>71.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>71.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>71.90000000000001</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>27965.7303</v>
+        <v>2571</v>
       </c>
       <c r="G74" t="n">
-        <v>448421.4019211247</v>
+        <v>211495.7205532532</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>67.37</v>
+      </c>
       <c r="K74" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -3578,32 +3436,34 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>71.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>71.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>71.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>71.91</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="F75" t="n">
-        <v>17935.7354</v>
+        <v>7200.8561</v>
       </c>
       <c r="G75" t="n">
-        <v>448421.4019211247</v>
+        <v>211495.7205532532</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>67.40000000000001</v>
+      </c>
       <c r="K75" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -3620,32 +3480,34 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>71.91</v>
+        <v>67.45</v>
       </c>
       <c r="C76" t="n">
-        <v>71.91</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>71.91</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>71.91</v>
+        <v>67.45</v>
       </c>
       <c r="F76" t="n">
-        <v>6120.3193</v>
+        <v>23000</v>
       </c>
       <c r="G76" t="n">
-        <v>448421.4019211247</v>
+        <v>234495.7205532532</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>67.40000000000001</v>
+      </c>
       <c r="K76" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -3662,32 +3524,34 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>71.91</v>
+        <v>67.89</v>
       </c>
       <c r="C77" t="n">
-        <v>71.40000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="D77" t="n">
-        <v>71.91</v>
+        <v>67.89</v>
       </c>
       <c r="E77" t="n">
-        <v>71.40000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="F77" t="n">
-        <v>7983.3778</v>
+        <v>1191.6675</v>
       </c>
       <c r="G77" t="n">
-        <v>440438.0241211247</v>
+        <v>235687.3880532532</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>67.45999999999999</v>
+      </c>
       <c r="K77" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -3704,32 +3568,34 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>72.40000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="C78" t="n">
-        <v>72.39</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D78" t="n">
-        <v>72.40000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="E78" t="n">
-        <v>72.39</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F78" t="n">
-        <v>22.7856</v>
+        <v>3431.2739</v>
       </c>
       <c r="G78" t="n">
-        <v>440460.8097211247</v>
+        <v>232256.1141532532</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>67.89</v>
+      </c>
       <c r="K78" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -3746,32 +3612,34 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>71.81</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>72.37</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>72.37</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>71.81</v>
+        <v>67.43000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>3403.4927</v>
+        <v>42441.1862</v>
       </c>
       <c r="G79" t="n">
-        <v>437057.3170211247</v>
+        <v>274697.3003532531</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>67.09999999999999</v>
+      </c>
       <c r="K79" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -3788,32 +3656,34 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>73</v>
+        <v>67.89</v>
       </c>
       <c r="C80" t="n">
-        <v>73</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>73</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>73</v>
+        <v>67.89</v>
       </c>
       <c r="F80" t="n">
-        <v>22.5224</v>
+        <v>14706.43548263491</v>
       </c>
       <c r="G80" t="n">
-        <v>437079.8394211247</v>
+        <v>289403.7358358881</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>67.43000000000001</v>
+      </c>
       <c r="K80" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -3830,32 +3700,34 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>72.90000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="C81" t="n">
-        <v>72.90000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="D81" t="n">
-        <v>72.90000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="E81" t="n">
-        <v>72.90000000000001</v>
+        <v>67.98</v>
       </c>
       <c r="F81" t="n">
-        <v>1080</v>
+        <v>2425.2513</v>
       </c>
       <c r="G81" t="n">
-        <v>435999.8394211247</v>
+        <v>286978.4845358881</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>68.01000000000001</v>
+      </c>
       <c r="K81" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -3872,32 +3744,34 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>72.41</v>
+        <v>67.5</v>
       </c>
       <c r="C82" t="n">
-        <v>72.41</v>
+        <v>67.5</v>
       </c>
       <c r="D82" t="n">
-        <v>72.41</v>
+        <v>67.5</v>
       </c>
       <c r="E82" t="n">
-        <v>72.3</v>
+        <v>67.5</v>
       </c>
       <c r="F82" t="n">
-        <v>16287.7687</v>
+        <v>6317.2949</v>
       </c>
       <c r="G82" t="n">
-        <v>419712.0707211247</v>
+        <v>280661.1896358881</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>67.98</v>
+      </c>
       <c r="K82" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -3914,32 +3788,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>72.41</v>
+        <v>67.5</v>
       </c>
       <c r="C83" t="n">
-        <v>72.5</v>
+        <v>67.36</v>
       </c>
       <c r="D83" t="n">
-        <v>72.5</v>
+        <v>67.5</v>
       </c>
       <c r="E83" t="n">
-        <v>72.41</v>
+        <v>67.36</v>
       </c>
       <c r="F83" t="n">
-        <v>37012.9439</v>
+        <v>5586.1539</v>
       </c>
       <c r="G83" t="n">
-        <v>456725.0146211247</v>
+        <v>275075.0357358881</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>67.5</v>
+      </c>
       <c r="K83" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -3956,32 +3832,34 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>72.12</v>
+        <v>67.97</v>
       </c>
       <c r="C84" t="n">
-        <v>72.79000000000001</v>
+        <v>68</v>
       </c>
       <c r="D84" t="n">
-        <v>72.79000000000001</v>
+        <v>68</v>
       </c>
       <c r="E84" t="n">
-        <v>71.90000000000001</v>
+        <v>67.97</v>
       </c>
       <c r="F84" t="n">
-        <v>24439.2019</v>
+        <v>3800</v>
       </c>
       <c r="G84" t="n">
-        <v>481164.2165211247</v>
+        <v>278875.0357358881</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>67.36</v>
+      </c>
       <c r="K84" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -3998,32 +3876,34 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>72.90000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="C85" t="n">
-        <v>73</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>73</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>72.90000000000001</v>
+        <v>68.09999999999999</v>
       </c>
       <c r="F85" t="n">
-        <v>13502.226</v>
+        <v>1315.7759</v>
       </c>
       <c r="G85" t="n">
-        <v>494666.4425211247</v>
+        <v>280190.8116358881</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>68</v>
+      </c>
       <c r="K85" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -4040,32 +3920,34 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>73</v>
+        <v>68.02</v>
       </c>
       <c r="C86" t="n">
-        <v>73</v>
+        <v>68.02</v>
       </c>
       <c r="D86" t="n">
-        <v>73</v>
+        <v>68.02</v>
       </c>
       <c r="E86" t="n">
-        <v>73</v>
+        <v>68.02</v>
       </c>
       <c r="F86" t="n">
-        <v>19.4483</v>
+        <v>2413.4214</v>
       </c>
       <c r="G86" t="n">
-        <v>494666.4425211247</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>68.09999999999999</v>
+      </c>
       <c r="K86" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -4082,32 +3964,34 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>73</v>
+        <v>68.02</v>
       </c>
       <c r="C87" t="n">
-        <v>73</v>
+        <v>68.02</v>
       </c>
       <c r="D87" t="n">
-        <v>73</v>
+        <v>68.02</v>
       </c>
       <c r="E87" t="n">
-        <v>73</v>
+        <v>68.02</v>
       </c>
       <c r="F87" t="n">
-        <v>1593.0566</v>
+        <v>991.3283</v>
       </c>
       <c r="G87" t="n">
-        <v>494666.4425211247</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>68.02</v>
+      </c>
       <c r="K87" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -4124,32 +4008,34 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>72.59999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="C88" t="n">
-        <v>72.12</v>
+        <v>68.02</v>
       </c>
       <c r="D88" t="n">
-        <v>72.59999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="E88" t="n">
-        <v>72.12</v>
+        <v>68.02</v>
       </c>
       <c r="F88" t="n">
-        <v>271.3079</v>
+        <v>462.476</v>
       </c>
       <c r="G88" t="n">
-        <v>494395.1346211247</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>68.02</v>
+      </c>
       <c r="K88" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -4166,32 +4052,34 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>71.84999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="C89" t="n">
-        <v>71.84999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="D89" t="n">
-        <v>71.84999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="E89" t="n">
-        <v>71.84999999999999</v>
+        <v>68.02</v>
       </c>
       <c r="F89" t="n">
-        <v>3000</v>
+        <v>517.0488</v>
       </c>
       <c r="G89" t="n">
-        <v>491395.1346211247</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>68.02</v>
+      </c>
       <c r="K89" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -4208,32 +4096,34 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>72.12</v>
+        <v>68.02</v>
       </c>
       <c r="C90" t="n">
-        <v>72.12</v>
+        <v>68.02</v>
       </c>
       <c r="D90" t="n">
-        <v>72.12</v>
+        <v>68.02</v>
       </c>
       <c r="E90" t="n">
-        <v>72.12</v>
+        <v>68.02</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2027</v>
+        <v>897.7068</v>
       </c>
       <c r="G90" t="n">
-        <v>491395.3373211247</v>
+        <v>277777.3902358881</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>68.02</v>
+      </c>
       <c r="K90" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -4250,32 +4140,34 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>72.3</v>
+        <v>68.02</v>
       </c>
       <c r="C91" t="n">
-        <v>72.2</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>72.3</v>
+        <v>68.02</v>
       </c>
       <c r="E91" t="n">
-        <v>72.2</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>6659.108</v>
+        <v>11501.8641</v>
       </c>
       <c r="G91" t="n">
-        <v>498054.4453211247</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>68.02</v>
+      </c>
       <c r="K91" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -4292,32 +4184,34 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>72.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>72.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>72.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E92" t="n">
-        <v>71.89</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>31657.2551</v>
+        <v>833.9897999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>466397.1902211247</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>68.01000000000001</v>
+      </c>
       <c r="K92" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -4334,32 +4228,34 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>71.75</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C93" t="n">
-        <v>71.73999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>71.75</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>71.73999999999999</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F93" t="n">
-        <v>13521.6743</v>
+        <v>621</v>
       </c>
       <c r="G93" t="n">
-        <v>452875.5159211247</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>68.01000000000001</v>
+      </c>
       <c r="K93" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -4376,32 +4272,34 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>72.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>72.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>72.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E94" t="n">
-        <v>72.01000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0001</v>
+        <v>873.3149</v>
       </c>
       <c r="G94" t="n">
-        <v>452875.5160211247</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>68.01000000000001</v>
+      </c>
       <c r="K94" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -4418,32 +4316,34 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>71.90000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="C95" t="n">
-        <v>71.90000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>71.90000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="E95" t="n">
-        <v>71.90000000000001</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="F95" t="n">
-        <v>151.9035</v>
+        <v>1905.277</v>
       </c>
       <c r="G95" t="n">
-        <v>452723.6125211247</v>
+        <v>266275.5261358881</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>68.01000000000001</v>
+      </c>
       <c r="K95" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
@@ -4460,32 +4360,34 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>72.76000000000001</v>
+        <v>68.38</v>
       </c>
       <c r="C96" t="n">
-        <v>72.76000000000001</v>
+        <v>68.38</v>
       </c>
       <c r="D96" t="n">
-        <v>72.76000000000001</v>
+        <v>68.38</v>
       </c>
       <c r="E96" t="n">
-        <v>72.76000000000001</v>
+        <v>68.38</v>
       </c>
       <c r="F96" t="n">
-        <v>16.9599</v>
+        <v>88.46680000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>452740.5724211247</v>
+        <v>266363.9929358881</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>68.01000000000001</v>
+      </c>
       <c r="K96" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -4502,32 +4404,34 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>72.8</v>
+        <v>68.38</v>
       </c>
       <c r="C97" t="n">
-        <v>73</v>
+        <v>68.38</v>
       </c>
       <c r="D97" t="n">
-        <v>73</v>
+        <v>68.38</v>
       </c>
       <c r="E97" t="n">
-        <v>72.8</v>
+        <v>68.38</v>
       </c>
       <c r="F97" t="n">
-        <v>8129.9229</v>
+        <v>996.1002</v>
       </c>
       <c r="G97" t="n">
-        <v>460870.4953211247</v>
+        <v>266363.9929358881</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>68.38</v>
+      </c>
       <c r="K97" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
@@ -4544,32 +4448,34 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>73.45999999999999</v>
+        <v>68.39</v>
       </c>
       <c r="C98" t="n">
-        <v>73.45999999999999</v>
+        <v>68.62</v>
       </c>
       <c r="D98" t="n">
-        <v>73.45999999999999</v>
+        <v>68.62</v>
       </c>
       <c r="E98" t="n">
-        <v>73.45999999999999</v>
+        <v>68.39</v>
       </c>
       <c r="F98" t="n">
-        <v>12.608</v>
+        <v>9700</v>
       </c>
       <c r="G98" t="n">
-        <v>460883.1033211247</v>
+        <v>276063.9929358881</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>68.38</v>
+      </c>
       <c r="K98" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
@@ -4586,32 +4492,34 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>73.45999999999999</v>
+        <v>68.03</v>
       </c>
       <c r="C99" t="n">
-        <v>74.54000000000001</v>
+        <v>68.64</v>
       </c>
       <c r="D99" t="n">
-        <v>74.65000000000001</v>
+        <v>68.64</v>
       </c>
       <c r="E99" t="n">
-        <v>73.45999999999999</v>
+        <v>68.03</v>
       </c>
       <c r="F99" t="n">
-        <v>11045.3147</v>
+        <v>1129.9558</v>
       </c>
       <c r="G99" t="n">
-        <v>471928.4180211247</v>
+        <v>277193.9487358881</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>68.62</v>
+      </c>
       <c r="K99" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -4628,32 +4536,34 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>74.79000000000001</v>
+        <v>68.64</v>
       </c>
       <c r="C100" t="n">
-        <v>75.59999999999999</v>
+        <v>69.18000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>75.59999999999999</v>
+        <v>69.19</v>
       </c>
       <c r="E100" t="n">
-        <v>74.79000000000001</v>
+        <v>68.64</v>
       </c>
       <c r="F100" t="n">
-        <v>41864.3479</v>
+        <v>14987.4338</v>
       </c>
       <c r="G100" t="n">
-        <v>513792.7659211247</v>
+        <v>292181.3825358881</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>68.64</v>
+      </c>
       <c r="K100" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -4670,32 +4580,34 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>75.59999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>75.59999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>75.59999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>75.59999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="F101" t="n">
-        <v>2095.4435</v>
+        <v>4823.7835</v>
       </c>
       <c r="G101" t="n">
-        <v>513792.7659211247</v>
+        <v>297005.1660358881</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>69.18000000000001</v>
+      </c>
       <c r="K101" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -4712,32 +4624,34 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>75.59</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>75.8</v>
+        <v>69.3</v>
       </c>
       <c r="D102" t="n">
-        <v>75.8</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>75.59</v>
+        <v>69.3</v>
       </c>
       <c r="F102" t="n">
-        <v>32118.6742</v>
+        <v>7796.1956</v>
       </c>
       <c r="G102" t="n">
-        <v>545911.4401211247</v>
+        <v>289208.9704358882</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>69.31999999999999</v>
+      </c>
       <c r="K102" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -4754,32 +4668,34 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>75.88</v>
+        <v>69.3</v>
       </c>
       <c r="C103" t="n">
-        <v>76.29000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="D103" t="n">
-        <v>76.29000000000001</v>
+        <v>69.3</v>
       </c>
       <c r="E103" t="n">
-        <v>75.88</v>
+        <v>69.3</v>
       </c>
       <c r="F103" t="n">
-        <v>153837.8859526316</v>
+        <v>808</v>
       </c>
       <c r="G103" t="n">
-        <v>699749.3260737563</v>
+        <v>289208.9704358882</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>69.3</v>
+      </c>
       <c r="K103" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L103" t="inlineStr">
         <is>
@@ -4796,22 +4712,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>76.29000000000001</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="C104" t="n">
-        <v>76.64</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>76.64</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>75.20999999999999</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="F104" t="n">
-        <v>15562.4693</v>
+        <v>6456.7706</v>
       </c>
       <c r="G104" t="n">
-        <v>715311.7953737563</v>
+        <v>295665.7410358881</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4821,7 +4737,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L104" t="inlineStr">
         <is>
@@ -4838,22 +4754,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>76.65000000000001</v>
+        <v>69.34</v>
       </c>
       <c r="C105" t="n">
-        <v>78.97</v>
+        <v>69.34</v>
       </c>
       <c r="D105" t="n">
-        <v>79</v>
+        <v>69.34</v>
       </c>
       <c r="E105" t="n">
-        <v>76.64</v>
+        <v>69.34</v>
       </c>
       <c r="F105" t="n">
-        <v>168816.158</v>
+        <v>6610.7466</v>
       </c>
       <c r="G105" t="n">
-        <v>884127.9533737563</v>
+        <v>302276.4876358882</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4863,7 +4779,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L105" t="inlineStr">
         <is>
@@ -4880,22 +4796,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>77.63</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C106" t="n">
-        <v>77.73</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>77.73999999999999</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>76.67</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>84366.03230000001</v>
+        <v>298.288</v>
       </c>
       <c r="G106" t="n">
-        <v>799761.9210737563</v>
+        <v>302574.7756358882</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4905,7 +4821,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L106" t="inlineStr">
         <is>
@@ -4922,22 +4838,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>77.73</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="C107" t="n">
-        <v>78.89</v>
+        <v>69.5</v>
       </c>
       <c r="D107" t="n">
-        <v>78.90000000000001</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>76.86</v>
+        <v>69.5</v>
       </c>
       <c r="F107" t="n">
-        <v>145545.7771748314</v>
+        <v>6232.4873</v>
       </c>
       <c r="G107" t="n">
-        <v>945307.6982485877</v>
+        <v>296342.2883358882</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4947,7 +4863,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L107" t="inlineStr">
         <is>
@@ -4964,22 +4880,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>77.81</v>
+        <v>69.06</v>
       </c>
       <c r="C108" t="n">
-        <v>75.94</v>
+        <v>69.06</v>
       </c>
       <c r="D108" t="n">
-        <v>77.81</v>
+        <v>69.06</v>
       </c>
       <c r="E108" t="n">
-        <v>75.94</v>
+        <v>69.06</v>
       </c>
       <c r="F108" t="n">
-        <v>16261.1821</v>
+        <v>500.9508</v>
       </c>
       <c r="G108" t="n">
-        <v>929046.5161485877</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4989,7 +4905,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -5006,32 +4922,34 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>77.33</v>
+        <v>69.16</v>
       </c>
       <c r="C109" t="n">
-        <v>78.89</v>
+        <v>69.06</v>
       </c>
       <c r="D109" t="n">
-        <v>79.40000000000001</v>
+        <v>69.16</v>
       </c>
       <c r="E109" t="n">
-        <v>76.01000000000001</v>
+        <v>69.06</v>
       </c>
       <c r="F109" t="n">
-        <v>82064.0852</v>
+        <v>2696.5577</v>
       </c>
       <c r="G109" t="n">
-        <v>1011110.601348588</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>69.06</v>
+      </c>
       <c r="K109" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L109" t="inlineStr">
         <is>
@@ -5048,32 +4966,34 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>78.11</v>
+        <v>69.5</v>
       </c>
       <c r="C110" t="n">
-        <v>77.45</v>
+        <v>69.06</v>
       </c>
       <c r="D110" t="n">
-        <v>78.39</v>
+        <v>69.5</v>
       </c>
       <c r="E110" t="n">
-        <v>77.34</v>
+        <v>69.06</v>
       </c>
       <c r="F110" t="n">
-        <v>37986.9516</v>
+        <v>715.9964</v>
       </c>
       <c r="G110" t="n">
-        <v>973123.6497485876</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>69.06</v>
+      </c>
       <c r="K110" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L110" t="inlineStr">
         <is>
@@ -5090,32 +5010,34 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>78.09999999999999</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="C111" t="n">
-        <v>78.98999999999999</v>
+        <v>69.06</v>
       </c>
       <c r="D111" t="n">
-        <v>79.31</v>
+        <v>69.20999999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>78</v>
+        <v>69.06</v>
       </c>
       <c r="F111" t="n">
-        <v>136018.2922753911</v>
+        <v>5286.0622</v>
       </c>
       <c r="G111" t="n">
-        <v>1109141.942023979</v>
+        <v>295841.3375358882</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>69.06</v>
+      </c>
       <c r="K111" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L111" t="inlineStr">
         <is>
@@ -5132,22 +5054,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>78.98999999999999</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="C112" t="n">
-        <v>78.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="D112" t="n">
-        <v>79.19</v>
+        <v>69.83</v>
       </c>
       <c r="E112" t="n">
-        <v>78.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="F112" t="n">
-        <v>36986.1415</v>
+        <v>1645.1359</v>
       </c>
       <c r="G112" t="n">
-        <v>1072155.800523979</v>
+        <v>294196.2016358882</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -5157,7 +5079,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L112" t="inlineStr">
         <is>
@@ -5174,32 +5096,34 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>78.90000000000001</v>
+        <v>69</v>
       </c>
       <c r="C113" t="n">
-        <v>79.2</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>79.3</v>
+        <v>69</v>
       </c>
       <c r="E113" t="n">
-        <v>78.12</v>
+        <v>68.90000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>65505.55802749054</v>
+        <v>292.0622</v>
       </c>
       <c r="G113" t="n">
-        <v>1137661.358551469</v>
+        <v>293904.1394358882</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>69</v>
+      </c>
       <c r="K113" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L113" t="inlineStr">
         <is>
@@ -5216,32 +5140,34 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>79.2</v>
+        <v>68.8</v>
       </c>
       <c r="C114" t="n">
-        <v>79.40000000000001</v>
+        <v>68.8</v>
       </c>
       <c r="D114" t="n">
-        <v>79.59999999999999</v>
+        <v>68.8</v>
       </c>
       <c r="E114" t="n">
-        <v>79</v>
+        <v>68.8</v>
       </c>
       <c r="F114" t="n">
-        <v>45741.33402321298</v>
+        <v>825.639</v>
       </c>
       <c r="G114" t="n">
-        <v>1183402.692574682</v>
+        <v>293078.5004358882</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>68.90000000000001</v>
+      </c>
       <c r="K114" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -5258,76 +5184,84 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>79.38</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="C115" t="n">
-        <v>78.52</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>79.38</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>77.90000000000001</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="F115" t="n">
-        <v>44918.1907</v>
+        <v>6137.8</v>
       </c>
       <c r="G115" t="n">
-        <v>1138484.501874682</v>
+        <v>299216.3004358882</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>68.8</v>
+      </c>
       <c r="K115" t="n">
-        <v>67.45999999999999</v>
+        <v>70.89</v>
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M115" t="n">
-        <v>1.158949006818856</v>
-      </c>
-      <c r="N115" t="n">
-        <v>1.007718569096037</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>78.37</v>
+        <v>70.2</v>
       </c>
       <c r="C116" t="n">
-        <v>78.09999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="D116" t="n">
-        <v>79.06999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="E116" t="n">
-        <v>77.34999999999999</v>
+        <v>70.2</v>
       </c>
       <c r="F116" t="n">
-        <v>79908.42329999999</v>
+        <v>298.288</v>
       </c>
       <c r="G116" t="n">
-        <v>1058576.078574683</v>
+        <v>299514.5884358882</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="K116" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5338,32 +5272,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>78.09999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="C117" t="n">
-        <v>78.28</v>
+        <v>70.8</v>
       </c>
       <c r="D117" t="n">
-        <v>78.28</v>
+        <v>70.8</v>
       </c>
       <c r="E117" t="n">
-        <v>77.34999999999999</v>
+        <v>70.3</v>
       </c>
       <c r="F117" t="n">
-        <v>77091.11780000001</v>
+        <v>36290.7368</v>
       </c>
       <c r="G117" t="n">
-        <v>1135667.196374683</v>
+        <v>335805.3252358882</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5374,32 +5314,38 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>78.05</v>
+        <v>70.69</v>
       </c>
       <c r="C118" t="n">
-        <v>79.16</v>
+        <v>70.8</v>
       </c>
       <c r="D118" t="n">
-        <v>79.26000000000001</v>
+        <v>70.8</v>
       </c>
       <c r="E118" t="n">
-        <v>76.63</v>
+        <v>70.69</v>
       </c>
       <c r="F118" t="n">
-        <v>67209.80839999999</v>
+        <v>27417.3531</v>
       </c>
       <c r="G118" t="n">
-        <v>1202877.004774683</v>
+        <v>335805.3252358882</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5410,32 +5356,38 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>77.53</v>
+        <v>70.8</v>
       </c>
       <c r="C119" t="n">
-        <v>77.53</v>
+        <v>71</v>
       </c>
       <c r="D119" t="n">
-        <v>77.53</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>77.53</v>
+        <v>70.8</v>
       </c>
       <c r="F119" t="n">
-        <v>2407.4164839417</v>
+        <v>37109.7192</v>
       </c>
       <c r="G119" t="n">
-        <v>1200469.588290741</v>
+        <v>372915.0444358882</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5446,32 +5398,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>77.41</v>
+        <v>71.19</v>
       </c>
       <c r="C120" t="n">
-        <v>77.40000000000001</v>
+        <v>72</v>
       </c>
       <c r="D120" t="n">
-        <v>77.41</v>
+        <v>72.3</v>
       </c>
       <c r="E120" t="n">
-        <v>77.40000000000001</v>
+        <v>71.19</v>
       </c>
       <c r="F120" t="n">
-        <v>803.73368990312</v>
+        <v>220286.6907</v>
       </c>
       <c r="G120" t="n">
-        <v>1199665.854600838</v>
+        <v>593201.7351358882</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5482,32 +5440,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>76.87</v>
+        <v>72.3</v>
       </c>
       <c r="C121" t="n">
-        <v>76.31</v>
+        <v>73.08</v>
       </c>
       <c r="D121" t="n">
-        <v>76.87</v>
+        <v>73.08</v>
       </c>
       <c r="E121" t="n">
-        <v>76.31</v>
+        <v>72.3</v>
       </c>
       <c r="F121" t="n">
-        <v>1735.3487</v>
+        <v>138507.8384</v>
       </c>
       <c r="G121" t="n">
-        <v>1197930.505900838</v>
+        <v>731709.5735358882</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5518,32 +5482,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>76.05</v>
+        <v>73.3</v>
       </c>
       <c r="C122" t="n">
-        <v>76.06</v>
+        <v>73.38</v>
       </c>
       <c r="D122" t="n">
-        <v>76.06</v>
+        <v>73.38</v>
       </c>
       <c r="E122" t="n">
-        <v>74.33</v>
+        <v>73.3</v>
       </c>
       <c r="F122" t="n">
-        <v>185691.8218</v>
+        <v>37156.0528</v>
       </c>
       <c r="G122" t="n">
-        <v>1012238.684100838</v>
+        <v>768865.6263358882</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5554,32 +5524,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>76.06</v>
+        <v>73.38</v>
       </c>
       <c r="C123" t="n">
-        <v>75.3</v>
+        <v>74</v>
       </c>
       <c r="D123" t="n">
-        <v>76.06</v>
+        <v>74</v>
       </c>
       <c r="E123" t="n">
-        <v>75.3</v>
+        <v>73.38</v>
       </c>
       <c r="F123" t="n">
-        <v>38926.6884</v>
+        <v>55159.7276</v>
       </c>
       <c r="G123" t="n">
-        <v>973311.9957008379</v>
+        <v>824025.3539358882</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5590,32 +5566,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>75.29000000000001</v>
+        <v>74</v>
       </c>
       <c r="C124" t="n">
-        <v>75.39</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="D124" t="n">
-        <v>75.40000000000001</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E124" t="n">
-        <v>74.72</v>
+        <v>73.5</v>
       </c>
       <c r="F124" t="n">
-        <v>95585.317</v>
+        <v>71140.08387348526</v>
       </c>
       <c r="G124" t="n">
-        <v>1068897.312700838</v>
+        <v>752885.2700624029</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5626,32 +5608,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>75.64</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="C125" t="n">
-        <v>76.08</v>
+        <v>73.5</v>
       </c>
       <c r="D125" t="n">
-        <v>76.08</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>75.64</v>
+        <v>73.5</v>
       </c>
       <c r="F125" t="n">
-        <v>7424.4357</v>
+        <v>57008.38162651475</v>
       </c>
       <c r="G125" t="n">
-        <v>1076321.748400838</v>
+        <v>695876.8884358882</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5662,32 +5650,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>75.36</v>
+        <v>74.7</v>
       </c>
       <c r="C126" t="n">
-        <v>74.98</v>
+        <v>74.7</v>
       </c>
       <c r="D126" t="n">
-        <v>75.36</v>
+        <v>74.7</v>
       </c>
       <c r="E126" t="n">
-        <v>74.98</v>
+        <v>74.7</v>
       </c>
       <c r="F126" t="n">
-        <v>10809.6887</v>
+        <v>9</v>
       </c>
       <c r="G126" t="n">
-        <v>1065512.059700838</v>
+        <v>695885.8884358882</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5698,32 +5692,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>74.98</v>
+        <v>73.61</v>
       </c>
       <c r="C127" t="n">
-        <v>75.36</v>
+        <v>73.63</v>
       </c>
       <c r="D127" t="n">
-        <v>75.36</v>
+        <v>73.63</v>
       </c>
       <c r="E127" t="n">
-        <v>74.98</v>
+        <v>73.61</v>
       </c>
       <c r="F127" t="n">
-        <v>573.874</v>
+        <v>27</v>
       </c>
       <c r="G127" t="n">
-        <v>1066085.933700838</v>
+        <v>695858.8884358882</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5734,22 +5734,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>75.36</v>
+        <v>74.7</v>
       </c>
       <c r="C128" t="n">
-        <v>75.36</v>
+        <v>73.8</v>
       </c>
       <c r="D128" t="n">
-        <v>75.36</v>
+        <v>74.84999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>75.36</v>
+        <v>73.8</v>
       </c>
       <c r="F128" t="n">
-        <v>6631.4575</v>
+        <v>5526.7604</v>
       </c>
       <c r="G128" t="n">
-        <v>1066085.933700838</v>
+        <v>701385.6488358882</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5758,8 +5758,14 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5770,36 +5776,2924 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>74.87</v>
+      </c>
+      <c r="C129" t="n">
+        <v>74.87</v>
+      </c>
+      <c r="D129" t="n">
+        <v>74.87</v>
+      </c>
+      <c r="E129" t="n">
+        <v>74.87</v>
+      </c>
+      <c r="F129" t="n">
+        <v>15200.9364</v>
+      </c>
+      <c r="G129" t="n">
+        <v>716586.5852358883</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>74.87</v>
+      </c>
+      <c r="C130" t="n">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="D130" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E130" t="n">
+        <v>74.20999999999999</v>
+      </c>
+      <c r="F130" t="n">
+        <v>107630.9851</v>
+      </c>
+      <c r="G130" t="n">
+        <v>608955.6001358882</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>74.87</v>
+      </c>
+      <c r="C131" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="D131" t="n">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="E131" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="F131" t="n">
+        <v>13428.2033587217</v>
+      </c>
+      <c r="G131" t="n">
+        <v>622383.8034946099</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>74.31</v>
+      </c>
+      <c r="C132" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="D132" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="E132" t="n">
+        <v>74.22</v>
+      </c>
+      <c r="F132" t="n">
+        <v>32883.5179</v>
+      </c>
+      <c r="G132" t="n">
+        <v>589500.2855946099</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="C133" t="n">
+        <v>73.84999999999999</v>
+      </c>
+      <c r="D133" t="n">
+        <v>74.3</v>
+      </c>
+      <c r="E133" t="n">
+        <v>73.84999999999999</v>
+      </c>
+      <c r="F133" t="n">
+        <v>17520.4783</v>
+      </c>
+      <c r="G133" t="n">
+        <v>571979.80729461</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>74.26000000000001</v>
+      </c>
+      <c r="C134" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="D134" t="n">
+        <v>74.26000000000001</v>
+      </c>
+      <c r="E134" t="n">
+        <v>73.5</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10577.0029</v>
+      </c>
+      <c r="G134" t="n">
+        <v>561402.80439461</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="C135" t="n">
+        <v>73.39</v>
+      </c>
+      <c r="D135" t="n">
+        <v>73.79000000000001</v>
+      </c>
+      <c r="E135" t="n">
+        <v>72.55</v>
+      </c>
+      <c r="F135" t="n">
+        <v>92985.12537348525</v>
+      </c>
+      <c r="G135" t="n">
+        <v>468417.6790211247</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>72.56</v>
+      </c>
+      <c r="C136" t="n">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="D136" t="n">
+        <v>72.56</v>
+      </c>
+      <c r="E136" t="n">
+        <v>72.54000000000001</v>
+      </c>
+      <c r="F136" t="n">
+        <v>9724.938599999999</v>
+      </c>
+      <c r="G136" t="n">
+        <v>458692.7404211247</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>72.58</v>
+      </c>
+      <c r="C137" t="n">
+        <v>72.58</v>
+      </c>
+      <c r="D137" t="n">
+        <v>72.58</v>
+      </c>
+      <c r="E137" t="n">
+        <v>72.58</v>
+      </c>
+      <c r="F137" t="n">
+        <v>50</v>
+      </c>
+      <c r="G137" t="n">
+        <v>458742.7404211247</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="C138" t="n">
+        <v>73.27</v>
+      </c>
+      <c r="D138" t="n">
+        <v>73.27</v>
+      </c>
+      <c r="E138" t="n">
+        <v>71.54000000000001</v>
+      </c>
+      <c r="F138" t="n">
+        <v>23958.9147</v>
+      </c>
+      <c r="G138" t="n">
+        <v>482701.6551211248</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="C139" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="D139" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="E139" t="n">
+        <v>72.69</v>
+      </c>
+      <c r="F139" t="n">
+        <v>5117.5777</v>
+      </c>
+      <c r="G139" t="n">
+        <v>477584.0774211247</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="C140" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="D140" t="n">
+        <v>72.48999999999999</v>
+      </c>
+      <c r="E140" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1208.1143</v>
+      </c>
+      <c r="G140" t="n">
+        <v>476375.9631211247</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>72.41</v>
+      </c>
+      <c r="C141" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="D141" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="F141" t="n">
+        <v>29739.8359</v>
+      </c>
+      <c r="G141" t="n">
+        <v>476375.9631211247</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="C142" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="D142" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="E142" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="F142" t="n">
+        <v>18578.6575</v>
+      </c>
+      <c r="G142" t="n">
+        <v>476375.9631211247</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="C143" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="D143" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="E143" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="F143" t="n">
+        <v>11.1691</v>
+      </c>
+      <c r="G143" t="n">
+        <v>476387.1322211247</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="C144" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="D144" t="n">
+        <v>72.59</v>
+      </c>
+      <c r="E144" t="n">
+        <v>71.8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>27</v>
+      </c>
+      <c r="G144" t="n">
+        <v>476387.1322211247</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="C145" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="D145" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="E145" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F145" t="n">
+        <v>27965.7303</v>
+      </c>
+      <c r="G145" t="n">
+        <v>448421.4019211247</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="C146" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="D146" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="E146" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="F146" t="n">
+        <v>17935.7354</v>
+      </c>
+      <c r="G146" t="n">
+        <v>448421.4019211247</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="C147" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="D147" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="E147" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6120.3193</v>
+      </c>
+      <c r="G147" t="n">
+        <v>448421.4019211247</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="C148" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="D148" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="E148" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="F148" t="n">
+        <v>7983.3778</v>
+      </c>
+      <c r="G148" t="n">
+        <v>440438.0241211247</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="C149" t="n">
+        <v>72.39</v>
+      </c>
+      <c r="D149" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="E149" t="n">
+        <v>72.39</v>
+      </c>
+      <c r="F149" t="n">
+        <v>22.7856</v>
+      </c>
+      <c r="G149" t="n">
+        <v>440460.8097211247</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="C150" t="n">
+        <v>72.37</v>
+      </c>
+      <c r="D150" t="n">
+        <v>72.37</v>
+      </c>
+      <c r="E150" t="n">
+        <v>71.81</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3403.4927</v>
+      </c>
+      <c r="G150" t="n">
+        <v>437057.3170211247</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>73</v>
+      </c>
+      <c r="C151" t="n">
+        <v>73</v>
+      </c>
+      <c r="D151" t="n">
+        <v>73</v>
+      </c>
+      <c r="E151" t="n">
+        <v>73</v>
+      </c>
+      <c r="F151" t="n">
+        <v>22.5224</v>
+      </c>
+      <c r="G151" t="n">
+        <v>437079.8394211247</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C152" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="D152" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="E152" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1080</v>
+      </c>
+      <c r="G152" t="n">
+        <v>435999.8394211247</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>72.41</v>
+      </c>
+      <c r="C153" t="n">
+        <v>72.41</v>
+      </c>
+      <c r="D153" t="n">
+        <v>72.41</v>
+      </c>
+      <c r="E153" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16287.7687</v>
+      </c>
+      <c r="G153" t="n">
+        <v>419712.0707211247</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>72.41</v>
+      </c>
+      <c r="C154" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="D154" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="E154" t="n">
+        <v>72.41</v>
+      </c>
+      <c r="F154" t="n">
+        <v>37012.9439</v>
+      </c>
+      <c r="G154" t="n">
+        <v>456725.0146211247</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="C155" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="D155" t="n">
+        <v>72.79000000000001</v>
+      </c>
+      <c r="E155" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F155" t="n">
+        <v>24439.2019</v>
+      </c>
+      <c r="G155" t="n">
+        <v>481164.2165211247</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="C156" t="n">
+        <v>73</v>
+      </c>
+      <c r="D156" t="n">
+        <v>73</v>
+      </c>
+      <c r="E156" t="n">
+        <v>72.90000000000001</v>
+      </c>
+      <c r="F156" t="n">
+        <v>13502.226</v>
+      </c>
+      <c r="G156" t="n">
+        <v>494666.4425211247</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>73</v>
+      </c>
+      <c r="C157" t="n">
+        <v>73</v>
+      </c>
+      <c r="D157" t="n">
+        <v>73</v>
+      </c>
+      <c r="E157" t="n">
+        <v>73</v>
+      </c>
+      <c r="F157" t="n">
+        <v>19.4483</v>
+      </c>
+      <c r="G157" t="n">
+        <v>494666.4425211247</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>73</v>
+      </c>
+      <c r="C158" t="n">
+        <v>73</v>
+      </c>
+      <c r="D158" t="n">
+        <v>73</v>
+      </c>
+      <c r="E158" t="n">
+        <v>73</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1593.0566</v>
+      </c>
+      <c r="G158" t="n">
+        <v>494666.4425211247</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="C159" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="D159" t="n">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E159" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="F159" t="n">
+        <v>271.3079</v>
+      </c>
+      <c r="G159" t="n">
+        <v>494395.1346211247</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="C160" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="D160" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="E160" t="n">
+        <v>71.84999999999999</v>
+      </c>
+      <c r="F160" t="n">
+        <v>3000</v>
+      </c>
+      <c r="G160" t="n">
+        <v>491395.1346211247</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="C161" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="D161" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="E161" t="n">
+        <v>72.12</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.2027</v>
+      </c>
+      <c r="G161" t="n">
+        <v>491395.3373211247</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="C162" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="D162" t="n">
+        <v>72.3</v>
+      </c>
+      <c r="E162" t="n">
+        <v>72.2</v>
+      </c>
+      <c r="F162" t="n">
+        <v>6659.108</v>
+      </c>
+      <c r="G162" t="n">
+        <v>498054.4453211247</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="C163" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="D163" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="E163" t="n">
+        <v>71.89</v>
+      </c>
+      <c r="F163" t="n">
+        <v>31657.2551</v>
+      </c>
+      <c r="G163" t="n">
+        <v>466397.1902211247</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="C164" t="n">
+        <v>71.73999999999999</v>
+      </c>
+      <c r="D164" t="n">
+        <v>71.75</v>
+      </c>
+      <c r="E164" t="n">
+        <v>71.73999999999999</v>
+      </c>
+      <c r="F164" t="n">
+        <v>13521.6743</v>
+      </c>
+      <c r="G164" t="n">
+        <v>452875.5159211247</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="C165" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="D165" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="E165" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G165" t="n">
+        <v>452875.5160211247</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="C166" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="D166" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="E166" t="n">
+        <v>71.90000000000001</v>
+      </c>
+      <c r="F166" t="n">
+        <v>151.9035</v>
+      </c>
+      <c r="G166" t="n">
+        <v>452723.6125211247</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="C167" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="D167" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="E167" t="n">
+        <v>72.76000000000001</v>
+      </c>
+      <c r="F167" t="n">
+        <v>16.9599</v>
+      </c>
+      <c r="G167" t="n">
+        <v>452740.5724211247</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="C168" t="n">
+        <v>73</v>
+      </c>
+      <c r="D168" t="n">
+        <v>73</v>
+      </c>
+      <c r="E168" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>8129.9229</v>
+      </c>
+      <c r="G168" t="n">
+        <v>460870.4953211247</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>73.45999999999999</v>
+      </c>
+      <c r="C169" t="n">
+        <v>73.45999999999999</v>
+      </c>
+      <c r="D169" t="n">
+        <v>73.45999999999999</v>
+      </c>
+      <c r="E169" t="n">
+        <v>73.45999999999999</v>
+      </c>
+      <c r="F169" t="n">
+        <v>12.608</v>
+      </c>
+      <c r="G169" t="n">
+        <v>460883.1033211247</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>73.45999999999999</v>
+      </c>
+      <c r="C170" t="n">
+        <v>74.54000000000001</v>
+      </c>
+      <c r="D170" t="n">
+        <v>74.65000000000001</v>
+      </c>
+      <c r="E170" t="n">
+        <v>73.45999999999999</v>
+      </c>
+      <c r="F170" t="n">
+        <v>11045.3147</v>
+      </c>
+      <c r="G170" t="n">
+        <v>471928.4180211247</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="C171" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="D171" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E171" t="n">
+        <v>74.79000000000001</v>
+      </c>
+      <c r="F171" t="n">
+        <v>41864.3479</v>
+      </c>
+      <c r="G171" t="n">
+        <v>513792.7659211247</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="C172" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="D172" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="E172" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2095.4435</v>
+      </c>
+      <c r="G172" t="n">
+        <v>513792.7659211247</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="C173" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="D173" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="E173" t="n">
+        <v>75.59</v>
+      </c>
+      <c r="F173" t="n">
+        <v>32118.6742</v>
+      </c>
+      <c r="G173" t="n">
+        <v>545911.4401211247</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>75.88</v>
+      </c>
+      <c r="C174" t="n">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="D174" t="n">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="E174" t="n">
+        <v>75.88</v>
+      </c>
+      <c r="F174" t="n">
+        <v>153837.8859526316</v>
+      </c>
+      <c r="G174" t="n">
+        <v>699749.3260737563</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>76.29000000000001</v>
+      </c>
+      <c r="C175" t="n">
+        <v>76.64</v>
+      </c>
+      <c r="D175" t="n">
+        <v>76.64</v>
+      </c>
+      <c r="E175" t="n">
+        <v>75.20999999999999</v>
+      </c>
+      <c r="F175" t="n">
+        <v>15562.4693</v>
+      </c>
+      <c r="G175" t="n">
+        <v>715311.7953737563</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>76.65000000000001</v>
+      </c>
+      <c r="C176" t="n">
+        <v>78.97</v>
+      </c>
+      <c r="D176" t="n">
+        <v>79</v>
+      </c>
+      <c r="E176" t="n">
+        <v>76.64</v>
+      </c>
+      <c r="F176" t="n">
+        <v>168816.158</v>
+      </c>
+      <c r="G176" t="n">
+        <v>884127.9533737563</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>77.63</v>
+      </c>
+      <c r="C177" t="n">
+        <v>77.73</v>
+      </c>
+      <c r="D177" t="n">
+        <v>77.73999999999999</v>
+      </c>
+      <c r="E177" t="n">
+        <v>76.67</v>
+      </c>
+      <c r="F177" t="n">
+        <v>84366.03230000001</v>
+      </c>
+      <c r="G177" t="n">
+        <v>799761.9210737563</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>77.73</v>
+      </c>
+      <c r="C178" t="n">
+        <v>78.89</v>
+      </c>
+      <c r="D178" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="E178" t="n">
+        <v>76.86</v>
+      </c>
+      <c r="F178" t="n">
+        <v>145545.7771748314</v>
+      </c>
+      <c r="G178" t="n">
+        <v>945307.6982485877</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>77.81</v>
+      </c>
+      <c r="C179" t="n">
+        <v>75.94</v>
+      </c>
+      <c r="D179" t="n">
+        <v>77.81</v>
+      </c>
+      <c r="E179" t="n">
+        <v>75.94</v>
+      </c>
+      <c r="F179" t="n">
+        <v>16261.1821</v>
+      </c>
+      <c r="G179" t="n">
+        <v>929046.5161485877</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>77.33</v>
+      </c>
+      <c r="C180" t="n">
+        <v>78.89</v>
+      </c>
+      <c r="D180" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="E180" t="n">
+        <v>76.01000000000001</v>
+      </c>
+      <c r="F180" t="n">
+        <v>82064.0852</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1011110.601348588</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>78.11</v>
+      </c>
+      <c r="C181" t="n">
+        <v>77.45</v>
+      </c>
+      <c r="D181" t="n">
+        <v>78.39</v>
+      </c>
+      <c r="E181" t="n">
+        <v>77.34</v>
+      </c>
+      <c r="F181" t="n">
+        <v>37986.9516</v>
+      </c>
+      <c r="G181" t="n">
+        <v>973123.6497485876</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="D182" t="n">
+        <v>79.31</v>
+      </c>
+      <c r="E182" t="n">
+        <v>78</v>
+      </c>
+      <c r="F182" t="n">
+        <v>136018.2922753911</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1109141.942023979</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>78.98999999999999</v>
+      </c>
+      <c r="C183" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="D183" t="n">
+        <v>79.19</v>
+      </c>
+      <c r="E183" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F183" t="n">
+        <v>36986.1415</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1072155.800523979</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>70.89</v>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1.107991959373678</v>
+      </c>
+      <c r="N183" t="n">
+        <v>1.030009955909543</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="C184" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="D184" t="n">
+        <v>79.3</v>
+      </c>
+      <c r="E184" t="n">
+        <v>78.12</v>
+      </c>
+      <c r="F184" t="n">
+        <v>65505.55802749054</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1137661.358551469</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="C185" t="n">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="D185" t="n">
+        <v>79.59999999999999</v>
+      </c>
+      <c r="E185" t="n">
+        <v>79</v>
+      </c>
+      <c r="F185" t="n">
+        <v>45741.33402321298</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1183402.692574682</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>79.38</v>
+      </c>
+      <c r="C186" t="n">
+        <v>78.52</v>
+      </c>
+      <c r="D186" t="n">
+        <v>79.38</v>
+      </c>
+      <c r="E186" t="n">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="F186" t="n">
+        <v>44918.1907</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1138484.501874682</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>78.37</v>
+      </c>
+      <c r="C187" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="D187" t="n">
+        <v>79.06999999999999</v>
+      </c>
+      <c r="E187" t="n">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="F187" t="n">
+        <v>79908.42329999999</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1058576.078574683</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>1</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>78.09999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>78.28</v>
+      </c>
+      <c r="D188" t="n">
+        <v>78.28</v>
+      </c>
+      <c r="E188" t="n">
+        <v>77.34999999999999</v>
+      </c>
+      <c r="F188" t="n">
+        <v>77091.11780000001</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1135667.196374683</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>78.05</v>
+      </c>
+      <c r="C189" t="n">
+        <v>79.16</v>
+      </c>
+      <c r="D189" t="n">
+        <v>79.26000000000001</v>
+      </c>
+      <c r="E189" t="n">
+        <v>76.63</v>
+      </c>
+      <c r="F189" t="n">
+        <v>67209.80839999999</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1202877.004774683</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>1</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="C190" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="D190" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="E190" t="n">
+        <v>77.53</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2407.4164839417</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1200469.588290741</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>77.41</v>
+      </c>
+      <c r="C191" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="D191" t="n">
+        <v>77.41</v>
+      </c>
+      <c r="E191" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="F191" t="n">
+        <v>803.73368990312</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1199665.854600838</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>76.87</v>
+      </c>
+      <c r="C192" t="n">
+        <v>76.31</v>
+      </c>
+      <c r="D192" t="n">
+        <v>76.87</v>
+      </c>
+      <c r="E192" t="n">
+        <v>76.31</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1735.3487</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1197930.505900838</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>76.05</v>
+      </c>
+      <c r="C193" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="D193" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="E193" t="n">
+        <v>74.33</v>
+      </c>
+      <c r="F193" t="n">
+        <v>185691.8218</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1012238.684100838</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="C194" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>76.06</v>
+      </c>
+      <c r="E194" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>38926.6884</v>
+      </c>
+      <c r="G194" t="n">
+        <v>973311.9957008379</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>75.29000000000001</v>
+      </c>
+      <c r="C195" t="n">
+        <v>75.39</v>
+      </c>
+      <c r="D195" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="E195" t="n">
+        <v>74.72</v>
+      </c>
+      <c r="F195" t="n">
+        <v>95585.317</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1068897.312700838</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>75.64</v>
+      </c>
+      <c r="C196" t="n">
+        <v>76.08</v>
+      </c>
+      <c r="D196" t="n">
+        <v>76.08</v>
+      </c>
+      <c r="E196" t="n">
+        <v>75.64</v>
+      </c>
+      <c r="F196" t="n">
+        <v>7424.4357</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1076321.748400838</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="C197" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="D197" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="E197" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="F197" t="n">
+        <v>10809.6887</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1065512.059700838</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="C198" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="D198" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="E198" t="n">
+        <v>74.98</v>
+      </c>
+      <c r="F198" t="n">
+        <v>573.874</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1066085.933700838</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="C199" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="D199" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="E199" t="n">
+        <v>75.36</v>
+      </c>
+      <c r="F199" t="n">
+        <v>6631.4575</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1066085.933700838</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
         <v>75.73</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C200" t="n">
         <v>76.33</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D200" t="n">
         <v>76.33</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E200" t="n">
         <v>75.70999999999999</v>
       </c>
-      <c r="F129" t="n">
+      <c r="F200" t="n">
         <v>48046.1351</v>
       </c>
-      <c r="G129" t="n">
+      <c r="G200" t="n">
         <v>1114132.068800838</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-19 BackTest ELF.xlsx
+++ b/BackTest/2020-01-19 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N200"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>443356.432143659</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,18 +484,21 @@
         <v>450468.3968436591</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>71.98999999999999</v>
       </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +525,17 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +562,17 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +599,17 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +636,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +673,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +710,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +747,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +784,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,22 +819,19 @@
         <v>462124.6977436591</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="K12" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -858,22 +858,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,22 +895,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -942,16 +932,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,16 +969,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1014,16 +1006,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1048,22 +1041,19 @@
         <v>462235.024943659</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="K18" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1090,22 +1080,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1130,26 +1115,19 @@
         <v>462235.024943659</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>70.97</v>
-      </c>
-      <c r="K20" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1176,22 +1154,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1218,22 +1191,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1260,22 +1228,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1302,22 +1265,17 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1344,22 +1302,17 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1386,22 +1339,17 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1428,22 +1376,17 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1470,22 +1413,17 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1512,22 +1450,17 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1554,22 +1487,17 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1596,22 +1524,17 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1638,22 +1561,17 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1680,22 +1598,17 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1722,22 +1635,17 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1764,22 +1672,17 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1806,22 +1709,17 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1848,22 +1746,17 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1890,22 +1783,17 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1932,22 +1820,17 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1974,22 +1857,17 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2016,22 +1894,17 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2058,22 +1931,17 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2100,22 +1968,17 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2142,22 +2005,17 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2184,22 +2042,17 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2226,22 +2079,17 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2268,22 +2116,17 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2310,22 +2153,17 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2352,22 +2190,17 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2394,22 +2227,17 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2436,22 +2264,17 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2478,22 +2301,17 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2520,22 +2338,17 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2562,22 +2375,17 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2604,22 +2412,17 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2646,22 +2449,17 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2688,22 +2486,17 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2730,22 +2523,17 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2772,22 +2560,17 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2814,22 +2597,17 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2856,22 +2634,17 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2898,22 +2671,17 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2940,22 +2708,17 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2982,22 +2745,17 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3022,24 +2780,21 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>68.18000000000001</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3064,26 +2819,21 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="n">
         <v>68</v>
       </c>
-      <c r="K66" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3108,26 +2858,21 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
         <v>68</v>
       </c>
-      <c r="K67" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3152,26 +2897,21 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="n">
         <v>68</v>
       </c>
-      <c r="K68" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3196,24 +2936,21 @@
         <v>247407.2764532532</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3238,26 +2975,21 @@
         <v>227650.0626532532</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="K70" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3282,26 +3014,21 @@
         <v>230710.4845532532</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="n">
         <v>67.01000000000001</v>
       </c>
-      <c r="K71" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3326,24 +3053,21 @@
         <v>231924.7205532532</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3368,24 +3092,21 @@
         <v>208924.7205532532</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>67.91</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3410,26 +3131,19 @@
         <v>211495.7205532532</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="K74" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3454,26 +3168,19 @@
         <v>211495.7205532532</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="K75" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3498,26 +3205,21 @@
         <v>234495.7205532532</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="K76" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3542,26 +3244,21 @@
         <v>235687.3880532532</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
         <v>67.45999999999999</v>
       </c>
-      <c r="K77" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3586,26 +3283,21 @@
         <v>232256.1141532532</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
         <v>67.89</v>
       </c>
-      <c r="K78" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3630,26 +3322,21 @@
         <v>274697.3003532531</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="K79" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3674,26 +3361,21 @@
         <v>289403.7358358881</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="n">
         <v>67.43000000000001</v>
       </c>
-      <c r="K80" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3718,26 +3400,21 @@
         <v>286978.4845358881</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="K81" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3762,26 +3439,21 @@
         <v>280661.1896358881</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="n">
         <v>67.98</v>
       </c>
-      <c r="K82" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3806,26 +3478,21 @@
         <v>275075.0357358881</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
         <v>67.5</v>
       </c>
-      <c r="K83" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3850,26 +3517,21 @@
         <v>278875.0357358881</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
         <v>67.36</v>
       </c>
-      <c r="K84" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3894,26 +3556,21 @@
         <v>280190.8116358881</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="n">
         <v>68</v>
       </c>
-      <c r="K85" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3938,26 +3595,21 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="K86" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3982,26 +3634,19 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="K87" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4026,26 +3671,21 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="n">
         <v>68.02</v>
       </c>
-      <c r="K88" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4070,26 +3710,21 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="n">
         <v>68.02</v>
       </c>
-      <c r="K89" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4114,26 +3749,19 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="K90" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4158,26 +3786,21 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
         <v>68.02</v>
       </c>
-      <c r="K91" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4202,26 +3825,21 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="K92" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4246,26 +3864,21 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="K93" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4290,26 +3903,21 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="K94" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4334,26 +3942,21 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="K95" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4378,26 +3981,21 @@
         <v>266363.9929358881</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="K96" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4422,26 +4020,21 @@
         <v>266363.9929358881</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="n">
         <v>68.38</v>
       </c>
-      <c r="K97" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4466,26 +4059,21 @@
         <v>276063.9929358881</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="n">
         <v>68.38</v>
       </c>
-      <c r="K98" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4510,26 +4098,21 @@
         <v>277193.9487358881</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="n">
         <v>68.62</v>
       </c>
-      <c r="K99" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4554,26 +4137,21 @@
         <v>292181.3825358881</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="n">
         <v>68.64</v>
       </c>
-      <c r="K100" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4598,26 +4176,21 @@
         <v>297005.1660358881</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="n">
         <v>69.18000000000001</v>
       </c>
-      <c r="K101" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4642,26 +4215,21 @@
         <v>289208.9704358882</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="n">
         <v>69.31999999999999</v>
       </c>
-      <c r="K102" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4686,26 +4254,21 @@
         <v>289208.9704358882</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
         <v>69.3</v>
       </c>
-      <c r="K103" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4730,24 +4293,21 @@
         <v>295665.7410358881</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>69.3</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4772,24 +4332,21 @@
         <v>302276.4876358882</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>69.31999999999999</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4816,22 +4373,17 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4858,22 +4410,17 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4900,22 +4447,17 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4940,26 +4482,21 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
         <v>69.06</v>
       </c>
-      <c r="K109" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4984,26 +4521,21 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
         <v>69.06</v>
       </c>
-      <c r="K110" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -5028,26 +4560,21 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
         <v>69.06</v>
       </c>
-      <c r="K111" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5072,24 +4599,21 @@
         <v>294196.2016358882</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>69.06</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5114,26 +4638,21 @@
         <v>293904.1394358882</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
         <v>69</v>
       </c>
-      <c r="K113" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5158,26 +4677,21 @@
         <v>293078.5004358882</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="K114" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5202,26 +4716,21 @@
         <v>299216.3004358882</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="n">
         <v>68.8</v>
       </c>
-      <c r="K115" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5246,26 +4755,21 @@
         <v>299514.5884358882</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="K116" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5290,24 +4794,21 @@
         <v>335805.3252358882</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>70.2</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5334,22 +4835,17 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5374,24 +4870,21 @@
         <v>372915.0444358882</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>70.8</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5416,24 +4909,21 @@
         <v>593201.7351358882</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5460,22 +4950,17 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5502,22 +4987,17 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5544,22 +5024,17 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5586,22 +5061,17 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5628,22 +5098,17 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5670,22 +5135,17 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5712,22 +5172,17 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5754,22 +5209,17 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5796,22 +5246,17 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5838,22 +5283,17 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5880,22 +5320,17 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5922,22 +5357,17 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5964,22 +5394,17 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -6006,22 +5431,17 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -6048,22 +5468,17 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6090,22 +5505,17 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6132,22 +5542,17 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6174,22 +5579,17 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6216,22 +5616,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6258,22 +5653,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6300,22 +5690,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6342,22 +5727,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6384,22 +5764,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6426,22 +5801,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6468,22 +5838,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6510,22 +5875,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6552,22 +5912,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6594,22 +5949,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6636,22 +5986,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6678,22 +6023,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6720,22 +6060,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6762,22 +6097,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6804,22 +6134,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6846,22 +6171,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6888,22 +6208,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6930,22 +6245,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6972,22 +6282,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -7014,22 +6319,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -7056,22 +6356,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -7098,22 +6393,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -7140,22 +6430,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -7182,22 +6467,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7224,22 +6504,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7266,22 +6541,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7308,22 +6578,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7350,22 +6615,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7392,22 +6652,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7434,22 +6689,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7476,22 +6726,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7518,22 +6763,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7560,22 +6800,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7602,22 +6837,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7642,24 +6872,17 @@
         <v>545911.4401211247</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7684,24 +6907,15 @@
         <v>699749.3260737563</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7726,24 +6940,15 @@
         <v>715311.7953737563</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7768,24 +6973,15 @@
         <v>884127.9533737563</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7810,24 +7006,15 @@
         <v>799761.9210737563</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7852,24 +7039,15 @@
         <v>945307.6982485877</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7894,24 +7072,15 @@
         <v>929046.5161485877</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7936,24 +7105,15 @@
         <v>1011110.601348588</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7978,24 +7138,15 @@
         <v>973123.6497485876</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -8020,24 +7171,15 @@
         <v>1109141.942023979</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8064,24 +7206,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>1</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>70.89</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1.107991959373678</v>
-      </c>
-      <c r="N183" t="n">
-        <v>1.030009955909543</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8108,16 +7239,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>1</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -8144,16 +7272,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>1</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8178,18 +7303,15 @@
         <v>1138484.501874682</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -8214,18 +7336,15 @@
         <v>1058576.078574683</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -8252,16 +7371,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>1</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -8288,16 +7404,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>1</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -8322,18 +7435,15 @@
         <v>1200469.588290741</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -8358,18 +7468,15 @@
         <v>1199665.854600838</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -8394,18 +7501,15 @@
         <v>1197930.505900838</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -8430,18 +7534,15 @@
         <v>1012238.684100838</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -8466,18 +7567,15 @@
         <v>973311.9957008379</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -8502,18 +7600,15 @@
         <v>1068897.312700838</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -8538,18 +7633,15 @@
         <v>1076321.748400838</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -8574,18 +7666,15 @@
         <v>1065512.059700838</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8610,18 +7699,15 @@
         <v>1066085.933700838</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8648,16 +7734,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8682,20 +7765,17 @@
         <v>1114132.068800838</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ELF.xlsx
+++ b/BackTest/2020-01-19 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>443356.432143659</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>450468.3968436591</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>71.98999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -527,11 +521,7 @@
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -564,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -638,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -675,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -712,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -749,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -786,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -823,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -860,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1082,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1119,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1156,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1193,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1230,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1267,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1304,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1341,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1378,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1415,11 +1313,7 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1452,11 +1346,7 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1489,11 +1379,7 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1526,11 +1412,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1563,11 +1445,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1600,11 +1478,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1637,11 +1511,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1674,11 +1544,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1711,11 +1577,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1748,11 +1610,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1785,11 +1643,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1822,11 +1676,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1859,11 +1709,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1896,11 +1742,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1933,11 +1775,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1970,11 +1808,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2007,11 +1841,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2044,11 +1874,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2081,11 +1907,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2118,11 +1940,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2155,11 +1973,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2192,11 +2006,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2229,11 +2039,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2072,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2303,11 +2105,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2340,11 +2138,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2377,11 +2171,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2414,11 +2204,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2451,11 +2237,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2488,11 +2270,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2525,11 +2303,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2562,11 +2336,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2599,11 +2369,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2636,11 +2402,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2673,11 +2435,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2706,13 +2464,15 @@
         <v>252464.2971532532</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>69</v>
+      </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2780,7 +2540,7 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>68.18000000000001</v>
@@ -2819,7 +2579,7 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>68</v>
@@ -2858,7 +2618,7 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>68</v>
@@ -2897,7 +2657,7 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>68</v>
@@ -2936,11 +2696,9 @@
         <v>247407.2764532532</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>68</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
@@ -2975,11 +2733,9 @@
         <v>227650.0626532532</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>68.01000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
@@ -3014,7 +2770,7 @@
         <v>230710.4845532532</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>67.01000000000001</v>
@@ -3053,7 +2809,7 @@
         <v>231924.7205532532</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>67.90000000000001</v>
@@ -3092,7 +2848,7 @@
         <v>208924.7205532532</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>67.91</v>
@@ -3131,9 +2887,11 @@
         <v>211495.7205532532</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>67.37</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -3168,9 +2926,11 @@
         <v>211495.7205532532</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>67.40000000000001</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -3205,7 +2965,7 @@
         <v>234495.7205532532</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>67.40000000000001</v>
@@ -3244,7 +3004,7 @@
         <v>235687.3880532532</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>67.45999999999999</v>
@@ -3283,7 +3043,7 @@
         <v>232256.1141532532</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>67.89</v>
@@ -3322,7 +3082,7 @@
         <v>274697.3003532531</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>67.09999999999999</v>
@@ -3361,7 +3121,7 @@
         <v>289403.7358358881</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>67.43000000000001</v>
@@ -3400,7 +3160,7 @@
         <v>286978.4845358881</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>68.01000000000001</v>
@@ -3439,7 +3199,7 @@
         <v>280661.1896358881</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>67.98</v>
@@ -3478,7 +3238,7 @@
         <v>275075.0357358881</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>67.5</v>
@@ -3517,7 +3277,7 @@
         <v>278875.0357358881</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>67.36</v>
@@ -3556,7 +3316,7 @@
         <v>280190.8116358881</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>68</v>
@@ -3595,7 +3355,7 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>68.09999999999999</v>
@@ -3634,9 +3394,11 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>68.02</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3671,7 +3433,7 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>68.02</v>
@@ -3710,7 +3472,7 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>68.02</v>
@@ -3749,9 +3511,11 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>68.02</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3786,7 +3550,7 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>68.02</v>
@@ -3825,7 +3589,7 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>68.01000000000001</v>
@@ -3864,7 +3628,7 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>68.01000000000001</v>
@@ -3903,11 +3667,9 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
-      </c>
-      <c r="I94" t="n">
-        <v>68.01000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3942,11 +3704,9 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
-      </c>
-      <c r="I95" t="n">
-        <v>68.01000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3981,7 +3741,7 @@
         <v>266363.9929358881</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>68.01000000000001</v>
@@ -4020,11 +3780,9 @@
         <v>266363.9929358881</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
-      </c>
-      <c r="I97" t="n">
-        <v>68.38</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -4059,7 +3817,7 @@
         <v>276063.9929358881</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>68.38</v>
@@ -4098,11 +3856,9 @@
         <v>277193.9487358881</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>68.62</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
@@ -4137,11 +3893,9 @@
         <v>292181.3825358881</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>68.64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4176,11 +3930,9 @@
         <v>297005.1660358881</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>69.18000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4215,11 +3967,9 @@
         <v>289208.9704358882</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>69.31999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4254,11 +4004,9 @@
         <v>289208.9704358882</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>69.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4293,11 +4041,9 @@
         <v>295665.7410358881</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
-      </c>
-      <c r="I104" t="n">
-        <v>69.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
@@ -4332,11 +4078,9 @@
         <v>302276.4876358882</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
-      </c>
-      <c r="I105" t="n">
-        <v>69.31999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
@@ -4482,11 +4226,9 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
-      </c>
-      <c r="I109" t="n">
-        <v>69.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
@@ -4521,11 +4263,9 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>69.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
@@ -4560,11 +4300,9 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>69.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
@@ -4599,11 +4337,9 @@
         <v>294196.2016358882</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>69.06</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
@@ -4638,11 +4374,9 @@
         <v>293904.1394358882</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>69</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
@@ -4677,11 +4411,9 @@
         <v>293078.5004358882</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
-      </c>
-      <c r="I114" t="n">
-        <v>68.90000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
@@ -4716,11 +4448,9 @@
         <v>299216.3004358882</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
-      </c>
-      <c r="I115" t="n">
-        <v>68.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
@@ -4755,11 +4485,9 @@
         <v>299514.5884358882</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
-      </c>
-      <c r="I116" t="n">
-        <v>69.59999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
@@ -4794,11 +4522,9 @@
         <v>335805.3252358882</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
-      </c>
-      <c r="I117" t="n">
-        <v>70.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
@@ -4870,11 +4596,9 @@
         <v>372915.0444358882</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
-      </c>
-      <c r="I119" t="n">
-        <v>70.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
@@ -4909,11 +4633,9 @@
         <v>593201.7351358882</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
-      </c>
-      <c r="I120" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
@@ -6872,16 +6594,18 @@
         <v>545911.4401211247</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L173" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
       <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
@@ -6907,11 +6631,15 @@
         <v>699749.3260737563</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6940,11 +6668,15 @@
         <v>715311.7953737563</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6973,11 +6705,15 @@
         <v>884127.9533737563</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7006,11 +6742,15 @@
         <v>799761.9210737563</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7039,11 +6779,15 @@
         <v>945307.6982485877</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7072,11 +6816,15 @@
         <v>929046.5161485877</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7105,11 +6853,15 @@
         <v>1011110.601348588</v>
       </c>
       <c r="H180" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7138,11 +6890,15 @@
         <v>973123.6497485876</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7171,11 +6927,15 @@
         <v>1109141.942023979</v>
       </c>
       <c r="H182" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7208,7 +6968,11 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7241,7 +7005,11 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7274,7 +7042,11 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7303,11 +7075,15 @@
         <v>1138484.501874682</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7336,11 +7112,15 @@
         <v>1058576.078574683</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7369,14 +7149,16 @@
         <v>1135667.196374683</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -7402,7 +7184,7 @@
         <v>1202877.004774683</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7435,7 +7217,7 @@
         <v>1200469.588290741</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7468,7 +7250,7 @@
         <v>1199665.854600838</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7501,7 +7283,7 @@
         <v>1197930.505900838</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7534,7 +7316,7 @@
         <v>1012238.684100838</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7567,7 +7349,7 @@
         <v>973311.9957008379</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7600,7 +7382,7 @@
         <v>1068897.312700838</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7633,7 +7415,7 @@
         <v>1076321.748400838</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7666,7 +7448,7 @@
         <v>1065512.059700838</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7699,7 +7481,7 @@
         <v>1066085.933700838</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7732,7 +7514,7 @@
         <v>1066085.933700838</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7765,7 +7547,7 @@
         <v>1114132.068800838</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7776,6 +7558,6 @@
       <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ELF.xlsx
+++ b/BackTest/2020-01-19 BackTest ELF.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2035,10 +2035,14 @@
         <v>429507.8199532532</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="J50" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
@@ -2068,11 +2072,19 @@
         <v>427123.8113532532</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="J51" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2113,19 @@
         <v>427861.7591532532</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>68.69</v>
+      </c>
+      <c r="J52" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2154,19 @@
         <v>427861.7591532532</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="J53" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2195,19 @@
         <v>277519.5204532532</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>68.7</v>
+      </c>
+      <c r="J54" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2239,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2275,19 @@
         <v>262632.8247532532</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>69</v>
+      </c>
+      <c r="J56" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2316,19 @@
         <v>263334.0350532532</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>68.66</v>
+      </c>
+      <c r="J57" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2357,19 @@
         <v>268061.2250532532</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>69.19</v>
+      </c>
+      <c r="J58" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2401,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2440,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2479,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2518,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>68.89</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,15 +2554,15 @@
         <v>252464.2971532532</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>69</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L63" t="n">
@@ -2506,7 +2596,9 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2545,7 +2637,9 @@
       <c r="I65" t="n">
         <v>68.18000000000001</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2584,7 +2678,9 @@
       <c r="I66" t="n">
         <v>68</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2623,7 +2719,9 @@
       <c r="I67" t="n">
         <v>68</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2657,12 +2755,12 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>68</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2699,7 +2797,9 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2733,10 +2833,14 @@
         <v>227650.0626532532</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="J70" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2775,7 +2879,9 @@
       <c r="I71" t="n">
         <v>67.01000000000001</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2814,7 +2920,9 @@
       <c r="I72" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2853,7 +2961,9 @@
       <c r="I73" t="n">
         <v>67.91</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2892,7 +3002,9 @@
       <c r="I74" t="n">
         <v>67.37</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2931,7 +3043,9 @@
       <c r="I75" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,7 +3084,9 @@
       <c r="I76" t="n">
         <v>67.40000000000001</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3009,7 +3125,9 @@
       <c r="I77" t="n">
         <v>67.45999999999999</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3048,7 +3166,9 @@
       <c r="I78" t="n">
         <v>67.89</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3087,7 +3207,9 @@
       <c r="I79" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3126,7 +3248,9 @@
       <c r="I80" t="n">
         <v>67.43000000000001</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3165,7 +3289,9 @@
       <c r="I81" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3204,7 +3330,9 @@
       <c r="I82" t="n">
         <v>67.98</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3243,7 +3371,9 @@
       <c r="I83" t="n">
         <v>67.5</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3282,7 +3412,9 @@
       <c r="I84" t="n">
         <v>67.36</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3321,7 +3453,9 @@
       <c r="I85" t="n">
         <v>68</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3360,7 +3494,9 @@
       <c r="I86" t="n">
         <v>68.09999999999999</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3399,7 +3535,9 @@
       <c r="I87" t="n">
         <v>68.02</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3438,7 +3576,9 @@
       <c r="I88" t="n">
         <v>68.02</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3477,7 +3617,9 @@
       <c r="I89" t="n">
         <v>68.02</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3516,7 +3658,9 @@
       <c r="I90" t="n">
         <v>68.02</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3555,7 +3699,9 @@
       <c r="I91" t="n">
         <v>68.02</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3594,7 +3740,9 @@
       <c r="I92" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3633,7 +3781,9 @@
       <c r="I93" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,10 +3817,14 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="J94" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3704,10 +3858,14 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>68.01000000000001</v>
+      </c>
+      <c r="J95" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3746,7 +3904,9 @@
       <c r="I96" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3780,10 +3940,14 @@
         <v>266363.9929358881</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>68.38</v>
+      </c>
+      <c r="J97" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3822,7 +3986,9 @@
       <c r="I98" t="n">
         <v>68.38</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3856,10 +4022,14 @@
         <v>277193.9487358881</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>68.62</v>
+      </c>
+      <c r="J99" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3893,10 +4063,14 @@
         <v>292181.3825358881</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>68.64</v>
+      </c>
+      <c r="J100" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3930,10 +4104,14 @@
         <v>297005.1660358881</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>69.18000000000001</v>
+      </c>
+      <c r="J101" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3967,10 +4145,14 @@
         <v>289208.9704358882</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I102" t="n">
+        <v>69.31999999999999</v>
+      </c>
+      <c r="J102" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4007,7 +4189,9 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4041,10 +4225,14 @@
         <v>295665.7410358881</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4081,7 +4269,9 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4115,10 +4305,14 @@
         <v>302574.7756358882</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>69.34</v>
+      </c>
+      <c r="J106" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4152,10 +4346,14 @@
         <v>296342.2883358882</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="J107" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4189,10 +4387,14 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="J108" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4226,10 +4428,14 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="J109" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4263,10 +4469,14 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="J110" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4300,10 +4510,14 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="J111" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4337,10 +4551,14 @@
         <v>294196.2016358882</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>69.06</v>
+      </c>
+      <c r="J112" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4374,10 +4592,14 @@
         <v>293904.1394358882</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>69</v>
+      </c>
+      <c r="J113" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4411,10 +4633,14 @@
         <v>293078.5004358882</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>68.90000000000001</v>
+      </c>
+      <c r="J114" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4448,10 +4674,14 @@
         <v>299216.3004358882</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="J115" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4485,10 +4715,14 @@
         <v>299514.5884358882</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="J116" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4522,10 +4756,14 @@
         <v>335805.3252358882</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4562,7 +4800,9 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4599,7 +4839,9 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4636,7 +4878,9 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4673,7 +4917,9 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4707,19 +4953,23 @@
         <v>768865.6263358882</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>68.89</v>
+      </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>1.060176368123095</v>
+      </c>
+      <c r="M122" t="n">
+        <v>1.051241109014371</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4744,15 +4994,11 @@
         <v>824025.3539358882</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4781,15 +5027,11 @@
         <v>752885.2700624029</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4818,15 +5060,11 @@
         <v>695876.8884358882</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4855,15 +5093,11 @@
         <v>695885.8884358882</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4892,15 +5126,11 @@
         <v>695858.8884358882</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4929,15 +5159,11 @@
         <v>701385.6488358882</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4966,15 +5192,11 @@
         <v>716586.5852358883</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5003,15 +5225,11 @@
         <v>608955.6001358882</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5040,15 +5258,11 @@
         <v>622383.8034946099</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5077,15 +5291,11 @@
         <v>589500.2855946099</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5114,15 +5324,11 @@
         <v>571979.80729461</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5151,15 +5357,11 @@
         <v>561402.80439461</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5188,15 +5390,11 @@
         <v>468417.6790211247</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5229,11 +5427,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5266,11 +5460,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5303,11 +5493,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5340,11 +5526,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5373,15 +5555,11 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5410,15 +5588,11 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5447,15 +5621,11 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5484,15 +5654,11 @@
         <v>476387.1322211247</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5521,15 +5687,11 @@
         <v>476387.1322211247</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5558,15 +5720,11 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5595,15 +5753,11 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5632,15 +5786,11 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5669,15 +5819,11 @@
         <v>440438.0241211247</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5706,15 +5852,11 @@
         <v>440460.8097211247</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5743,15 +5885,11 @@
         <v>437057.3170211247</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5780,15 +5918,11 @@
         <v>437079.8394211247</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5817,15 +5951,11 @@
         <v>435999.8394211247</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5854,15 +5984,11 @@
         <v>419712.0707211247</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5895,11 +6021,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5932,11 +6054,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5965,15 +6083,11 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6002,15 +6116,11 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6039,15 +6149,11 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6076,15 +6182,11 @@
         <v>494395.1346211247</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6113,15 +6215,11 @@
         <v>491395.1346211247</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6150,15 +6248,11 @@
         <v>491395.3373211247</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6187,15 +6281,11 @@
         <v>498054.4453211247</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6224,15 +6314,11 @@
         <v>466397.1902211247</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6261,15 +6347,11 @@
         <v>452875.5159211247</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6302,11 +6384,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6339,11 +6417,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6376,11 +6450,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6413,11 +6483,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6450,11 +6516,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6487,11 +6549,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6524,11 +6582,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6561,11 +6615,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6598,11 +6648,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6635,11 +6681,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6672,11 +6714,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6709,11 +6747,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6746,11 +6780,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6783,11 +6813,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +6846,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6857,11 +6879,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6894,11 +6912,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6931,11 +6945,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6968,11 +6978,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7005,11 +7011,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7042,11 +7044,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7079,11 +7077,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7116,11 +7110,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7149,16 +7139,14 @@
         <v>1135667.196374683</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
       <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
@@ -7184,7 +7172,7 @@
         <v>1202877.004774683</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7217,7 +7205,7 @@
         <v>1200469.588290741</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7250,7 +7238,7 @@
         <v>1199665.854600838</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7283,7 +7271,7 @@
         <v>1197930.505900838</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7316,7 +7304,7 @@
         <v>1012238.684100838</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7349,7 +7337,7 @@
         <v>973311.9957008379</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7382,7 +7370,7 @@
         <v>1068897.312700838</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7415,7 +7403,7 @@
         <v>1076321.748400838</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7448,7 +7436,7 @@
         <v>1065512.059700838</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7481,7 +7469,7 @@
         <v>1066085.933700838</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7514,7 +7502,7 @@
         <v>1066085.933700838</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7547,7 +7535,7 @@
         <v>1114132.068800838</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7558,6 +7546,6 @@
       <c r="M200" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest ELF.xlsx
+++ b/BackTest/2020-01-19 BackTest ELF.xlsx
@@ -451,7 +451,7 @@
         <v>443356.432143659</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,11 +484,17 @@
         <v>450468.3968436591</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>71.98999999999999</v>
+      </c>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -517,11 +523,17 @@
         <v>475310.5674436591</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>72.09999999999999</v>
+      </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,17 @@
         <v>471091.645343659</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>72.15000000000001</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +601,17 @@
         <v>471091.645343659</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>71.98999999999999</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +640,17 @@
         <v>467932.4152436591</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>71.98999999999999</v>
+      </c>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +679,17 @@
         <v>468190.359643659</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>71.06999999999999</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +718,17 @@
         <v>462979.758243659</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>71.79000000000001</v>
+      </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -719,7 +761,11 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +794,17 @@
         <v>461677.1575436591</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>71</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -785,7 +837,11 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -818,7 +874,11 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -851,7 +911,11 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -884,7 +948,11 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -917,7 +985,11 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -950,7 +1022,11 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -983,7 +1059,11 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1016,7 +1096,11 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1049,7 +1133,11 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1082,7 +1170,11 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1115,7 +1207,11 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1148,7 +1244,11 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1181,7 +1281,11 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1214,7 +1318,11 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1247,7 +1355,11 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1280,7 +1392,11 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1313,7 +1429,11 @@
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1346,7 +1466,11 @@
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1379,7 +1503,11 @@
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1412,7 +1540,11 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1445,7 +1577,11 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1478,7 +1614,11 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1511,7 +1651,11 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1544,7 +1688,11 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1577,7 +1725,11 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1610,7 +1762,11 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1643,7 +1799,11 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1676,7 +1836,11 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1709,7 +1873,11 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1742,7 +1910,11 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1775,7 +1947,11 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1984,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1841,7 +2021,11 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +2058,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +2095,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +2132,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2169,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2206,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,15 +2239,15 @@
         <v>429507.8199532532</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="J50" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="K50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,17 +2276,13 @@
         <v>427123.8113532532</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>68.89</v>
-      </c>
-      <c r="J51" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L51" t="n">
@@ -2113,14 +2313,10 @@
         <v>427861.7591532532</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>68.69</v>
-      </c>
-      <c r="J52" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2154,14 +2350,10 @@
         <v>427861.7591532532</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="J53" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2195,14 +2387,10 @@
         <v>277519.5204532532</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>68.7</v>
-      </c>
-      <c r="J54" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2239,9 +2427,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2275,14 +2461,10 @@
         <v>262632.8247532532</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>69</v>
-      </c>
-      <c r="J56" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2316,14 +2498,10 @@
         <v>263334.0350532532</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>68.66</v>
-      </c>
-      <c r="J57" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2357,14 +2535,10 @@
         <v>268061.2250532532</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>69.19</v>
-      </c>
-      <c r="J58" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2401,9 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2440,9 +2612,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2479,9 +2649,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2518,9 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2557,9 +2723,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2596,9 +2760,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2632,14 +2794,10 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>68.18000000000001</v>
-      </c>
-      <c r="J65" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2673,14 +2831,10 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>68</v>
-      </c>
-      <c r="J66" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2714,14 +2868,10 @@
         <v>245605.4452532532</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>68</v>
-      </c>
-      <c r="J67" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2758,9 +2908,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2797,9 +2945,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2833,14 +2979,10 @@
         <v>227650.0626532532</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="J70" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2874,14 +3016,10 @@
         <v>230710.4845532532</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>67.01000000000001</v>
-      </c>
-      <c r="J71" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2915,14 +3053,10 @@
         <v>231924.7205532532</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="J72" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2956,14 +3090,10 @@
         <v>208924.7205532532</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>67.91</v>
-      </c>
-      <c r="J73" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2997,14 +3127,10 @@
         <v>211495.7205532532</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>67.37</v>
-      </c>
-      <c r="J74" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3038,14 +3164,10 @@
         <v>211495.7205532532</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="J75" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3079,14 +3201,10 @@
         <v>234495.7205532532</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="J76" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3120,14 +3238,10 @@
         <v>235687.3880532532</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>67.45999999999999</v>
-      </c>
-      <c r="J77" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3161,14 +3275,10 @@
         <v>232256.1141532532</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>67.89</v>
-      </c>
-      <c r="J78" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3202,14 +3312,10 @@
         <v>274697.3003532531</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="J79" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3243,14 +3349,10 @@
         <v>289403.7358358881</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>67.43000000000001</v>
-      </c>
-      <c r="J80" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3284,14 +3386,10 @@
         <v>286978.4845358881</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="J81" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3325,14 +3423,10 @@
         <v>280661.1896358881</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>67.98</v>
-      </c>
-      <c r="J82" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3366,14 +3460,10 @@
         <v>275075.0357358881</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="J83" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3407,14 +3497,10 @@
         <v>278875.0357358881</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>67.36</v>
-      </c>
-      <c r="J84" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3448,14 +3534,10 @@
         <v>280190.8116358881</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>68</v>
-      </c>
-      <c r="J85" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3489,14 +3571,10 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>68.09999999999999</v>
-      </c>
-      <c r="J86" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3530,14 +3608,10 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="J87" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3571,14 +3645,10 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="J88" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3612,14 +3682,10 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="J89" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3653,14 +3719,10 @@
         <v>277777.3902358881</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="J90" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3694,14 +3756,10 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>68.02</v>
-      </c>
-      <c r="J91" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3735,14 +3793,10 @@
         <v>266275.5261358881</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="J92" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3781,9 +3835,7 @@
       <c r="I93" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="J93" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3822,9 +3874,7 @@
       <c r="I94" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="J94" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3863,9 +3913,7 @@
       <c r="I95" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="J95" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3904,9 +3952,7 @@
       <c r="I96" t="n">
         <v>68.01000000000001</v>
       </c>
-      <c r="J96" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3945,9 +3991,7 @@
       <c r="I97" t="n">
         <v>68.38</v>
       </c>
-      <c r="J97" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3986,9 +4030,7 @@
       <c r="I98" t="n">
         <v>68.38</v>
       </c>
-      <c r="J98" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4027,9 +4069,7 @@
       <c r="I99" t="n">
         <v>68.62</v>
       </c>
-      <c r="J99" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4068,9 +4108,7 @@
       <c r="I100" t="n">
         <v>68.64</v>
       </c>
-      <c r="J100" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4109,9 +4147,7 @@
       <c r="I101" t="n">
         <v>69.18000000000001</v>
       </c>
-      <c r="J101" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4150,9 +4186,7 @@
       <c r="I102" t="n">
         <v>69.31999999999999</v>
       </c>
-      <c r="J102" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4186,12 +4220,12 @@
         <v>289208.9704358882</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>68.89</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>69.3</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4225,14 +4259,10 @@
         <v>295665.7410358881</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="J104" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4269,9 +4299,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4305,14 +4333,10 @@
         <v>302574.7756358882</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>69.34</v>
-      </c>
-      <c r="J106" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4346,14 +4370,10 @@
         <v>296342.2883358882</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J107" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4387,14 +4407,10 @@
         <v>295841.3375358882</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>69.5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>68.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4433,9 +4449,7 @@
       <c r="I109" t="n">
         <v>69.06</v>
       </c>
-      <c r="J109" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4474,9 +4488,7 @@
       <c r="I110" t="n">
         <v>69.06</v>
       </c>
-      <c r="J110" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4515,9 +4527,7 @@
       <c r="I111" t="n">
         <v>69.06</v>
       </c>
-      <c r="J111" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4556,9 +4566,7 @@
       <c r="I112" t="n">
         <v>69.06</v>
       </c>
-      <c r="J112" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4597,9 +4605,7 @@
       <c r="I113" t="n">
         <v>69</v>
       </c>
-      <c r="J113" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4638,9 +4644,7 @@
       <c r="I114" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="J114" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4679,9 +4683,7 @@
       <c r="I115" t="n">
         <v>68.8</v>
       </c>
-      <c r="J115" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4720,9 +4722,7 @@
       <c r="I116" t="n">
         <v>69.59999999999999</v>
       </c>
-      <c r="J116" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4761,9 +4761,7 @@
       <c r="I117" t="n">
         <v>70.2</v>
       </c>
-      <c r="J117" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4800,9 +4798,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4839,9 +4835,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4878,9 +4872,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4917,9 +4909,7 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4953,23 +4943,19 @@
         <v>768865.6263358882</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>68.89</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L122" t="n">
-        <v>1.060176368123095</v>
-      </c>
-      <c r="M122" t="n">
-        <v>1.051241109014371</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4994,11 +4980,15 @@
         <v>824025.3539358882</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5027,11 +5017,15 @@
         <v>752885.2700624029</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5060,11 +5054,15 @@
         <v>695876.8884358882</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5093,11 +5091,15 @@
         <v>695885.8884358882</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5126,11 +5128,15 @@
         <v>695858.8884358882</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5159,11 +5165,15 @@
         <v>701385.6488358882</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5192,11 +5202,15 @@
         <v>716586.5852358883</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5225,11 +5239,15 @@
         <v>608955.6001358882</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5258,11 +5276,15 @@
         <v>622383.8034946099</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5291,11 +5313,15 @@
         <v>589500.2855946099</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5324,11 +5350,15 @@
         <v>571979.80729461</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5357,11 +5387,15 @@
         <v>561402.80439461</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5390,11 +5424,15 @@
         <v>468417.6790211247</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5427,7 +5465,11 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5460,7 +5502,11 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5493,7 +5539,11 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5526,7 +5576,11 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5555,11 +5609,15 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5588,11 +5646,15 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5621,11 +5683,15 @@
         <v>476375.9631211247</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5654,11 +5720,15 @@
         <v>476387.1322211247</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5687,11 +5757,15 @@
         <v>476387.1322211247</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5720,11 +5794,15 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5753,11 +5831,15 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5786,11 +5868,15 @@
         <v>448421.4019211247</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5819,11 +5905,15 @@
         <v>440438.0241211247</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5852,11 +5942,15 @@
         <v>440460.8097211247</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5885,11 +5979,15 @@
         <v>437057.3170211247</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5918,11 +6016,15 @@
         <v>437079.8394211247</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5951,11 +6053,15 @@
         <v>435999.8394211247</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5984,11 +6090,15 @@
         <v>419712.0707211247</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6021,7 +6131,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6054,7 +6168,11 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6083,11 +6201,15 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6116,11 +6238,15 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6149,11 +6275,15 @@
         <v>494666.4425211247</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6182,11 +6312,15 @@
         <v>494395.1346211247</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6215,11 +6349,15 @@
         <v>491395.1346211247</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6248,11 +6386,15 @@
         <v>491395.3373211247</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6281,11 +6423,15 @@
         <v>498054.4453211247</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6314,11 +6460,15 @@
         <v>466397.1902211247</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6347,11 +6497,15 @@
         <v>452875.5159211247</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6384,7 +6538,11 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6417,7 +6575,11 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6450,7 +6612,11 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6483,7 +6649,11 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6516,7 +6686,11 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6549,7 +6723,11 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6582,7 +6760,11 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6615,7 +6797,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6648,7 +6834,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6681,7 +6871,11 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6714,7 +6908,11 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6747,7 +6945,11 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6780,7 +6982,11 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6813,7 +7019,11 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6846,7 +7056,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6879,7 +7093,11 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6912,7 +7130,11 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6945,7 +7167,11 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6974,14 +7200,16 @@
         <v>1072155.800523979</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
@@ -7007,7 +7235,7 @@
         <v>1137661.358551469</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7040,7 +7268,7 @@
         <v>1183402.692574682</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7073,7 +7301,7 @@
         <v>1138484.501874682</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7106,7 +7334,7 @@
         <v>1058576.078574683</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7139,7 +7367,7 @@
         <v>1135667.196374683</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7172,7 +7400,7 @@
         <v>1202877.004774683</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7205,7 +7433,7 @@
         <v>1200469.588290741</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7238,7 +7466,7 @@
         <v>1199665.854600838</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7271,7 +7499,7 @@
         <v>1197930.505900838</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7304,7 +7532,7 @@
         <v>1012238.684100838</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7337,7 +7565,7 @@
         <v>973311.9957008379</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7403,7 +7631,7 @@
         <v>1076321.748400838</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7535,7 +7763,7 @@
         <v>1114132.068800838</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>

--- a/BackTest/2020-01-19 BackTest ELF.xlsx
+++ b/BackTest/2020-01-19 BackTest ELF.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M200"/>
+  <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>94484.8858</v>
       </c>
       <c r="G2" t="n">
-        <v>443356.432143659</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,24 +473,15 @@
         <v>7111.9647</v>
       </c>
       <c r="G3" t="n">
-        <v>450468.3968436591</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>71.98999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,24 +503,15 @@
         <v>24842.1706</v>
       </c>
       <c r="G4" t="n">
-        <v>475310.5674436591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>72.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -559,24 +533,15 @@
         <v>4218.9221</v>
       </c>
       <c r="G5" t="n">
-        <v>471091.645343659</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>72.15000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,24 +563,15 @@
         <v>154.6124</v>
       </c>
       <c r="G6" t="n">
-        <v>471091.645343659</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>71.98999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,24 +593,15 @@
         <v>3159.2301</v>
       </c>
       <c r="G7" t="n">
-        <v>467932.4152436591</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>71.98999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -676,24 +623,15 @@
         <v>257.9444</v>
       </c>
       <c r="G8" t="n">
-        <v>468190.359643659</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>71.06999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -715,24 +653,15 @@
         <v>5210.6014</v>
       </c>
       <c r="G9" t="n">
-        <v>462979.758243659</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>71.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -754,22 +683,15 @@
         <v>256.3131</v>
       </c>
       <c r="G10" t="n">
-        <v>463236.0713436591</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -791,24 +713,15 @@
         <v>1558.9138</v>
       </c>
       <c r="G11" t="n">
-        <v>461677.1575436591</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -830,22 +743,15 @@
         <v>447.5402</v>
       </c>
       <c r="G12" t="n">
-        <v>462124.6977436591</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -867,22 +773,15 @@
         <v>85.9423</v>
       </c>
       <c r="G13" t="n">
-        <v>462210.6400436591</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -904,22 +803,15 @@
         <v>152.3375</v>
       </c>
       <c r="G14" t="n">
-        <v>462058.3025436591</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -941,22 +833,15 @@
         <v>38.7864</v>
       </c>
       <c r="G15" t="n">
-        <v>462097.088943659</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -978,22 +863,15 @@
         <v>2987.2016</v>
       </c>
       <c r="G16" t="n">
-        <v>462097.088943659</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1015,22 +893,15 @@
         <v>71.65179999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>462168.740743659</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1052,22 +923,15 @@
         <v>66.2842</v>
       </c>
       <c r="G18" t="n">
-        <v>462235.024943659</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1089,22 +953,15 @@
         <v>39.8281</v>
       </c>
       <c r="G19" t="n">
-        <v>462235.024943659</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1126,22 +983,15 @@
         <v>4237.7172</v>
       </c>
       <c r="G20" t="n">
-        <v>462235.024943659</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1163,22 +1013,15 @@
         <v>994.0094</v>
       </c>
       <c r="G21" t="n">
-        <v>463229.034343659</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1200,22 +1043,15 @@
         <v>1207.169014084507</v>
       </c>
       <c r="G22" t="n">
-        <v>463229.034343659</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1237,22 +1073,15 @@
         <v>1785.233</v>
       </c>
       <c r="G23" t="n">
-        <v>463229.034343659</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1274,22 +1103,15 @@
         <v>1591.8617</v>
       </c>
       <c r="G24" t="n">
-        <v>463229.034343659</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1311,22 +1133,15 @@
         <v>3033.6293</v>
       </c>
       <c r="G25" t="n">
-        <v>463229.034343659</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1348,22 +1163,15 @@
         <v>6645.8709</v>
       </c>
       <c r="G26" t="n">
-        <v>463229.034343659</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1385,22 +1193,15 @@
         <v>50139.6742</v>
       </c>
       <c r="G27" t="n">
-        <v>463229.034343659</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1422,22 +1223,15 @@
         <v>24421.7874</v>
       </c>
       <c r="G28" t="n">
-        <v>463229.034343659</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1459,22 +1253,15 @@
         <v>48.545</v>
       </c>
       <c r="G29" t="n">
-        <v>463180.489343659</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1496,22 +1283,15 @@
         <v>253.4369</v>
       </c>
       <c r="G30" t="n">
-        <v>463433.926243659</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1533,22 +1313,15 @@
         <v>20010.6647095942</v>
       </c>
       <c r="G31" t="n">
-        <v>483444.5909532532</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1570,22 +1343,15 @@
         <v>23678.936</v>
       </c>
       <c r="G32" t="n">
-        <v>507123.5269532532</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1607,22 +1373,15 @@
         <v>5665.9932</v>
       </c>
       <c r="G33" t="n">
-        <v>512789.5201532532</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1644,22 +1403,15 @@
         <v>151.0193</v>
       </c>
       <c r="G34" t="n">
-        <v>512789.5201532532</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1681,22 +1433,15 @@
         <v>5691.5246</v>
       </c>
       <c r="G35" t="n">
-        <v>512789.5201532532</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1718,22 +1463,15 @@
         <v>450.8161</v>
       </c>
       <c r="G36" t="n">
-        <v>512338.7040532532</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1755,22 +1493,15 @@
         <v>9658.2382</v>
       </c>
       <c r="G37" t="n">
-        <v>512338.7040532532</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1792,22 +1523,15 @@
         <v>13099.5007</v>
       </c>
       <c r="G38" t="n">
-        <v>499239.2033532533</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1829,22 +1553,15 @@
         <v>3485.424</v>
       </c>
       <c r="G39" t="n">
-        <v>495753.7793532533</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1866,22 +1583,15 @@
         <v>971.1618999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>494782.6174532532</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1903,22 +1613,15 @@
         <v>4.8453</v>
       </c>
       <c r="G41" t="n">
-        <v>494782.6174532532</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1940,22 +1643,15 @@
         <v>525.88</v>
       </c>
       <c r="G42" t="n">
-        <v>494256.7374532532</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1977,22 +1673,15 @@
         <v>37.0043</v>
       </c>
       <c r="G43" t="n">
-        <v>494293.7417532532</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2014,22 +1703,15 @@
         <v>49250</v>
       </c>
       <c r="G44" t="n">
-        <v>445043.7417532532</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2051,22 +1733,15 @@
         <v>29361.3145</v>
       </c>
       <c r="G45" t="n">
-        <v>445043.7417532532</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2088,22 +1763,15 @@
         <v>197.9794</v>
       </c>
       <c r="G46" t="n">
-        <v>444845.7623532532</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2125,22 +1793,15 @@
         <v>94.25</v>
       </c>
       <c r="G47" t="n">
-        <v>444751.5123532532</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2162,22 +1823,15 @@
         <v>13132.143</v>
       </c>
       <c r="G48" t="n">
-        <v>431619.3693532532</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2199,22 +1853,15 @@
         <v>2111.5494</v>
       </c>
       <c r="G49" t="n">
-        <v>429507.8199532532</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2236,22 +1883,15 @@
         <v>595.1785</v>
       </c>
       <c r="G50" t="n">
-        <v>429507.8199532532</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2273,22 +1913,15 @@
         <v>2384.0086</v>
       </c>
       <c r="G51" t="n">
-        <v>427123.8113532532</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2310,22 +1943,15 @@
         <v>737.9478</v>
       </c>
       <c r="G52" t="n">
-        <v>427861.7591532532</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2347,22 +1973,15 @@
         <v>124.676</v>
       </c>
       <c r="G53" t="n">
-        <v>427861.7591532532</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2384,22 +2003,15 @@
         <v>150342.2387</v>
       </c>
       <c r="G54" t="n">
-        <v>277519.5204532532</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2421,22 +2033,15 @@
         <v>751.9029</v>
       </c>
       <c r="G55" t="n">
-        <v>278271.4233532532</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2458,22 +2063,15 @@
         <v>15638.5986</v>
       </c>
       <c r="G56" t="n">
-        <v>262632.8247532532</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2495,22 +2093,15 @@
         <v>701.2103</v>
       </c>
       <c r="G57" t="n">
-        <v>263334.0350532532</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2532,22 +2123,15 @@
         <v>4727.19</v>
       </c>
       <c r="G58" t="n">
-        <v>268061.2250532532</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2569,22 +2153,15 @@
         <v>47.7081</v>
       </c>
       <c r="G59" t="n">
-        <v>268108.9331532532</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2606,22 +2183,15 @@
         <v>1023.8023</v>
       </c>
       <c r="G60" t="n">
-        <v>267085.1308532532</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2643,22 +2213,15 @@
         <v>295.0495</v>
       </c>
       <c r="G61" t="n">
-        <v>267380.1803532532</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2680,22 +2243,15 @@
         <v>2465</v>
       </c>
       <c r="G62" t="n">
-        <v>264915.1803532532</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2717,22 +2273,15 @@
         <v>12450.8832</v>
       </c>
       <c r="G63" t="n">
-        <v>252464.2971532532</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2754,22 +2303,15 @@
         <v>6590</v>
       </c>
       <c r="G64" t="n">
-        <v>245874.2971532532</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2791,22 +2333,15 @@
         <v>268.8519</v>
       </c>
       <c r="G65" t="n">
-        <v>245605.4452532532</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2828,22 +2363,15 @@
         <v>487</v>
       </c>
       <c r="G66" t="n">
-        <v>245605.4452532532</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2865,22 +2393,15 @@
         <v>118019.9141</v>
       </c>
       <c r="G67" t="n">
-        <v>245605.4452532532</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2902,22 +2423,15 @@
         <v>29038.6956</v>
       </c>
       <c r="G68" t="n">
-        <v>245605.4452532532</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2939,22 +2453,15 @@
         <v>1801.8312</v>
       </c>
       <c r="G69" t="n">
-        <v>247407.2764532532</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2976,22 +2483,15 @@
         <v>19757.2138</v>
       </c>
       <c r="G70" t="n">
-        <v>227650.0626532532</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3013,22 +2513,15 @@
         <v>3060.4219</v>
       </c>
       <c r="G71" t="n">
-        <v>230710.4845532532</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3050,22 +2543,15 @@
         <v>1214.236</v>
       </c>
       <c r="G72" t="n">
-        <v>231924.7205532532</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3087,22 +2573,15 @@
         <v>23000</v>
       </c>
       <c r="G73" t="n">
-        <v>208924.7205532532</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3124,22 +2603,15 @@
         <v>2571</v>
       </c>
       <c r="G74" t="n">
-        <v>211495.7205532532</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3161,22 +2633,15 @@
         <v>7200.8561</v>
       </c>
       <c r="G75" t="n">
-        <v>211495.7205532532</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3198,22 +2663,19 @@
         <v>23000</v>
       </c>
       <c r="G76" t="n">
-        <v>234495.7205532532</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="I76" t="n">
+        <v>67.40000000000001</v>
+      </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3235,22 +2697,23 @@
         <v>1191.6675</v>
       </c>
       <c r="G77" t="n">
-        <v>235687.3880532532</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>67.45999999999999</v>
+      </c>
+      <c r="I77" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3272,22 +2735,23 @@
         <v>3431.2739</v>
       </c>
       <c r="G78" t="n">
-        <v>232256.1141532532</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>67.89</v>
+      </c>
+      <c r="I78" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3309,22 +2773,23 @@
         <v>42441.1862</v>
       </c>
       <c r="G79" t="n">
-        <v>274697.3003532531</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>67.09999999999999</v>
+      </c>
+      <c r="I79" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3346,22 +2811,23 @@
         <v>14706.43548263491</v>
       </c>
       <c r="G80" t="n">
-        <v>289403.7358358881</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>67.43000000000001</v>
+      </c>
+      <c r="I80" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3383,22 +2849,23 @@
         <v>2425.2513</v>
       </c>
       <c r="G81" t="n">
-        <v>286978.4845358881</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>68.01000000000001</v>
+      </c>
+      <c r="I81" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3420,22 +2887,23 @@
         <v>6317.2949</v>
       </c>
       <c r="G82" t="n">
-        <v>280661.1896358881</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>67.98</v>
+      </c>
+      <c r="I82" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3457,22 +2925,23 @@
         <v>5586.1539</v>
       </c>
       <c r="G83" t="n">
-        <v>275075.0357358881</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>67.5</v>
+      </c>
+      <c r="I83" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3494,22 +2963,23 @@
         <v>3800</v>
       </c>
       <c r="G84" t="n">
-        <v>278875.0357358881</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>67.36</v>
+      </c>
+      <c r="I84" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3531,22 +3001,23 @@
         <v>1315.7759</v>
       </c>
       <c r="G85" t="n">
-        <v>280190.8116358881</v>
+        <v>1</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>68</v>
+      </c>
+      <c r="I85" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3568,22 +3039,23 @@
         <v>2413.4214</v>
       </c>
       <c r="G86" t="n">
-        <v>277777.3902358881</v>
+        <v>1</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>68.09999999999999</v>
+      </c>
+      <c r="I86" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3605,22 +3077,21 @@
         <v>991.3283</v>
       </c>
       <c r="G87" t="n">
-        <v>277777.3902358881</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3642,22 +3113,21 @@
         <v>462.476</v>
       </c>
       <c r="G88" t="n">
-        <v>277777.3902358881</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3679,22 +3149,21 @@
         <v>517.0488</v>
       </c>
       <c r="G89" t="n">
-        <v>277777.3902358881</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3716,22 +3185,21 @@
         <v>897.7068</v>
       </c>
       <c r="G90" t="n">
-        <v>277777.3902358881</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3753,22 +3221,21 @@
         <v>11501.8641</v>
       </c>
       <c r="G91" t="n">
-        <v>266275.5261358881</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3790,22 +3257,21 @@
         <v>833.9897999999999</v>
       </c>
       <c r="G92" t="n">
-        <v>266275.5261358881</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3827,24 +3293,21 @@
         <v>621</v>
       </c>
       <c r="G93" t="n">
-        <v>266275.5261358881</v>
-      </c>
-      <c r="H93" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3866,24 +3329,21 @@
         <v>873.3149</v>
       </c>
       <c r="G94" t="n">
-        <v>266275.5261358881</v>
-      </c>
-      <c r="H94" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3905,24 +3365,21 @@
         <v>1905.277</v>
       </c>
       <c r="G95" t="n">
-        <v>266275.5261358881</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3944,24 +3401,21 @@
         <v>88.46680000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>266363.9929358881</v>
-      </c>
-      <c r="H96" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="n">
-        <v>68.01000000000001</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3983,24 +3437,21 @@
         <v>996.1002</v>
       </c>
       <c r="G97" t="n">
-        <v>266363.9929358881</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="n">
-        <v>68.38</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4022,24 +3473,21 @@
         <v>9700</v>
       </c>
       <c r="G98" t="n">
-        <v>276063.9929358881</v>
-      </c>
-      <c r="H98" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="n">
-        <v>68.38</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4061,24 +3509,21 @@
         <v>1129.9558</v>
       </c>
       <c r="G99" t="n">
-        <v>277193.9487358881</v>
-      </c>
-      <c r="H99" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="n">
-        <v>68.62</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4100,24 +3545,21 @@
         <v>14987.4338</v>
       </c>
       <c r="G100" t="n">
-        <v>292181.3825358881</v>
-      </c>
-      <c r="H100" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="n">
-        <v>68.64</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4139,24 +3581,21 @@
         <v>4823.7835</v>
       </c>
       <c r="G101" t="n">
-        <v>297005.1660358881</v>
-      </c>
-      <c r="H101" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="n">
-        <v>69.18000000000001</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4178,24 +3617,21 @@
         <v>7796.1956</v>
       </c>
       <c r="G102" t="n">
-        <v>289208.9704358882</v>
-      </c>
-      <c r="H102" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="n">
-        <v>69.31999999999999</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4217,24 +3653,21 @@
         <v>808</v>
       </c>
       <c r="G103" t="n">
-        <v>289208.9704358882</v>
-      </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="n">
-        <v>69.3</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4256,22 +3689,21 @@
         <v>6456.7706</v>
       </c>
       <c r="G104" t="n">
-        <v>295665.7410358881</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4293,22 +3725,21 @@
         <v>6610.7466</v>
       </c>
       <c r="G105" t="n">
-        <v>302276.4876358882</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4330,22 +3761,21 @@
         <v>298.288</v>
       </c>
       <c r="G106" t="n">
-        <v>302574.7756358882</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4367,22 +3797,21 @@
         <v>6232.4873</v>
       </c>
       <c r="G107" t="n">
-        <v>296342.2883358882</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4404,22 +3833,21 @@
         <v>500.9508</v>
       </c>
       <c r="G108" t="n">
-        <v>295841.3375358882</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4441,24 +3869,21 @@
         <v>2696.5577</v>
       </c>
       <c r="G109" t="n">
-        <v>295841.3375358882</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4480,24 +3905,21 @@
         <v>715.9964</v>
       </c>
       <c r="G110" t="n">
-        <v>295841.3375358882</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4519,24 +3941,21 @@
         <v>5286.0622</v>
       </c>
       <c r="G111" t="n">
-        <v>295841.3375358882</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4558,24 +3977,21 @@
         <v>1645.1359</v>
       </c>
       <c r="G112" t="n">
-        <v>294196.2016358882</v>
-      </c>
-      <c r="H112" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="n">
-        <v>69.06</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4597,24 +4013,21 @@
         <v>292.0622</v>
       </c>
       <c r="G113" t="n">
-        <v>293904.1394358882</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="n">
-        <v>69</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4636,24 +4049,21 @@
         <v>825.639</v>
       </c>
       <c r="G114" t="n">
-        <v>293078.5004358882</v>
-      </c>
-      <c r="H114" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="n">
-        <v>68.90000000000001</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4675,24 +4085,21 @@
         <v>6137.8</v>
       </c>
       <c r="G115" t="n">
-        <v>299216.3004358882</v>
-      </c>
-      <c r="H115" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4714,24 +4121,21 @@
         <v>298.288</v>
       </c>
       <c r="G116" t="n">
-        <v>299514.5884358882</v>
-      </c>
-      <c r="H116" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4753,24 +4157,21 @@
         <v>36290.7368</v>
       </c>
       <c r="G117" t="n">
-        <v>335805.3252358882</v>
-      </c>
-      <c r="H117" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="n">
-        <v>70.2</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4792,22 +4193,21 @@
         <v>27417.3531</v>
       </c>
       <c r="G118" t="n">
-        <v>335805.3252358882</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4829,22 +4229,21 @@
         <v>37109.7192</v>
       </c>
       <c r="G119" t="n">
-        <v>372915.0444358882</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4866,22 +4265,21 @@
         <v>220286.6907</v>
       </c>
       <c r="G120" t="n">
-        <v>593201.7351358882</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4903,22 +4301,21 @@
         <v>138507.8384</v>
       </c>
       <c r="G121" t="n">
-        <v>731709.5735358882</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4940,22 +4337,21 @@
         <v>37156.0528</v>
       </c>
       <c r="G122" t="n">
-        <v>768865.6263358882</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4977,22 +4373,21 @@
         <v>55159.7276</v>
       </c>
       <c r="G123" t="n">
-        <v>824025.3539358882</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5014,22 +4409,21 @@
         <v>71140.08387348526</v>
       </c>
       <c r="G124" t="n">
-        <v>752885.2700624029</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5051,22 +4445,21 @@
         <v>57008.38162651475</v>
       </c>
       <c r="G125" t="n">
-        <v>695876.8884358882</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5088,22 +4481,21 @@
         <v>9</v>
       </c>
       <c r="G126" t="n">
-        <v>695885.8884358882</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5125,22 +4517,21 @@
         <v>27</v>
       </c>
       <c r="G127" t="n">
-        <v>695858.8884358882</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5162,22 +4553,21 @@
         <v>5526.7604</v>
       </c>
       <c r="G128" t="n">
-        <v>701385.6488358882</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5199,22 +4589,21 @@
         <v>15200.9364</v>
       </c>
       <c r="G129" t="n">
-        <v>716586.5852358883</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5236,22 +4625,21 @@
         <v>107630.9851</v>
       </c>
       <c r="G130" t="n">
-        <v>608955.6001358882</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5273,22 +4661,21 @@
         <v>13428.2033587217</v>
       </c>
       <c r="G131" t="n">
-        <v>622383.8034946099</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5310,22 +4697,21 @@
         <v>32883.5179</v>
       </c>
       <c r="G132" t="n">
-        <v>589500.2855946099</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5347,22 +4733,21 @@
         <v>17520.4783</v>
       </c>
       <c r="G133" t="n">
-        <v>571979.80729461</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5384,22 +4769,21 @@
         <v>10577.0029</v>
       </c>
       <c r="G134" t="n">
-        <v>561402.80439461</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5421,22 +4805,21 @@
         <v>92985.12537348525</v>
       </c>
       <c r="G135" t="n">
-        <v>468417.6790211247</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5458,22 +4841,21 @@
         <v>9724.938599999999</v>
       </c>
       <c r="G136" t="n">
-        <v>458692.7404211247</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5495,22 +4877,21 @@
         <v>50</v>
       </c>
       <c r="G137" t="n">
-        <v>458742.7404211247</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5532,22 +4913,21 @@
         <v>23958.9147</v>
       </c>
       <c r="G138" t="n">
-        <v>482701.6551211248</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5569,22 +4949,21 @@
         <v>5117.5777</v>
       </c>
       <c r="G139" t="n">
-        <v>477584.0774211247</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5606,22 +4985,21 @@
         <v>1208.1143</v>
       </c>
       <c r="G140" t="n">
-        <v>476375.9631211247</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5643,22 +5021,21 @@
         <v>29739.8359</v>
       </c>
       <c r="G141" t="n">
-        <v>476375.9631211247</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5680,22 +5057,21 @@
         <v>18578.6575</v>
       </c>
       <c r="G142" t="n">
-        <v>476375.9631211247</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5717,22 +5093,21 @@
         <v>11.1691</v>
       </c>
       <c r="G143" t="n">
-        <v>476387.1322211247</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5754,22 +5129,21 @@
         <v>27</v>
       </c>
       <c r="G144" t="n">
-        <v>476387.1322211247</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5791,22 +5165,21 @@
         <v>27965.7303</v>
       </c>
       <c r="G145" t="n">
-        <v>448421.4019211247</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5828,22 +5201,21 @@
         <v>17935.7354</v>
       </c>
       <c r="G146" t="n">
-        <v>448421.4019211247</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5865,22 +5237,21 @@
         <v>6120.3193</v>
       </c>
       <c r="G147" t="n">
-        <v>448421.4019211247</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5902,22 +5273,21 @@
         <v>7983.3778</v>
       </c>
       <c r="G148" t="n">
-        <v>440438.0241211247</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5939,22 +5309,21 @@
         <v>22.7856</v>
       </c>
       <c r="G149" t="n">
-        <v>440460.8097211247</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5976,22 +5345,21 @@
         <v>3403.4927</v>
       </c>
       <c r="G150" t="n">
-        <v>437057.3170211247</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6013,22 +5381,21 @@
         <v>22.5224</v>
       </c>
       <c r="G151" t="n">
-        <v>437079.8394211247</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6050,22 +5417,21 @@
         <v>1080</v>
       </c>
       <c r="G152" t="n">
-        <v>435999.8394211247</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6087,22 +5453,21 @@
         <v>16287.7687</v>
       </c>
       <c r="G153" t="n">
-        <v>419712.0707211247</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6124,22 +5489,21 @@
         <v>37012.9439</v>
       </c>
       <c r="G154" t="n">
-        <v>456725.0146211247</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6161,22 +5525,21 @@
         <v>24439.2019</v>
       </c>
       <c r="G155" t="n">
-        <v>481164.2165211247</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6198,22 +5561,21 @@
         <v>13502.226</v>
       </c>
       <c r="G156" t="n">
-        <v>494666.4425211247</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6235,22 +5597,21 @@
         <v>19.4483</v>
       </c>
       <c r="G157" t="n">
-        <v>494666.4425211247</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6272,22 +5633,21 @@
         <v>1593.0566</v>
       </c>
       <c r="G158" t="n">
-        <v>494666.4425211247</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6309,22 +5669,21 @@
         <v>271.3079</v>
       </c>
       <c r="G159" t="n">
-        <v>494395.1346211247</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6346,22 +5705,21 @@
         <v>3000</v>
       </c>
       <c r="G160" t="n">
-        <v>491395.1346211247</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6383,22 +5741,21 @@
         <v>0.2027</v>
       </c>
       <c r="G161" t="n">
-        <v>491395.3373211247</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6420,22 +5777,21 @@
         <v>6659.108</v>
       </c>
       <c r="G162" t="n">
-        <v>498054.4453211247</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6457,22 +5813,21 @@
         <v>31657.2551</v>
       </c>
       <c r="G163" t="n">
-        <v>466397.1902211247</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6494,22 +5849,21 @@
         <v>13521.6743</v>
       </c>
       <c r="G164" t="n">
-        <v>452875.5159211247</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6531,22 +5885,21 @@
         <v>0.0001</v>
       </c>
       <c r="G165" t="n">
-        <v>452875.5160211247</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6568,22 +5921,21 @@
         <v>151.9035</v>
       </c>
       <c r="G166" t="n">
-        <v>452723.6125211247</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6605,22 +5957,21 @@
         <v>16.9599</v>
       </c>
       <c r="G167" t="n">
-        <v>452740.5724211247</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6642,22 +5993,21 @@
         <v>8129.9229</v>
       </c>
       <c r="G168" t="n">
-        <v>460870.4953211247</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6679,22 +6029,21 @@
         <v>12.608</v>
       </c>
       <c r="G169" t="n">
-        <v>460883.1033211247</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6716,22 +6065,21 @@
         <v>11045.3147</v>
       </c>
       <c r="G170" t="n">
-        <v>471928.4180211247</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6753,22 +6101,21 @@
         <v>41864.3479</v>
       </c>
       <c r="G171" t="n">
-        <v>513792.7659211247</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6790,22 +6137,21 @@
         <v>2095.4435</v>
       </c>
       <c r="G172" t="n">
-        <v>513792.7659211247</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6827,22 +6173,21 @@
         <v>32118.6742</v>
       </c>
       <c r="G173" t="n">
-        <v>545911.4401211247</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6864,22 +6209,21 @@
         <v>153837.8859526316</v>
       </c>
       <c r="G174" t="n">
-        <v>699749.3260737563</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6901,22 +6245,21 @@
         <v>15562.4693</v>
       </c>
       <c r="G175" t="n">
-        <v>715311.7953737563</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6938,22 +6281,21 @@
         <v>168816.158</v>
       </c>
       <c r="G176" t="n">
-        <v>884127.9533737563</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6975,22 +6317,21 @@
         <v>84366.03230000001</v>
       </c>
       <c r="G177" t="n">
-        <v>799761.9210737563</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7012,22 +6353,21 @@
         <v>145545.7771748314</v>
       </c>
       <c r="G178" t="n">
-        <v>945307.6982485877</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7049,22 +6389,21 @@
         <v>16261.1821</v>
       </c>
       <c r="G179" t="n">
-        <v>929046.5161485877</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7086,22 +6425,21 @@
         <v>82064.0852</v>
       </c>
       <c r="G180" t="n">
-        <v>1011110.601348588</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7123,22 +6461,21 @@
         <v>37986.9516</v>
       </c>
       <c r="G181" t="n">
-        <v>973123.6497485876</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7160,22 +6497,21 @@
         <v>136018.2922753911</v>
       </c>
       <c r="G182" t="n">
-        <v>1109141.942023979</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7197,20 +6533,21 @@
         <v>36986.1415</v>
       </c>
       <c r="G183" t="n">
-        <v>1072155.800523979</v>
-      </c>
-      <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
       </c>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7232,18 +6569,21 @@
         <v>65505.55802749054</v>
       </c>
       <c r="G184" t="n">
-        <v>1137661.358551469</v>
-      </c>
-      <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7265,18 +6605,23 @@
         <v>45741.33402321298</v>
       </c>
       <c r="G185" t="n">
-        <v>1183402.692574682</v>
-      </c>
-      <c r="H185" t="n">
         <v>2</v>
       </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1.173041543026706</v>
+      </c>
       <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>1.080734218773317</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7298,18 +6643,15 @@
         <v>44918.1907</v>
       </c>
       <c r="G186" t="n">
-        <v>1138484.501874682</v>
-      </c>
-      <c r="H186" t="n">
         <v>2</v>
       </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7331,18 +6673,15 @@
         <v>79908.42329999999</v>
       </c>
       <c r="G187" t="n">
-        <v>1058576.078574683</v>
-      </c>
-      <c r="H187" t="n">
         <v>2</v>
       </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7364,18 +6703,15 @@
         <v>77091.11780000001</v>
       </c>
       <c r="G188" t="n">
-        <v>1135667.196374683</v>
-      </c>
-      <c r="H188" t="n">
         <v>2</v>
       </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7397,18 +6733,15 @@
         <v>67209.80839999999</v>
       </c>
       <c r="G189" t="n">
-        <v>1202877.004774683</v>
-      </c>
-      <c r="H189" t="n">
         <v>2</v>
       </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7430,18 +6763,15 @@
         <v>2407.4164839417</v>
       </c>
       <c r="G190" t="n">
-        <v>1200469.588290741</v>
-      </c>
-      <c r="H190" t="n">
         <v>2</v>
       </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7463,18 +6793,15 @@
         <v>803.73368990312</v>
       </c>
       <c r="G191" t="n">
-        <v>1199665.854600838</v>
-      </c>
-      <c r="H191" t="n">
         <v>2</v>
       </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7496,18 +6823,15 @@
         <v>1735.3487</v>
       </c>
       <c r="G192" t="n">
-        <v>1197930.505900838</v>
-      </c>
-      <c r="H192" t="n">
         <v>2</v>
       </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7529,18 +6853,15 @@
         <v>185691.8218</v>
       </c>
       <c r="G193" t="n">
-        <v>1012238.684100838</v>
-      </c>
-      <c r="H193" t="n">
         <v>2</v>
       </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7562,18 +6883,15 @@
         <v>38926.6884</v>
       </c>
       <c r="G194" t="n">
-        <v>973311.9957008379</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7595,18 +6913,15 @@
         <v>95585.317</v>
       </c>
       <c r="G195" t="n">
-        <v>1068897.312700838</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7628,18 +6943,15 @@
         <v>7424.4357</v>
       </c>
       <c r="G196" t="n">
-        <v>1076321.748400838</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7661,18 +6973,15 @@
         <v>10809.6887</v>
       </c>
       <c r="G197" t="n">
-        <v>1065512.059700838</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7694,18 +7003,15 @@
         <v>573.874</v>
       </c>
       <c r="G198" t="n">
-        <v>1066085.933700838</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7727,18 +7033,15 @@
         <v>6631.4575</v>
       </c>
       <c r="G199" t="n">
-        <v>1066085.933700838</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7760,18 +7063,15 @@
         <v>48046.1351</v>
       </c>
       <c r="G200" t="n">
-        <v>1114132.068800838</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
